--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moyuyanli\Documents\Tencent Files\572490972\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QQFireRecv\HuYanEconomy-0.1.16.mirai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA9D338-8AC0-45BC-98F0-FA1F1E8A06A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0900F24-3FF6-4B4B-A940-8A4447C1C694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="191">
   <si>
     <t>等级</t>
   </si>
@@ -68,42 +68,12 @@
     <t>一根泡烂了的木棍</t>
   </si>
   <si>
-    <t>海草</t>
-  </si>
-  <si>
-    <t>可用于烹饪</t>
-  </si>
-  <si>
     <t>破衣服</t>
   </si>
   <si>
     <t>一件破烂的衣服</t>
   </si>
   <si>
-    <t>绿藻</t>
-  </si>
-  <si>
-    <t>滑溜溜</t>
-  </si>
-  <si>
-    <t>胖次</t>
-  </si>
-  <si>
-    <t>这蓝白相间的三角形织物是什么了？</t>
-  </si>
-  <si>
-    <t>靴子</t>
-  </si>
-  <si>
-    <t>赏金猎人的靴子，没错就是那个赏金猎人！</t>
-  </si>
-  <si>
-    <t>白藻</t>
-  </si>
-  <si>
-    <t>超级滑溜溜</t>
-  </si>
-  <si>
     <t>死鱼</t>
   </si>
   <si>
@@ -161,12 +131,6 @@
     <t>一种在地下湖里能找到的苍白色的盲鱼。</t>
   </si>
   <si>
-    <t>五年高考三年模拟</t>
-  </si>
-  <si>
-    <t>似乎是由一位卷王留下的，但已经湿透了，字迹已经模糊不清</t>
-  </si>
-  <si>
     <t>红鲷鱼</t>
   </si>
   <si>
@@ -194,9 +158,6 @@
     <t>河鲈</t>
   </si>
   <si>
-    <t>一种冬季淡水鱼。</t>
-  </si>
-  <si>
     <t>红鲻鱼</t>
   </si>
   <si>
@@ -311,12 +272,6 @@
     <t>一种住在湖里的受欢迎鱼类。</t>
   </si>
   <si>
-    <t>93式酸素鱼雷</t>
-  </si>
-  <si>
-    <t>岛风酱の20kmの荧☆光☆棒</t>
-  </si>
-  <si>
     <t>大眼鱼</t>
   </si>
   <si>
@@ -335,12 +290,6 @@
     <t>一种住在海里的大型鱼。</t>
   </si>
   <si>
-    <t>中分，背带裤</t>
-  </si>
-  <si>
-    <t>哎呦你干嘛～小黑子，食不食油饼？</t>
-  </si>
-  <si>
     <t>狗鱼</t>
   </si>
   <si>
@@ -407,12 +356,6 @@
     <t>一条鲑鱼，被虚空力量所扭曲。新鲜的肉是墨黑色的，但当暴露于空气中时很快变成粉红色的了。</t>
   </si>
   <si>
-    <t>宁宁起爆器</t>
-  </si>
-  <si>
-    <t>总之不要当着宁宁的面随便乱按啦ciallo~</t>
-  </si>
-  <si>
     <t>河豚</t>
   </si>
   <si>
@@ -479,12 +422,6 @@
     <t>史蒂夫的钓鱼竿(深海眷顾III)</t>
   </si>
   <si>
-    <t>虎纹鲨鱼</t>
-  </si>
-  <si>
-    <t>鱼，好大的鱼，虎纹鲨鱼！</t>
-  </si>
-  <si>
     <t>石鱼</t>
   </si>
   <si>
@@ -497,18 +434,6 @@
     <t>它用发光的拟饵来吸引猎物。</t>
   </si>
   <si>
-    <t>袁华</t>
-  </si>
-  <si>
-    <t>我靠？袁华？</t>
-  </si>
-  <si>
-    <t>远古守护者</t>
-  </si>
-  <si>
-    <t>喜提挖掘疲劳5min</t>
-  </si>
-  <si>
     <t>冰柱鱼</t>
   </si>
   <si>
@@ -527,43 +452,10 @@
     <t>它可以在炽热的岩浆中生存。</t>
   </si>
   <si>
-    <t>心海</t>
-  </si>
-  <si>
-    <t>珊瑚宫的心海</t>
-  </si>
-  <si>
-    <t>RTX 4090Ti 显卡</t>
-  </si>
-  <si>
-    <t>一个进了水的显卡，但万一能用呢？</t>
-  </si>
-  <si>
-    <t>没海晶石估计没法用，只能卖了</t>
-  </si>
-  <si>
-    <t>渔人众执行官</t>
-  </si>
-  <si>
-    <t>你的钓鱼技能上升了（应该</t>
-  </si>
-  <si>
-    <t>鲲鲲</t>
-  </si>
-  <si>
-    <t>附送一个🏀，两条白带</t>
-  </si>
-  <si>
     <t>雌安康鱼</t>
   </si>
   <si>
     <t>会变成美少女的安康鱼，不仅可以食用?</t>
-  </si>
-  <si>
-    <t>心海的鱼子酱</t>
-  </si>
-  <si>
-    <t>嘿嘿嘿~心海~嘿嘿嘿~心海~~~</t>
   </si>
   <si>
     <t>冰川鱼</t>
@@ -594,10 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>潮涌核心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>尺寸1阶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -611,6 +499,203 @@
   </si>
   <si>
     <t>尺寸4阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种冬季淡水鱼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母牌F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母牌B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母牌P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母牌K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母牌T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母牌N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一块奇怪的字母牌，上面只有一个大大的拉丁字母「N」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一块字母牌，甚至还做了烫色，上面是一个拉丁字母「K」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌子上是拉丁字母「F」，正好是你最喜欢的那对CP里姐姐的名字首字母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你最喜欢的那对CP里，妹妹的名字首字母是「B」吧！是「B」对吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个字母「T」，看起来不是铁的……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从水里捞出的牌牌，自带天然水纹，工厂老板说这其实是UV工艺，那个字母是「P」不是「d」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭靴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭臭的靴子，鼻鼻和币币都收到了伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光唇鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小溪里常见的小型淡水鱼，光光的嘴唇可能是因为没鱼可以吻吻吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白条鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁殖能力很强的鱼鱼，但是因为人类活动变濒危了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一颗玻璃珠，怎么被钓上的来呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥鳅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑溜溜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石爬鮡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于味道太鲜美而被大量捕捞的小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先锋植物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是要钓鱼，还是要做叫花鸡？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岛民小心心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神奇的小心心，幸福的来源，据说曾经被盗过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警示灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>看起来像是从某辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>🚓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上掉下来的……</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小心心守护者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又名「土著」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷心大盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别什么都钓好吗？！？！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姐姐的狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>🐶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:？</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +703,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +753,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -691,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,9 +811,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,33 +1127,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O61" sqref="O61"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="9" style="1"/>
     <col min="18" max="18" width="14.33203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="17" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1085,16 +1173,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>6</v>
@@ -1103,15 +1191,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="D2" s="6">
         <v>-1</v>
@@ -1123,19 +1211,19 @@
         <v>25</v>
       </c>
       <c r="G2" s="6">
-        <f>E2</f>
+        <f t="shared" ref="G2:G38" si="0">E2</f>
         <v>25</v>
       </c>
       <c r="H2" s="6">
-        <f>(F2-E2)*0.25+E2</f>
+        <f t="shared" ref="H2:H38" si="1">(F2-E2)*0.25+E2</f>
         <v>25</v>
       </c>
       <c r="I2" s="6">
-        <f>(F2-E2)*0.5+E2</f>
+        <f t="shared" ref="I2:I38" si="2">(F2-E2)*0.5+E2</f>
         <v>25</v>
       </c>
       <c r="J2" s="6">
-        <f>F2</f>
+        <f t="shared" ref="J2:J38" si="3">F2</f>
         <v>25</v>
       </c>
       <c r="K2" s="6">
@@ -1150,10 +1238,10 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1173,19 +1261,19 @@
         <v>10</v>
       </c>
       <c r="G3" s="6">
-        <f>E3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H3" s="6">
-        <f>(F3-E3)*0.25+E3</f>
+        <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
       <c r="I3" s="6">
-        <f>(F3-E3)*0.5+E3</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="J3" s="6">
-        <f>F3</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K3" s="6">
@@ -1197,18 +1285,18 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="T3" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
@@ -1220,19 +1308,19 @@
         <v>30</v>
       </c>
       <c r="G4" s="6">
-        <f>E4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H4" s="6">
-        <f>(F4-E4)*0.25+E4</f>
+        <f t="shared" si="1"/>
         <v>11.25</v>
       </c>
       <c r="I4" s="6">
-        <f>(F4-E4)*0.5+E4</f>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="J4" s="6">
-        <f>F4</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K4" s="6">
@@ -1244,18 +1332,18 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="T4" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -1267,19 +1355,19 @@
         <v>30</v>
       </c>
       <c r="G5" s="6">
-        <f>E5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H5" s="6">
-        <f>(F5-E5)*0.25+E5</f>
+        <f t="shared" si="1"/>
         <v>11.25</v>
       </c>
       <c r="I5" s="6">
-        <f>(F5-E5)*0.5+E5</f>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="J5" s="6">
-        <f>F5</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K5" s="6">
@@ -1291,42 +1379,42 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="T5" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>5</v>
-      </c>
       <c r="F6" s="6">
         <v>30</v>
       </c>
       <c r="G6" s="6">
-        <f>E6</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H6" s="6">
-        <f>(F6-E6)*0.25+E6</f>
-        <v>11.25</v>
+        <f t="shared" si="1"/>
+        <v>22.5</v>
       </c>
       <c r="I6" s="6">
-        <f>(F6-E6)*0.5+E6</f>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="J6" s="6">
-        <f>F6</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K6" s="6">
@@ -1338,39 +1426,39 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="D7" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F7" s="6">
         <v>30</v>
       </c>
       <c r="G7" s="6">
-        <f>E7</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="H7" s="6">
-        <f>(F7-E7)*0.25+E7</f>
-        <v>22.5</v>
+        <f t="shared" si="1"/>
+        <v>11.25</v>
       </c>
       <c r="I7" s="6">
-        <f>(F7-E7)*0.5+E7</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>17.5</v>
       </c>
       <c r="J7" s="6">
-        <f>F7</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K7" s="6">
@@ -1382,265 +1470,267 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K8" s="6">
         <v>10</v>
-      </c>
-      <c r="E8" s="6">
-        <v>20</v>
-      </c>
-      <c r="F8" s="6">
-        <v>30</v>
-      </c>
-      <c r="G8" s="6">
-        <f>E8</f>
-        <v>20</v>
-      </c>
-      <c r="H8" s="6">
-        <f>(F8-E8)*0.25+E8</f>
-        <v>22.5</v>
-      </c>
-      <c r="I8" s="6">
-        <f>(F8-E8)*0.5+E8</f>
-        <v>25</v>
-      </c>
-      <c r="J8" s="6">
-        <f>F8</f>
-        <v>30</v>
-      </c>
-      <c r="K8" s="6">
-        <v>100</v>
       </c>
       <c r="L8" s="6" t="b">
         <v>1</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="D9" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F9" s="6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="6">
-        <f>E9</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="H9" s="6">
-        <f>(F9-E9)*0.25+E9</f>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>22.5</v>
       </c>
       <c r="I9" s="6">
-        <f>(F9-E9)*0.5+E9</f>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="J9" s="6">
-        <f>F9</f>
-        <v>43</v>
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="K9" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9"/>
-      <c r="P9"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="D10" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F10" s="6">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G10" s="6">
-        <f>E10</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="H10" s="6">
-        <f>(F10-E10)*0.25+E10</f>
-        <v>10.5</v>
+        <f t="shared" si="1"/>
+        <v>9.75</v>
       </c>
       <c r="I10" s="6">
-        <f>(F10-E10)*0.5+E10</f>
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="J10" s="6">
-        <f>F10</f>
-        <v>33</v>
-      </c>
       <c r="K10" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10"/>
-      <c r="P10"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6">
+        <v>30</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="D11" s="6">
-        <v>-20</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="J11" s="6">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="K11" s="6">
+        <v>80</v>
+      </c>
+      <c r="L11" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <f>E11</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <f>(F11-E11)*0.25+E11</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <f>(F11-E11)*0.5+E11</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
-        <f>F11</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>50</v>
-      </c>
-      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11"/>
-      <c r="P11"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D12" s="6">
         <v>3</v>
       </c>
       <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>43</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F12" s="6">
-        <v>41</v>
-      </c>
-      <c r="G12" s="6">
-        <f>E12</f>
-        <v>13</v>
-      </c>
-      <c r="H12" s="6">
-        <f>(F12-E12)*0.25+E12</f>
-        <v>20</v>
-      </c>
       <c r="I12" s="6">
-        <f>(F12-E12)*0.5+E12</f>
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="J12" s="6">
-        <f>F12</f>
-        <v>41</v>
+        <f t="shared" si="3"/>
+        <v>43</v>
       </c>
       <c r="K12" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12"/>
-      <c r="P12"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F13" s="6">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G13" s="6">
-        <f>E13</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="H13" s="6">
-        <f>(F13-E13)*0.25+E13</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>10.5</v>
       </c>
       <c r="I13" s="6">
-        <f>(F13-E13)*0.5+E13</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="J13" s="6">
-        <f>F13</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
       </c>
       <c r="K13" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1648,43 +1738,43 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D14" s="6">
-        <v>3</v>
+        <v>-20</v>
       </c>
       <c r="E14" s="6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F14" s="6">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="G14" s="6">
-        <f>E14</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H14" s="6">
-        <f>(F14-E14)*0.25+E14</f>
-        <v>28.25</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I14" s="6">
-        <f>(F14-E14)*0.5+E14</f>
-        <v>36.5</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J14" s="6">
-        <f>F14</f>
-        <v>53</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K14" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -1692,43 +1782,43 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="E15" s="6">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F15" s="6">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="G15" s="6">
-        <f>E15</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="H15" s="6">
-        <f>(F15-E15)*0.25+E15</f>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="I15" s="6">
-        <f>(F15-E15)*0.5+E15</f>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="J15" s="6">
-        <f>F15</f>
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>41</v>
       </c>
       <c r="K15" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1736,2183 +1826,2177 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D16" s="6">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="E16" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F16" s="6">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="G16" s="6">
-        <f>E16</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="H16" s="6">
-        <f>(F16-E16)*0.25+E16</f>
-        <v>42.25</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="I16" s="6">
-        <f>(F16-E16)*0.5+E16</f>
-        <v>54.5</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="J16" s="6">
-        <f>F16</f>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="K16" s="6">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D17" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F17" s="6">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="G17" s="6">
-        <f>E17</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H17" s="6">
-        <f>(F17-E17)*0.25+E17</f>
-        <v>41.5</v>
+        <f t="shared" si="1"/>
+        <v>28.25</v>
       </c>
       <c r="I17" s="6">
-        <f>(F17-E17)*0.5+E17</f>
-        <v>58</v>
+        <f t="shared" si="2"/>
+        <v>36.5</v>
       </c>
       <c r="J17" s="6">
-        <f>F17</f>
-        <v>91</v>
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
       <c r="K17" s="6">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
       </c>
       <c r="E18" s="6">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F18" s="6">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="G18" s="6">
-        <f>E18</f>
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="H18" s="6">
-        <f>(F18-E18)*0.25+E18</f>
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="I18" s="6">
-        <f>(F18-E18)*0.5+E18</f>
-        <v>84</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="J18" s="6">
-        <f>F18</f>
-        <v>130</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="K18" s="6">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="6">
         <v>3</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="6">
-        <v>7</v>
-      </c>
       <c r="E19" s="6">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F19" s="6">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="G19" s="6">
-        <f>E19</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="H19" s="6">
-        <f>(F19-E19)*0.25+E19</f>
-        <v>19.25</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="I19" s="6">
-        <f>(F19-E19)*0.5+E19</f>
-        <v>30.5</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
       </c>
       <c r="J19" s="6">
-        <f>F19</f>
-        <v>53</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="K19" s="6">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D20" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F20" s="6">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G20" s="6">
-        <f>E20</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="H20" s="6">
-        <f>(F20-E20)*0.25+E20</f>
-        <v>31.5</v>
+        <f t="shared" si="1"/>
+        <v>42.25</v>
       </c>
       <c r="I20" s="6">
-        <f>(F20-E20)*0.5+E20</f>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>54.5</v>
       </c>
       <c r="J20" s="6">
-        <f>F20</f>
-        <v>66</v>
+        <f t="shared" si="3"/>
+        <v>79</v>
       </c>
       <c r="K20" s="6">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O20"/>
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D21" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F21" s="6">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G21" s="6">
-        <f>E21</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="H21" s="6">
-        <f>(F21-E21)*0.25+E21</f>
-        <v>38.5</v>
+        <f t="shared" si="1"/>
+        <v>41.5</v>
       </c>
       <c r="I21" s="6">
-        <f>(F21-E21)*0.5+E21</f>
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>58</v>
       </c>
       <c r="J21" s="6">
-        <f>F21</f>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>91</v>
       </c>
       <c r="K21" s="6">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="6">
         <v>3</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="6">
-        <v>5</v>
-      </c>
       <c r="E22" s="6">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F22" s="6">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="G22" s="6">
-        <f>E22</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="H22" s="6">
-        <f>(F22-E22)*0.25+E22</f>
-        <v>38.5</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="I22" s="6">
-        <f>(F22-E22)*0.5+E22</f>
-        <v>47</v>
+        <f t="shared" si="2"/>
+        <v>84</v>
       </c>
       <c r="J22" s="6">
-        <f>F22</f>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>130</v>
       </c>
       <c r="K22" s="6">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>3</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D23" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E23" s="6">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6">
+        <v>30</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" ref="G23" si="4">E23</f>
+        <v>20</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" ref="H23" si="5">(F23-E23)*0.25+E23</f>
+        <v>22.5</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" ref="I23" si="6">(F23-E23)*0.5+E23</f>
         <v>25</v>
       </c>
-      <c r="F23" s="6">
-        <v>64</v>
-      </c>
-      <c r="G23" s="6">
-        <f>E23</f>
-        <v>25</v>
-      </c>
-      <c r="H23" s="6">
-        <f>(F23-E23)*0.25+E23</f>
-        <v>34.75</v>
-      </c>
-      <c r="I23" s="6">
-        <f>(F23-E23)*0.5+E23</f>
-        <v>44.5</v>
-      </c>
       <c r="J23" s="6">
-        <f>F23</f>
-        <v>64</v>
+        <f t="shared" ref="J23" si="7">F23</f>
+        <v>30</v>
       </c>
       <c r="K23" s="6">
-        <v>65</v>
-      </c>
-      <c r="L23" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="L23" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D24" s="6">
         <v>7</v>
       </c>
       <c r="E24" s="6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F24" s="6">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G24" s="6">
-        <f>E24</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="H24" s="6">
-        <f>(F24-E24)*0.25+E24</f>
-        <v>29.5</v>
+        <f t="shared" si="1"/>
+        <v>19.25</v>
       </c>
       <c r="I24" s="6">
-        <f>(F24-E24)*0.5+E24</f>
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>30.5</v>
       </c>
       <c r="J24" s="6">
-        <f>F24</f>
-        <v>58</v>
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
       <c r="K24" s="6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O24"/>
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>3</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D25" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E25" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F25" s="6">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G25" s="6">
-        <f>E25</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H25" s="6">
-        <f>(F25-E25)*0.25+E25</f>
-        <v>26.25</v>
+        <f t="shared" si="1"/>
+        <v>31.5</v>
       </c>
       <c r="I25" s="6">
-        <f>(F25-E25)*0.5+E25</f>
-        <v>37.5</v>
+        <f t="shared" si="2"/>
+        <v>43</v>
       </c>
       <c r="J25" s="6">
-        <f>F25</f>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>66</v>
       </c>
       <c r="K25" s="6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D26" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F26" s="6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G26" s="6">
-        <f>E26</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="H26" s="6">
-        <f>(F26-E26)*0.25+E26</f>
-        <v>35.25</v>
+        <f t="shared" si="1"/>
+        <v>38.5</v>
       </c>
       <c r="I26" s="6">
-        <f>(F26-E26)*0.5+E26</f>
-        <v>45.5</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="J26" s="6">
-        <f>F26</f>
-        <v>66</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
       <c r="K26" s="6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O26"/>
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D27" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E27" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F27" s="6">
         <v>64</v>
       </c>
       <c r="G27" s="6">
-        <f>E27</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="H27" s="6">
-        <f>(F27-E27)*0.25+E27</f>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>38.5</v>
       </c>
       <c r="I27" s="6">
-        <f>(F27-E27)*0.5+E27</f>
-        <v>42</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="J27" s="6">
-        <f>F27</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="K27" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="D28" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28" s="6">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F28" s="6">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G28" s="6">
-        <f>E28</f>
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="H28" s="6">
-        <f>(F28-E28)*0.25+E28</f>
-        <v>40.75</v>
+        <f t="shared" si="1"/>
+        <v>34.75</v>
       </c>
       <c r="I28" s="6">
-        <f>(F28-E28)*0.5+E28</f>
-        <v>53.5</v>
+        <f t="shared" si="2"/>
+        <v>44.5</v>
       </c>
       <c r="J28" s="6">
-        <f>F28</f>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
       <c r="K28" s="6">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O28"/>
+      <c r="P28"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D29" s="6">
         <v>7</v>
       </c>
       <c r="E29" s="6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F29" s="6">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G29" s="6">
-        <f>E29</f>
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H29" s="6">
-        <f>(F29-E29)*0.25+E29</f>
-        <v>40.75</v>
+        <f t="shared" si="1"/>
+        <v>29.5</v>
       </c>
       <c r="I29" s="6">
-        <f>(F29-E29)*0.5+E29</f>
-        <v>53.5</v>
+        <f t="shared" si="2"/>
+        <v>39</v>
       </c>
       <c r="J29" s="6">
-        <f>F29</f>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>58</v>
       </c>
       <c r="K29" s="6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O29"/>
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D30" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F30" s="6">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="G30" s="6">
-        <f>E30</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="H30" s="6">
-        <f>(F30-E30)*0.25+E30</f>
-        <v>42.25</v>
+        <f t="shared" si="1"/>
+        <v>26.25</v>
       </c>
       <c r="I30" s="6">
-        <f>(F30-E30)*0.5+E30</f>
-        <v>54.5</v>
+        <f t="shared" si="2"/>
+        <v>37.5</v>
       </c>
       <c r="J30" s="6">
-        <f>F30</f>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="K30" s="6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D31" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E31" s="6">
         <v>25</v>
       </c>
       <c r="F31" s="6">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G31" s="6">
-        <f>E31</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H31" s="6">
-        <f>(F31-E31)*0.25+E31</f>
-        <v>40.25</v>
+        <f t="shared" si="1"/>
+        <v>35.25</v>
       </c>
       <c r="I31" s="6">
-        <f>(F31-E31)*0.5+E31</f>
-        <v>55.5</v>
+        <f t="shared" si="2"/>
+        <v>45.5</v>
       </c>
       <c r="J31" s="6">
-        <f>F31</f>
-        <v>86</v>
+        <f t="shared" si="3"/>
+        <v>66</v>
       </c>
       <c r="K31" s="6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D32" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E32" s="6">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F32" s="6">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="G32" s="6">
-        <f>E32</f>
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H32" s="6">
-        <f>(F32-E32)*0.25+E32</f>
-        <v>69.25</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="I32" s="6">
-        <f>(F32-E32)*0.5+E32</f>
-        <v>87.5</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
       <c r="J32" s="6">
-        <f>F32</f>
-        <v>124</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
       <c r="K32" s="6">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D33" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="6">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="G33" s="6">
-        <f>E33</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="H33" s="6">
-        <f>(F33-E33)*0.25+E33</f>
+        <f t="shared" si="1"/>
+        <v>40.75</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="2"/>
         <v>53.5</v>
       </c>
-      <c r="I33" s="6">
-        <f>(F33-E33)*0.5+E33</f>
-        <v>77</v>
-      </c>
       <c r="J33" s="6">
-        <f>F33</f>
-        <v>124</v>
+        <f t="shared" si="3"/>
+        <v>79</v>
       </c>
       <c r="K33" s="6">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O33"/>
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D34" s="6">
         <v>7</v>
       </c>
       <c r="E34" s="6">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F34" s="6">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="G34" s="6">
-        <f>E34</f>
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="H34" s="6">
-        <f>(F34-E34)*0.25+E34</f>
-        <v>64.25</v>
+        <f t="shared" si="1"/>
+        <v>40.75</v>
       </c>
       <c r="I34" s="6">
-        <f>(F34-E34)*0.5+E34</f>
-        <v>77.5</v>
+        <f t="shared" si="2"/>
+        <v>53.5</v>
       </c>
       <c r="J34" s="6">
-        <f>F34</f>
-        <v>104</v>
+        <f t="shared" si="3"/>
+        <v>79</v>
       </c>
       <c r="K34" s="6">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O34"/>
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D35" s="6">
-        <v>-50</v>
+        <v>7</v>
       </c>
       <c r="E35" s="6">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F35" s="6">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="G35" s="6">
-        <f>E35</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="H35" s="6">
-        <f>(F35-E35)*0.25+E35</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>42.25</v>
       </c>
       <c r="I35" s="6">
-        <f>(F35-E35)*0.5+E35</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>54.5</v>
       </c>
       <c r="J35" s="6">
-        <f>F35</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>79</v>
       </c>
       <c r="K35" s="6">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O35"/>
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D36" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E36" s="6">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F36" s="6">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="G36" s="6">
-        <f>E36</f>
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="H36" s="6">
-        <f>(F36-E36)*0.25+E36</f>
-        <v>87.75</v>
+        <f t="shared" si="1"/>
+        <v>40.25</v>
       </c>
       <c r="I36" s="6">
-        <f>(F36-E36)*0.5+E36</f>
-        <v>114.5</v>
+        <f t="shared" si="2"/>
+        <v>55.5</v>
       </c>
       <c r="J36" s="6">
-        <f>F36</f>
-        <v>168</v>
+        <f t="shared" si="3"/>
+        <v>86</v>
       </c>
       <c r="K36" s="6">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O36"/>
+      <c r="P36"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D37" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E37" s="6">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F37" s="6">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="G37" s="6">
-        <f>E37</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="H37" s="6">
-        <f>(F37-E37)*0.25+E37</f>
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>69.25</v>
       </c>
       <c r="I37" s="6">
-        <f>(F37-E37)*0.5+E37</f>
-        <v>118</v>
+        <f t="shared" si="2"/>
+        <v>87.5</v>
       </c>
       <c r="J37" s="6">
-        <f>F37</f>
-        <v>206</v>
+        <f t="shared" si="3"/>
+        <v>124</v>
       </c>
       <c r="K37" s="6">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O37"/>
+      <c r="P37"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D38" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38" s="6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F38" s="6">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="G38" s="6">
-        <f>E38</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="H38" s="6">
-        <f>(F38-E38)*0.25+E38</f>
-        <v>48.25</v>
+        <f t="shared" si="1"/>
+        <v>53.5</v>
       </c>
       <c r="I38" s="6">
-        <f>(F38-E38)*0.5+E38</f>
-        <v>93.5</v>
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="J38" s="6">
-        <f>F38</f>
-        <v>184</v>
+        <f t="shared" si="3"/>
+        <v>124</v>
       </c>
       <c r="K38" s="6">
-        <v>50</v>
-      </c>
-      <c r="L38" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O38"/>
+      <c r="P38"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D39" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E39" s="6">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F39" s="6">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="G39" s="6">
-        <f>E39</f>
-        <v>15</v>
+        <f t="shared" ref="G39:G70" si="8">E39</f>
+        <v>51</v>
       </c>
       <c r="H39" s="6">
-        <f>(F39-E39)*0.25+E39</f>
-        <v>16.75</v>
+        <f t="shared" ref="H39:H70" si="9">(F39-E39)*0.25+E39</f>
+        <v>64.25</v>
       </c>
       <c r="I39" s="6">
-        <f>(F39-E39)*0.5+E39</f>
-        <v>18.5</v>
+        <f t="shared" ref="I39:I70" si="10">(F39-E39)*0.5+E39</f>
+        <v>77.5</v>
       </c>
       <c r="J39" s="6">
-        <f>F39</f>
-        <v>22</v>
+        <f t="shared" ref="J39:J70" si="11">F39</f>
+        <v>104</v>
       </c>
       <c r="K39" s="6">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="7"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O39"/>
+      <c r="P39"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D40" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E40" s="6">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F40" s="6">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="G40" s="6">
-        <f>E40</f>
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>61</v>
       </c>
       <c r="H40" s="6">
-        <f>(F40-E40)*0.25+E40</f>
-        <v>19.75</v>
+        <f t="shared" si="9"/>
+        <v>87.75</v>
       </c>
       <c r="I40" s="6">
-        <f>(F40-E40)*0.5+E40</f>
-        <v>21.5</v>
+        <f t="shared" si="10"/>
+        <v>114.5</v>
       </c>
       <c r="J40" s="6">
-        <f>F40</f>
-        <v>25</v>
+        <f t="shared" si="11"/>
+        <v>168</v>
       </c>
       <c r="K40" s="6">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="7"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O40"/>
+      <c r="P40"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D41" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E41" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F41" s="6">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="G41" s="6">
-        <f>E41</f>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
       <c r="H41" s="6">
-        <f>(F41-E41)*0.25+E41</f>
-        <v>23</v>
+        <f t="shared" si="9"/>
+        <v>74</v>
       </c>
       <c r="I41" s="6">
-        <f>(F41-E41)*0.5+E41</f>
-        <v>26</v>
+        <f t="shared" si="10"/>
+        <v>118</v>
       </c>
       <c r="J41" s="6">
-        <f>F41</f>
-        <v>32</v>
+        <f t="shared" si="11"/>
+        <v>206</v>
       </c>
       <c r="K41" s="6">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="7"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O41"/>
+      <c r="P41"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>4</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>84</v>
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D42" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E42" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" s="6">
+        <v>30</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H42" s="6">
+        <f t="shared" si="9"/>
+        <v>22.5</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="G42" s="6">
-        <f>E42</f>
-        <v>21</v>
-      </c>
-      <c r="H42" s="6">
-        <f>(F42-E42)*0.25+E42</f>
-        <v>22</v>
-      </c>
-      <c r="I42" s="6">
-        <f>(F42-E42)*0.5+E42</f>
-        <v>23</v>
-      </c>
       <c r="J42" s="6">
-        <f>F42</f>
-        <v>25</v>
+        <f t="shared" si="11"/>
+        <v>30</v>
       </c>
       <c r="K42" s="6">
-        <v>65</v>
-      </c>
-      <c r="L42" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="L42" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="7"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O42"/>
+      <c r="P42"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="D43" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F43" s="6">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G43" s="6">
         <f>E43</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H43" s="6">
         <f>(F43-E43)*0.25+E43</f>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I43" s="6">
         <f>(F43-E43)*0.5+E43</f>
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J43" s="6">
         <f>F43</f>
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="K43" s="6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="7"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>4</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D44" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E44" s="6">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F44" s="6">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G44" s="6">
-        <f>E44</f>
-        <v>28</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="H44" s="6">
-        <f>(F44-E44)*0.25+E44</f>
-        <v>40.75</v>
+        <f t="shared" si="9"/>
+        <v>16.75</v>
       </c>
       <c r="I44" s="6">
-        <f>(F44-E44)*0.5+E44</f>
-        <v>53.5</v>
+        <f t="shared" si="10"/>
+        <v>18.5</v>
       </c>
       <c r="J44" s="6">
-        <f>F44</f>
-        <v>79</v>
+        <f t="shared" si="11"/>
+        <v>22</v>
       </c>
       <c r="K44" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="7"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O44"/>
+      <c r="P44"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D45" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45" s="6">
+        <v>18</v>
+      </c>
+      <c r="F45" s="6">
         <v>25</v>
       </c>
-      <c r="F45" s="6">
-        <v>104</v>
-      </c>
       <c r="G45" s="6">
-        <f>E45</f>
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="H45" s="6">
+        <f t="shared" si="9"/>
+        <v>19.75</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" si="10"/>
+        <v>21.5</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="H45" s="6">
-        <f>(F45-E45)*0.25+E45</f>
-        <v>44.75</v>
-      </c>
-      <c r="I45" s="6">
-        <f>(F45-E45)*0.5+E45</f>
-        <v>64.5</v>
-      </c>
-      <c r="J45" s="6">
-        <f>F45</f>
-        <v>104</v>
-      </c>
       <c r="K45" s="6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
+      <c r="O45"/>
+      <c r="P45"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>4</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D46" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E46" s="6">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F46" s="6">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="G46" s="6">
-        <f>E46</f>
-        <v>61</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="H46" s="6">
-        <f>(F46-E46)*0.25+E46</f>
-        <v>66.75</v>
+        <f t="shared" si="9"/>
+        <v>23</v>
       </c>
       <c r="I46" s="6">
-        <f>(F46-E46)*0.5+E46</f>
-        <v>72.5</v>
+        <f t="shared" si="10"/>
+        <v>26</v>
       </c>
       <c r="J46" s="6">
-        <f>F46</f>
-        <v>84</v>
+        <f t="shared" si="11"/>
+        <v>32</v>
       </c>
       <c r="K46" s="6">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
+      <c r="O46"/>
+      <c r="P46"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>4</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D47" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E47" s="6">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F47" s="6">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="G47" s="6">
-        <f>E47</f>
-        <v>37</v>
+        <f t="shared" si="8"/>
+        <v>21</v>
       </c>
       <c r="H47" s="6">
-        <f>(F47-E47)*0.25+E47</f>
-        <v>52</v>
+        <f t="shared" si="9"/>
+        <v>22</v>
       </c>
       <c r="I47" s="6">
-        <f>(F47-E47)*0.5+E47</f>
-        <v>67</v>
+        <f t="shared" si="10"/>
+        <v>23</v>
       </c>
       <c r="J47" s="6">
-        <f>F47</f>
-        <v>97</v>
+        <f t="shared" si="11"/>
+        <v>25</v>
       </c>
       <c r="K47" s="6">
-        <v>100</v>
-      </c>
-      <c r="L47" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
+      <c r="O47"/>
+      <c r="P47"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>4</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D48" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E48" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F48" s="6">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="G48" s="6">
-        <f>E48</f>
-        <v>30</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="H48" s="6">
-        <f>(F48-E48)*0.25+E48</f>
-        <v>61.25</v>
+        <f t="shared" si="9"/>
+        <v>31</v>
       </c>
       <c r="I48" s="6">
-        <f>(F48-E48)*0.5+E48</f>
-        <v>92.5</v>
+        <f t="shared" si="10"/>
+        <v>42</v>
       </c>
       <c r="J48" s="6">
-        <f>F48</f>
-        <v>155</v>
+        <f t="shared" si="11"/>
+        <v>64</v>
       </c>
       <c r="K48" s="6">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
+      <c r="O48"/>
+      <c r="P48"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>4</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D49" s="6">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E49" s="6">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F49" s="6">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="G49" s="6">
-        <f>E49</f>
-        <v>38</v>
+        <f t="shared" si="8"/>
+        <v>28</v>
       </c>
       <c r="H49" s="6">
-        <f>(F49-E49)*0.25+E49</f>
-        <v>67.25</v>
+        <f t="shared" si="9"/>
+        <v>40.75</v>
       </c>
       <c r="I49" s="6">
-        <f>(F49-E49)*0.5+E49</f>
-        <v>96.5</v>
+        <f t="shared" si="10"/>
+        <v>53.5</v>
       </c>
       <c r="J49" s="6">
-        <f>F49</f>
-        <v>155</v>
+        <f t="shared" si="11"/>
+        <v>79</v>
       </c>
       <c r="K49" s="6">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
+      <c r="O49"/>
+      <c r="P49"/>
       <c r="Q49" s="7"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>4</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="6">
+        <v>14</v>
+      </c>
+      <c r="E50" s="6">
+        <v>25</v>
+      </c>
+      <c r="F50" s="6">
         <v>104</v>
       </c>
-      <c r="D50" s="6">
-        <v>19</v>
-      </c>
-      <c r="E50" s="6">
-        <v>76</v>
-      </c>
-      <c r="F50" s="6">
-        <v>130</v>
-      </c>
       <c r="G50" s="6">
-        <f>E50</f>
-        <v>76</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="H50" s="6">
-        <f>(F50-E50)*0.25+E50</f>
-        <v>89.5</v>
+        <f t="shared" si="9"/>
+        <v>44.75</v>
       </c>
       <c r="I50" s="6">
-        <f>(F50-E50)*0.5+E50</f>
-        <v>103</v>
+        <f t="shared" si="10"/>
+        <v>64.5</v>
       </c>
       <c r="J50" s="6">
-        <f>F50</f>
-        <v>130</v>
+        <f t="shared" si="11"/>
+        <v>104</v>
       </c>
       <c r="K50" s="6">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
+      <c r="O50"/>
+      <c r="P50"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D51" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E51" s="6">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F51" s="6">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="G51" s="6">
-        <f>E51</f>
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>61</v>
       </c>
       <c r="H51" s="6">
-        <f>(F51-E51)*0.25+E51</f>
-        <v>10.5</v>
+        <f t="shared" si="9"/>
+        <v>66.75</v>
       </c>
       <c r="I51" s="6">
-        <f>(F51-E51)*0.5+E51</f>
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>72.5</v>
       </c>
       <c r="J51" s="6">
-        <f>F51</f>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>84</v>
       </c>
       <c r="K51" s="6">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
+      <c r="O51"/>
+      <c r="P51"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="D52" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E52" s="6">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F52" s="6">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="G52" s="6">
-        <f>E52</f>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
       <c r="H52" s="6">
-        <f>(F52-E52)*0.25+E52</f>
-        <v>22</v>
+        <f t="shared" si="9"/>
+        <v>61.25</v>
       </c>
       <c r="I52" s="6">
-        <f>(F52-E52)*0.5+E52</f>
-        <v>32</v>
+        <f t="shared" si="10"/>
+        <v>92.5</v>
       </c>
       <c r="J52" s="6">
-        <f>F52</f>
-        <v>52</v>
+        <f t="shared" si="11"/>
+        <v>155</v>
       </c>
       <c r="K52" s="6">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
+      <c r="O52"/>
+      <c r="P52"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C53" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="6">
+        <v>18</v>
+      </c>
+      <c r="E53" s="6">
+        <v>38</v>
+      </c>
+      <c r="F53" s="6">
+        <v>155</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="H53" s="6">
+        <f t="shared" si="9"/>
+        <v>67.25</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="10"/>
+        <v>96.5</v>
+      </c>
+      <c r="J53" s="6">
+        <f t="shared" si="11"/>
+        <v>155</v>
+      </c>
+      <c r="K53" s="6">
         <v>110</v>
-      </c>
-      <c r="D53" s="6">
-        <v>22</v>
-      </c>
-      <c r="E53" s="6">
-        <v>10</v>
-      </c>
-      <c r="F53" s="6">
-        <v>13</v>
-      </c>
-      <c r="G53" s="6">
-        <f>E53</f>
-        <v>10</v>
-      </c>
-      <c r="H53" s="6">
-        <f>(F53-E53)*0.25+E53</f>
-        <v>10.75</v>
-      </c>
-      <c r="I53" s="6">
-        <f>(F53-E53)*0.5+E53</f>
-        <v>11.5</v>
-      </c>
-      <c r="J53" s="6">
-        <f>F53</f>
-        <v>13</v>
-      </c>
-      <c r="K53" s="6">
-        <v>60</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
+      <c r="O53"/>
+      <c r="P53"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D54" s="6">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E54" s="6">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F54" s="6">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="G54" s="6">
-        <f>E54</f>
-        <v>25</v>
+        <f t="shared" si="8"/>
+        <v>76</v>
       </c>
       <c r="H54" s="6">
-        <f>(F54-E54)*0.25+E54</f>
-        <v>32</v>
+        <f t="shared" si="9"/>
+        <v>89.5</v>
       </c>
       <c r="I54" s="6">
-        <f>(F54-E54)*0.5+E54</f>
-        <v>39</v>
+        <f t="shared" si="10"/>
+        <v>103</v>
       </c>
       <c r="J54" s="6">
-        <f>F54</f>
-        <v>53</v>
+        <f t="shared" si="11"/>
+        <v>130</v>
       </c>
       <c r="K54" s="6">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
+      <c r="O54"/>
+      <c r="P54"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>20</v>
+      </c>
+      <c r="F55" s="6">
+        <v>30</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H55" s="6">
+        <f t="shared" si="9"/>
+        <v>22.5</v>
+      </c>
+      <c r="I55" s="6">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="E55" s="6">
-        <v>10</v>
-      </c>
-      <c r="F55" s="6">
-        <v>12</v>
-      </c>
-      <c r="G55" s="6">
-        <f>E55</f>
-        <v>10</v>
-      </c>
-      <c r="H55" s="6">
-        <f>(F55-E55)*0.25+E55</f>
-        <v>10.5</v>
-      </c>
-      <c r="I55" s="6">
-        <f>(F55-E55)*0.5+E55</f>
-        <v>11</v>
-      </c>
       <c r="J55" s="6">
-        <f>F55</f>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>30</v>
       </c>
       <c r="K55" s="6">
-        <v>75</v>
-      </c>
-      <c r="L55" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="L55" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
+      <c r="O55"/>
+      <c r="P55"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>5</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D56" s="6">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E56" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F56" s="6">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G56" s="6">
-        <f>E56</f>
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="H56" s="6">
-        <f>(F56-E56)*0.25+E56</f>
-        <v>28.75</v>
+        <f t="shared" si="9"/>
+        <v>10.5</v>
       </c>
       <c r="I56" s="6">
-        <f>(F56-E56)*0.5+E56</f>
-        <v>39.5</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="J56" s="6">
-        <f>F56</f>
-        <v>61</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="K56" s="6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
+      <c r="O56"/>
+      <c r="P56"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D57" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E57" s="6">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F57" s="6">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G57" s="6">
-        <f>E57</f>
-        <v>30</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="H57" s="6">
-        <f>(F57-E57)*0.25+E57</f>
-        <v>43.5</v>
+        <f t="shared" si="9"/>
+        <v>22</v>
       </c>
       <c r="I57" s="6">
-        <f>(F57-E57)*0.5+E57</f>
-        <v>57</v>
+        <f t="shared" si="10"/>
+        <v>32</v>
       </c>
       <c r="J57" s="6">
-        <f>F57</f>
-        <v>84</v>
+        <f t="shared" si="11"/>
+        <v>52</v>
       </c>
       <c r="K57" s="6">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
+      <c r="O57"/>
+      <c r="P57"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>5</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D58" s="6">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E58" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F58" s="6">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="G58" s="6">
-        <f>E58</f>
-        <v>30</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="H58" s="6">
-        <f>(F58-E58)*0.25+E58</f>
-        <v>53.5</v>
+        <f t="shared" si="9"/>
+        <v>10.75</v>
       </c>
       <c r="I58" s="6">
-        <f>(F58-E58)*0.5+E58</f>
-        <v>77</v>
+        <f t="shared" si="10"/>
+        <v>11.5</v>
       </c>
       <c r="J58" s="6">
-        <f>F58</f>
-        <v>124</v>
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
       <c r="K58" s="6">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
+      <c r="O58"/>
+      <c r="P58"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>5</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D59" s="6">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E59" s="6">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F59" s="6">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="G59" s="6">
-        <f>E59</f>
-        <v>61</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="H59" s="6">
-        <f>(F59-E59)*0.25+E59</f>
-        <v>87</v>
+        <f t="shared" si="9"/>
+        <v>32</v>
       </c>
       <c r="I59" s="6">
-        <f>(F59-E59)*0.5+E59</f>
-        <v>113</v>
+        <f t="shared" si="10"/>
+        <v>39</v>
       </c>
       <c r="J59" s="6">
-        <f>F59</f>
-        <v>165</v>
+        <f t="shared" si="11"/>
+        <v>53</v>
       </c>
       <c r="K59" s="6">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
+      <c r="O59"/>
+      <c r="P59"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="D60" s="6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E60" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F60" s="6">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="G60" s="6">
-        <f>E60</f>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="H60" s="6">
-        <f>(F60-E60)*0.25+E60</f>
-        <v>25.75</v>
+        <f t="shared" si="9"/>
+        <v>10.5</v>
       </c>
       <c r="I60" s="6">
-        <f>(F60-E60)*0.5+E60</f>
-        <v>48.5</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="J60" s="6">
-        <f>F60</f>
-        <v>94</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="K60" s="6">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
+      <c r="O60"/>
+      <c r="P60"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="D61" s="6">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E61" s="6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F61" s="6">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="G61" s="6">
-        <f>E61</f>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>18</v>
       </c>
       <c r="H61" s="6">
-        <f>(F61-E61)*0.25+E61</f>
-        <v>6.25</v>
+        <f t="shared" si="9"/>
+        <v>28.75</v>
       </c>
       <c r="I61" s="6">
-        <f>(F61-E61)*0.5+E61</f>
-        <v>7.5</v>
+        <f t="shared" si="10"/>
+        <v>39.5</v>
       </c>
       <c r="J61" s="6">
-        <f>F61</f>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>61</v>
       </c>
       <c r="K61" s="6">
-        <v>120</v>
-      </c>
-      <c r="L61" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
+      <c r="O61"/>
+      <c r="P61"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="D62" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E62" s="6">
         <v>30</v>
       </c>
       <c r="F62" s="6">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="G62" s="6">
-        <f>E62</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="H62" s="6">
-        <f>(F62-E62)*0.25+E62</f>
-        <v>61.25</v>
+        <f t="shared" si="9"/>
+        <v>43.5</v>
       </c>
       <c r="I62" s="6">
-        <f>(F62-E62)*0.5+E62</f>
-        <v>92.5</v>
+        <f t="shared" si="10"/>
+        <v>57</v>
       </c>
       <c r="J62" s="6">
-        <f>F62</f>
-        <v>155</v>
+        <f t="shared" si="11"/>
+        <v>84</v>
       </c>
       <c r="K62" s="6">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
+      <c r="O62"/>
+      <c r="P62"/>
       <c r="Q62" s="7"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="D63" s="6">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E63" s="6">
         <v>30</v>
       </c>
       <c r="F63" s="6">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="G63" s="6">
-        <f>E63</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="H63" s="6">
-        <f>(F63-E63)*0.25+E63</f>
-        <v>68.75</v>
+        <f t="shared" si="9"/>
+        <v>53.5</v>
       </c>
       <c r="I63" s="6">
-        <f>(F63-E63)*0.5+E63</f>
-        <v>107.5</v>
+        <f t="shared" si="10"/>
+        <v>77</v>
       </c>
       <c r="J63" s="6">
-        <f>F63</f>
-        <v>185</v>
+        <f t="shared" si="11"/>
+        <v>124</v>
       </c>
       <c r="K63" s="6">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
+      <c r="O63"/>
+      <c r="P63"/>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D64" s="6">
-        <v>-20</v>
+        <v>34</v>
       </c>
       <c r="E64" s="6">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F64" s="6">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="G64" s="6">
-        <f>E64</f>
-        <v>30</v>
+        <f t="shared" si="8"/>
+        <v>61</v>
       </c>
       <c r="H64" s="6">
-        <f>(F64-E64)*0.25+E64</f>
-        <v>43.75</v>
+        <f t="shared" si="9"/>
+        <v>87</v>
       </c>
       <c r="I64" s="6">
-        <f>(F64-E64)*0.5+E64</f>
-        <v>57.5</v>
+        <f t="shared" si="10"/>
+        <v>113</v>
       </c>
       <c r="J64" s="6">
-        <f>F64</f>
-        <v>85</v>
+        <f t="shared" si="11"/>
+        <v>165</v>
       </c>
       <c r="K64" s="6">
         <v>150</v>
@@ -3920,1053 +4004,1058 @@
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
+      <c r="O64"/>
+      <c r="P64"/>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>6</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>130</v>
+        <v>5</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D65" s="6">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E65" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F65" s="6">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G65" s="6">
-        <f>E65</f>
-        <v>50</v>
+        <f t="shared" ref="G65" si="12">E65</f>
+        <v>20</v>
       </c>
       <c r="H65" s="6">
-        <f>(F65-E65)*0.25+E65</f>
-        <v>57.5</v>
+        <f t="shared" ref="H65" si="13">(F65-E65)*0.25+E65</f>
+        <v>22.5</v>
       </c>
       <c r="I65" s="6">
-        <f>(F65-E65)*0.5+E65</f>
-        <v>65</v>
+        <f t="shared" ref="I65" si="14">(F65-E65)*0.5+E65</f>
+        <v>25</v>
       </c>
       <c r="J65" s="6">
-        <f>F65</f>
-        <v>80</v>
+        <f t="shared" ref="J65" si="15">F65</f>
+        <v>30</v>
       </c>
       <c r="K65" s="6">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="L65" s="6" t="b">
         <v>1</v>
       </c>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
+      <c r="O65"/>
+      <c r="P65"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>6</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="D66" s="6">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E66" s="6">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F66" s="6">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G66" s="6">
-        <f>E66</f>
-        <v>50</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="H66" s="6">
-        <f>(F66-E66)*0.25+E66</f>
-        <v>60</v>
+        <f t="shared" si="9"/>
+        <v>25.75</v>
       </c>
       <c r="I66" s="6">
-        <f>(F66-E66)*0.5+E66</f>
-        <v>70</v>
+        <f t="shared" si="10"/>
+        <v>48.5</v>
       </c>
       <c r="J66" s="6">
-        <f>F66</f>
-        <v>90</v>
+        <f t="shared" si="11"/>
+        <v>94</v>
       </c>
       <c r="K66" s="6">
-        <v>180</v>
-      </c>
-      <c r="L66" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
+      <c r="O66"/>
+      <c r="P66"/>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>6</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D67" s="6">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E67" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F67" s="6">
+        <v>155</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="H67" s="6">
+        <f t="shared" si="9"/>
+        <v>61.25</v>
+      </c>
+      <c r="I67" s="6">
+        <f t="shared" si="10"/>
+        <v>92.5</v>
+      </c>
+      <c r="J67" s="6">
+        <f t="shared" si="11"/>
+        <v>155</v>
+      </c>
+      <c r="K67" s="6">
         <v>120</v>
       </c>
-      <c r="G67" s="6">
-        <f>E67</f>
-        <v>60</v>
-      </c>
-      <c r="H67" s="6">
-        <f>(F67-E67)*0.25+E67</f>
-        <v>75</v>
-      </c>
-      <c r="I67" s="6">
-        <f>(F67-E67)*0.5+E67</f>
-        <v>90</v>
-      </c>
-      <c r="J67" s="6">
-        <f>F67</f>
-        <v>120</v>
-      </c>
-      <c r="K67" s="6">
-        <v>180</v>
-      </c>
-      <c r="L67" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
+      <c r="O67"/>
+      <c r="P67"/>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="D68" s="6">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E68" s="6">
         <v>30</v>
       </c>
       <c r="F68" s="6">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="G68" s="6">
-        <f>E68</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="H68" s="6">
-        <f>(F68-E68)*0.25+E68</f>
-        <v>38.5</v>
+        <f t="shared" si="9"/>
+        <v>68.75</v>
       </c>
       <c r="I68" s="6">
-        <f>(F68-E68)*0.5+E68</f>
-        <v>47</v>
+        <f t="shared" si="10"/>
+        <v>107.5</v>
       </c>
       <c r="J68" s="6">
-        <f>F68</f>
-        <v>64</v>
+        <f t="shared" si="11"/>
+        <v>185</v>
       </c>
       <c r="K68" s="6">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
+      <c r="O68"/>
+      <c r="P68"/>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D69" s="6">
-        <v>60</v>
+        <v>-20</v>
       </c>
       <c r="E69" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F69" s="6">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G69" s="6">
-        <f>E69</f>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
       <c r="H69" s="6">
-        <f>(F69-E69)*0.25+E69</f>
-        <v>31</v>
+        <f t="shared" si="9"/>
+        <v>43.75</v>
       </c>
       <c r="I69" s="6">
-        <f>(F69-E69)*0.5+E69</f>
-        <v>42</v>
+        <f t="shared" si="10"/>
+        <v>57.5</v>
       </c>
       <c r="J69" s="6">
-        <f>F69</f>
-        <v>64</v>
+        <f t="shared" si="11"/>
+        <v>85</v>
       </c>
       <c r="K69" s="6">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69" s="7"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D70" s="6">
+        <v>58</v>
+      </c>
+      <c r="E70" s="6">
+        <v>50</v>
+      </c>
+      <c r="F70" s="6">
+        <v>80</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="H70" s="6">
+        <f t="shared" si="9"/>
+        <v>57.5</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="E70" s="6">
-        <v>30</v>
-      </c>
-      <c r="F70" s="6">
-        <v>94</v>
-      </c>
-      <c r="G70" s="6">
-        <f>E70</f>
-        <v>30</v>
-      </c>
-      <c r="H70" s="6">
-        <f>(F70-E70)*0.25+E70</f>
-        <v>46</v>
-      </c>
-      <c r="I70" s="6">
-        <f>(F70-E70)*0.5+E70</f>
-        <v>62</v>
-      </c>
       <c r="J70" s="6">
-        <f>F70</f>
-        <v>94</v>
+        <f t="shared" si="11"/>
+        <v>80</v>
       </c>
       <c r="K70" s="6">
-        <v>145</v>
-      </c>
-      <c r="L70" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="L70" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70" s="7"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="D71" s="6">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E71" s="6">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F71" s="6">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="G71" s="6">
-        <f>E71</f>
-        <v>5</v>
+        <f t="shared" ref="G71:G88" si="16">E71</f>
+        <v>50</v>
       </c>
       <c r="H71" s="6">
-        <f>(F71-E71)*0.25+E71</f>
-        <v>12.5</v>
+        <f t="shared" ref="H71:H88" si="17">(F71-E71)*0.25+E71</f>
+        <v>60</v>
       </c>
       <c r="I71" s="6">
-        <f>(F71-E71)*0.5+E71</f>
-        <v>20</v>
+        <f t="shared" ref="I71:I88" si="18">(F71-E71)*0.5+E71</f>
+        <v>70</v>
       </c>
       <c r="J71" s="6">
-        <f>F71</f>
-        <v>35</v>
+        <f t="shared" ref="J71:J88" si="19">F71</f>
+        <v>90</v>
       </c>
       <c r="K71" s="6">
-        <v>80</v>
-      </c>
-      <c r="L71" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="L71" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71" s="7"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="D72" s="6">
+        <v>58</v>
+      </c>
+      <c r="E72" s="6">
+        <v>60</v>
+      </c>
+      <c r="F72" s="6">
+        <v>120</v>
+      </c>
+      <c r="G72" s="6">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="H72" s="6">
+        <f t="shared" si="17"/>
         <v>75</v>
       </c>
-      <c r="E72" s="6">
-        <v>14</v>
-      </c>
-      <c r="F72" s="6">
-        <v>20</v>
-      </c>
-      <c r="G72" s="6">
-        <f>E72</f>
-        <v>14</v>
-      </c>
-      <c r="H72" s="6">
-        <f>(F72-E72)*0.25+E72</f>
-        <v>15.5</v>
-      </c>
       <c r="I72" s="6">
-        <f>(F72-E72)*0.5+E72</f>
-        <v>17</v>
+        <f t="shared" si="18"/>
+        <v>90</v>
       </c>
       <c r="J72" s="6">
-        <f>F72</f>
-        <v>20</v>
+        <f t="shared" si="19"/>
+        <v>120</v>
       </c>
       <c r="K72" s="6">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="L72" s="6" t="b">
         <v>1</v>
       </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72" s="7"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>8</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>150</v>
+        <v>6</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D73" s="6">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E73" s="6">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F73" s="6">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="G73" s="6">
-        <f>E73</f>
-        <v>36</v>
+        <f t="shared" si="16"/>
+        <v>20</v>
       </c>
       <c r="H73" s="6">
-        <f>(F73-E73)*0.25+E73</f>
-        <v>43.25</v>
+        <f t="shared" si="17"/>
+        <v>22.5</v>
       </c>
       <c r="I73" s="6">
-        <f>(F73-E73)*0.5+E73</f>
-        <v>50.5</v>
+        <f t="shared" si="18"/>
+        <v>25</v>
       </c>
       <c r="J73" s="6">
-        <f>F73</f>
-        <v>65</v>
+        <f t="shared" si="19"/>
+        <v>30</v>
       </c>
       <c r="K73" s="6">
-        <v>166</v>
-      </c>
-      <c r="L73" s="6"/>
+        <v>190</v>
+      </c>
+      <c r="L73" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73" s="7"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D74" s="6">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E74" s="6">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F74" s="6">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G74" s="6">
-        <f>E74</f>
-        <v>43</v>
+        <f t="shared" si="16"/>
+        <v>30</v>
       </c>
       <c r="H74" s="6">
-        <f>(F74-E74)*0.25+E74</f>
-        <v>47.25</v>
+        <f t="shared" si="17"/>
+        <v>38.5</v>
       </c>
       <c r="I74" s="6">
-        <f>(F74-E74)*0.5+E74</f>
-        <v>51.5</v>
+        <f t="shared" si="18"/>
+        <v>47</v>
       </c>
       <c r="J74" s="6">
-        <f>F74</f>
-        <v>60</v>
+        <f t="shared" si="19"/>
+        <v>64</v>
       </c>
       <c r="K74" s="6">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74" s="7"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="D75" s="6">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E75" s="6">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="F75" s="6">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="G75" s="6">
-        <f>E75</f>
-        <v>85</v>
+        <f t="shared" si="16"/>
+        <v>20</v>
       </c>
       <c r="H75" s="6">
-        <f>(F75-E75)*0.25+E75</f>
-        <v>88.75</v>
+        <f t="shared" si="17"/>
+        <v>31</v>
       </c>
       <c r="I75" s="6">
-        <f>(F75-E75)*0.5+E75</f>
-        <v>92.5</v>
+        <f t="shared" si="18"/>
+        <v>42</v>
       </c>
       <c r="J75" s="6">
-        <f>F75</f>
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>64</v>
       </c>
       <c r="K75" s="6">
-        <v>190</v>
-      </c>
-      <c r="L75" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75" s="7"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="D76" s="6">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E76" s="6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F76" s="6">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G76" s="6">
-        <f>E76</f>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>30</v>
       </c>
       <c r="H76" s="6">
-        <f>(F76-E76)*0.25+E76</f>
-        <v>6.25</v>
+        <f t="shared" si="17"/>
+        <v>46</v>
       </c>
       <c r="I76" s="6">
-        <f>(F76-E76)*0.5+E76</f>
-        <v>7.5</v>
+        <f t="shared" si="18"/>
+        <v>62</v>
       </c>
       <c r="J76" s="6">
-        <f>F76</f>
-        <v>10</v>
+        <f t="shared" si="19"/>
+        <v>94</v>
       </c>
       <c r="K76" s="6">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O76"/>
+      <c r="P76"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="D77" s="6">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E77" s="6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F77" s="6">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G77" s="6">
-        <f>E77</f>
-        <v>18</v>
+        <f t="shared" si="16"/>
+        <v>5</v>
       </c>
       <c r="H77" s="6">
-        <f>(F77-E77)*0.25+E77</f>
-        <v>19.25</v>
+        <f t="shared" si="17"/>
+        <v>12.5</v>
       </c>
       <c r="I77" s="6">
-        <f>(F77-E77)*0.5+E77</f>
-        <v>20.5</v>
+        <f t="shared" si="18"/>
+        <v>20</v>
       </c>
       <c r="J77" s="6">
-        <f>F77</f>
-        <v>23</v>
+        <f t="shared" si="19"/>
+        <v>35</v>
       </c>
       <c r="K77" s="6">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O77"/>
+      <c r="P77"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D78" s="6">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E78" s="6">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F78" s="6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G78" s="6">
-        <f>E78</f>
-        <v>20</v>
+        <f t="shared" si="16"/>
+        <v>36</v>
       </c>
       <c r="H78" s="6">
-        <f>(F78-E78)*0.25+E78</f>
-        <v>31</v>
+        <f t="shared" si="17"/>
+        <v>43.25</v>
       </c>
       <c r="I78" s="6">
-        <f>(F78-E78)*0.5+E78</f>
-        <v>42</v>
+        <f t="shared" si="18"/>
+        <v>50.5</v>
       </c>
       <c r="J78" s="6">
-        <f>F78</f>
-        <v>64</v>
+        <f t="shared" si="19"/>
+        <v>65</v>
       </c>
       <c r="K78" s="6">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O78"/>
+      <c r="P78"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D79" s="6">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E79" s="6">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="F79" s="6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G79" s="6">
-        <f>E79</f>
-        <v>79</v>
+        <f t="shared" si="16"/>
+        <v>43</v>
       </c>
       <c r="H79" s="6">
-        <f>(F79-E79)*0.25+E79</f>
-        <v>81.75</v>
+        <f t="shared" si="17"/>
+        <v>47.25</v>
       </c>
       <c r="I79" s="6">
-        <f>(F79-E79)*0.5+E79</f>
-        <v>84.5</v>
+        <f t="shared" si="18"/>
+        <v>51.5</v>
       </c>
       <c r="J79" s="6">
-        <f>F79</f>
-        <v>90</v>
+        <f t="shared" si="19"/>
+        <v>60</v>
       </c>
       <c r="K79" s="6">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O79"/>
+      <c r="P79"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>9</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>164</v>
+        <v>8</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="D80" s="6">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E80" s="6">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="F80" s="6">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="G80" s="6">
-        <f>E80</f>
-        <v>90</v>
+        <f t="shared" si="16"/>
+        <v>20</v>
       </c>
       <c r="H80" s="6">
-        <f>(F80-E80)*0.25+E80</f>
-        <v>91.25</v>
+        <f t="shared" si="17"/>
+        <v>22.5</v>
       </c>
       <c r="I80" s="6">
-        <f>(F80-E80)*0.5+E80</f>
-        <v>92.5</v>
+        <f t="shared" si="18"/>
+        <v>25</v>
       </c>
       <c r="J80" s="6">
-        <f>F80</f>
-        <v>95</v>
+        <f t="shared" si="19"/>
+        <v>30</v>
       </c>
       <c r="K80" s="6">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L80" s="6" t="b">
         <v>1</v>
       </c>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O80"/>
+      <c r="P80"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
+        <v>9</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" s="6">
+        <v>90</v>
+      </c>
+      <c r="E81" s="6">
+        <v>5</v>
+      </c>
+      <c r="F81" s="6">
         <v>10</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D81" s="6">
-        <v>120</v>
-      </c>
-      <c r="E81" s="6">
-        <v>7</v>
-      </c>
-      <c r="F81" s="6">
-        <v>15</v>
-      </c>
       <c r="G81" s="6">
-        <f>E81</f>
-        <v>7</v>
+        <f t="shared" si="16"/>
+        <v>5</v>
       </c>
       <c r="H81" s="6">
-        <f>(F81-E81)*0.25+E81</f>
-        <v>9</v>
+        <f t="shared" si="17"/>
+        <v>6.25</v>
       </c>
       <c r="I81" s="6">
-        <f>(F81-E81)*0.5+E81</f>
-        <v>11</v>
+        <f t="shared" si="18"/>
+        <v>7.5</v>
       </c>
       <c r="J81" s="6">
-        <f>F81</f>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>10</v>
       </c>
       <c r="K81" s="6">
-        <v>100</v>
-      </c>
-      <c r="L81" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="L81" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O81"/>
+      <c r="P81"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="D82" s="6">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="E82" s="6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F82" s="6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G82" s="6">
-        <f>E82</f>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>18</v>
       </c>
       <c r="H82" s="6">
-        <f>(F82-E82)*0.25+E82</f>
-        <v>11</v>
+        <f t="shared" si="17"/>
+        <v>19.25</v>
       </c>
       <c r="I82" s="6">
-        <f>(F82-E82)*0.5+E82</f>
-        <v>14</v>
+        <f t="shared" si="18"/>
+        <v>20.5</v>
       </c>
       <c r="J82" s="6">
-        <f>F82</f>
-        <v>20</v>
+        <f t="shared" si="19"/>
+        <v>23</v>
       </c>
       <c r="K82" s="6">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O82"/>
+      <c r="P82"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="D83" s="6">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="E83" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F83" s="6">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="G83" s="6">
-        <f>E83</f>
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>20</v>
       </c>
       <c r="H83" s="6">
-        <f>(F83-E83)*0.25+E83</f>
-        <v>10</v>
+        <f t="shared" si="17"/>
+        <v>31</v>
       </c>
       <c r="I83" s="6">
-        <f>(F83-E83)*0.5+E83</f>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>42</v>
       </c>
       <c r="J83" s="6">
-        <f>F83</f>
-        <v>10</v>
+        <f t="shared" si="19"/>
+        <v>64</v>
       </c>
       <c r="K83" s="6">
-        <v>130</v>
-      </c>
-      <c r="L83" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O83"/>
+      <c r="P83"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="D84" s="6">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E84" s="6">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="F84" s="6">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G84" s="6">
-        <f>E84</f>
-        <v>17</v>
+        <f t="shared" si="16"/>
+        <v>79</v>
       </c>
       <c r="H84" s="6">
-        <f>(F84-E84)*0.25+E84</f>
-        <v>22.5</v>
+        <f t="shared" si="17"/>
+        <v>81.75</v>
       </c>
       <c r="I84" s="6">
-        <f>(F84-E84)*0.5+E84</f>
-        <v>28</v>
+        <f t="shared" si="18"/>
+        <v>84.5</v>
       </c>
       <c r="J84" s="6">
-        <f>F84</f>
-        <v>39</v>
+        <f t="shared" si="19"/>
+        <v>90</v>
       </c>
       <c r="K84" s="6">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O84"/>
+      <c r="P84"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>10</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D85" s="6">
+        <v>120</v>
+      </c>
+      <c r="E85" s="6">
+        <v>7</v>
+      </c>
+      <c r="F85" s="6">
+        <v>15</v>
+      </c>
+      <c r="G85" s="6">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="H85" s="6">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="I85" s="6">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="J85" s="6">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="K85" s="6">
         <v>100</v>
-      </c>
-      <c r="E85" s="6">
-        <v>30</v>
-      </c>
-      <c r="F85" s="6">
-        <v>30</v>
-      </c>
-      <c r="G85" s="6">
-        <f>E85</f>
-        <v>30</v>
-      </c>
-      <c r="H85" s="6">
-        <f>(F85-E85)*0.25+E85</f>
-        <v>30</v>
-      </c>
-      <c r="I85" s="6">
-        <f>(F85-E85)*0.5+E85</f>
-        <v>30</v>
-      </c>
-      <c r="J85" s="6">
-        <f>F85</f>
-        <v>30</v>
-      </c>
-      <c r="K85" s="6">
-        <v>170</v>
       </c>
       <c r="L85" s="6" t="b">
         <v>1</v>
       </c>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O85"/>
+      <c r="P85"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>10</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="D86" s="6">
         <v>100</v>
       </c>
       <c r="E86" s="6">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F86" s="6">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="G86" s="6">
-        <f>E86</f>
-        <v>66</v>
+        <f t="shared" si="16"/>
+        <v>17</v>
       </c>
       <c r="H86" s="6">
-        <f>(F86-E86)*0.25+E86</f>
-        <v>74.25</v>
+        <f t="shared" si="17"/>
+        <v>22.5</v>
       </c>
       <c r="I86" s="6">
-        <f>(F86-E86)*0.5+E86</f>
-        <v>82.5</v>
+        <f t="shared" si="18"/>
+        <v>28</v>
       </c>
       <c r="J86" s="6">
-        <f>F86</f>
-        <v>99</v>
+        <f t="shared" si="19"/>
+        <v>39</v>
       </c>
       <c r="K86" s="6">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O86"/>
+      <c r="P86"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>10</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="D87" s="6">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E87" s="6">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F87" s="6">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G87" s="6">
-        <f>E87</f>
-        <v>30</v>
+        <f t="shared" si="16"/>
+        <v>66</v>
       </c>
       <c r="H87" s="6">
-        <f>(F87-E87)*0.25+E87</f>
-        <v>32.5</v>
+        <f t="shared" si="17"/>
+        <v>74.25</v>
       </c>
       <c r="I87" s="6">
-        <f>(F87-E87)*0.5+E87</f>
-        <v>35</v>
+        <f t="shared" si="18"/>
+        <v>82.5</v>
       </c>
       <c r="J87" s="6">
-        <f>F87</f>
-        <v>40</v>
+        <f t="shared" si="19"/>
+        <v>99</v>
       </c>
       <c r="K87" s="6">
-        <v>195</v>
-      </c>
-      <c r="L87" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O87"/>
+      <c r="P87"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>11</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="D88" s="6">
         <v>120</v>
@@ -4978,19 +5067,19 @@
         <v>90</v>
       </c>
       <c r="G88" s="6">
-        <f>E88</f>
+        <f t="shared" si="16"/>
         <v>75</v>
       </c>
       <c r="H88" s="6">
-        <f>(F88-E88)*0.25+E88</f>
+        <f t="shared" si="17"/>
         <v>78.75</v>
       </c>
       <c r="I88" s="6">
-        <f>(F88-E88)*0.5+E88</f>
+        <f t="shared" si="18"/>
         <v>82.5</v>
       </c>
       <c r="J88" s="6">
-        <f>F88</f>
+        <f t="shared" si="19"/>
         <v>90</v>
       </c>
       <c r="K88" s="6">
@@ -5001,8 +5090,75 @@
       </c>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
+      <c r="O88"/>
+      <c r="P88"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>12</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" s="6">
+        <v>150</v>
+      </c>
+      <c r="E89" s="6">
+        <v>10</v>
+      </c>
+      <c r="F89" s="6">
+        <v>20</v>
+      </c>
+      <c r="G89" s="6">
+        <f>E89</f>
+        <v>10</v>
+      </c>
+      <c r="H89" s="6">
+        <f>(F89-E89)*0.25+E89</f>
+        <v>12.5</v>
+      </c>
+      <c r="I89" s="6">
+        <f>(F89-E89)*0.5+E89</f>
+        <v>15</v>
+      </c>
+      <c r="J89" s="6">
+        <f>F89</f>
+        <v>20</v>
+      </c>
+      <c r="K89" s="6">
+        <v>520</v>
+      </c>
+      <c r="L89" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89"/>
+      <c r="P89"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90"/>
+      <c r="P90"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L88">

--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QQFireRecv\HuYanEconomy-0.1.16.mirai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0900F24-3FF6-4B4B-A940-8A4447C1C694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AC879B-F9D0-451B-AE0B-BFB8551408E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="217">
   <si>
     <t>等级</t>
   </si>
@@ -305,9 +305,6 @@
     <t>新叶鱼</t>
   </si>
   <si>
-    <t>快按住它!可爱的鱼鱼千万不要进化口牙!</t>
-  </si>
-  <si>
     <t>呆火鱼</t>
   </si>
   <si>
@@ -502,27 +499,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一种冬季淡水鱼。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字母牌F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字母牌B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字母牌P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字母牌K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字母牌T</t>
+    <t>臭靴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭臭的靴子，鼻鼻和币币都收到了伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先锋植物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是要钓鱼，还是要做叫花鸡？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光唇鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小溪里常见的小型淡水鱼，光光的嘴唇可能是因为没鱼可以吻吻吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一颗玻璃珠，怎么被钓上的来呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一颗不知道什么植物的种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破布条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破破烂烂的布条，似乎是衣服上扯下来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥鳅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑溜溜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石爬鮡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于味道太鲜美而被大量捕捞的小鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -531,98 +576,6 @@
   </si>
   <si>
     <t>一块奇怪的字母牌，上面只有一个大大的拉丁字母「N」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一块字母牌，甚至还做了烫色，上面是一个拉丁字母「K」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牌子上是拉丁字母「F」，正好是你最喜欢的那对CP里姐姐的名字首字母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你最喜欢的那对CP里，妹妹的名字首字母是「B」吧！是「B」对吧！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个字母「T」，看起来不是铁的……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从水里捞出的牌牌，自带天然水纹，工厂老板说这其实是UV工艺，那个字母是「P」不是「d」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臭靴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臭臭的靴子，鼻鼻和币币都收到了伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光唇鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小溪里常见的小型淡水鱼，光光的嘴唇可能是因为没鱼可以吻吻吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白条鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>繁殖能力很强的鱼鱼，但是因为人类活动变濒危了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃珠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一颗玻璃珠，怎么被钓上的来呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泥鳅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑溜溜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石爬鮡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于味道太鲜美而被大量捕捞的小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝藻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先锋植物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荷叶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是要钓鱼，还是要做叫花鸡？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岛民小心心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神奇的小心心，幸福的来源，据说曾经被盗过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -656,19 +609,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小心心守护者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又名「土著」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偷心大盗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别什么都钓好吗？！？！</t>
+    <t>字母牌P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从水里捞出的牌牌，自带天然水纹，工厂老板说这其实是UV工艺，那个字母是「P」不是「d」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿透的报纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿透了，得轻拿轻放，不然一用力就散了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种冬季淡水鱼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘崽牛奶罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘崽牛奶的包装罐，似乎是铝制的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是鱼，总能钓到的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母牌T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个字母「T」，看起来不是铁的……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎的CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>给你一张破碎的CD，看看鱼鱼们的爱情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🎵</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白条鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁殖能力很强的鱼鱼，但是因为人类活动变濒危了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -698,12 +706,120 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>不可降解塑料袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾袋，坏坏！鱼鱼，恨恨！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快按住它!可爱的鱼鱼千万不要进化口牙!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木匣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根本就没有宝藏嘛！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母牌F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌子上是拉丁字母「F」，正好是你最喜欢的那对CP里姐姐的名字首字母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙虾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干净的环境，造就美味的小龙虾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叉尾斗鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼鱼要战斗！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔兔鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔兔+鱼，试试看emoji融合？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄雀鳝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常吓人，姐妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母牌K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一块字母牌，甚至还做了烫色，上面是一个拉丁字母「K」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母牌B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你最喜欢的那对CP里，妹妹的名字首字母是「B」吧！是「B」对吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小心心守护者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又名「土著」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岛民小心心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神奇的小心心，幸福的来源，据说曾经被盗过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷心大盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别什么都钓好吗？！？！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白鲸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的、神奇的、智慧的、建议放生的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,13 +875,25 @@
       <name val="Segoe UI Symbol"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -782,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,6 +940,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,11 +1261,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T96"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1173,16 +1307,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>6</v>
@@ -1195,11 +1329,11 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>165</v>
+      <c r="B2" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D2" s="6">
         <v>-1</v>
@@ -1211,19 +1345,19 @@
         <v>25</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G38" si="0">E2</f>
+        <f t="shared" ref="G2:G65" si="0">E2</f>
         <v>25</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:H38" si="1">(F2-E2)*0.25+E2</f>
+        <f t="shared" ref="H2:H65" si="1">(F2-E2)*0.25+E2</f>
         <v>25</v>
       </c>
       <c r="I2" s="6">
-        <f t="shared" ref="I2:I38" si="2">(F2-E2)*0.5+E2</f>
+        <f t="shared" ref="I2:I65" si="2">(F2-E2)*0.5+E2</f>
         <v>25</v>
       </c>
       <c r="J2" s="6">
-        <f t="shared" ref="J2:J38" si="3">F2</f>
+        <f t="shared" ref="J2:J65" si="3">F2</f>
         <v>25</v>
       </c>
       <c r="K2" s="6">
@@ -1238,7 +1372,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1285,7 +1419,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="T3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1293,10 +1427,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
@@ -1305,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="6">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="0"/>
@@ -1313,15 +1447,15 @@
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
-        <v>11.25</v>
+        <v>5.25</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>5.5</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="K4" s="6">
         <v>0</v>
@@ -1332,7 +1466,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="T4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1340,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -1352,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="6">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
@@ -1360,15 +1494,15 @@
       </c>
       <c r="H5" s="6">
         <f t="shared" si="1"/>
-        <v>11.25</v>
+        <v>6</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
@@ -1379,7 +1513,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="T5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1431,10 +1565,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
@@ -1443,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
@@ -1451,15 +1585,15 @@
       </c>
       <c r="H7" s="6">
         <f t="shared" si="1"/>
-        <v>11.25</v>
+        <v>8.75</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K7" s="6">
         <v>0</v>
@@ -1475,10 +1609,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -1513,177 +1647,173 @@
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="6">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6">
-        <v>45</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="1"/>
-        <v>22.5</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="K9" s="6">
-        <v>20</v>
-      </c>
-      <c r="L9" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>12</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="O9"/>
+      <c r="P9"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="6">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6">
-        <v>7</v>
-      </c>
-      <c r="F10" s="6">
-        <v>18</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="1"/>
-        <v>9.75</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="K10" s="6">
-        <v>30</v>
-      </c>
-      <c r="L10" s="6"/>
+      <c r="B10" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>6.75</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="O10"/>
+      <c r="P10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>159</v>
+      <c r="B11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="D11" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="K11" s="6">
         <v>20</v>
       </c>
-      <c r="F11" s="6">
-        <v>30</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="1"/>
-        <v>22.5</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="K11" s="6">
-        <v>80</v>
-      </c>
-      <c r="L11" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="O11"/>
+      <c r="P11"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="D12" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
       </c>
       <c r="F12" s="6">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="0"/>
+        <f>E12</f>
         <v>3</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f>(F12-E12)*0.25+E12</f>
+        <v>4.25</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f>(F12-E12)*0.5+E12</f>
+        <v>5.5</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="3"/>
-        <v>43</v>
+        <f>F12</f>
+        <v>8</v>
       </c>
       <c r="K12" s="6">
         <v>30</v>
@@ -1691,48 +1821,50 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="O12"/>
+      <c r="P12"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D13" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E13" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="6">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>E13</f>
+        <v>5</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
+        <f>(F13-E13)*0.25+E13</f>
+        <v>5.75</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f>(F13-E13)*0.5+E13</f>
+        <v>6.5</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f>F13</f>
+        <v>8</v>
       </c>
       <c r="K13" s="6">
-        <v>40</v>
-      </c>
-      <c r="L13" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="L13" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13"/>
@@ -1743,38 +1875,38 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="6">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="E14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7.25</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K14" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -1787,38 +1919,38 @@
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="6">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6">
         <v>3</v>
       </c>
-      <c r="E15" s="6">
-        <v>13</v>
-      </c>
       <c r="F15" s="6">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>9.25</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="K15" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1830,39 +1962,39 @@
       <c r="A16" s="6">
         <v>2</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
+      <c r="B16" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="6">
-        <v>-3</v>
+        <v>-20</v>
       </c>
       <c r="E16" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F16" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K16" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1875,38 +2007,38 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6">
         <v>3</v>
       </c>
       <c r="E17" s="6">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6">
+        <v>41</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F17" s="6">
-        <v>53</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="1"/>
-        <v>28.25</v>
-      </c>
       <c r="I17" s="6">
         <f t="shared" si="2"/>
-        <v>36.5</v>
+        <v>27</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K17" s="6">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -1914,43 +2046,43 @@
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>183</v>
+      <c r="B18" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="D18" s="6">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E18" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F18" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K18" s="6">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -1963,38 +2095,38 @@
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D19" s="6">
         <v>3</v>
       </c>
       <c r="E19" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F19" s="6">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>27.5</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K19" s="6">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -2002,43 +2134,43 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6">
         <v>25</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="6">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6">
-        <v>30</v>
-      </c>
       <c r="F20" s="6">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
-        <v>42.25</v>
+        <v>25</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="2"/>
-        <v>54.5</v>
+        <v>25</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="K20" s="6">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -2051,38 +2183,38 @@
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D21" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="6">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="1"/>
-        <v>41.5</v>
+        <v>48</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="K21" s="6">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -2095,38 +2227,38 @@
         <v>2</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="6">
         <v>3</v>
       </c>
       <c r="E22" s="6">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F22" s="6">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>42.25</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>54.5</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="K22" s="6">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -2138,43 +2270,41 @@
       <c r="A23" s="6">
         <v>2</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>164</v>
+      <c r="B23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D23" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E23" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F23" s="6">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" ref="G23" si="4">E23</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ref="H23" si="5">(F23-E23)*0.25+E23</f>
-        <v>22.5</v>
+        <f t="shared" si="1"/>
+        <v>41.5</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" ref="I23" si="6">(F23-E23)*0.5+E23</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>58</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" ref="J23" si="7">F23</f>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>91</v>
       </c>
       <c r="K23" s="6">
-        <v>80</v>
-      </c>
-      <c r="L23" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23"/>
@@ -2182,38 +2312,38 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D24" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E24" s="6">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F24" s="6">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="1"/>
-        <v>19.25</v>
+        <v>61</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="2"/>
-        <v>30.5</v>
+        <v>84</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="K24" s="6">
         <v>50</v>
@@ -2226,43 +2356,45 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>3</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="D25" s="6">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6">
         <v>5</v>
       </c>
-      <c r="E25" s="6">
-        <v>20</v>
-      </c>
       <c r="F25" s="6">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="1"/>
-        <v>31.5</v>
+        <v>6.25</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>7.5</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="K25" s="6">
         <v>50</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25"/>
@@ -2272,39 +2404,39 @@
       <c r="A26" s="6">
         <v>3</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>36</v>
+      <c r="B26" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="D26" s="6">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E26" s="6">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6">
         <v>30</v>
       </c>
-      <c r="F26" s="6">
-        <v>64</v>
-      </c>
       <c r="G26" s="6">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="H26" s="6">
-        <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-      <c r="I26" s="6">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
       <c r="K26" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -2317,35 +2449,35 @@
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D27" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="6">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F27" s="6">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="1"/>
-        <v>38.5</v>
+        <v>19.25</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>30.5</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K27" s="6">
         <v>50</v>
@@ -2361,38 +2493,38 @@
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="D28" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F28" s="6">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="1"/>
-        <v>34.75</v>
+        <v>31.5</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="2"/>
-        <v>44.5</v>
+        <v>43</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K28" s="6">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -2405,38 +2537,38 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D29" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E29" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F29" s="6">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="1"/>
-        <v>29.5</v>
+        <v>38.5</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J29" s="6">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K29" s="6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -2449,38 +2581,38 @@
         <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D30" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E30" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F30" s="6">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" si="1"/>
-        <v>26.25</v>
+        <v>38.5</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="2"/>
-        <v>37.5</v>
+        <v>47</v>
       </c>
       <c r="J30" s="6">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K30" s="6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -2493,19 +2625,19 @@
         <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="D31" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E31" s="6">
         <v>25</v>
       </c>
       <c r="F31" s="6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="0"/>
@@ -2513,18 +2645,18 @@
       </c>
       <c r="H31" s="6">
         <f t="shared" si="1"/>
-        <v>35.25</v>
+        <v>34.75</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="2"/>
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="J31" s="6">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K31" s="6">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -2537,19 +2669,19 @@
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D32" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" s="6">
         <v>20</v>
       </c>
       <c r="F32" s="6">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="0"/>
@@ -2557,18 +2689,18 @@
       </c>
       <c r="H32" s="6">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J32" s="6">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="K32" s="6">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -2581,38 +2713,38 @@
         <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D33" s="6">
         <v>7</v>
       </c>
       <c r="E33" s="6">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F33" s="6">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="1"/>
-        <v>40.75</v>
+        <v>26.25</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="2"/>
-        <v>53.5</v>
+        <v>37.5</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="K33" s="6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
@@ -2625,38 +2757,38 @@
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D34" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E34" s="6">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F34" s="6">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="1"/>
-        <v>40.75</v>
+        <v>35.25</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="2"/>
-        <v>53.5</v>
+        <v>45.5</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K34" s="6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -2668,41 +2800,40 @@
       <c r="A35" s="6">
         <v>3</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="6">
-        <v>7</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="B35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K35" s="1">
         <v>30</v>
       </c>
-      <c r="F35" s="6">
-        <v>79</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" si="1"/>
-        <v>42.25</v>
-      </c>
-      <c r="I35" s="6">
-        <f t="shared" si="2"/>
-        <v>54.5</v>
-      </c>
-      <c r="J35" s="6">
-        <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="K35" s="6">
-        <v>90</v>
-      </c>
-      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35"/>
@@ -2713,38 +2844,38 @@
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D36" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F36" s="6">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="1"/>
-        <v>40.25</v>
+        <v>31</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="2"/>
-        <v>55.5</v>
+        <v>42</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="K36" s="6">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -2757,38 +2888,38 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D37" s="6">
         <v>6</v>
       </c>
       <c r="E37" s="6">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F37" s="6">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H37" s="6">
         <f t="shared" si="1"/>
-        <v>69.25</v>
+        <v>40.75</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="2"/>
-        <v>87.5</v>
+        <v>53.5</v>
       </c>
       <c r="J37" s="6">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="K37" s="6">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -2801,38 +2932,38 @@
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D38" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E38" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F38" s="6">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H38" s="6">
         <f t="shared" si="1"/>
+        <v>40.75</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="2"/>
         <v>53.5</v>
       </c>
-      <c r="I38" s="6">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
       <c r="J38" s="6">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="K38" s="6">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -2845,304 +2976,308 @@
         <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D39" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" s="6">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F39" s="6">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" ref="G39:G70" si="8">E39</f>
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" ref="H39:H70" si="9">(F39-E39)*0.25+E39</f>
-        <v>64.25</v>
+        <f t="shared" si="1"/>
+        <v>42.25</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" ref="I39:I70" si="10">(F39-E39)*0.5+E39</f>
-        <v>77.5</v>
+        <f t="shared" si="2"/>
+        <v>54.5</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" ref="J39:J70" si="11">F39</f>
-        <v>104</v>
+        <f t="shared" si="3"/>
+        <v>79</v>
       </c>
       <c r="K39" s="6">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39"/>
       <c r="P39"/>
+      <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D40" s="6">
         <v>7</v>
       </c>
       <c r="E40" s="6">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F40" s="6">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="8"/>
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="9"/>
-        <v>87.75</v>
+        <f t="shared" si="1"/>
+        <v>40.25</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="10"/>
-        <v>114.5</v>
+        <f t="shared" si="2"/>
+        <v>55.5</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="11"/>
-        <v>168</v>
+        <f t="shared" si="3"/>
+        <v>86</v>
       </c>
       <c r="K40" s="6">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40"/>
       <c r="P40"/>
+      <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="D41" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E41" s="6">
+        <v>6</v>
+      </c>
+      <c r="F41" s="6">
+        <v>66</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H41" s="6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="J41" s="6">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="K41" s="6">
         <v>30</v>
-      </c>
-      <c r="F41" s="6">
-        <v>206</v>
-      </c>
-      <c r="G41" s="6">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" si="9"/>
-        <v>74</v>
-      </c>
-      <c r="I41" s="6">
-        <f t="shared" si="10"/>
-        <v>118</v>
-      </c>
-      <c r="J41" s="6">
-        <f t="shared" si="11"/>
-        <v>206</v>
-      </c>
-      <c r="K41" s="6">
-        <v>120</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41"/>
       <c r="P41"/>
+      <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>3</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>163</v>
+      <c r="B42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D42" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E42" s="6">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F42" s="6">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="9"/>
-        <v>22.5</v>
+        <f t="shared" si="1"/>
+        <v>69.25</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="10"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>87.5</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" si="11"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>124</v>
       </c>
       <c r="K42" s="6">
-        <v>100</v>
-      </c>
-      <c r="L42" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42"/>
       <c r="P42"/>
+      <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="D43" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E43" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F43" s="6">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="G43" s="6">
-        <f>E43</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="H43" s="6">
-        <f>(F43-E43)*0.25+E43</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>53.5</v>
       </c>
       <c r="I43" s="6">
-        <f>(F43-E43)*0.5+E43</f>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="J43" s="6">
-        <f>F43</f>
-        <v>42</v>
+        <f t="shared" si="3"/>
+        <v>124</v>
       </c>
       <c r="K43" s="6">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D44" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E44" s="6">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F44" s="6">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="9"/>
-        <v>16.75</v>
+        <f t="shared" si="1"/>
+        <v>64.25</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="10"/>
-        <v>18.5</v>
+        <f t="shared" si="2"/>
+        <v>77.5</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="11"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>104</v>
       </c>
       <c r="K44" s="6">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44"/>
       <c r="P44"/>
+      <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D45" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E45" s="6">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F45" s="6">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="8"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="9"/>
-        <v>19.75</v>
+        <f t="shared" si="1"/>
+        <v>87.75</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="10"/>
-        <v>21.5</v>
+        <f t="shared" si="2"/>
+        <v>114.5</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" si="11"/>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>168</v>
       </c>
       <c r="K45" s="6">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -3153,41 +3288,41 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D46" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E46" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F46" s="6">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="9"/>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="10"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>118</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>206</v>
       </c>
       <c r="K46" s="6">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -3198,86 +3333,88 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>4</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>71</v>
+        <v>3</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="D47" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E47" s="6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F47" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="8"/>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="9"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="10"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>7.5</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="11"/>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="K47" s="6">
-        <v>65</v>
-      </c>
-      <c r="L47" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="L47" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>4</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>75</v>
+      <c r="B48" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="D48" s="6">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="E48" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F48" s="6">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="9"/>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="10"/>
-        <v>42</v>
+        <f t="shared" si="2"/>
+        <v>7.5</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="11"/>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="K48" s="6">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -3291,38 +3428,38 @@
         <v>4</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="D49" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49" s="6">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F49" s="6">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="8"/>
-        <v>28</v>
+        <f>E49</f>
+        <v>10</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="9"/>
-        <v>40.75</v>
+        <f>(F49-E49)*0.25+E49</f>
+        <v>18</v>
       </c>
       <c r="I49" s="6">
-        <f t="shared" si="10"/>
-        <v>53.5</v>
+        <f>(F49-E49)*0.5+E49</f>
+        <v>26</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="11"/>
-        <v>79</v>
+        <f>F49</f>
+        <v>42</v>
       </c>
       <c r="K49" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -3336,38 +3473,38 @@
         <v>4</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D50" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E50" s="6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F50" s="6">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="8"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="9"/>
-        <v>44.75</v>
+        <f t="shared" si="1"/>
+        <v>16.75</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="10"/>
-        <v>64.5</v>
+        <f t="shared" si="2"/>
+        <v>18.5</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="11"/>
-        <v>104</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="K50" s="6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -3381,38 +3518,38 @@
         <v>4</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D51" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E51" s="6">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F51" s="6">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="8"/>
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="9"/>
-        <v>66.75</v>
+        <f t="shared" si="1"/>
+        <v>19.75</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="10"/>
-        <v>72.5</v>
+        <f t="shared" si="2"/>
+        <v>21.5</v>
       </c>
       <c r="J51" s="6">
-        <f t="shared" si="11"/>
-        <v>84</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="K51" s="6">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -3426,38 +3563,38 @@
         <v>4</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D52" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E52" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F52" s="6">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="9"/>
-        <v>61.25</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" si="10"/>
-        <v>92.5</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="J52" s="6">
-        <f t="shared" si="11"/>
-        <v>155</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="K52" s="6">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -3471,38 +3608,38 @@
         <v>4</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D53" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E53" s="6">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F53" s="6">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="8"/>
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="9"/>
-        <v>67.25</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="10"/>
-        <v>96.5</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="J53" s="6">
-        <f t="shared" si="11"/>
-        <v>155</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="K53" s="6">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -3516,38 +3653,38 @@
         <v>4</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D54" s="6">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E54" s="6">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="F54" s="6">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="8"/>
-        <v>76</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" si="9"/>
-        <v>89.5</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="I54" s="6">
-        <f t="shared" si="10"/>
-        <v>103</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
       <c r="J54" s="6">
-        <f t="shared" si="11"/>
-        <v>130</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
       <c r="K54" s="6">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -3556,47 +3693,45 @@
       <c r="P54"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>4</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="D55" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E55" s="6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F55" s="6">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="9"/>
-        <v>22.5</v>
+        <f t="shared" si="1"/>
+        <v>40.75</v>
       </c>
       <c r="I55" s="6">
-        <f t="shared" si="10"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>53.5</v>
       </c>
       <c r="J55" s="6">
-        <f t="shared" si="11"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>79</v>
       </c>
       <c r="K55" s="6">
-        <v>120</v>
-      </c>
-      <c r="L55" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55"/>
@@ -3605,41 +3740,41 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D56" s="6">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E56" s="6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F56" s="6">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="9"/>
-        <v>10.5</v>
+        <f t="shared" si="1"/>
+        <v>44.75</v>
       </c>
       <c r="I56" s="6">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>64.5</v>
       </c>
       <c r="J56" s="6">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>104</v>
       </c>
       <c r="K56" s="6">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
@@ -3650,41 +3785,41 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D57" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E57" s="6">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F57" s="6">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="G57" s="6">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="H57" s="6">
-        <f t="shared" si="9"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>66.75</v>
       </c>
       <c r="I57" s="6">
-        <f t="shared" si="10"/>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>72.5</v>
       </c>
       <c r="J57" s="6">
-        <f t="shared" si="11"/>
-        <v>52</v>
+        <f t="shared" si="3"/>
+        <v>84</v>
       </c>
       <c r="K57" s="6">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -3695,41 +3830,41 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D58" s="6">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E58" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F58" s="6">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" si="9"/>
-        <v>10.75</v>
+        <f t="shared" si="1"/>
+        <v>61.25</v>
       </c>
       <c r="I58" s="6">
-        <f t="shared" si="10"/>
-        <v>11.5</v>
+        <f t="shared" si="2"/>
+        <v>92.5</v>
       </c>
       <c r="J58" s="6">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>155</v>
       </c>
       <c r="K58" s="6">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -3740,41 +3875,41 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D59" s="6">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E59" s="6">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F59" s="6">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" si="8"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="H59" s="6">
-        <f t="shared" si="9"/>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>67.25</v>
       </c>
       <c r="I59" s="6">
-        <f t="shared" si="10"/>
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>96.5</v>
       </c>
       <c r="J59" s="6">
-        <f t="shared" si="11"/>
-        <v>53</v>
+        <f t="shared" si="3"/>
+        <v>155</v>
       </c>
       <c r="K59" s="6">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
@@ -3785,41 +3920,41 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D60" s="6">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E60" s="6">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F60" s="6">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
       <c r="H60" s="6">
-        <f t="shared" si="9"/>
-        <v>10.5</v>
+        <f t="shared" si="1"/>
+        <v>89.5</v>
       </c>
       <c r="I60" s="6">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>103</v>
       </c>
       <c r="J60" s="6">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>130</v>
       </c>
       <c r="K60" s="6">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
@@ -3828,45 +3963,47 @@
       <c r="P60"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="D61" s="6">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E61" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F61" s="6">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="8"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H61" s="6">
-        <f t="shared" si="9"/>
-        <v>28.75</v>
+        <f t="shared" si="1"/>
+        <v>22.5</v>
       </c>
       <c r="I61" s="6">
-        <f t="shared" si="10"/>
-        <v>39.5</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="J61" s="6">
-        <f t="shared" si="11"/>
-        <v>61</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="K61" s="6">
-        <v>80</v>
-      </c>
-      <c r="L61" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="L61" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61"/>
@@ -3877,39 +4014,39 @@
       <c r="A62" s="6">
         <v>5</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>100</v>
+      <c r="B62" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="D62" s="6">
-        <v>30</v>
+        <v>-10</v>
       </c>
       <c r="E62" s="6">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F62" s="6">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H62" s="6">
-        <f t="shared" si="9"/>
-        <v>43.5</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I62" s="6">
-        <f t="shared" si="10"/>
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="J62" s="6">
-        <f t="shared" si="11"/>
-        <v>84</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="K62" s="6">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
@@ -3923,38 +4060,38 @@
         <v>5</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="D63" s="6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E63" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F63" s="6">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="H63" s="6">
-        <f t="shared" si="9"/>
-        <v>53.5</v>
+        <f t="shared" si="1"/>
+        <v>10.5</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="10"/>
-        <v>77</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="J63" s="6">
-        <f t="shared" si="11"/>
-        <v>124</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="K63" s="6">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -3968,38 +4105,38 @@
         <v>5</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D64" s="6">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E64" s="6">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F64" s="6">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="8"/>
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="H64" s="6">
-        <f t="shared" si="9"/>
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="10"/>
-        <v>113</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="J64" s="6">
-        <f t="shared" si="11"/>
-        <v>165</v>
+        <f t="shared" si="3"/>
+        <v>52</v>
       </c>
       <c r="K64" s="6">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -4012,43 +4149,41 @@
       <c r="A65" s="6">
         <v>5</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>161</v>
+      <c r="B65" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D65" s="6">
+        <v>22</v>
+      </c>
+      <c r="E65" s="6">
         <v>10</v>
       </c>
-      <c r="E65" s="6">
-        <v>20</v>
-      </c>
       <c r="F65" s="6">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" ref="G65" si="12">E65</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" ref="H65" si="13">(F65-E65)*0.25+E65</f>
-        <v>22.5</v>
+        <f t="shared" si="1"/>
+        <v>10.75</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" ref="I65" si="14">(F65-E65)*0.5+E65</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>11.5</v>
       </c>
       <c r="J65" s="6">
-        <f t="shared" ref="J65" si="15">F65</f>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="K65" s="6">
-        <v>150</v>
-      </c>
-      <c r="L65" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65"/>
@@ -4057,41 +4192,41 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D66" s="6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E66" s="6">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F66" s="6">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" ref="G66:G102" si="4">E66</f>
+        <v>25</v>
       </c>
       <c r="H66" s="6">
-        <f t="shared" si="9"/>
-        <v>25.75</v>
+        <f t="shared" ref="H66:H102" si="5">(F66-E66)*0.25+E66</f>
+        <v>32</v>
       </c>
       <c r="I66" s="6">
-        <f t="shared" si="10"/>
-        <v>48.5</v>
+        <f t="shared" ref="I66:I102" si="6">(F66-E66)*0.5+E66</f>
+        <v>39</v>
       </c>
       <c r="J66" s="6">
-        <f t="shared" si="11"/>
-        <v>94</v>
+        <f t="shared" ref="J66:J102" si="7">F66</f>
+        <v>53</v>
       </c>
       <c r="K66" s="6">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -4102,41 +4237,41 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D67" s="6">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E67" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F67" s="6">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="H67" s="6">
-        <f t="shared" si="9"/>
-        <v>61.25</v>
+        <f t="shared" si="5"/>
+        <v>10.5</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" si="10"/>
-        <v>92.5</v>
+        <f t="shared" si="6"/>
+        <v>11</v>
       </c>
       <c r="J67" s="6">
-        <f t="shared" si="11"/>
-        <v>155</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="K67" s="6">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
@@ -4147,41 +4282,41 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="D68" s="6">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E68" s="6">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F68" s="6">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="H68" s="6">
-        <f t="shared" si="9"/>
-        <v>68.75</v>
+        <f t="shared" si="5"/>
+        <v>7.25</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="10"/>
-        <v>107.5</v>
+        <f t="shared" si="6"/>
+        <v>11.5</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" si="11"/>
-        <v>185</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="K68" s="6">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
@@ -4192,227 +4327,217 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D69" s="6">
-        <v>-20</v>
+        <v>27</v>
       </c>
       <c r="E69" s="6">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F69" s="6">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" si="9"/>
-        <v>43.75</v>
+        <f t="shared" si="5"/>
+        <v>28.75</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="10"/>
-        <v>57.5</v>
+        <f t="shared" si="6"/>
+        <v>39.5</v>
       </c>
       <c r="J69" s="6">
-        <f t="shared" si="11"/>
-        <v>85</v>
+        <f t="shared" si="7"/>
+        <v>61</v>
       </c>
       <c r="K69" s="6">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69"/>
       <c r="P69"/>
-      <c r="Q69" s="7"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D70" s="6">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E70" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F70" s="6">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G70" s="6">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="H70" s="6">
-        <f t="shared" si="9"/>
-        <v>57.5</v>
+        <f t="shared" si="5"/>
+        <v>43.5</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="10"/>
-        <v>65</v>
+        <f t="shared" si="6"/>
+        <v>57</v>
       </c>
       <c r="J70" s="6">
-        <f t="shared" si="11"/>
-        <v>80</v>
+        <f t="shared" si="7"/>
+        <v>84</v>
       </c>
       <c r="K70" s="6">
-        <v>180</v>
-      </c>
-      <c r="L70" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70"/>
       <c r="P70"/>
-      <c r="Q70" s="7"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D71" s="6">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E71" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F71" s="6">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="G71" s="6">
-        <f t="shared" ref="G71:G88" si="16">E71</f>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="H71" s="6">
-        <f t="shared" ref="H71:H88" si="17">(F71-E71)*0.25+E71</f>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>53.5</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" ref="I71:I88" si="18">(F71-E71)*0.5+E71</f>
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>77</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" ref="J71:J88" si="19">F71</f>
-        <v>90</v>
+        <f t="shared" si="7"/>
+        <v>124</v>
       </c>
       <c r="K71" s="6">
-        <v>180</v>
-      </c>
-      <c r="L71" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71"/>
       <c r="P71"/>
-      <c r="Q71" s="7"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D72" s="6">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E72" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F72" s="6">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="G72" s="6">
-        <f t="shared" si="16"/>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>61</v>
       </c>
       <c r="H72" s="6">
-        <f t="shared" si="17"/>
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>87</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="18"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>113</v>
       </c>
       <c r="J72" s="6">
-        <f t="shared" si="19"/>
-        <v>120</v>
+        <f t="shared" si="7"/>
+        <v>165</v>
       </c>
       <c r="K72" s="6">
-        <v>180</v>
-      </c>
-      <c r="L72" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72"/>
       <c r="P72"/>
-      <c r="Q72" s="7"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="D73" s="6">
         <v>10</v>
       </c>
       <c r="E73" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F73" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G73" s="6">
-        <f t="shared" si="16"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="H73" s="6">
-        <f t="shared" si="17"/>
-        <v>22.5</v>
+        <f t="shared" si="5"/>
+        <v>6.25</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="18"/>
-        <v>25</v>
+        <f t="shared" si="6"/>
+        <v>7.5</v>
       </c>
       <c r="J73" s="6">
-        <f t="shared" si="19"/>
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="K73" s="6">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="L73" s="6" t="b">
         <v>1</v>
@@ -4421,135 +4546,132 @@
       <c r="N73" s="6"/>
       <c r="O73"/>
       <c r="P73"/>
-      <c r="Q73" s="7"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D74" s="6">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E74" s="6">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F74" s="6">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="G74" s="6">
-        <f t="shared" si="16"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="H74" s="6">
-        <f t="shared" si="17"/>
-        <v>38.5</v>
+        <f t="shared" si="5"/>
+        <v>25.75</v>
       </c>
       <c r="I74" s="6">
-        <f t="shared" si="18"/>
-        <v>47</v>
+        <f t="shared" si="6"/>
+        <v>48.5</v>
       </c>
       <c r="J74" s="6">
-        <f t="shared" si="19"/>
-        <v>64</v>
+        <f t="shared" si="7"/>
+        <v>94</v>
       </c>
       <c r="K74" s="6">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74"/>
       <c r="P74"/>
-      <c r="Q74" s="7"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="D75" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E75" s="6">
+        <v>10</v>
+      </c>
+      <c r="F75" s="6">
+        <v>50</v>
+      </c>
+      <c r="G75" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H75" s="6">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="F75" s="6">
-        <v>64</v>
-      </c>
-      <c r="G75" s="6">
-        <f t="shared" si="16"/>
-        <v>20</v>
-      </c>
-      <c r="H75" s="6">
-        <f t="shared" si="17"/>
-        <v>31</v>
-      </c>
       <c r="I75" s="6">
-        <f t="shared" si="18"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="J75" s="6">
-        <f t="shared" si="19"/>
-        <v>64</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="K75" s="6">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75"/>
       <c r="P75"/>
-      <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="D76" s="6">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E76" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F76" s="6">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="G76" s="6">
-        <f t="shared" si="16"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="H76" s="6">
-        <f t="shared" si="17"/>
-        <v>46</v>
+        <f t="shared" si="5"/>
+        <v>12.5</v>
       </c>
       <c r="I76" s="6">
-        <f t="shared" si="18"/>
-        <v>62</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="J76" s="6">
-        <f t="shared" si="19"/>
-        <v>94</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="K76" s="6">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
@@ -4559,41 +4681,41 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="D77" s="6">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="E77" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F77" s="6">
+        <v>50</v>
+      </c>
+      <c r="G77" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H77" s="6">
+        <f t="shared" si="5"/>
+        <v>27.5</v>
+      </c>
+      <c r="I77" s="6">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="G77" s="6">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="H77" s="6">
-        <f t="shared" si="17"/>
-        <v>12.5</v>
-      </c>
-      <c r="I77" s="6">
-        <f t="shared" si="18"/>
-        <v>20</v>
-      </c>
       <c r="J77" s="6">
-        <f t="shared" si="19"/>
-        <v>35</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="K77" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -4603,41 +4725,41 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="D78" s="6">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E78" s="6">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F78" s="6">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G78" s="6">
-        <f t="shared" si="16"/>
-        <v>36</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" si="17"/>
-        <v>43.25</v>
+        <f t="shared" si="5"/>
+        <v>55</v>
       </c>
       <c r="I78" s="6">
-        <f t="shared" si="18"/>
-        <v>50.5</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="J78" s="6">
-        <f t="shared" si="19"/>
-        <v>65</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
       <c r="K78" s="6">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
@@ -4647,41 +4769,41 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D79" s="6">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E79" s="6">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F79" s="6">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="G79" s="6">
-        <f t="shared" si="16"/>
-        <v>43</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="H79" s="6">
-        <f t="shared" si="17"/>
-        <v>47.25</v>
+        <f t="shared" si="5"/>
+        <v>61.25</v>
       </c>
       <c r="I79" s="6">
-        <f t="shared" si="18"/>
-        <v>51.5</v>
+        <f t="shared" si="6"/>
+        <v>92.5</v>
       </c>
       <c r="J79" s="6">
-        <f t="shared" si="19"/>
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>155</v>
       </c>
       <c r="K79" s="6">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
@@ -4691,45 +4813,43 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>8</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>162</v>
+        <v>6</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="D80" s="6">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E80" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F80" s="6">
+        <v>185</v>
+      </c>
+      <c r="G80" s="6">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="G80" s="6">
-        <f t="shared" si="16"/>
-        <v>20</v>
-      </c>
       <c r="H80" s="6">
-        <f t="shared" si="17"/>
-        <v>22.5</v>
+        <f t="shared" si="5"/>
+        <v>68.75</v>
       </c>
       <c r="I80" s="6">
-        <f t="shared" si="18"/>
-        <v>25</v>
+        <f t="shared" si="6"/>
+        <v>107.5</v>
       </c>
       <c r="J80" s="6">
-        <f t="shared" si="19"/>
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>185</v>
       </c>
       <c r="K80" s="6">
-        <v>200</v>
-      </c>
-      <c r="L80" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80"/>
@@ -4737,45 +4857,43 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>9</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>185</v>
+        <v>6</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D81" s="6">
-        <v>90</v>
+        <v>-20</v>
       </c>
       <c r="E81" s="6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F81" s="6">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="G81" s="6">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="H81" s="6">
-        <f t="shared" si="17"/>
-        <v>6.25</v>
+        <f t="shared" si="5"/>
+        <v>43.75</v>
       </c>
       <c r="I81" s="6">
-        <f t="shared" si="18"/>
-        <v>7.5</v>
+        <f t="shared" si="6"/>
+        <v>57.5</v>
       </c>
       <c r="J81" s="6">
-        <f t="shared" si="19"/>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>85</v>
       </c>
       <c r="K81" s="6">
-        <v>90</v>
-      </c>
-      <c r="L81" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81"/>
@@ -4783,43 +4901,45 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D82" s="6">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E82" s="6">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F82" s="6">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" si="16"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="H82" s="6">
-        <f t="shared" si="17"/>
-        <v>19.25</v>
+        <f t="shared" si="5"/>
+        <v>57.5</v>
       </c>
       <c r="I82" s="6">
-        <f t="shared" si="18"/>
-        <v>20.5</v>
+        <f t="shared" si="6"/>
+        <v>65</v>
       </c>
       <c r="J82" s="6">
-        <f t="shared" si="19"/>
-        <v>23</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
       <c r="K82" s="6">
-        <v>160</v>
-      </c>
-      <c r="L82" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="L82" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82"/>
@@ -4827,43 +4947,45 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D83" s="6">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E83" s="6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F83" s="6">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="16"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="H83" s="6">
-        <f t="shared" si="17"/>
-        <v>31</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="I83" s="6">
-        <f t="shared" si="18"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="J83" s="6">
-        <f t="shared" si="19"/>
-        <v>64</v>
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="K83" s="6">
-        <v>165</v>
-      </c>
-      <c r="L83" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="L83" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83"/>
@@ -4871,43 +4993,45 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D84" s="6">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E84" s="6">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F84" s="6">
+        <v>120</v>
+      </c>
+      <c r="G84" s="6">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="H84" s="6">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="I84" s="6">
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="G84" s="6">
-        <f t="shared" si="16"/>
-        <v>79</v>
-      </c>
-      <c r="H84" s="6">
-        <f t="shared" si="17"/>
-        <v>81.75</v>
-      </c>
-      <c r="I84" s="6">
-        <f t="shared" si="18"/>
-        <v>84.5</v>
-      </c>
       <c r="J84" s="6">
-        <f t="shared" si="19"/>
-        <v>90</v>
+        <f t="shared" si="7"/>
+        <v>120</v>
       </c>
       <c r="K84" s="6">
-        <v>175</v>
-      </c>
-      <c r="L84" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="L84" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
       <c r="O84"/>
@@ -4915,41 +5039,41 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
+        <v>6</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" s="6">
         <v>10</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D85" s="6">
-        <v>120</v>
-      </c>
       <c r="E85" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F85" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G85" s="6">
-        <f t="shared" si="16"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="H85" s="6">
-        <f t="shared" si="17"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>6.25</v>
       </c>
       <c r="I85" s="6">
-        <f t="shared" si="18"/>
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>7.5</v>
       </c>
       <c r="J85" s="6">
-        <f t="shared" si="19"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="K85" s="6">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="L85" s="6" t="b">
         <v>1</v>
@@ -4961,41 +5085,41 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D86" s="6">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E86" s="6">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F86" s="6">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" si="16"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="H86" s="6">
-        <f t="shared" si="17"/>
-        <v>22.5</v>
+        <f t="shared" si="5"/>
+        <v>38.5</v>
       </c>
       <c r="I86" s="6">
-        <f t="shared" si="18"/>
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>47</v>
       </c>
       <c r="J86" s="6">
-        <f t="shared" si="19"/>
-        <v>39</v>
+        <f t="shared" si="7"/>
+        <v>64</v>
       </c>
       <c r="K86" s="6">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
@@ -5005,41 +5129,41 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="6">
+        <v>60</v>
+      </c>
+      <c r="E87" s="6">
+        <v>20</v>
+      </c>
+      <c r="F87" s="6">
+        <v>64</v>
+      </c>
+      <c r="G87" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H87" s="6">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="I87" s="6">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="J87" s="6">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="K87" s="6">
         <v>140</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D87" s="6">
-        <v>100</v>
-      </c>
-      <c r="E87" s="6">
-        <v>66</v>
-      </c>
-      <c r="F87" s="6">
-        <v>99</v>
-      </c>
-      <c r="G87" s="6">
-        <f t="shared" si="16"/>
-        <v>66</v>
-      </c>
-      <c r="H87" s="6">
-        <f t="shared" si="17"/>
-        <v>74.25</v>
-      </c>
-      <c r="I87" s="6">
-        <f t="shared" si="18"/>
-        <v>82.5</v>
-      </c>
-      <c r="J87" s="6">
-        <f t="shared" si="19"/>
-        <v>99</v>
-      </c>
-      <c r="K87" s="6">
-        <v>185</v>
       </c>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
@@ -5049,45 +5173,43 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D88" s="6">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="E88" s="6">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F88" s="6">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G88" s="6">
-        <f t="shared" si="16"/>
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="H88" s="6">
-        <f t="shared" si="17"/>
-        <v>78.75</v>
+        <f t="shared" si="5"/>
+        <v>46</v>
       </c>
       <c r="I88" s="6">
-        <f t="shared" si="18"/>
-        <v>82.5</v>
+        <f t="shared" si="6"/>
+        <v>62</v>
       </c>
       <c r="J88" s="6">
-        <f t="shared" si="19"/>
-        <v>90</v>
+        <f t="shared" si="7"/>
+        <v>94</v>
       </c>
       <c r="K88" s="6">
-        <v>190</v>
-      </c>
-      <c r="L88" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
       <c r="O88"/>
@@ -5095,70 +5217,572 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
+        <v>8</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="6">
+        <v>75</v>
+      </c>
+      <c r="E89" s="6">
+        <v>5</v>
+      </c>
+      <c r="F89" s="6">
+        <v>35</v>
+      </c>
+      <c r="G89" s="6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H89" s="6">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+      <c r="I89" s="6">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="J89" s="6">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="K89" s="6">
+        <v>80</v>
+      </c>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>8</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" s="6">
+        <v>83</v>
+      </c>
+      <c r="E90" s="6">
+        <v>36</v>
+      </c>
+      <c r="F90" s="6">
+        <v>65</v>
+      </c>
+      <c r="G90" s="6">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="H90" s="6">
+        <f t="shared" si="5"/>
+        <v>43.25</v>
+      </c>
+      <c r="I90" s="6">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="J90" s="6">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="K90" s="6">
+        <v>166</v>
+      </c>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>8</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91" s="6">
+        <v>85</v>
+      </c>
+      <c r="E91" s="6">
+        <v>43</v>
+      </c>
+      <c r="F91" s="6">
+        <v>60</v>
+      </c>
+      <c r="G91" s="6">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="H91" s="6">
+        <f t="shared" si="5"/>
+        <v>47.25</v>
+      </c>
+      <c r="I91" s="6">
+        <f t="shared" si="6"/>
+        <v>51.5</v>
+      </c>
+      <c r="J91" s="6">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="K91" s="6">
+        <v>170</v>
+      </c>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D92" s="6">
+        <v>10</v>
+      </c>
+      <c r="E92" s="6">
+        <v>5</v>
+      </c>
+      <c r="F92" s="6">
+        <v>10</v>
+      </c>
+      <c r="G92" s="6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H92" s="6">
+        <f t="shared" si="5"/>
+        <v>6.25</v>
+      </c>
+      <c r="I92" s="6">
+        <f t="shared" si="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="J92" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="K92" s="6">
+        <v>200</v>
+      </c>
+      <c r="L92" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>9</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" s="6">
+        <v>90</v>
+      </c>
+      <c r="E93" s="6">
+        <v>5</v>
+      </c>
+      <c r="F93" s="6">
+        <v>10</v>
+      </c>
+      <c r="G93" s="6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H93" s="6">
+        <f t="shared" si="5"/>
+        <v>6.25</v>
+      </c>
+      <c r="I93" s="6">
+        <f t="shared" si="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="J93" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="K93" s="6">
+        <v>90</v>
+      </c>
+      <c r="L93" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>9</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="6">
+        <v>92</v>
+      </c>
+      <c r="E94" s="6">
+        <v>18</v>
+      </c>
+      <c r="F94" s="6">
+        <v>23</v>
+      </c>
+      <c r="G94" s="6">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H94" s="6">
+        <f t="shared" si="5"/>
+        <v>19.25</v>
+      </c>
+      <c r="I94" s="6">
+        <f t="shared" si="6"/>
+        <v>20.5</v>
+      </c>
+      <c r="J94" s="6">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="K94" s="6">
+        <v>160</v>
+      </c>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>9</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" s="6">
+        <v>92</v>
+      </c>
+      <c r="E95" s="6">
+        <v>20</v>
+      </c>
+      <c r="F95" s="6">
+        <v>64</v>
+      </c>
+      <c r="G95" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H95" s="6">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="I95" s="6">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="J95" s="6">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="K95" s="6">
+        <v>165</v>
+      </c>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>9</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" s="6">
+        <v>94</v>
+      </c>
+      <c r="E96" s="6">
+        <v>79</v>
+      </c>
+      <c r="F96" s="6">
+        <v>90</v>
+      </c>
+      <c r="G96" s="6">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="H96" s="6">
+        <f t="shared" si="5"/>
+        <v>81.75</v>
+      </c>
+      <c r="I96" s="6">
+        <f t="shared" si="6"/>
+        <v>84.5</v>
+      </c>
+      <c r="J96" s="6">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="K96" s="6">
+        <v>175</v>
+      </c>
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>10</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D97" s="6">
+        <v>120</v>
+      </c>
+      <c r="E97" s="6">
+        <v>7</v>
+      </c>
+      <c r="F97" s="6">
+        <v>15</v>
+      </c>
+      <c r="G97" s="6">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H97" s="6">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I97" s="6">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="J97" s="6">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="K97" s="6">
+        <v>100</v>
+      </c>
+      <c r="L97" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>10</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" s="6">
+        <v>100</v>
+      </c>
+      <c r="E98" s="6">
+        <v>17</v>
+      </c>
+      <c r="F98" s="6">
+        <v>39</v>
+      </c>
+      <c r="G98" s="6">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="H98" s="6">
+        <f t="shared" si="5"/>
+        <v>22.5</v>
+      </c>
+      <c r="I98" s="6">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="J98" s="6">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="K98" s="6">
+        <v>155</v>
+      </c>
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>10</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99" s="6">
+        <v>100</v>
+      </c>
+      <c r="E99" s="6">
+        <v>66</v>
+      </c>
+      <c r="F99" s="6">
+        <v>99</v>
+      </c>
+      <c r="G99" s="6">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="H99" s="6">
+        <f t="shared" si="5"/>
+        <v>74.25</v>
+      </c>
+      <c r="I99" s="6">
+        <f t="shared" si="6"/>
+        <v>82.5</v>
+      </c>
+      <c r="J99" s="6">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="K99" s="6">
+        <v>185</v>
+      </c>
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>11</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100" s="6">
+        <v>120</v>
+      </c>
+      <c r="E100" s="6">
+        <v>75</v>
+      </c>
+      <c r="F100" s="6">
+        <v>90</v>
+      </c>
+      <c r="G100" s="6">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="H100" s="6">
+        <f t="shared" si="5"/>
+        <v>78.75</v>
+      </c>
+      <c r="I100" s="6">
+        <f t="shared" si="6"/>
+        <v>82.5</v>
+      </c>
+      <c r="J100" s="6">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="K100" s="6">
+        <v>190</v>
+      </c>
+      <c r="L100" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
         <v>12</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D89" s="6">
+      <c r="B101" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" s="6">
         <v>150</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E101" s="6">
         <v>10</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F101" s="6">
         <v>20</v>
       </c>
-      <c r="G89" s="6">
-        <f>E89</f>
+      <c r="G101" s="6">
+        <f>E101</f>
         <v>10</v>
       </c>
-      <c r="H89" s="6">
-        <f>(F89-E89)*0.25+E89</f>
+      <c r="H101" s="6">
+        <f>(F101-E101)*0.25+E101</f>
         <v>12.5</v>
       </c>
-      <c r="I89" s="6">
-        <f>(F89-E89)*0.5+E89</f>
+      <c r="I101" s="6">
+        <f>(F101-E101)*0.5+E101</f>
         <v>15</v>
       </c>
-      <c r="J89" s="6">
-        <f>F89</f>
+      <c r="J101" s="6">
+        <f>F101</f>
         <v>20</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K101" s="6">
         <v>520</v>
       </c>
-      <c r="L89" s="6" t="b">
+      <c r="L101" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89"/>
-      <c r="P89"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90"/>
-      <c r="P90"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C96" s="1"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>15</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D102" s="1">
+        <v>180</v>
+      </c>
+      <c r="E102" s="1">
+        <v>100</v>
+      </c>
+      <c r="F102" s="1">
+        <v>880</v>
+      </c>
+      <c r="G102" s="1">
+        <f>E102</f>
+        <v>100</v>
+      </c>
+      <c r="H102" s="1">
+        <f>(F102-E102)*0.25+E102</f>
+        <v>295</v>
+      </c>
+      <c r="I102" s="1">
+        <f>(F102-E102)*0.5+E102</f>
+        <v>490</v>
+      </c>
+      <c r="J102" s="1">
+        <f>F102</f>
+        <v>880</v>
+      </c>
+      <c r="K102" s="1">
+        <v>888</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L88">

--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QQFireRecv\HuYanEconomy-0.1.16.mirai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AC879B-F9D0-451B-AE0B-BFB8551408E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD79DD2-C870-4CB8-ADA8-7932838B7C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="330">
   <si>
     <t>等级</t>
   </si>
@@ -62,18 +63,6 @@
     <t>特殊标记</t>
   </si>
   <si>
-    <t>木棍</t>
-  </si>
-  <si>
-    <t>一根泡烂了的木棍</t>
-  </si>
-  <si>
-    <t>破衣服</t>
-  </si>
-  <si>
-    <t>一件破烂的衣服</t>
-  </si>
-  <si>
     <t>死鱼</t>
   </si>
   <si>
@@ -98,12 +87,6 @@
     <t>一种常见的海鱼。</t>
   </si>
   <si>
-    <t>太阳鱼</t>
-  </si>
-  <si>
-    <t>一种常见的河鱼。</t>
-  </si>
-  <si>
     <t>鲱鱼</t>
   </si>
   <si>
@@ -350,9 +333,6 @@
     <t>无力的鲑鱼</t>
   </si>
   <si>
-    <t>一条鲑鱼，被虚空力量所扭曲。新鲜的肉是墨黑色的，但当暴露于空气中时很快变成粉红色的了。</t>
-  </si>
-  <si>
     <t>河豚</t>
   </si>
   <si>
@@ -464,9 +444,6 @@
     <t>年年有鱼</t>
   </si>
   <si>
-    <t>生活富足,每年都有多余的财富及食粮。</t>
-  </si>
-  <si>
     <t>900-999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,14 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓝藻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先锋植物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>荷叶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,14 +521,6 @@
   </si>
   <si>
     <t>破破烂烂的布条，似乎是衣服上扯下来的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泥鳅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑溜溜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -814,12 +775,540 @@
     <t>巨大的、神奇的、智慧的、建议放生的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>藤壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你确定是钓起来的？不是刮下来的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一泰铢鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我每天存一泰铢就为了买上你的蜡烛，我想告诉你一件事，我真的非常喜欢Pbec 555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉了的球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球只配2度菠萝啤！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1mo鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦苦追寻1而不得的momo，因为误把?看成!而上钩。成了你的鱼，就做Ta的1！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛定谔的鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼鱼，在还是不在呢…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤寡孤寡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼佬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整日沉迷钓鱼的岛民由于鱼太久没上钩，睡着了，不小心掉入鱼塘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破电视机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岛民成为电视上的群演，结果发现不给酬劳连口盒饭不都给，一气之下砸烂电视投入鱼塘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大比兜鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你在鱼塘沉溺过久执迷不悟的时候钓上来一条大比兜鱼，让你及时醒悟并开始思考今天这个鱼是不是就钓到这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美工的发际线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画外音：SarochaFreen：没youu~没youu~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一条鲑鱼，被虚空力量所扭曲。新鲜的肉是墨黑色的，但当暴露于空气中时很快变成粉红色的了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸盘鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠寄主鱼生活的躺赢信仰者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mumu鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于人类喜欢互相mumu鼓励，所以产生了mumu鱼。这种鱼都是成对出现的，除了吃饭就是在mumu。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆三陵鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚刚…钓鱼起竿的力气…是不是…大了点…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梭子蟹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常常吃的海蟹，多是养殖的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华绒螯蟹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球：炫我嘴里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为人熟知的一种热带性观赏鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海星没有血液，主要由海水组成体液的循环系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海胆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的胆子也太刺了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥陶纪活化石，一唱《no more blue》它就会消失，因为它的血是蓝的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福丽恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种很搞笑的鱼，一般的鱼市根本不收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿慕壮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种很可爱的鱼，一般的鱼市根本不收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰缺德鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为太缺德被人追着抓，如今已经濒危，很珍惜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海天使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本名裸海蝶，只有模样长得像天使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远东哲罗鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常大的淡水鱼，真的非常大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯血姛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常纯正的野生姛，没什么用，但是很会倒贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄性养育后代的动物之鉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼宝宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby shark dododo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱你至死不鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们坐海盗船前做个祈祷：阿门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小喇叭鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一条好奇的小鱼，找到她和她的关键道具，解锁《小喇叭鱼的故事》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝王鲑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常大体型的鲑鱼，不仅可以吃，还可作养殖鱼、游钓鱼及观赏鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠母贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠贝的左右两贝壳不完全相等，可以生产珍珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是内鱼是泰鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用钱花做的鱼，在生日和520都会很活跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五彩鳗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双鳗傍地游，安能辨我是雌雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪人鲹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够跃出水面捕鸟的食肉鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼你无瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从前，在一个神奇的水下世界里，有一只非常聪明的鱼，名叫小瓜。小瓜是一只非常好奇的鱼，他总是对周围的一切充满了好奇心。
+有一天，小瓜听说了一个传说，说在海底深处有一个神秘的宝藏。这个宝藏据说拥有无尽的财富和智慧。小瓜对此非常感兴趣，他决定踏上寻宝的旅程。
+小瓜穿过一片茂密的海草丛，游过一个个美丽的珊瑚礁，终于来到了一个黑暗的洞穴。洞穴里充满了神秘的气息，小瓜有些害怕，但他的好奇心驱使着他继续前进。
+在洞穴的尽头，小瓜发现了一个闪闪发光的宝箱。他激动地游过去，小心翼翼地打开了宝箱。里面的宝藏让他目瞪口呆！宝箱里没有金银财宝，而是一本古老的书。
+小瓜激动的翻开这本书，不料书中竟然写着：
+「姐1」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋刀鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能当球球的狗，还不能当球球鱼塘里的鱼吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FB鱼塘里的鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为隔壁FB鱼塘里的鱼太多，所以被挤出来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海大菠萝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和海绵宝宝做邻居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流言蜚鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然名字叫鱼，但其实是小喇叭鱼的关键道具，找到它和它的主人小喇叭鱼，解锁《小喇叭鱼的故事》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把土著塞进金属笼子，再沉入海水中，就有概率捕捉这种神奇的大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖恭鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你！当你钓到湖恭鱼，你已参透这世间唯一真理！不要再执着于鱼塘表层的结衣鱼和美衣鱼了，鱼塘深层的湖恭鱼才是真正的肥美鲜香嫩滑爽口，就它了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岛民侦探</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化身侦探的岛民还是化身岛民的侦探？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水獭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是钓鱼人太可爱，獭獭抱着鱼竿不松手啦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪獭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高寒或极低才会出现的纯白色獭獭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇带鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住在深海的大鱼，和带鱼没什么关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波士顿龙虾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常大型的、非常好吃的、非常昂贵的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活富足,每年都有多余的财富及食粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲纹唇鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俗称苏眉鱼，由于过度捕捞导致濒危</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，对指定目标使用，获得目标的币币（随机20-100）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，对指定目标使用，使目标失去自我3分钟，并获得目标的币币（随机100-800）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母牌系列收集品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警匪系列收集品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，使用后获得「年年有鱼」buff，之后的5次钓鱼都会额外增加difficultymin50，rankmin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「PFPFK」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非钓鱼物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗五个字母牌P、F、P、F、K兑换获得，使用后消失，同时获得「PFPFK」buff，且获得9802币币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「PFTNK」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗五个字母牌P、F、T、N、K兑换获得，使用后消失，同时获得「PFTNK」buff，且获得9802币币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK警匪片——FreenBecky版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗警匪系列收集品获得，使用后消失，人工艾特球球后兑换岛站有库存的任一周边一件（邮费自理），同时获得980299币币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《小喇叭鱼的故事》系列收集品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《小喇叭鱼的故事》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗小喇叭鱼和流言蜚鱼获得，使用后让bobo为大家讲述一个故事，且使用者获得13140币币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很久很久以前，有一个美丽的湖泊，湖泊里住着一群聪明的鱼儿。这群鱼儿非常友善，它们总是和睦相处，互相帮助。
+有一天，湖泊里来了一条新鱼，它叫做小喇叭鱼。小喇叭鱼非常好奇，总是喜欢四处张望，寻找新鲜事物。一天，它无意中听到了一些湖泊里的鱼儿们在讲一个奇怪的故事。
+据说，湖泊深处有一条神秘的鱼，它的鳞片闪烁着五彩斑斓的光芒，它拥有神奇的力量，可以让任何鱼儿的愿望成真。这个故事很快传遍了整个湖泊，鱼儿们都开始对这条神秘的鱼产生了浓厚的兴趣。
+小喇叭鱼听了这个故事后，非常激动。它决定要找到这条神秘的鱼，实现自己的愿望。于是，它开始踏上了寻找神秘鱼的旅程。
+小喇叭鱼游遍了整个湖泊，寻找着线索。它问遍了每一条鱼，但没有人能够告诉它确切的位置。有的鱼说神秘鱼在湖泊的中心，有的鱼说在湖底，还有的鱼说在湖边的岩石后面。
+小喇叭鱼越来越迷茫，它不知道该相信谁。于是，它决定停下来，冷静思考一下。它想起了一个重要的道理：“流言蜚语不可全信。”
+小喇叭鱼决定回到湖泊，告诉其他鱼儿们关于流言蜚语的危害。它告诉它们，虽然故事听起来很吸引人，但我们不能因为听到一些传言就盲目追逐。
+鱼儿们听了小喇叭鱼的话后，都感到非常后悔。他们意识到自己被流言蜚语蒙蔽了双眼，忽视了彼此之间的友谊和信任。
+无论你是谁，无论你身处何地，不要被流言蜚语所迷惑，要用自己的眼睛去看事实，用自己的耳朵去听真相。只有这样，我们才能过上真正幸福的生活。
+对了，姐1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎有用又似乎没有用……对指定目标使用，目标获得2分钟「薛定谔」buff，发送的所有消息都会被撤回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后让bobo为大家讲述一个故事《福丽恩》，且使用者获得808币币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事发生在泰国的一个小村庄，村庄里住着一位聪明的年轻人叫福丽恩。福丽恩非常喜欢学习，她对世界充满了好奇心。有一天，福福听说了一个神奇的故事，关于一件可以帮助人们解开所有困扰的魔法衣物。
+据说，这件魔法衣物可以帮助人们找到答案，解决问题，甚至改变命运。福福对这个故事充满了兴趣，当下就决定去寻找这件魔法衣物。
+福福踏上了她的冒险旅程，在她的旅途中，她遇到了各种各样的挑战和困难，很幸运地在旅途中遇到了同样热爱学习的阿慕壮，她们成为了很要好的朋友。
+终于，在不断的努力下，找到了散发着耀眼的光芒的魔法衣物。
+福福小心地穿上魔法衣物，立刻感受到了一股神奇的力量。她发现，只要她集中精神，衣物就会帮助她解开所有困扰。无论是人群恐惧，还是人际关系的纠纷，魔法衣物都能给予她答案和解决方案。
+福福回到村庄，将魔法衣物的力量分享给了其他人。村民们都非常感激，他们开始穿上魔法衣物，解决了许多问题和困扰。
+村庄变得更加和谐，人们之间的关系变得更加融洽。从那以后，福丽恩成为了村庄的英雄，她靠着这个衣服解开了村民的苦难。
+从那以后，她就有了一个称号，就是：解衣福丽恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后让bobo为大家讲述一个故事《阿慕壮》，且使用者获得1205币币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也许你听过《解衣福丽恩》的故事，但是你听过福丽恩故事里那个好朋友阿慕壮的故事吗？
+阿慕壮从小就是个聪明伶俐讨人喜爱的小孩，她喜欢唱歌、喜欢运动、喜欢各种动物，身边的所有人都成为了她的朋友。
+壮壮非常热爱学习，有一天她在图书馆的角落里找到一本书，里面介绍了一种神奇的梅子。书上说这种梅子不仅可以生津止渴，还有着永葆青春的功效。壮壮被种神奇的水果吸引了，当即就决定去寻找这种神奇的梅子。
+壮壮踏上的旅途并不顺利，但还好，她在路上遇到了不少人，也交到了不少的朋友。幸运的壮壮还遇到了同样寻找传说故事的福丽恩，虽然她们的目的不同，但还是成为了非常要好的朋友。
+壮壮辗转多地，终于打听到了神奇梅子的消息。翻过眼前这座山，有一片巨大的梅林，在那里生活的隐士有神奇梅子的下落。梅林的隐士没有轻易地相信壮壮，但壮壮没有放弃，很漂亮地通过了隐士的考验，获得了神奇梅子的来历。
+「梅林的深处有个入口，初极狭，才通人，穿过入口，便是生产神奇梅子的山岭了。神奇梅子只会在那片山岭生长。」
+壮壮终于找到了神奇梅子生长的山岭，她被这里美妙的景色和神奇的梅子所折服，写了很多关于这里的歌。
+从那以后，她就有了一个称号：梅岭阿慕壮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,6 +1370,22 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -910,7 +1415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +1451,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1261,11 +1784,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T102"/>
+  <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N60" sqref="N60"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1307,16 +1830,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>6</v>
@@ -1330,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D2" s="6">
         <v>-1</v>
@@ -1372,7 +1895,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1380,19 +1903,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="6">
         <v>5</v>
       </c>
       <c r="F3" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
@@ -1400,15 +1923,15 @@
       </c>
       <c r="H3" s="6">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" s="6">
         <v>0</v>
@@ -1419,7 +1942,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="T3" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1427,10 +1950,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
@@ -1439,7 +1962,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="6">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="0"/>
@@ -1447,15 +1970,15 @@
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
-        <v>5.25</v>
+        <v>8.75</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K4" s="6">
         <v>0</v>
@@ -1466,7 +1989,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="T4" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1474,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -1486,7 +2009,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
@@ -1494,67 +2017,68 @@
       </c>
       <c r="H5" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="L5" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="T5" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6">
-        <v>30</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="B6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>22.5</v>
-      </c>
-      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>12</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="9"/>
@@ -1564,41 +2088,40 @@
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="B7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="6">
-        <v>20</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="1">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>8.75</v>
-      </c>
-      <c r="I7" s="6">
+        <v>6.75</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="J7" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="9"/>
@@ -1609,42 +2132,40 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D8" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E8" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>E8</f>
+        <v>3</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>(F8-E8)*0.25+E8</f>
+        <v>4.25</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>(F8-E8)*0.5+E8</f>
+        <v>5.5</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>F8</f>
+        <v>8</v>
       </c>
       <c r="K8" s="6">
-        <v>10</v>
-      </c>
-      <c r="L8" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="8"/>
@@ -1655,38 +2176,41 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="1">
+        <v>158</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6">
+        <f>E9</f>
+        <v>10</v>
+      </c>
+      <c r="H9" s="6">
+        <f>(F9-E9)*0.25+E9</f>
+        <v>10</v>
+      </c>
+      <c r="I9" s="6">
+        <f>(F9-E9)*0.5+E9</f>
+        <v>10</v>
+      </c>
+      <c r="J9" s="6">
+        <f>F9</f>
+        <v>10</v>
+      </c>
+      <c r="K9" s="6">
+        <v>30</v>
+      </c>
+      <c r="L9" s="6" t="b">
         <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>12</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1695,42 +2219,43 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
-        <v>6.75</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="2"/>
-        <v>8.5</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="K10" s="1">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <f>E10</f>
+        <v>10</v>
+      </c>
+      <c r="H10" s="6">
+        <f>(F10-E10)*0.25+E10</f>
+        <v>10</v>
+      </c>
+      <c r="I10" s="6">
+        <f>(F10-E10)*0.5+E10</f>
+        <v>10</v>
+      </c>
+      <c r="J10" s="6">
+        <f>F10</f>
+        <v>10</v>
+      </c>
+      <c r="K10" s="6">
+        <v>25</v>
+      </c>
+      <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10"/>
@@ -1738,41 +2263,41 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="6">
-        <v>40</v>
-      </c>
-      <c r="G11" s="1">
+        <v>20</v>
+      </c>
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="1"/>
+        <v>7.25</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="J11" s="6">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K11" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -1782,38 +2307,38 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="D12" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
       </c>
       <c r="F12" s="6">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G12" s="6">
-        <f>E12</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H12" s="6">
-        <f>(F12-E12)*0.25+E12</f>
-        <v>4.25</v>
+        <f t="shared" si="1"/>
+        <v>9.25</v>
       </c>
       <c r="I12" s="6">
-        <f>(F12-E12)*0.5+E12</f>
-        <v>5.5</v>
+        <f t="shared" si="2"/>
+        <v>15.5</v>
       </c>
       <c r="J12" s="6">
-        <f>F12</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="K12" s="6">
         <v>30</v>
@@ -1826,45 +2351,43 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-20</v>
+      </c>
+      <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="6">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6">
-        <v>5</v>
-      </c>
       <c r="F13" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G13" s="6">
-        <f>E13</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H13" s="6">
-        <f>(F13-E13)*0.25+E13</f>
-        <v>5.75</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I13" s="6">
-        <f>(F13-E13)*0.5+E13</f>
-        <v>6.5</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J13" s="6">
-        <f>F13</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K13" s="6">
         <v>30</v>
       </c>
-      <c r="L13" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13"/>
@@ -1875,38 +2398,38 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
       </c>
       <c r="E14" s="6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F14" s="6">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>7.25</v>
+        <v>20</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="K14" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -1918,39 +2441,39 @@
       <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>19</v>
+      <c r="B15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D15" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F15" s="6">
-        <v>28</v>
+        <v>365</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>9.25</v>
+        <v>113.75</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="2"/>
-        <v>15.5</v>
+        <v>197.5</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>365</v>
       </c>
       <c r="K15" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1962,39 +2485,39 @@
       <c r="A16" s="6">
         <v>2</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>14</v>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="6">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="E16" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F16" s="6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>27.5</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K16" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -2002,45 +2525,47 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="D17" s="6">
         <v>3</v>
       </c>
       <c r="E17" s="6">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F17" s="6">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="K17" s="6">
-        <v>35</v>
-      </c>
-      <c r="L17" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="L17" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17"/>
@@ -2050,39 +2575,39 @@
       <c r="A18" s="6">
         <v>2</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>12</v>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D18" s="6">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="6">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F18" s="6">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="K18" s="6">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -2095,38 +2620,38 @@
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6">
         <v>3</v>
       </c>
       <c r="E19" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F19" s="6">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="1"/>
-        <v>27.5</v>
+        <v>42.25</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>54.5</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="K19" s="6">
         <v>50</v>
-      </c>
-      <c r="K19" s="6">
-        <v>45</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -2134,15 +2659,15 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="D20" s="6">
         <v>3</v>
@@ -2151,7 +2676,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="6">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="0"/>
@@ -2159,18 +2684,18 @@
       </c>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>41.5</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="K20" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -2183,38 +2708,38 @@
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
       </c>
       <c r="E21" s="6">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F21" s="6">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K21" s="6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -2226,41 +2751,43 @@
       <c r="A22" s="6">
         <v>2</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>26</v>
+      <c r="B22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="D22" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F22" s="6">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="1"/>
-        <v>42.25</v>
+        <v>10</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="2"/>
-        <v>54.5</v>
+        <v>10</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="K22" s="6">
         <v>50</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22"/>
@@ -2268,41 +2795,41 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>2</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>10</v>
+      </c>
+      <c r="F23" s="6">
         <v>30</v>
-      </c>
-      <c r="D23" s="6">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6">
-        <v>25</v>
-      </c>
-      <c r="F23" s="6">
-        <v>91</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="1"/>
-        <v>41.5</v>
+        <v>15</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="K23" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -2312,41 +2839,41 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D24" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="6">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="F24" s="6">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="K24" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -2356,44 +2883,41 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="6">
-        <v>10</v>
-      </c>
-      <c r="E25" s="6">
-        <v>5</v>
-      </c>
-      <c r="F25" s="6">
-        <v>10</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H25" s="6">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="1"/>
-        <v>6.25</v>
-      </c>
-      <c r="I25" s="6">
+        <v>4</v>
+      </c>
+      <c r="I25" s="1">
         <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="J25" s="6">
+        <v>4</v>
+      </c>
+      <c r="J25" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K25" s="6">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1">
         <v>50</v>
-      </c>
-      <c r="L25" s="6" t="b">
-        <v>1</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -2404,39 +2928,39 @@
       <c r="A26" s="6">
         <v>3</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>176</v>
+      <c r="B26" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="D26" s="6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="6">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F26" s="6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>66.25</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>77.5</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K26" s="6">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -2449,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D27" s="6">
         <v>6</v>
@@ -2493,10 +3017,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D28" s="6">
         <v>4</v>
@@ -2537,10 +3061,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D29" s="6">
         <v>4</v>
@@ -2581,10 +3105,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D30" s="6">
         <v>4</v>
@@ -2625,10 +3149,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D31" s="6">
         <v>4</v>
@@ -2669,10 +3193,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D32" s="6">
         <v>6</v>
@@ -2700,7 +3224,7 @@
         <v>48</v>
       </c>
       <c r="K32" s="6">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -2713,10 +3237,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D33" s="6">
         <v>7</v>
@@ -2744,7 +3268,7 @@
         <v>60</v>
       </c>
       <c r="K33" s="6">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
@@ -2757,38 +3281,38 @@
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F34" s="6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="1"/>
-        <v>35.25</v>
+        <v>31</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="2"/>
-        <v>45.5</v>
+        <v>42</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K34" s="6">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -2800,40 +3324,41 @@
       <c r="A35" s="6">
         <v>3</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1">
-        <v>4</v>
-      </c>
-      <c r="F35" s="1">
-        <v>4</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="B35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="6">
+        <v>6</v>
+      </c>
+      <c r="E35" s="6">
+        <v>28</v>
+      </c>
+      <c r="F35" s="6">
+        <v>79</v>
+      </c>
+      <c r="G35" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H35" s="1">
+        <v>28</v>
+      </c>
+      <c r="H35" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I35" s="1">
+        <v>40.75</v>
+      </c>
+      <c r="I35" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J35" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="J35" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="K35" s="1">
-        <v>30</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="K35" s="6">
+        <v>70</v>
+      </c>
+      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35"/>
@@ -2844,38 +3369,38 @@
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="D36" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E36" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F36" s="6">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K36" s="6">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -2888,38 +3413,38 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" s="6">
         <v>6</v>
       </c>
       <c r="E37" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F37" s="6">
         <v>79</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H37" s="6">
         <f t="shared" si="1"/>
-        <v>40.75</v>
+        <v>42.25</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="2"/>
-        <v>53.5</v>
+        <v>54.5</v>
       </c>
       <c r="J37" s="6">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="K37" s="6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -2932,38 +3457,38 @@
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D38" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E38" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F38" s="6">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H38" s="6">
         <f t="shared" si="1"/>
-        <v>40.75</v>
+        <v>53.5</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" si="2"/>
-        <v>53.5</v>
+        <v>77</v>
       </c>
       <c r="J38" s="6">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="K38" s="6">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -2985,29 +3510,29 @@
         <v>6</v>
       </c>
       <c r="E39" s="6">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F39" s="6">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H39" s="6">
         <f t="shared" si="1"/>
-        <v>42.25</v>
+        <v>64.25</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="2"/>
-        <v>54.5</v>
+        <v>77.5</v>
       </c>
       <c r="J39" s="6">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="K39" s="6">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
@@ -3021,38 +3546,38 @@
         <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D40" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" s="6">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F40" s="6">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H40" s="6">
         <f t="shared" si="1"/>
-        <v>40.25</v>
+        <v>87.75</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="2"/>
-        <v>55.5</v>
+        <v>114.5</v>
       </c>
       <c r="J40" s="6">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="K40" s="6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
@@ -3066,38 +3591,38 @@
         <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="D41" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E41" s="6">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F41" s="6">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H41" s="6">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="J41" s="6">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="K41" s="6">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -3110,84 +3635,86 @@
       <c r="A42" s="6">
         <v>3</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>57</v>
+      <c r="B42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D42" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E42" s="6">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="F42" s="6">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="H42" s="6">
         <f t="shared" si="1"/>
-        <v>69.25</v>
+        <v>10</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="2"/>
-        <v>87.5</v>
+        <v>10</v>
       </c>
       <c r="J42" s="6">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="K42" s="6">
-        <v>95</v>
-      </c>
-      <c r="L42" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="L42" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>3</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>61</v>
+        <v>4</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="D43" s="6">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="E43" s="6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F43" s="6">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H43" s="6">
         <f t="shared" si="1"/>
-        <v>53.5</v>
+        <v>6.25</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>7.5</v>
       </c>
       <c r="J43" s="6">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="K43" s="6">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -3196,45 +3723,47 @@
       <c r="P43"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="D44" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E44" s="6">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F44" s="6">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H44" s="6">
         <f t="shared" si="1"/>
-        <v>64.25</v>
+        <v>30</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="2"/>
-        <v>77.5</v>
+        <v>30</v>
       </c>
       <c r="J44" s="6">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="K44" s="6">
-        <v>95</v>
-      </c>
-      <c r="L44" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="L44" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44"/>
@@ -3243,41 +3772,41 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="D45" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E45" s="6">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F45" s="6">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="H45" s="6">
         <f t="shared" si="1"/>
-        <v>87.75</v>
+        <v>18</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="2"/>
-        <v>114.5</v>
+        <v>26</v>
       </c>
       <c r="J45" s="6">
         <f t="shared" si="3"/>
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="K45" s="6">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -3288,41 +3817,41 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D46" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E46" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F46" s="6">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H46" s="6">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>16.75</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>18.5</v>
       </c>
       <c r="J46" s="6">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="K46" s="6">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -3333,88 +3862,86 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>3</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>183</v>
+        <v>4</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="D47" s="6">
         <v>10</v>
       </c>
       <c r="E47" s="6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F47" s="6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H47" s="6">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>19.75</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>21.5</v>
       </c>
       <c r="J47" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K47" s="6">
-        <v>100</v>
-      </c>
-      <c r="L47" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>4</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>185</v>
+      <c r="B48" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D48" s="6">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="E48" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F48" s="6">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H48" s="6">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>23</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="J48" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K48" s="6">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -3428,40 +3955,42 @@
         <v>4</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D49" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E49" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F49" s="6">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G49" s="6">
-        <f>E49</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H49" s="6">
-        <f>(F49-E49)*0.25+E49</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="I49" s="6">
-        <f>(F49-E49)*0.5+E49</f>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="J49" s="6">
-        <f>F49</f>
-        <v>42</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="K49" s="6">
         <v>50</v>
       </c>
-      <c r="L49" s="6"/>
+      <c r="L49" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49"/>
@@ -3473,38 +4002,38 @@
         <v>4</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D50" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E50" s="6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F50" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H50" s="6">
         <f t="shared" si="1"/>
-        <v>16.75</v>
+        <v>22</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="2"/>
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="J50" s="6">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K50" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -3518,40 +4047,39 @@
         <v>4</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="6">
-        <v>10</v>
-      </c>
-      <c r="E51" s="6">
-        <v>18</v>
-      </c>
-      <c r="F51" s="6">
+        <v>216</v>
+      </c>
+      <c r="D51" s="1">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1">
+        <v>20</v>
+      </c>
+      <c r="F51" s="1">
+        <v>30</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G51" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H51" s="6">
-        <f t="shared" si="1"/>
-        <v>19.75</v>
-      </c>
-      <c r="I51" s="6">
-        <f t="shared" si="2"/>
-        <v>21.5</v>
-      </c>
-      <c r="J51" s="6">
+      <c r="J51" s="1">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="K51" s="6">
-        <v>50</v>
-      </c>
-      <c r="L51" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="K51" s="1">
+        <v>65</v>
+      </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51"/>
@@ -3563,19 +4091,19 @@
         <v>4</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D52" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E52" s="6">
         <v>20</v>
       </c>
       <c r="F52" s="6">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="0"/>
@@ -3583,18 +4111,18 @@
       </c>
       <c r="H52" s="6">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J52" s="6">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K52" s="6">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -3614,32 +4142,32 @@
         <v>71</v>
       </c>
       <c r="D53" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" s="6">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F53" s="6">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H53" s="6">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>40.75</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>53.5</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="K53" s="6">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -3653,40 +4181,39 @@
         <v>4</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="6">
-        <v>12</v>
-      </c>
-      <c r="E54" s="6">
-        <v>20</v>
-      </c>
-      <c r="F54" s="6">
-        <v>64</v>
-      </c>
-      <c r="G54" s="6">
+        <v>218</v>
+      </c>
+      <c r="D54" s="1">
+        <v>15</v>
+      </c>
+      <c r="E54" s="1">
+        <v>30</v>
+      </c>
+      <c r="F54" s="1">
+        <v>70</v>
+      </c>
+      <c r="G54" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H54" s="6">
+        <v>30</v>
+      </c>
+      <c r="H54" s="1">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="I54" s="6">
+        <v>40</v>
+      </c>
+      <c r="I54" s="1">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="J54" s="6">
+        <v>50</v>
+      </c>
+      <c r="J54" s="1">
         <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="K54" s="6">
         <v>70</v>
       </c>
-      <c r="L54" s="6"/>
+      <c r="K54" s="1">
+        <v>70</v>
+      </c>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54"/>
@@ -3698,38 +4225,38 @@
         <v>4</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D55" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E55" s="6">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F55" s="6">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H55" s="6">
         <f t="shared" si="1"/>
-        <v>40.75</v>
+        <v>44.75</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" si="2"/>
-        <v>53.5</v>
+        <v>64.5</v>
       </c>
       <c r="J55" s="6">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="K55" s="6">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
@@ -3743,38 +4270,38 @@
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D56" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" s="6">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F56" s="6">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H56" s="6">
         <f t="shared" si="1"/>
-        <v>44.75</v>
+        <v>66.75</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" si="2"/>
-        <v>64.5</v>
+        <v>72.5</v>
       </c>
       <c r="J56" s="6">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="K56" s="6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
@@ -3788,38 +4315,38 @@
         <v>4</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D57" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E57" s="6">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F57" s="6">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="H57" s="6">
         <f t="shared" si="1"/>
-        <v>66.75</v>
+        <v>61.25</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" si="2"/>
-        <v>72.5</v>
+        <v>92.5</v>
       </c>
       <c r="J57" s="6">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="K57" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -3833,38 +4360,38 @@
         <v>4</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D58" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E58" s="6">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F58" s="6">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="H58" s="6">
         <f t="shared" si="1"/>
-        <v>61.25</v>
+        <v>89.5</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" si="2"/>
-        <v>92.5</v>
+        <v>103</v>
       </c>
       <c r="J58" s="6">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K58" s="6">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -3875,41 +4402,41 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>4</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="D59" s="6">
-        <v>18</v>
+        <v>-10</v>
       </c>
       <c r="E59" s="6">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F59" s="6">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="H59" s="6">
         <f t="shared" si="1"/>
-        <v>67.25</v>
+        <v>2</v>
       </c>
       <c r="I59" s="6">
         <f t="shared" si="2"/>
-        <v>96.5</v>
+        <v>3</v>
       </c>
       <c r="J59" s="6">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="K59" s="6">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
@@ -3920,41 +4447,41 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="D60" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E60" s="6">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F60" s="6">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="H60" s="6">
         <f t="shared" si="1"/>
-        <v>89.5</v>
+        <v>10.5</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="J60" s="6">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="K60" s="6">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
@@ -3963,47 +4490,45 @@
       <c r="P60"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="D61" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E61" s="6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F61" s="6">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H61" s="6">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J61" s="6">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="K61" s="6">
-        <v>6</v>
-      </c>
-      <c r="L61" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61"/>
@@ -4014,39 +4539,39 @@
       <c r="A62" s="6">
         <v>5</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>190</v>
+      <c r="B62" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="D62" s="6">
-        <v>-10</v>
+        <v>22</v>
       </c>
       <c r="E62" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F62" s="6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H62" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10.75</v>
       </c>
       <c r="I62" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="J62" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K62" s="6">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
@@ -4060,38 +4585,38 @@
         <v>5</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D63" s="6">
+        <v>2</v>
+      </c>
+      <c r="E63" s="6">
+        <v>3</v>
+      </c>
+      <c r="F63" s="6">
         <v>20</v>
-      </c>
-      <c r="E63" s="6">
-        <v>10</v>
-      </c>
-      <c r="F63" s="6">
-        <v>12</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H63" s="6">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>7.25</v>
       </c>
       <c r="I63" s="6">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J63" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K63" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -4105,38 +4630,38 @@
         <v>5</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D64" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E64" s="6">
+        <v>10</v>
+      </c>
+      <c r="F64" s="6">
         <v>12</v>
-      </c>
-      <c r="F64" s="6">
-        <v>52</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H64" s="6">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="I64" s="6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J64" s="6">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="K64" s="6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -4150,35 +4675,35 @@
         <v>5</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="D65" s="6">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E65" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F65" s="6">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H65" s="6">
         <f t="shared" si="1"/>
-        <v>10.75</v>
+        <v>57.5</v>
       </c>
       <c r="I65" s="6">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>65</v>
       </c>
       <c r="J65" s="6">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="K65" s="6">
         <v>60</v>
@@ -4190,43 +4715,43 @@
       <c r="P65"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>5</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>96</v>
+        <v>221</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="D66" s="6">
-        <v>25</v>
+        <v>-20</v>
       </c>
       <c r="E66" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F66" s="6">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" ref="G66:G102" si="4">E66</f>
-        <v>25</v>
+        <f t="shared" ref="G66:G129" si="4">E66</f>
+        <v>20</v>
       </c>
       <c r="H66" s="6">
-        <f t="shared" ref="H66:H102" si="5">(F66-E66)*0.25+E66</f>
-        <v>32</v>
+        <f t="shared" ref="H66:H129" si="5">(F66-E66)*0.25+E66</f>
+        <v>27.5</v>
       </c>
       <c r="I66" s="6">
-        <f t="shared" ref="I66:I102" si="6">(F66-E66)*0.5+E66</f>
-        <v>39</v>
+        <f t="shared" ref="I66:I129" si="6">(F66-E66)*0.5+E66</f>
+        <v>35</v>
       </c>
       <c r="J66" s="6">
-        <f t="shared" ref="J66:J102" si="7">F66</f>
-        <v>53</v>
+        <f t="shared" ref="J66:J129" si="7">F66</f>
+        <v>50</v>
       </c>
       <c r="K66" s="6">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -4249,29 +4774,29 @@
         <v>25</v>
       </c>
       <c r="E67" s="6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F67" s="6">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="5"/>
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="I67" s="6">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="J67" s="6">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="K67" s="6">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
@@ -4285,38 +4810,38 @@
         <v>5</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="D68" s="6">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E68" s="6">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F68" s="6">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="5"/>
-        <v>7.25</v>
+        <v>28.75</v>
       </c>
       <c r="I68" s="6">
         <f t="shared" si="6"/>
-        <v>11.5</v>
+        <v>39.5</v>
       </c>
       <c r="J68" s="6">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="K68" s="6">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
@@ -4330,35 +4855,35 @@
         <v>5</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="D69" s="6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E69" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F69" s="6">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="5"/>
-        <v>28.75</v>
+        <v>0</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" si="6"/>
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="J69" s="6">
         <f t="shared" si="7"/>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K69" s="6">
         <v>80</v>
@@ -4374,10 +4899,10 @@
         <v>5</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D70" s="6">
         <v>30</v>
@@ -4418,10 +4943,10 @@
         <v>5</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D71" s="6">
         <v>31</v>
@@ -4449,7 +4974,7 @@
         <v>124</v>
       </c>
       <c r="K71" s="6">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -4462,10 +4987,10 @@
         <v>5</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="D72" s="6">
         <v>34</v>
@@ -4493,7 +5018,7 @@
         <v>165</v>
       </c>
       <c r="K72" s="6">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
@@ -4506,38 +5031,38 @@
         <v>5</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D73" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E73" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F73" s="6">
         <v>10</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H73" s="6">
         <f t="shared" si="5"/>
-        <v>6.25</v>
+        <v>10</v>
       </c>
       <c r="I73" s="6">
         <f t="shared" si="6"/>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="J73" s="6">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="K73" s="6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L73" s="6" t="b">
         <v>1</v>
@@ -4552,38 +5077,38 @@
         <v>6</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="D74" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E74" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F74" s="6">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H74" s="6">
         <f t="shared" si="5"/>
-        <v>25.75</v>
+        <v>12.5</v>
       </c>
       <c r="I74" s="6">
         <f t="shared" si="6"/>
-        <v>48.5</v>
+        <v>15</v>
       </c>
       <c r="J74" s="6">
         <f t="shared" si="7"/>
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="K74" s="6">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
@@ -4596,38 +5121,38 @@
         <v>6</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D75" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E75" s="6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F75" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H75" s="6">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I75" s="6">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J75" s="6">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K75" s="6">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
@@ -4640,10 +5165,10 @@
         <v>6</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D76" s="6">
         <v>30</v>
@@ -4652,7 +5177,7 @@
         <v>10</v>
       </c>
       <c r="F76" s="6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="4"/>
@@ -4660,18 +5185,18 @@
       </c>
       <c r="H76" s="6">
         <f t="shared" si="5"/>
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="I76" s="6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J76" s="6">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K76" s="6">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
@@ -4684,10 +5209,10 @@
         <v>6</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D77" s="6">
         <v>26</v>
@@ -4715,7 +5240,7 @@
         <v>50</v>
       </c>
       <c r="K77" s="6">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -4728,38 +5253,38 @@
         <v>6</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="D78" s="6">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E78" s="6">
+        <v>30</v>
+      </c>
+      <c r="F78" s="6">
         <v>40</v>
-      </c>
-      <c r="F78" s="6">
-        <v>100</v>
       </c>
       <c r="G78" s="6">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H78" s="6">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>32.5</v>
       </c>
       <c r="I78" s="6">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="J78" s="6">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K78" s="6">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
@@ -4767,43 +5292,43 @@
       <c r="O78"/>
       <c r="P78"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>6</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>116</v>
+        <v>228</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D79" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E79" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F79" s="6">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H79" s="6">
         <f t="shared" si="5"/>
-        <v>61.25</v>
+        <v>52.5</v>
       </c>
       <c r="I79" s="6">
         <f t="shared" si="6"/>
-        <v>92.5</v>
+        <v>55</v>
       </c>
       <c r="J79" s="6">
         <f t="shared" si="7"/>
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="K79" s="6">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
@@ -4816,19 +5341,19 @@
         <v>6</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="D80" s="6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E80" s="6">
         <v>30</v>
       </c>
       <c r="F80" s="6">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="G80" s="6">
         <f t="shared" si="4"/>
@@ -4836,18 +5361,18 @@
       </c>
       <c r="H80" s="6">
         <f t="shared" si="5"/>
-        <v>68.75</v>
+        <v>35</v>
       </c>
       <c r="I80" s="6">
         <f t="shared" si="6"/>
-        <v>107.5</v>
+        <v>40</v>
       </c>
       <c r="J80" s="6">
         <f t="shared" si="7"/>
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="K80" s="6">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
@@ -4859,39 +5384,39 @@
       <c r="A81" s="6">
         <v>6</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>107</v>
+      <c r="B81" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D81" s="6">
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="E81" s="6">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F81" s="6">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H81" s="6">
         <f t="shared" si="5"/>
-        <v>43.75</v>
+        <v>25.75</v>
       </c>
       <c r="I81" s="6">
         <f t="shared" si="6"/>
-        <v>57.5</v>
+        <v>48.5</v>
       </c>
       <c r="J81" s="6">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K81" s="6">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
@@ -4904,42 +5429,40 @@
         <v>6</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="D82" s="6">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E82" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F82" s="6">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H82" s="6">
         <f t="shared" si="5"/>
-        <v>57.5</v>
+        <v>61.25</v>
       </c>
       <c r="I82" s="6">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>92.5</v>
       </c>
       <c r="J82" s="6">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K82" s="6">
-        <v>180</v>
-      </c>
-      <c r="L82" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82"/>
@@ -4949,39 +5472,39 @@
       <c r="A83" s="6">
         <v>6</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>112</v>
+      <c r="B83" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D83" s="6">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E83" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F83" s="6">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H83" s="6">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I83" s="6">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="J83" s="6">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="K83" s="6">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="L83" s="6" t="b">
         <v>1</v>
@@ -4996,42 +5519,40 @@
         <v>6</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D84" s="6">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E84" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F84" s="6">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H84" s="6">
         <f t="shared" si="5"/>
-        <v>75</v>
+        <v>68.75</v>
       </c>
       <c r="I84" s="6">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>107.5</v>
       </c>
       <c r="J84" s="6">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="K84" s="6">
-        <v>180</v>
-      </c>
-      <c r="L84" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
       <c r="O84"/>
@@ -5041,43 +5562,41 @@
       <c r="A85" s="6">
         <v>6</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>206</v>
+      <c r="B85" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="D85" s="6">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="E85" s="6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F85" s="6">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H85" s="6">
         <f t="shared" si="5"/>
-        <v>6.25</v>
+        <v>43.75</v>
       </c>
       <c r="I85" s="6">
         <f t="shared" si="6"/>
-        <v>7.5</v>
+        <v>57.5</v>
       </c>
       <c r="J85" s="6">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="K85" s="6">
-        <v>190</v>
-      </c>
-      <c r="L85" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85"/>
@@ -5085,41 +5604,41 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D86" s="6">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E86" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F86" s="6">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="G86" s="6">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H86" s="6">
         <f t="shared" si="5"/>
-        <v>38.5</v>
+        <v>60</v>
       </c>
       <c r="I86" s="6">
         <f t="shared" si="6"/>
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J86" s="6">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="K86" s="6">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
@@ -5129,41 +5648,41 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C87" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="6">
+        <v>58</v>
+      </c>
+      <c r="E87" s="6">
+        <v>60</v>
+      </c>
+      <c r="F87" s="6">
         <v>120</v>
-      </c>
-      <c r="D87" s="6">
-        <v>60</v>
-      </c>
-      <c r="E87" s="6">
-        <v>20</v>
-      </c>
-      <c r="F87" s="6">
-        <v>64</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H87" s="6">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="I87" s="6">
         <f t="shared" si="6"/>
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="J87" s="6">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="K87" s="6">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
@@ -5176,19 +5695,19 @@
         <v>7</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="D88" s="6">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E88" s="6">
         <v>30</v>
       </c>
       <c r="F88" s="6">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="G88" s="6">
         <f t="shared" si="4"/>
@@ -5196,18 +5715,18 @@
       </c>
       <c r="H88" s="6">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I88" s="6">
         <f t="shared" si="6"/>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="J88" s="6">
         <f t="shared" si="7"/>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K88" s="6">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
@@ -5217,571 +5736,2297 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="D89" s="6">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E89" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F89" s="6">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G89" s="6">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H89" s="6">
         <f t="shared" si="5"/>
-        <v>12.5</v>
+        <v>27.5</v>
       </c>
       <c r="I89" s="6">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J89" s="6">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K89" s="6">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L89" s="6"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D90" s="6">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E90" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F90" s="6">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="G90" s="6">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H90" s="6">
         <f t="shared" si="5"/>
-        <v>43.25</v>
+        <v>67.25</v>
       </c>
       <c r="I90" s="6">
         <f t="shared" si="6"/>
-        <v>50.5</v>
+        <v>96.5</v>
       </c>
       <c r="J90" s="6">
         <f t="shared" si="7"/>
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="K90" s="6">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="L90" s="6"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="D91" s="6">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E91" s="6">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F91" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G91" s="6">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H91" s="6">
         <f t="shared" si="5"/>
-        <v>47.25</v>
+        <v>38.75</v>
       </c>
       <c r="I91" s="6">
         <f t="shared" si="6"/>
-        <v>51.5</v>
+        <v>42.5</v>
       </c>
       <c r="J91" s="6">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K91" s="6">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="L91" s="6"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>8</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>208</v>
+        <v>7</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="D92" s="6">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E92" s="6">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F92" s="6">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G92" s="6">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H92" s="6">
         <f t="shared" si="5"/>
-        <v>6.25</v>
+        <v>42.75</v>
       </c>
       <c r="I92" s="6">
         <f t="shared" si="6"/>
-        <v>7.5</v>
+        <v>53.5</v>
       </c>
       <c r="J92" s="6">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="K92" s="6">
-        <v>200</v>
-      </c>
-      <c r="L92" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="L92" s="6"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>9</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D93" s="6">
-        <v>90</v>
-      </c>
-      <c r="E93" s="6">
-        <v>5</v>
-      </c>
-      <c r="F93" s="6">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D93" s="1">
+        <v>35</v>
+      </c>
+      <c r="E93" s="1">
+        <v>25</v>
+      </c>
+      <c r="F93" s="1">
+        <v>82</v>
       </c>
       <c r="G93" s="6">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H93" s="6">
         <f t="shared" si="5"/>
-        <v>6.25</v>
+        <v>39.25</v>
       </c>
       <c r="I93" s="6">
         <f t="shared" si="6"/>
-        <v>7.5</v>
+        <v>53.5</v>
       </c>
       <c r="J93" s="6">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="K93" s="6">
-        <v>90</v>
-      </c>
-      <c r="L93" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="L93" s="6"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="D94" s="6">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="E94" s="6">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F94" s="6">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G94" s="6">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H94" s="6">
         <f t="shared" si="5"/>
-        <v>19.25</v>
+        <v>35</v>
       </c>
       <c r="I94" s="6">
         <f t="shared" si="6"/>
-        <v>20.5</v>
+        <v>40</v>
       </c>
       <c r="J94" s="6">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="K94" s="6">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="L94" s="6"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>134</v>
+        <v>244</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="D95" s="6">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="E95" s="6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F95" s="6">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="G95" s="6">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H95" s="6">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I95" s="6">
         <f t="shared" si="6"/>
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="J95" s="6">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="K95" s="6">
-        <v>165</v>
-      </c>
-      <c r="L95" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="L95" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>136</v>
+        <v>246</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="D96" s="6">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E96" s="6">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="F96" s="6">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G96" s="6">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="H96" s="6">
         <f t="shared" si="5"/>
-        <v>81.75</v>
+        <v>5</v>
       </c>
       <c r="I96" s="6">
         <f t="shared" si="6"/>
-        <v>84.5</v>
+        <v>5</v>
       </c>
       <c r="J96" s="6">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="K96" s="6">
-        <v>175</v>
-      </c>
-      <c r="L96" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="L96" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="D97" s="6">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E97" s="6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F97" s="6">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H97" s="6">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I97" s="6">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J97" s="6">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="K97" s="6">
-        <v>100</v>
-      </c>
-      <c r="L97" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="L97" s="6"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D98" s="6">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E98" s="6">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F98" s="6">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="G98" s="6">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H98" s="6">
         <f t="shared" si="5"/>
-        <v>22.5</v>
+        <v>38.5</v>
       </c>
       <c r="I98" s="6">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J98" s="6">
         <f t="shared" si="7"/>
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="K98" s="6">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="L98" s="6"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="D99" s="6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E99" s="6">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F99" s="6">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="H99" s="6">
         <f t="shared" si="5"/>
-        <v>74.25</v>
+        <v>27.5</v>
       </c>
       <c r="I99" s="6">
         <f t="shared" si="6"/>
-        <v>82.5</v>
+        <v>35</v>
       </c>
       <c r="J99" s="6">
         <f t="shared" si="7"/>
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="K99" s="6">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="L99" s="6"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="D100" s="6">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="E100" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F100" s="6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H100" s="6">
         <f t="shared" si="5"/>
-        <v>78.75</v>
+        <v>57.5</v>
       </c>
       <c r="I100" s="6">
         <f t="shared" si="6"/>
-        <v>82.5</v>
+        <v>65</v>
       </c>
       <c r="J100" s="6">
         <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="K100" s="6">
         <v>90</v>
       </c>
-      <c r="K100" s="6">
-        <v>190</v>
-      </c>
-      <c r="L100" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="L100" s="6"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D101" s="6">
+        <v>65</v>
+      </c>
+      <c r="E101" s="6">
+        <v>30</v>
+      </c>
+      <c r="F101" s="6">
+        <v>94</v>
+      </c>
+      <c r="G101" s="6">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H101" s="6">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="I101" s="6">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="J101" s="6">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="K101" s="6">
+        <v>105</v>
+      </c>
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>7</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D102" s="6">
+        <v>180</v>
+      </c>
+      <c r="E102" s="6">
+        <v>10</v>
+      </c>
+      <c r="F102" s="6">
+        <v>35</v>
+      </c>
+      <c r="G102" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H102" s="6">
+        <f t="shared" si="5"/>
+        <v>16.25</v>
+      </c>
+      <c r="I102" s="6">
+        <f t="shared" si="6"/>
+        <v>22.5</v>
+      </c>
+      <c r="J102" s="6">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="K102" s="6">
+        <v>105</v>
+      </c>
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>7</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D103" s="6">
+        <v>40</v>
+      </c>
+      <c r="E103" s="6">
+        <v>65</v>
+      </c>
+      <c r="F103" s="6">
+        <v>120</v>
+      </c>
+      <c r="G103" s="6">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="H103" s="6">
+        <f t="shared" si="5"/>
+        <v>78.75</v>
+      </c>
+      <c r="I103" s="6">
+        <f t="shared" si="6"/>
+        <v>92.5</v>
+      </c>
+      <c r="J103" s="6">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="K103" s="6">
+        <v>105</v>
+      </c>
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>7</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D104" s="6">
+        <v>100</v>
+      </c>
+      <c r="E104" s="6">
+        <v>70</v>
+      </c>
+      <c r="F104" s="6">
+        <v>90</v>
+      </c>
+      <c r="G104" s="6">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="H104" s="6">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="I104" s="6">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="J104" s="6">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="K104" s="6">
+        <v>120</v>
+      </c>
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D105" s="6">
+        <v>70</v>
+      </c>
+      <c r="E105" s="6">
+        <v>10</v>
+      </c>
+      <c r="F105" s="6">
+        <v>20</v>
+      </c>
+      <c r="G105" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H105" s="6">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+      <c r="I105" s="6">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="J105" s="6">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="K105" s="6">
+        <v>75</v>
+      </c>
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>8</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" s="6">
+        <v>75</v>
+      </c>
+      <c r="E106" s="6">
+        <v>5</v>
+      </c>
+      <c r="F106" s="6">
+        <v>35</v>
+      </c>
+      <c r="G106" s="6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H106" s="6">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+      <c r="I106" s="6">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="J106" s="6">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="K106" s="6">
+        <v>75</v>
+      </c>
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D107" s="6">
+        <v>65</v>
+      </c>
+      <c r="E107" s="6">
+        <v>10</v>
+      </c>
+      <c r="F107" s="6">
+        <v>30</v>
+      </c>
+      <c r="G107" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H107" s="6">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="I107" s="6">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="J107" s="6">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="K107" s="6">
+        <v>80</v>
+      </c>
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D108" s="6">
+        <v>50</v>
+      </c>
+      <c r="E108" s="6">
+        <v>20</v>
+      </c>
+      <c r="F108" s="6">
+        <v>80</v>
+      </c>
+      <c r="G108" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H108" s="6">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="I108" s="6">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="J108" s="6">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="K108" s="6">
+        <v>80</v>
+      </c>
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D109" s="6">
+        <v>35</v>
+      </c>
+      <c r="E109" s="6">
+        <v>42</v>
+      </c>
+      <c r="F109" s="6">
+        <v>68</v>
+      </c>
+      <c r="G109" s="6">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="H109" s="6">
+        <f t="shared" si="5"/>
+        <v>48.5</v>
+      </c>
+      <c r="I109" s="6">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="J109" s="6">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="K109" s="6">
+        <v>80</v>
+      </c>
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D110" s="6">
+        <v>10</v>
+      </c>
+      <c r="E110" s="6">
+        <v>10</v>
+      </c>
+      <c r="F110" s="6">
+        <v>10</v>
+      </c>
+      <c r="G110" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H110" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I110" s="6">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J110" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="K110" s="6">
+        <v>90</v>
+      </c>
+      <c r="L110" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D111" s="6">
+        <v>20</v>
+      </c>
+      <c r="E111" s="6">
+        <v>10</v>
+      </c>
+      <c r="F111" s="6">
+        <v>10</v>
+      </c>
+      <c r="G111" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H111" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I111" s="6">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J111" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="K111" s="6">
+        <v>90</v>
+      </c>
+      <c r="L111" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D112" s="6">
+        <v>35</v>
+      </c>
+      <c r="E112" s="6">
+        <v>70</v>
+      </c>
+      <c r="F112" s="6">
+        <v>120</v>
+      </c>
+      <c r="G112" s="6">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="H112" s="6">
+        <f t="shared" si="5"/>
+        <v>82.5</v>
+      </c>
+      <c r="I112" s="6">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="J112" s="6">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="K112" s="6">
+        <v>105</v>
+      </c>
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>8</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D113" s="6">
+        <v>60</v>
+      </c>
+      <c r="E113" s="6">
+        <v>30</v>
+      </c>
+      <c r="F113" s="6">
+        <v>80</v>
+      </c>
+      <c r="G113" s="6">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H113" s="6">
+        <f t="shared" si="5"/>
+        <v>42.5</v>
+      </c>
+      <c r="I113" s="6">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="J113" s="6">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="K113" s="6">
+        <v>105</v>
+      </c>
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D114" s="6">
+        <v>100</v>
+      </c>
+      <c r="E114" s="6">
+        <v>20</v>
+      </c>
+      <c r="F114" s="6">
+        <v>50</v>
+      </c>
+      <c r="G114" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H114" s="6">
+        <f t="shared" si="5"/>
+        <v>27.5</v>
+      </c>
+      <c r="I114" s="6">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="J114" s="6">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K114" s="6">
+        <v>105</v>
+      </c>
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D115" s="6">
+        <v>85</v>
+      </c>
+      <c r="E115" s="6">
+        <v>20</v>
+      </c>
+      <c r="F115" s="6">
+        <v>56</v>
+      </c>
+      <c r="G115" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H115" s="6">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="I115" s="6">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="J115" s="6">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="K115" s="6">
+        <v>105</v>
+      </c>
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D116" s="6">
+        <v>65</v>
+      </c>
+      <c r="E116" s="6">
+        <v>40</v>
+      </c>
+      <c r="F116" s="6">
+        <v>80</v>
+      </c>
+      <c r="G116" s="6">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="H116" s="6">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="I116" s="6">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="J116" s="6">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="K116" s="6">
+        <v>105</v>
+      </c>
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>8</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D117" s="6">
+        <v>83</v>
+      </c>
+      <c r="E117" s="6">
+        <v>36</v>
+      </c>
+      <c r="F117" s="6">
+        <v>65</v>
+      </c>
+      <c r="G117" s="6">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="H117" s="6">
+        <f t="shared" si="5"/>
+        <v>43.25</v>
+      </c>
+      <c r="I117" s="6">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="J117" s="6">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="K117" s="6">
+        <v>110</v>
+      </c>
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>8</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118" s="6">
+        <v>85</v>
+      </c>
+      <c r="E118" s="6">
+        <v>43</v>
+      </c>
+      <c r="F118" s="6">
+        <v>60</v>
+      </c>
+      <c r="G118" s="6">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="H118" s="6">
+        <f t="shared" si="5"/>
+        <v>47.25</v>
+      </c>
+      <c r="I118" s="6">
+        <f t="shared" si="6"/>
+        <v>51.5</v>
+      </c>
+      <c r="J118" s="6">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="K118" s="6">
+        <v>110</v>
+      </c>
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="1:12" ht="138" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D119" s="6">
+        <v>100</v>
+      </c>
+      <c r="E119" s="6">
+        <v>50</v>
+      </c>
+      <c r="F119" s="6">
+        <v>50</v>
+      </c>
+      <c r="G119" s="6">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H119" s="6">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="I119" s="6">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="J119" s="6">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K119" s="6">
+        <v>115</v>
+      </c>
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>9</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D120" s="6">
+        <v>20</v>
+      </c>
+      <c r="E120" s="6">
+        <v>10</v>
+      </c>
+      <c r="F120" s="6">
+        <v>10</v>
+      </c>
+      <c r="G120" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H120" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I120" s="6">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J120" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="K120" s="6">
+        <v>65</v>
+      </c>
+      <c r="L120" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>9</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D121" s="6">
+        <v>30</v>
+      </c>
+      <c r="E121" s="6">
+        <v>35</v>
+      </c>
+      <c r="F121" s="6">
+        <v>70</v>
+      </c>
+      <c r="G121" s="6">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="H121" s="6">
+        <f t="shared" si="5"/>
+        <v>43.75</v>
+      </c>
+      <c r="I121" s="6">
+        <f t="shared" si="6"/>
+        <v>52.5</v>
+      </c>
+      <c r="J121" s="6">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="K121" s="6">
+        <v>80</v>
+      </c>
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>9</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122" s="6">
+        <v>92</v>
+      </c>
+      <c r="E122" s="6">
+        <v>18</v>
+      </c>
+      <c r="F122" s="6">
+        <v>23</v>
+      </c>
+      <c r="G122" s="6">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H122" s="6">
+        <f t="shared" si="5"/>
+        <v>19.25</v>
+      </c>
+      <c r="I122" s="6">
+        <f t="shared" si="6"/>
+        <v>20.5</v>
+      </c>
+      <c r="J122" s="6">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="K122" s="6">
+        <v>80</v>
+      </c>
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>9</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D123" s="6">
+        <v>30</v>
+      </c>
+      <c r="E123" s="6">
+        <v>50</v>
+      </c>
+      <c r="F123" s="6">
+        <v>80</v>
+      </c>
+      <c r="G123" s="6">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H123" s="6">
+        <f t="shared" si="5"/>
+        <v>57.5</v>
+      </c>
+      <c r="I123" s="6">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="J123" s="6">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="K123" s="6">
+        <v>80</v>
+      </c>
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>9</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D124" s="6">
+        <v>45</v>
+      </c>
+      <c r="E124" s="6">
+        <v>45</v>
+      </c>
+      <c r="F124" s="6">
+        <v>54</v>
+      </c>
+      <c r="G124" s="6">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="H124" s="6">
+        <f t="shared" si="5"/>
+        <v>47.25</v>
+      </c>
+      <c r="I124" s="6">
+        <f t="shared" si="6"/>
+        <v>49.5</v>
+      </c>
+      <c r="J124" s="6">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="K124" s="6">
+        <v>90</v>
+      </c>
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>9</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125" s="6">
+        <v>50</v>
+      </c>
+      <c r="E125" s="6">
+        <v>25</v>
+      </c>
+      <c r="F125" s="6">
+        <v>66</v>
+      </c>
+      <c r="G125" s="6">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H125" s="6">
+        <f t="shared" si="5"/>
+        <v>35.25</v>
+      </c>
+      <c r="I125" s="6">
+        <f t="shared" si="6"/>
+        <v>45.5</v>
+      </c>
+      <c r="J125" s="6">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="K125" s="6">
+        <v>90</v>
+      </c>
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>9</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D126" s="6">
+        <v>20</v>
+      </c>
+      <c r="E126" s="6">
+        <v>10</v>
+      </c>
+      <c r="F126" s="6">
+        <v>10</v>
+      </c>
+      <c r="G126" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H126" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I126" s="6">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J126" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="K126" s="6">
+        <v>90</v>
+      </c>
+      <c r="L126" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>9</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="6">
+        <v>70</v>
+      </c>
+      <c r="E127" s="6">
+        <v>25</v>
+      </c>
+      <c r="F127" s="6">
+        <v>86</v>
+      </c>
+      <c r="G127" s="6">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H127" s="6">
+        <f t="shared" si="5"/>
+        <v>40.25</v>
+      </c>
+      <c r="I127" s="6">
+        <f t="shared" si="6"/>
+        <v>55.5</v>
+      </c>
+      <c r="J127" s="6">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="K127" s="6">
+        <v>100</v>
+      </c>
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>9</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D128" s="6">
+        <v>92</v>
+      </c>
+      <c r="E128" s="6">
+        <v>20</v>
+      </c>
+      <c r="F128" s="6">
+        <v>64</v>
+      </c>
+      <c r="G128" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H128" s="6">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="I128" s="6">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="J128" s="6">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="K128" s="6">
+        <v>100</v>
+      </c>
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>9</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" s="6">
+        <v>60</v>
+      </c>
+      <c r="E129" s="6">
+        <v>28</v>
+      </c>
+      <c r="F129" s="6">
+        <v>79</v>
+      </c>
+      <c r="G129" s="6">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="H129" s="6">
+        <f t="shared" si="5"/>
+        <v>40.75</v>
+      </c>
+      <c r="I129" s="6">
+        <f t="shared" si="6"/>
+        <v>53.5</v>
+      </c>
+      <c r="J129" s="6">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="K129" s="6">
+        <v>100</v>
+      </c>
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>9</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D130" s="6">
+        <v>50</v>
+      </c>
+      <c r="E130" s="6">
+        <v>51</v>
+      </c>
+      <c r="F130" s="6">
+        <v>124</v>
+      </c>
+      <c r="G130" s="6">
+        <f t="shared" ref="G130:G145" si="8">E130</f>
+        <v>51</v>
+      </c>
+      <c r="H130" s="6">
+        <f t="shared" ref="H130:H145" si="9">(F130-E130)*0.25+E130</f>
+        <v>69.25</v>
+      </c>
+      <c r="I130" s="6">
+        <f t="shared" ref="I130:I145" si="10">(F130-E130)*0.5+E130</f>
+        <v>87.5</v>
+      </c>
+      <c r="J130" s="6">
+        <f t="shared" ref="J130:J145" si="11">F130</f>
+        <v>124</v>
+      </c>
+      <c r="K130" s="6">
+        <v>110</v>
+      </c>
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>9</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D131" s="6">
+        <v>55</v>
+      </c>
+      <c r="E131" s="6">
+        <v>80</v>
+      </c>
+      <c r="F131" s="6">
+        <v>100</v>
+      </c>
+      <c r="G131" s="6">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="H131" s="6">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="I131" s="6">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="J131" s="6">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="K131" s="6">
+        <v>110</v>
+      </c>
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>9</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D132" s="6">
+        <v>100</v>
+      </c>
+      <c r="E132" s="6">
+        <v>20</v>
+      </c>
+      <c r="F132" s="6">
+        <v>80</v>
+      </c>
+      <c r="G132" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H132" s="6">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="I132" s="6">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="J132" s="6">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="K132" s="6">
+        <v>120</v>
+      </c>
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>9</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D133" s="6">
+        <v>94</v>
+      </c>
+      <c r="E133" s="6">
+        <v>79</v>
+      </c>
+      <c r="F133" s="6">
+        <v>90</v>
+      </c>
+      <c r="G133" s="6">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="H133" s="6">
+        <f t="shared" si="9"/>
+        <v>81.75</v>
+      </c>
+      <c r="I133" s="6">
+        <f t="shared" si="10"/>
+        <v>84.5</v>
+      </c>
+      <c r="J133" s="6">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="K133" s="6">
         <v>150</v>
       </c>
-      <c r="E101" s="6">
-        <v>10</v>
-      </c>
-      <c r="F101" s="6">
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>10</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D134" s="6">
         <v>20</v>
       </c>
-      <c r="G101" s="6">
-        <f>E101</f>
-        <v>10</v>
-      </c>
-      <c r="H101" s="6">
-        <f>(F101-E101)*0.25+E101</f>
-        <v>12.5</v>
-      </c>
-      <c r="I101" s="6">
-        <f>(F101-E101)*0.5+E101</f>
+      <c r="E134" s="6">
         <v>15</v>
       </c>
-      <c r="J101" s="6">
-        <f>F101</f>
+      <c r="F134" s="6">
+        <v>15</v>
+      </c>
+      <c r="G134" s="6">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="H134" s="6">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="I134" s="6">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="J134" s="6">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="K134" s="6">
+        <v>85</v>
+      </c>
+      <c r="L134" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>10</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D135" s="6">
         <v>20</v>
       </c>
-      <c r="K101" s="6">
-        <v>520</v>
-      </c>
-      <c r="L101" s="6" t="b">
+      <c r="E135" s="6">
+        <v>18</v>
+      </c>
+      <c r="F135" s="6">
+        <v>18</v>
+      </c>
+      <c r="G135" s="6">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="H135" s="6">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="I135" s="6">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="J135" s="6">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="K135" s="6">
+        <v>100</v>
+      </c>
+      <c r="L135" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>15</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D102" s="1">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>10</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D136" s="6">
+        <v>100</v>
+      </c>
+      <c r="E136" s="6">
+        <v>17</v>
+      </c>
+      <c r="F136" s="6">
+        <v>39</v>
+      </c>
+      <c r="G136" s="6">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="H136" s="6">
+        <f t="shared" si="9"/>
+        <v>22.5</v>
+      </c>
+      <c r="I136" s="6">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="J136" s="6">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="K136" s="6">
+        <v>100</v>
+      </c>
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>10</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D137" s="6">
+        <v>50</v>
+      </c>
+      <c r="E137" s="6">
+        <v>50</v>
+      </c>
+      <c r="F137" s="6">
+        <v>70</v>
+      </c>
+      <c r="G137" s="6">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="H137" s="6">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="I137" s="6">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="J137" s="6">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="K137" s="6">
+        <v>105</v>
+      </c>
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>10</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D138" s="1">
+        <v>80</v>
+      </c>
+      <c r="E138" s="1">
+        <v>40</v>
+      </c>
+      <c r="F138" s="1">
+        <v>60</v>
+      </c>
+      <c r="G138" s="1">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="H138" s="1">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="I138" s="1">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="J138" s="1">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="K138" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>10</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D139" s="1">
+        <v>80</v>
+      </c>
+      <c r="E139" s="1">
+        <v>50</v>
+      </c>
+      <c r="F139" s="1">
+        <v>120</v>
+      </c>
+      <c r="G139" s="1">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="H139" s="1">
+        <f t="shared" si="9"/>
+        <v>67.5</v>
+      </c>
+      <c r="I139" s="1">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="J139" s="1">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="K139" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>10</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D140" s="6">
+        <v>100</v>
+      </c>
+      <c r="E140" s="6">
+        <v>66</v>
+      </c>
+      <c r="F140" s="6">
+        <v>99</v>
+      </c>
+      <c r="G140" s="6">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="H140" s="6">
+        <f t="shared" si="9"/>
+        <v>74.25</v>
+      </c>
+      <c r="I140" s="6">
+        <f t="shared" si="10"/>
+        <v>82.5</v>
+      </c>
+      <c r="J140" s="6">
+        <f t="shared" si="11"/>
+        <v>99</v>
+      </c>
+      <c r="K140" s="6">
+        <v>150</v>
+      </c>
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>10</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D141" s="1">
+        <v>100</v>
+      </c>
+      <c r="E141" s="1">
+        <v>80</v>
+      </c>
+      <c r="F141" s="1">
+        <v>150</v>
+      </c>
+      <c r="G141" s="1">
+        <f>E141</f>
+        <v>80</v>
+      </c>
+      <c r="H141" s="1">
+        <f>(F141-E141)*0.25+E141</f>
+        <v>97.5</v>
+      </c>
+      <c r="I141" s="1">
+        <f>(F141-E141)*0.5+E141</f>
+        <v>115</v>
+      </c>
+      <c r="J141" s="1">
+        <f>F141</f>
+        <v>150</v>
+      </c>
+      <c r="K141" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>11</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D142" s="6">
+        <v>20</v>
+      </c>
+      <c r="E142" s="6">
+        <v>20</v>
+      </c>
+      <c r="F142" s="6">
+        <v>20</v>
+      </c>
+      <c r="G142" s="6">
+        <f>E142</f>
+        <v>20</v>
+      </c>
+      <c r="H142" s="6">
+        <f>(F142-E142)*0.25+E142</f>
+        <v>20</v>
+      </c>
+      <c r="I142" s="6">
+        <f>(F142-E142)*0.5+E142</f>
+        <v>20</v>
+      </c>
+      <c r="J142" s="6">
+        <f>F142</f>
+        <v>20</v>
+      </c>
+      <c r="K142" s="6">
+        <v>100</v>
+      </c>
+      <c r="L142" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>11</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D143" s="6">
+        <v>120</v>
+      </c>
+      <c r="E143" s="6">
+        <v>75</v>
+      </c>
+      <c r="F143" s="6">
+        <v>90</v>
+      </c>
+      <c r="G143" s="6">
+        <f t="shared" ref="G143" si="12">E143</f>
+        <v>75</v>
+      </c>
+      <c r="H143" s="6">
+        <f t="shared" ref="H143" si="13">(F143-E143)*0.25+E143</f>
+        <v>78.75</v>
+      </c>
+      <c r="I143" s="6">
+        <f t="shared" ref="I143" si="14">(F143-E143)*0.5+E143</f>
+        <v>82.5</v>
+      </c>
+      <c r="J143" s="6">
+        <f t="shared" ref="J143" si="15">F143</f>
+        <v>90</v>
+      </c>
+      <c r="K143" s="6">
+        <v>150</v>
+      </c>
+      <c r="L143" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>11</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D144" s="6">
+        <v>200</v>
+      </c>
+      <c r="E144" s="6">
+        <v>45</v>
+      </c>
+      <c r="F144" s="6">
+        <v>90</v>
+      </c>
+      <c r="G144" s="1">
+        <f>E144</f>
+        <v>45</v>
+      </c>
+      <c r="H144" s="1">
+        <f>(F144-E144)*0.25+E144</f>
+        <v>56.25</v>
+      </c>
+      <c r="I144" s="1">
+        <f>(F144-E144)*0.5+E144</f>
+        <v>67.5</v>
+      </c>
+      <c r="J144" s="1">
+        <f>F144</f>
+        <v>90</v>
+      </c>
+      <c r="K144" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>11</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D145" s="1">
         <v>180</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E145" s="1">
         <v>100</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F145" s="1">
         <v>880</v>
       </c>
-      <c r="G102" s="1">
-        <f>E102</f>
+      <c r="G145" s="1">
+        <f>E145</f>
         <v>100</v>
       </c>
-      <c r="H102" s="1">
-        <f>(F102-E102)*0.25+E102</f>
+      <c r="H145" s="1">
+        <f>(F145-E145)*0.25+E145</f>
         <v>295</v>
       </c>
-      <c r="I102" s="1">
-        <f>(F102-E102)*0.5+E102</f>
+      <c r="I145" s="1">
+        <f>(F145-E145)*0.5+E145</f>
         <v>490</v>
       </c>
-      <c r="J102" s="1">
-        <f>F102</f>
+      <c r="J145" s="1">
+        <f>F145</f>
         <v>880</v>
       </c>
-      <c r="K102" s="1">
-        <v>888</v>
+      <c r="K145" s="1">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5793,4 +8038,487 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24E0D53-D032-4CE2-B133-22AC5951F0E0}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="119.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="14">
+        <v>10</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="14">
+        <v>30</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" s="14">
+        <v>100</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="14">
+        <v>100</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E7" s="14">
+        <v>60</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="14">
+        <v>100</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" s="14">
+        <v>80</v>
+      </c>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" s="14">
+        <v>50</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E11" s="14">
+        <v>75</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" s="14">
+        <v>200</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="14">
+        <v>300</v>
+      </c>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" s="14">
+        <v>360</v>
+      </c>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" s="14">
+        <v>400</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" s="14">
+        <v>100</v>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="E20" s="14">
+        <v>200</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="E21" s="14">
+        <v>200</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="331.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="262.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E24" s="14">
+        <v>64</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="248.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E25" s="14">
+        <v>60</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QQFireRecv\HuYanEconomy-0.1.16.mirai2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Project/github/HuYanEconomy/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD79DD2-C870-4CB8-ADA8-7932838B7C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED4EC92-B3CD-1E46-BF7E-CCE0D7BB410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="354">
   <si>
     <t>等级</t>
   </si>
@@ -1303,12 +1303,87 @@
 从那以后，她就有了一个称号：梅岭阿慕壮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>FISH-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH-3</t>
+  </si>
+  <si>
+    <t>FISH-4</t>
+  </si>
+  <si>
+    <t>FISH-5</t>
+  </si>
+  <si>
+    <t>FISH-6</t>
+  </si>
+  <si>
+    <t>FISH-7</t>
+  </si>
+  <si>
+    <t>FISH-8</t>
+  </si>
+  <si>
+    <t>FISH-9</t>
+  </si>
+  <si>
+    <t>FISH-10</t>
+  </si>
+  <si>
+    <t>FISH-11</t>
+  </si>
+  <si>
+    <t>FISH-12</t>
+  </si>
+  <si>
+    <t>FISH-13</t>
+  </si>
+  <si>
+    <t>FISH-14</t>
+  </si>
+  <si>
+    <t>FISH-15</t>
+  </si>
+  <si>
+    <t>FISH-16</t>
+  </si>
+  <si>
+    <t>FISH-17</t>
+  </si>
+  <si>
+    <t>FISH-18</t>
+  </si>
+  <si>
+    <t>FISH-19</t>
+  </si>
+  <si>
+    <t>FISH-20</t>
+  </si>
+  <si>
+    <t>FISH-21</t>
+  </si>
+  <si>
+    <t>FISH-22</t>
+  </si>
+  <si>
+    <t>FISH-23</t>
+  </si>
+  <si>
+    <t>是否可以购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1787,30 +1862,30 @@
   <dimension ref="A1:T145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A142" sqref="A142:XFD142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="9" style="1"/>
     <col min="18" max="18" width="14.33203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="17" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="32">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1848,7 +1923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="2" customFormat="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1898,7 +1973,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1945,7 +2020,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1992,7 +2067,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -2041,7 +2116,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="16">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -2084,7 +2159,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="16">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -2127,7 +2202,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -2171,7 +2246,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="16">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -2217,7 +2292,7 @@
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -2261,7 +2336,7 @@
       <c r="O10"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -2305,7 +2380,7 @@
       <c r="O11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -2349,7 +2424,7 @@
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -2393,7 +2468,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -2437,7 +2512,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16">
       <c r="A15" s="6">
         <v>2</v>
       </c>
@@ -2481,7 +2556,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -2525,7 +2600,7 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="17">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -2571,7 +2646,7 @@
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="6">
         <v>2</v>
       </c>
@@ -2615,7 +2690,7 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="6">
         <v>2</v>
       </c>
@@ -2659,7 +2734,7 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -2703,7 +2778,7 @@
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -2747,7 +2822,7 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16">
       <c r="A22" s="6">
         <v>2</v>
       </c>
@@ -2793,7 +2868,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16">
       <c r="A23" s="6">
         <v>3</v>
       </c>
@@ -2837,7 +2912,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="6">
         <v>3</v>
       </c>
@@ -2881,7 +2956,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="16">
       <c r="A25" s="6">
         <v>3</v>
       </c>
@@ -2924,7 +2999,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="6">
         <v>3</v>
       </c>
@@ -2968,7 +3043,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="6">
         <v>3</v>
       </c>
@@ -3012,7 +3087,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="6">
         <v>3</v>
       </c>
@@ -3056,7 +3131,7 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="6">
         <v>3</v>
       </c>
@@ -3100,7 +3175,7 @@
       <c r="O29"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="6">
         <v>3</v>
       </c>
@@ -3144,7 +3219,7 @@
       <c r="O30"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="6">
         <v>3</v>
       </c>
@@ -3188,7 +3263,7 @@
       <c r="O31"/>
       <c r="P31"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="6">
         <v>3</v>
       </c>
@@ -3232,7 +3307,7 @@
       <c r="O32"/>
       <c r="P32"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="6">
         <v>3</v>
       </c>
@@ -3276,7 +3351,7 @@
       <c r="O33"/>
       <c r="P33"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="6">
         <v>3</v>
       </c>
@@ -3320,7 +3395,7 @@
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="6">
         <v>3</v>
       </c>
@@ -3364,7 +3439,7 @@
       <c r="O35"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="6">
         <v>3</v>
       </c>
@@ -3408,7 +3483,7 @@
       <c r="O36"/>
       <c r="P36"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="6">
         <v>3</v>
       </c>
@@ -3452,7 +3527,7 @@
       <c r="O37"/>
       <c r="P37"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="6">
         <v>3</v>
       </c>
@@ -3496,7 +3571,7 @@
       <c r="O38"/>
       <c r="P38"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="6">
         <v>3</v>
       </c>
@@ -3541,7 +3616,7 @@
       <c r="P39"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="6">
         <v>3</v>
       </c>
@@ -3586,7 +3661,7 @@
       <c r="P40"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="6">
         <v>3</v>
       </c>
@@ -3631,7 +3706,7 @@
       <c r="P41"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="16">
       <c r="A42" s="6">
         <v>3</v>
       </c>
@@ -3678,7 +3753,7 @@
       <c r="P42"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="18">
       <c r="A43" s="6">
         <v>4</v>
       </c>
@@ -3723,7 +3798,7 @@
       <c r="P43"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="17">
       <c r="A44" s="6">
         <v>4</v>
       </c>
@@ -3770,7 +3845,7 @@
       <c r="P44"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="6">
         <v>4</v>
       </c>
@@ -3815,7 +3890,7 @@
       <c r="P45"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="6">
         <v>4</v>
       </c>
@@ -3860,7 +3935,7 @@
       <c r="P46"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="6">
         <v>4</v>
       </c>
@@ -3905,7 +3980,7 @@
       <c r="P47"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="6">
         <v>4</v>
       </c>
@@ -3950,7 +4025,7 @@
       <c r="P48"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" s="6">
         <v>4</v>
       </c>
@@ -3997,7 +4072,7 @@
       <c r="P49"/>
       <c r="Q49" s="7"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" s="6">
         <v>4</v>
       </c>
@@ -4042,7 +4117,7 @@
       <c r="P50"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" s="6">
         <v>4</v>
       </c>
@@ -4086,7 +4161,7 @@
       <c r="P51"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" s="6">
         <v>4</v>
       </c>
@@ -4131,7 +4206,7 @@
       <c r="P52"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53" s="6">
         <v>4</v>
       </c>
@@ -4176,7 +4251,7 @@
       <c r="P53"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" s="6">
         <v>4</v>
       </c>
@@ -4220,7 +4295,7 @@
       <c r="P54"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" s="6">
         <v>4</v>
       </c>
@@ -4265,7 +4340,7 @@
       <c r="P55"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" s="6">
         <v>4</v>
       </c>
@@ -4310,7 +4385,7 @@
       <c r="P56"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="6">
         <v>4</v>
       </c>
@@ -4355,7 +4430,7 @@
       <c r="P57"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" s="6">
         <v>4</v>
       </c>
@@ -4400,7 +4475,7 @@
       <c r="P58"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59" s="6">
         <v>5</v>
       </c>
@@ -4445,7 +4520,7 @@
       <c r="P59"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60" s="6">
         <v>5</v>
       </c>
@@ -4490,7 +4565,7 @@
       <c r="P60"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" s="6">
         <v>5</v>
       </c>
@@ -4535,7 +4610,7 @@
       <c r="P61"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" s="6">
         <v>5</v>
       </c>
@@ -4580,7 +4655,7 @@
       <c r="P62"/>
       <c r="Q62" s="7"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" s="6">
         <v>5</v>
       </c>
@@ -4625,7 +4700,7 @@
       <c r="P63"/>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" s="6">
         <v>5</v>
       </c>
@@ -4670,7 +4745,7 @@
       <c r="P64"/>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65" s="6">
         <v>5</v>
       </c>
@@ -4715,7 +4790,7 @@
       <c r="P65"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="32">
       <c r="A66" s="6">
         <v>5</v>
       </c>
@@ -4760,7 +4835,7 @@
       <c r="P66"/>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="A67" s="6">
         <v>5</v>
       </c>
@@ -4805,7 +4880,7 @@
       <c r="P67"/>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17">
       <c r="A68" s="6">
         <v>5</v>
       </c>
@@ -4850,7 +4925,7 @@
       <c r="P68"/>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17">
       <c r="A69" s="6">
         <v>5</v>
       </c>
@@ -4894,7 +4969,7 @@
       <c r="O69"/>
       <c r="P69"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17">
       <c r="A70" s="6">
         <v>5</v>
       </c>
@@ -4938,7 +5013,7 @@
       <c r="O70"/>
       <c r="P70"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17">
       <c r="A71" s="6">
         <v>5</v>
       </c>
@@ -4982,7 +5057,7 @@
       <c r="O71"/>
       <c r="P71"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72" s="6">
         <v>5</v>
       </c>
@@ -5026,7 +5101,7 @@
       <c r="O72"/>
       <c r="P72"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="16">
       <c r="A73" s="6">
         <v>5</v>
       </c>
@@ -5072,7 +5147,7 @@
       <c r="O73"/>
       <c r="P73"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74" s="6">
         <v>6</v>
       </c>
@@ -5116,7 +5191,7 @@
       <c r="O74"/>
       <c r="P74"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75" s="6">
         <v>6</v>
       </c>
@@ -5160,7 +5235,7 @@
       <c r="O75"/>
       <c r="P75"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" s="6">
         <v>6</v>
       </c>
@@ -5204,7 +5279,7 @@
       <c r="O76"/>
       <c r="P76"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77" s="6">
         <v>6</v>
       </c>
@@ -5248,7 +5323,7 @@
       <c r="O77"/>
       <c r="P77"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17">
       <c r="A78" s="6">
         <v>6</v>
       </c>
@@ -5292,7 +5367,7 @@
       <c r="O78"/>
       <c r="P78"/>
     </row>
-    <row r="79" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="16">
       <c r="A79" s="6">
         <v>6</v>
       </c>
@@ -5336,7 +5411,7 @@
       <c r="O79"/>
       <c r="P79"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17">
       <c r="A80" s="6">
         <v>6</v>
       </c>
@@ -5380,7 +5455,7 @@
       <c r="O80"/>
       <c r="P80"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" s="6">
         <v>6</v>
       </c>
@@ -5424,7 +5499,7 @@
       <c r="O81"/>
       <c r="P81"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" s="6">
         <v>6</v>
       </c>
@@ -5468,7 +5543,7 @@
       <c r="O82"/>
       <c r="P82"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="16">
       <c r="A83" s="6">
         <v>6</v>
       </c>
@@ -5514,7 +5589,7 @@
       <c r="O83"/>
       <c r="P83"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" s="6">
         <v>6</v>
       </c>
@@ -5558,7 +5633,7 @@
       <c r="O84"/>
       <c r="P84"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" s="6">
         <v>6</v>
       </c>
@@ -5602,7 +5677,7 @@
       <c r="O85"/>
       <c r="P85"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" s="6">
         <v>6</v>
       </c>
@@ -5646,7 +5721,7 @@
       <c r="O86"/>
       <c r="P86"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" s="6">
         <v>6</v>
       </c>
@@ -5690,7 +5765,7 @@
       <c r="O87"/>
       <c r="P87"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" s="6">
         <v>7</v>
       </c>
@@ -5734,7 +5809,7 @@
       <c r="O88"/>
       <c r="P88"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" s="6">
         <v>7</v>
       </c>
@@ -5774,7 +5849,7 @@
       </c>
       <c r="L89" s="6"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" s="6">
         <v>7</v>
       </c>
@@ -5814,7 +5889,7 @@
       </c>
       <c r="L90" s="6"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" s="6">
         <v>7</v>
       </c>
@@ -5854,7 +5929,7 @@
       </c>
       <c r="L91" s="6"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" s="6">
         <v>7</v>
       </c>
@@ -5894,7 +5969,7 @@
       </c>
       <c r="L92" s="6"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="16">
       <c r="A93" s="6">
         <v>7</v>
       </c>
@@ -5934,7 +6009,7 @@
       </c>
       <c r="L93" s="6"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" s="6">
         <v>7</v>
       </c>
@@ -5974,7 +6049,7 @@
       </c>
       <c r="L94" s="6"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="16">
       <c r="A95" s="6">
         <v>7</v>
       </c>
@@ -6016,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="16">
       <c r="A96" s="6">
         <v>7</v>
       </c>
@@ -6058,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" s="6">
         <v>7</v>
       </c>
@@ -6098,7 +6173,7 @@
       </c>
       <c r="L97" s="6"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="6">
         <v>7</v>
       </c>
@@ -6138,7 +6213,7 @@
       </c>
       <c r="L98" s="6"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" s="6">
         <v>7</v>
       </c>
@@ -6178,7 +6253,7 @@
       </c>
       <c r="L99" s="6"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" s="6">
         <v>7</v>
       </c>
@@ -6218,7 +6293,7 @@
       </c>
       <c r="L100" s="6"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="6">
         <v>7</v>
       </c>
@@ -6258,7 +6333,7 @@
       </c>
       <c r="L101" s="6"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="A102" s="6">
         <v>7</v>
       </c>
@@ -6298,7 +6373,7 @@
       </c>
       <c r="L102" s="6"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="16">
       <c r="A103" s="6">
         <v>7</v>
       </c>
@@ -6338,7 +6413,7 @@
       </c>
       <c r="L103" s="6"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="16">
       <c r="A104" s="6">
         <v>7</v>
       </c>
@@ -6378,7 +6453,7 @@
       </c>
       <c r="L104" s="6"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="16">
       <c r="A105" s="6">
         <v>8</v>
       </c>
@@ -6418,7 +6493,7 @@
       </c>
       <c r="L105" s="6"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="A106" s="6">
         <v>8</v>
       </c>
@@ -6458,7 +6533,7 @@
       </c>
       <c r="L106" s="6"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="16">
       <c r="A107" s="6">
         <v>8</v>
       </c>
@@ -6498,7 +6573,7 @@
       </c>
       <c r="L107" s="6"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="16">
       <c r="A108" s="6">
         <v>8</v>
       </c>
@@ -6538,7 +6613,7 @@
       </c>
       <c r="L108" s="6"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="16">
       <c r="A109" s="6">
         <v>8</v>
       </c>
@@ -6578,7 +6653,7 @@
       </c>
       <c r="L109" s="6"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="16">
       <c r="A110" s="6">
         <v>8</v>
       </c>
@@ -6620,7 +6695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="16">
       <c r="A111" s="6">
         <v>8</v>
       </c>
@@ -6662,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="16">
       <c r="A112" s="6">
         <v>8</v>
       </c>
@@ -6702,7 +6777,7 @@
       </c>
       <c r="L112" s="6"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="6">
         <v>8</v>
       </c>
@@ -6742,7 +6817,7 @@
       </c>
       <c r="L113" s="6"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="16">
       <c r="A114" s="6">
         <v>8</v>
       </c>
@@ -6782,7 +6857,7 @@
       </c>
       <c r="L114" s="6"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="16">
       <c r="A115" s="6">
         <v>8</v>
       </c>
@@ -6822,7 +6897,7 @@
       </c>
       <c r="L115" s="6"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="16">
       <c r="A116" s="6">
         <v>8</v>
       </c>
@@ -6862,7 +6937,7 @@
       </c>
       <c r="L116" s="6"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117" s="6">
         <v>8</v>
       </c>
@@ -6902,7 +6977,7 @@
       </c>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" s="6">
         <v>8</v>
       </c>
@@ -6942,7 +7017,7 @@
       </c>
       <c r="L118" s="6"/>
     </row>
-    <row r="119" spans="1:12" ht="138" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="160">
       <c r="A119" s="6">
         <v>8</v>
       </c>
@@ -6982,7 +7057,7 @@
       </c>
       <c r="L119" s="6"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" s="6">
         <v>9</v>
       </c>
@@ -7024,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="16">
       <c r="A121" s="6">
         <v>9</v>
       </c>
@@ -7064,7 +7139,7 @@
       </c>
       <c r="L121" s="6"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122" s="6">
         <v>9</v>
       </c>
@@ -7104,7 +7179,7 @@
       </c>
       <c r="L122" s="6"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="16">
       <c r="A123" s="6">
         <v>9</v>
       </c>
@@ -7144,7 +7219,7 @@
       </c>
       <c r="L123" s="6"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="16">
       <c r="A124" s="6">
         <v>9</v>
       </c>
@@ -7184,7 +7259,7 @@
       </c>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12">
       <c r="A125" s="6">
         <v>9</v>
       </c>
@@ -7224,7 +7299,7 @@
       </c>
       <c r="L125" s="6"/>
     </row>
-    <row r="126" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="16">
       <c r="A126" s="6">
         <v>9</v>
       </c>
@@ -7266,7 +7341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="A127" s="6">
         <v>9</v>
       </c>
@@ -7306,7 +7381,7 @@
       </c>
       <c r="L127" s="6"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12">
       <c r="A128" s="6">
         <v>9</v>
       </c>
@@ -7346,7 +7421,7 @@
       </c>
       <c r="L128" s="6"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12">
       <c r="A129" s="6">
         <v>9</v>
       </c>
@@ -7386,7 +7461,7 @@
       </c>
       <c r="L129" s="6"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12">
       <c r="A130" s="6">
         <v>9</v>
       </c>
@@ -7406,19 +7481,19 @@
         <v>124</v>
       </c>
       <c r="G130" s="6">
-        <f t="shared" ref="G130:G145" si="8">E130</f>
+        <f t="shared" ref="G130:G140" si="8">E130</f>
         <v>51</v>
       </c>
       <c r="H130" s="6">
-        <f t="shared" ref="H130:H145" si="9">(F130-E130)*0.25+E130</f>
+        <f t="shared" ref="H130:H140" si="9">(F130-E130)*0.25+E130</f>
         <v>69.25</v>
       </c>
       <c r="I130" s="6">
-        <f t="shared" ref="I130:I145" si="10">(F130-E130)*0.5+E130</f>
+        <f t="shared" ref="I130:I140" si="10">(F130-E130)*0.5+E130</f>
         <v>87.5</v>
       </c>
       <c r="J130" s="6">
-        <f t="shared" ref="J130:J145" si="11">F130</f>
+        <f t="shared" ref="J130:J140" si="11">F130</f>
         <v>124</v>
       </c>
       <c r="K130" s="6">
@@ -7426,7 +7501,7 @@
       </c>
       <c r="L130" s="6"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12">
       <c r="A131" s="6">
         <v>9</v>
       </c>
@@ -7466,7 +7541,7 @@
       </c>
       <c r="L131" s="6"/>
     </row>
-    <row r="132" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="32">
       <c r="A132" s="6">
         <v>9</v>
       </c>
@@ -7506,7 +7581,7 @@
       </c>
       <c r="L132" s="6"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12">
       <c r="A133" s="6">
         <v>9</v>
       </c>
@@ -7546,7 +7621,7 @@
       </c>
       <c r="L133" s="6"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12">
       <c r="A134" s="6">
         <v>10</v>
       </c>
@@ -7588,7 +7663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12">
       <c r="A135" s="6">
         <v>10</v>
       </c>
@@ -7630,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12">
       <c r="A136" s="6">
         <v>10</v>
       </c>
@@ -7670,7 +7745,7 @@
       </c>
       <c r="L136" s="6"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12">
       <c r="A137" s="6">
         <v>10</v>
       </c>
@@ -7710,7 +7785,7 @@
       </c>
       <c r="L137" s="6"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12">
       <c r="A138" s="6">
         <v>10</v>
       </c>
@@ -7749,7 +7824,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="16">
       <c r="A139" s="6">
         <v>10</v>
       </c>
@@ -7788,7 +7863,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12">
       <c r="A140" s="6">
         <v>10</v>
       </c>
@@ -7828,7 +7903,7 @@
       </c>
       <c r="L140" s="6"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12">
       <c r="A141" s="6">
         <v>10</v>
       </c>
@@ -7867,7 +7942,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12">
       <c r="A142" s="6">
         <v>11</v>
       </c>
@@ -7909,7 +7984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12">
       <c r="A143" s="6">
         <v>11</v>
       </c>
@@ -7951,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12">
       <c r="A144" s="6">
         <v>11</v>
       </c>
@@ -7990,7 +8065,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="16">
       <c r="A145" s="6">
         <v>11</v>
       </c>
@@ -8042,23 +8117,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24E0D53-D032-4CE2-B133-22AC5951F0E0}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="119.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5" customWidth="1"/>
+    <col min="7" max="7" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>303</v>
       </c>
@@ -8077,72 +8153,82 @@
       <c r="F1" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="G1" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16">
+      <c r="A2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="14">
+        <v>10</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="3" spans="1:7" ht="32">
+      <c r="A3" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="B3" s="12" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E3" s="14">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>177</v>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32">
+      <c r="A4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E4" s="14">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16">
+      <c r="A5" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>311</v>
@@ -8151,268 +8237,313 @@
         <v>100</v>
       </c>
       <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32">
+      <c r="A6" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>311</v>
       </c>
       <c r="E6" s="14">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16">
+      <c r="A7" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>311</v>
       </c>
       <c r="E7" s="14">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16">
+      <c r="A8" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>311</v>
       </c>
       <c r="E8" s="14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16">
+      <c r="A9" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>311</v>
       </c>
       <c r="E9" s="14">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>158</v>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E10" s="14">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>160</v>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16">
+      <c r="A11" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>312</v>
       </c>
       <c r="E11" s="14">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16">
+      <c r="A12" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>312</v>
       </c>
       <c r="E12" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16">
+      <c r="A13" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>312</v>
       </c>
       <c r="E13" s="14">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16">
+      <c r="A14" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>291</v>
+        <v>202</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>312</v>
       </c>
       <c r="E14" s="14">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32">
+      <c r="A15" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E15" s="14">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="32">
+      <c r="A16" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>300</v>
+        <v>314</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E16" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32">
+      <c r="A17" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="C17" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>315</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E17" s="14">
         <v>0</v>
       </c>
       <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="48">
+      <c r="A18" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>315</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E18" s="14">
         <v>0</v>
       </c>
       <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>315</v>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16">
+      <c r="A19" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E19" s="14">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="32">
+      <c r="A20" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>321</v>
@@ -8421,104 +8552,102 @@
         <v>200</v>
       </c>
       <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>285</v>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="409.6">
+      <c r="A21" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>315</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E21" s="14">
-        <v>200</v>
-      </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" ht="331.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>315</v>
+        <v>0</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="32">
+      <c r="A22" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E22" s="14">
         <v>0</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="409.6">
+      <c r="A23" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>214</v>
+        <v>244</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E23" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="262.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
+        <v>64</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="409.6">
+      <c r="A24" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E24" s="14">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="248.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="E25" s="14">
-        <v>60</v>
-      </c>
-      <c r="F25" s="14" t="s">
         <v>329</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Project/github/HuYanEconomy/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED4EC92-B3CD-1E46-BF7E-CCE0D7BB410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8232F92-1C1F-1944-8E0A-D9090229C350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="401">
   <si>
     <t>等级</t>
   </si>
@@ -1189,10 +1189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1205,14 +1201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字母牌系列收集品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警匪系列收集品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗品，使用后获得「年年有鱼」buff，之后的5次钓鱼都会额外增加difficultymin50，rankmin5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1238,10 +1226,6 @@
   </si>
   <si>
     <t>HK警匪片——FreenBecky版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗警匪系列收集品获得，使用后消失，人工艾特球球后兑换岛站有库存的任一周边一件（邮费自理），同时获得980299币币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1304,6 +1288,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是否可以购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1315,48 +1303,104 @@
     <t>FISH-3</t>
   </si>
   <si>
+    <t>字母牌系列收集品1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-4</t>
   </si>
   <si>
+    <t>字母牌系列收集品2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-5</t>
   </si>
   <si>
+    <t>字母牌系列收集品3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-6</t>
   </si>
   <si>
+    <t>字母牌系列收集品4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-7</t>
   </si>
   <si>
+    <t>字母牌系列收集品5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-8</t>
   </si>
   <si>
+    <t>字母牌系列收集品6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-9</t>
   </si>
   <si>
+    <t>警匪系列收集品1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-10</t>
   </si>
   <si>
+    <t>警匪系列收集品2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-11</t>
   </si>
   <si>
+    <t>警匪系列收集品3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-12</t>
   </si>
   <si>
+    <t>警匪系列收集品4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-13</t>
   </si>
   <si>
+    <t>警匪系列收集品5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-14</t>
   </si>
   <si>
     <t>FISH-15</t>
   </si>
   <si>
+    <t>「PFPFK」buff：之后的5次钓鱼都会额外增加difficultymin52，rankmin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-16</t>
   </si>
   <si>
+    <t>「PFTNK」buff：之后的5次钓鱼都会额外增加difficultymin52，rankmin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-17</t>
   </si>
   <si>
+    <t>消耗警匪系列收集品（共6样）获得，使用后消失，人工艾特球球后兑换岛站有库存的任一周边一件（邮费自理），同时获得980299币币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-18</t>
   </si>
   <si>
@@ -1375,7 +1419,141 @@
     <t>FISH-23</t>
   </si>
   <si>
-    <t>是否可以购买</t>
+    <t>FISH-24</t>
+  </si>
+  <si>
+    <t>「维港观光券」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警匪系列收集品6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH-25</t>
+  </si>
+  <si>
+    <t>自定义永久头衔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义永久头衔（6个字），可使用emoji，不可使用违反岛岛发言守则的文字，明码标价童叟无欺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH-26</t>
+  </si>
+  <si>
+    <t>自定义一日头衔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义一日头衔（6个字），可使用emoji，不可使用违反岛岛发言守则的文字，明码标价童叟无欺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH-27</t>
+  </si>
+  <si>
+    <t>岛岛全自动钓鱼机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后开始全自动钓鱼8小时，每小时上一竿（共9竿），鱼的结果根据当前鱼竿等级，和钓鱼结果保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“岛岛全自动钓鱼机生效中，手动钓鱼失效！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH-28</t>
+  </si>
+  <si>
+    <t>游刃有鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，使用后获得「游刃有鱼」buff，之后的5次钓鱼都会额外增加difficultymin30，rankmin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH-29</t>
+  </si>
+  <si>
+    <t>「竭泽而渔」许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，使用后获得「竭泽而渔」buff，之后的5次钓鱼都会额外上钩一条鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH-30</t>
+  </si>
+  <si>
+    <t>浑水摸鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，对指定目标使用，目标获得「浑水摸鱼」buff，之后的2次钓鱼都只会上钩[摸鱼]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH-31</t>
+  </si>
+  <si>
+    <t>「姐一」徽章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个代表「姐一」派的徽章，金闪闪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有使用效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH-32</t>
+  </si>
+  <si>
+    <t>「妹一」徽章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个代表「妹一」派的徽章，金闪闪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH-33</t>
+  </si>
+  <si>
+    <t>「互攻」徽章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个代表「互攻」派的徽章，金闪闪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[鱼竿等级]×100+900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1383,7 +1561,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1461,6 +1639,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1490,7 +1676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1544,6 +1730,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1862,8 +2057,8 @@
   <dimension ref="A1:T145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A142" sqref="A142:XFD142"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P107" sqref="P107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -4624,26 +4819,26 @@
         <v>22</v>
       </c>
       <c r="E62" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F62" s="6">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H62" s="6">
         <f t="shared" si="1"/>
-        <v>10.75</v>
+        <v>50.75</v>
       </c>
       <c r="I62" s="6">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>51.5</v>
       </c>
       <c r="J62" s="6">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="K62" s="6">
         <v>50</v>
@@ -8117,24 +8312,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24E0D53-D032-4CE2-B133-22AC5951F0E0}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5" customWidth="1"/>
-    <col min="7" max="7" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="57.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9" ht="16">
       <c r="A1" s="2" t="s">
         <v>303</v>
       </c>
@@ -8147,19 +8344,25 @@
       <c r="D1" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16">
+        <v>326</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>149</v>
@@ -8168,19 +8371,19 @@
         <v>150</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" s="14">
+        <v>308</v>
+      </c>
+      <c r="E2" s="3">
         <v>10</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32">
       <c r="A3" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>176</v>
@@ -8189,19 +8392,19 @@
         <v>177</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="E3" s="14">
+        <v>309</v>
+      </c>
+      <c r="E3" s="3">
         <v>30</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32">
       <c r="A4" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>183</v>
@@ -8210,19 +8413,19 @@
         <v>184</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="E4" s="14">
+        <v>330</v>
+      </c>
+      <c r="E4" s="3">
         <v>100</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>195</v>
@@ -8231,19 +8434,19 @@
         <v>196</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="E5" s="14">
+        <v>332</v>
+      </c>
+      <c r="E5" s="3">
         <v>100</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32">
       <c r="A6" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>161</v>
@@ -8252,17 +8455,17 @@
         <v>162</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="E6" s="14">
+        <v>334</v>
+      </c>
+      <c r="E6" s="3">
         <v>60</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16">
       <c r="A7" s="1" t="s">
         <v>335</v>
       </c>
@@ -8273,19 +8476,19 @@
         <v>194</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="E7" s="14">
+        <v>336</v>
+      </c>
+      <c r="E7" s="3">
         <v>100</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16">
       <c r="A8" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>170</v>
@@ -8294,19 +8497,19 @@
         <v>171</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="E8" s="14">
+        <v>338</v>
+      </c>
+      <c r="E8" s="3">
         <v>80</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16">
       <c r="A9" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>157</v>
@@ -8315,40 +8518,40 @@
         <v>158</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="E9" s="14">
+        <v>340</v>
+      </c>
+      <c r="E9" s="3">
         <v>50</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="20" t="s">
         <v>160</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="E10" s="14">
+        <v>342</v>
+      </c>
+      <c r="E10" s="3">
         <v>75</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16">
       <c r="A11" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>197</v>
@@ -8357,19 +8560,19 @@
         <v>198</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="E11" s="14">
+        <v>344</v>
+      </c>
+      <c r="E11" s="3">
         <v>200</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16">
       <c r="A12" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>199</v>
@@ -8378,19 +8581,19 @@
         <v>200</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="E12" s="14">
+        <v>346</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16">
       <c r="A13" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>290</v>
@@ -8399,19 +8602,19 @@
         <v>291</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="E13" s="14">
+        <v>348</v>
+      </c>
+      <c r="E13" s="3">
         <v>360</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" s="1" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>201</v>
@@ -8420,19 +8623,19 @@
         <v>202</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="E14" s="14">
+        <v>350</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="32">
       <c r="A15" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>134</v>
@@ -8441,82 +8644,86 @@
         <v>300</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="E15" s="14">
+        <v>310</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="32">
       <c r="A16" s="1" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="32">
+      <c r="A17" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="32">
+      <c r="A18" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="32">
-      <c r="A17" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="48">
-      <c r="A18" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>319</v>
-      </c>
       <c r="C18" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="E18" s="14">
+        <v>357</v>
+      </c>
+      <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16">
       <c r="A19" s="1" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>264</v>
@@ -8525,19 +8732,19 @@
         <v>265</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="E19" s="14">
+        <v>317</v>
+      </c>
+      <c r="E19" s="3">
         <v>200</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="32">
       <c r="A20" s="1" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>284</v>
@@ -8546,108 +8753,323 @@
         <v>285</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="E20" s="14">
+        <v>317</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="409.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="409.6">
       <c r="A21" s="1" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="E21" s="14">
+        <v>319</v>
+      </c>
+      <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="32">
       <c r="A22" s="1" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="20" t="s">
         <v>214</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="E22" s="14">
+        <v>321</v>
+      </c>
+      <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="409.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="335">
       <c r="A23" s="1" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>245</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="E23" s="14">
+        <v>322</v>
+      </c>
+      <c r="E23" s="3">
         <v>64</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="409.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="365">
       <c r="A24" s="1" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>247</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="E24" s="14">
+        <v>324</v>
+      </c>
+      <c r="E24" s="3">
         <v>60</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16">
+      <c r="A25" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32">
+      <c r="A26" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="E26" s="1">
+        <v>980299</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="32">
+      <c r="A27" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="E27" s="1">
+        <v>9802</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="32">
+      <c r="A28" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="32">
+      <c r="A29" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="32">
+      <c r="A30" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="32">
+      <c r="A31" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E31" s="1">
+        <v>800</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16">
+      <c r="A32" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E32" s="1">
+        <v>520</v>
+      </c>
+      <c r="F32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16">
+      <c r="A33" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E33" s="1">
+        <v>520</v>
+      </c>
+      <c r="F33" t="s">
+        <v>390</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16">
+      <c r="A34" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="E34" s="1">
+        <v>520</v>
+      </c>
+      <c r="F34" t="s">
+        <v>390</v>
+      </c>
+      <c r="G34" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Project/github/HuYanEconomy/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8232F92-1C1F-1944-8E0A-D9090229C350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDED70D8-6DD6-DA4E-857D-EB4E6B121044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8314,8 +8314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24E0D53-D032-4CE2-B133-22AC5951F0E0}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="F2" s="14"/>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="F3" s="14"/>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="32">
@@ -8420,7 +8420,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16">
@@ -8588,7 +8588,7 @@
       </c>
       <c r="F12" s="14"/>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="32">
@@ -8651,10 +8651,10 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="48">
       <c r="A16" s="1" t="s">
         <v>352</v>
       </c>
@@ -8674,10 +8674,10 @@
         <v>353</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="48">
       <c r="A17" s="1" t="s">
         <v>354</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>355</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="409.6">
@@ -8783,7 +8783,7 @@
         <v>320</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="32">
@@ -8803,10 +8803,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="409.6">
       <c r="A23" s="1" t="s">
         <v>362</v>
       </c>
@@ -8826,10 +8826,10 @@
         <v>323</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="409.6">
       <c r="A24" s="1" t="s">
         <v>363</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>325</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16">

--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Project/github/HuYanEconomy/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDED70D8-6DD6-DA4E-857D-EB4E6B121044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873E4B5A-B613-2143-91C6-C2A45201B21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="403">
   <si>
     <t>等级</t>
   </si>
@@ -1554,6 +1554,14 @@
   </si>
   <si>
     <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切面实现debuf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8312,10 +8320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24E0D53-D032-4CE2-B133-22AC5951F0E0}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8329,9 +8337,10 @@
     <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="2" t="s">
         <v>303</v>
       </c>
@@ -8360,7 +8369,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="1" t="s">
         <v>327</v>
       </c>
@@ -8381,7 +8390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32">
+    <row r="3" spans="1:10" ht="32">
       <c r="A3" s="1" t="s">
         <v>328</v>
       </c>
@@ -8401,8 +8410,11 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="32">
+      <c r="J3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="32">
       <c r="A4" s="1" t="s">
         <v>329</v>
       </c>
@@ -8422,8 +8434,11 @@
       <c r="G4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16">
+      <c r="J4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16">
       <c r="A5" s="1" t="s">
         <v>331</v>
       </c>
@@ -8444,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32">
+    <row r="6" spans="1:10" ht="32">
       <c r="A6" s="1" t="s">
         <v>333</v>
       </c>
@@ -8465,7 +8480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16">
+    <row r="7" spans="1:10" ht="16">
       <c r="A7" s="1" t="s">
         <v>335</v>
       </c>
@@ -8486,7 +8501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16">
+    <row r="8" spans="1:10" ht="16">
       <c r="A8" s="1" t="s">
         <v>337</v>
       </c>
@@ -8507,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16">
+    <row r="9" spans="1:10" ht="16">
       <c r="A9" s="1" t="s">
         <v>339</v>
       </c>
@@ -8528,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:10" ht="17">
       <c r="A10" s="1" t="s">
         <v>341</v>
       </c>
@@ -8549,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16">
+    <row r="11" spans="1:10" ht="16">
       <c r="A11" s="1" t="s">
         <v>343</v>
       </c>
@@ -8570,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="1" t="s">
         <v>345</v>
       </c>
@@ -8591,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="1" t="s">
         <v>347</v>
       </c>
@@ -8612,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="1" t="s">
         <v>349</v>
       </c>
@@ -8633,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32">
+    <row r="15" spans="1:10" ht="32">
       <c r="A15" s="1" t="s">
         <v>351</v>
       </c>
@@ -8654,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="48">
+    <row r="16" spans="1:10" ht="48">
       <c r="A16" s="1" t="s">
         <v>352</v>
       </c>

--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Project/github/HuYanEconomy/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A410B31-23DA-1E4A-9CED-06E9ED32CB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5604D7C9-E982-8F4A-A6C4-FD5B9451F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="426">
   <si>
     <t>等级</t>
   </si>
@@ -1472,14 +1472,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FISH-34</t>
-  </si>
-  <si>
     <t>面罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化身正义岛民，对指定目标使用，获得目标的币币（随机200-800）（每人每天最多可使用3次）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1671,6 +1664,18 @@
   </si>
   <si>
     <t>是否兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否下架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化身正义岛民，对指定目标使用，获得目标的币币（随机501-1500）（每人每天最多可使用3次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH-34</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2993,7 +2998,7 @@
         <v>291</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -3591,7 +3596,7 @@
         <v>297</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D26" s="6">
         <v>2</v>
@@ -4133,7 +4138,7 @@
         <v>294</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D36" s="6">
         <v>10</v>
@@ -4842,7 +4847,7 @@
         <v>281</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D49" s="6">
         <v>0</v>
@@ -5118,7 +5123,7 @@
         <v>286</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D54" s="1">
         <v>15</v>
@@ -5724,7 +5729,7 @@
         <v>288</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D65" s="6">
         <v>10</v>
@@ -5781,7 +5786,7 @@
         <v>272</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D66" s="6">
         <v>-20</v>
@@ -5948,7 +5953,7 @@
         <v>289</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D69" s="6">
         <v>0</v>
@@ -6502,7 +6507,7 @@
         <v>270</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D79" s="6">
         <v>20</v>
@@ -6559,7 +6564,7 @@
         <v>273</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D80" s="6">
         <v>30</v>
@@ -7384,7 +7389,7 @@
         <v>298</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D95" s="6">
         <v>8</v>
@@ -7606,7 +7611,7 @@
         <v>210</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D99" s="6">
         <v>99</v>
@@ -8043,7 +8048,7 @@
         <v>255</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D107" s="6">
         <v>65</v>
@@ -8099,7 +8104,7 @@
         <v>258</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D108" s="6">
         <v>50</v>
@@ -8155,7 +8160,7 @@
         <v>293</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D109" s="6">
         <v>35</v>
@@ -8267,7 +8272,7 @@
         <v>260</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D111" s="6">
         <v>20</v>
@@ -8433,7 +8438,7 @@
         <v>257</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D114" s="6">
         <v>100</v>
@@ -8705,7 +8710,7 @@
         <v>259</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D119" s="6">
         <v>100</v>
@@ -8817,7 +8822,7 @@
         <v>290</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D121" s="6">
         <v>30</v>
@@ -8927,7 +8932,7 @@
         <v>271</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D123" s="6">
         <v>30</v>
@@ -8983,7 +8988,7 @@
         <v>296</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D124" s="6">
         <v>45</v>
@@ -9093,7 +9098,7 @@
         <v>262</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D126" s="6">
         <v>20</v>
@@ -9367,7 +9372,7 @@
         <v>295</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D131" s="6">
         <v>55</v>
@@ -9423,7 +9428,7 @@
         <v>285</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D132" s="6">
         <v>100</v>
@@ -9753,7 +9758,7 @@
         <v>308</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D138" s="1">
         <v>80</v>
@@ -10201,25 +10206,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A7FBE3-B656-4EC5-AF69-64ED1D5A6239}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.1640625" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="53.5" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="2" t="s">
         <v>305</v>
       </c>
@@ -10233,7 +10240,7 @@
         <v>243</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>267</v>
@@ -10242,13 +10249,16 @@
         <v>340</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="32">
+    </row>
+    <row r="2" spans="1:10" ht="32">
       <c r="A2" s="1" t="s">
         <v>341</v>
       </c>
@@ -10266,10 +10276,10 @@
       </c>
       <c r="F2" s="12"/>
       <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="32">
       <c r="A3" s="1" t="s">
         <v>342</v>
       </c>
@@ -10287,10 +10297,10 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="32">
       <c r="A4" s="1" t="s">
         <v>343</v>
       </c>
@@ -10311,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32">
+    <row r="5" spans="1:10" ht="32">
       <c r="A5" s="1" t="s">
         <v>344</v>
       </c>
@@ -10332,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32">
+    <row r="6" spans="1:10" ht="32">
       <c r="A6" s="1" t="s">
         <v>345</v>
       </c>
@@ -10353,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32">
+    <row r="7" spans="1:10" ht="16">
       <c r="A7" s="1" t="s">
         <v>346</v>
       </c>
@@ -10374,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16">
+    <row r="8" spans="1:10" ht="16">
       <c r="A8" s="1" t="s">
         <v>347</v>
       </c>
@@ -10395,7 +10405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16">
+    <row r="9" spans="1:10" ht="16">
       <c r="A9" s="1" t="s">
         <v>348</v>
       </c>
@@ -10416,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:10" ht="17">
       <c r="A10" s="1" t="s">
         <v>349</v>
       </c>
@@ -10437,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16">
+    <row r="11" spans="1:10" ht="16">
       <c r="A11" s="1" t="s">
         <v>350</v>
       </c>
@@ -10458,7 +10468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="1" t="s">
         <v>351</v>
       </c>
@@ -10479,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="1" t="s">
         <v>352</v>
       </c>
@@ -10500,7 +10510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="1" t="s">
         <v>353</v>
       </c>
@@ -10521,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32">
+    <row r="15" spans="1:10" ht="32">
       <c r="A15" s="1" t="s">
         <v>354</v>
       </c>
@@ -10542,12 +10552,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32">
+    <row r="16" spans="1:10" ht="32">
       <c r="A16" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>248</v>
@@ -10573,7 +10583,7 @@
         <v>356</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>248</v>
@@ -10677,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -10723,7 +10733,7 @@
         <v>64</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -10757,7 +10767,7 @@
         <v>364</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>318</v>
@@ -10864,7 +10874,7 @@
         <v>369</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>318</v>
@@ -10904,7 +10914,7 @@
         <v>374</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>318</v>
@@ -10927,7 +10937,7 @@
         <v>379</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>318</v>
@@ -10950,7 +10960,7 @@
         <v>383</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>318</v>
@@ -10970,16 +10980,16 @@
     </row>
     <row r="35" spans="1:7" ht="32">
       <c r="A35" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>318</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="E35" s="1">
         <v>500</v>

--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Project/github/HuYanEconomy/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Desktop/ddd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E857618-EB4C-FA44-9364-6A5844EEAC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FF8EB2-05A4-9443-B57B-C77F9B65BA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1668,6 +1668,9 @@
   </si>
   <si>
     <t>FISH-38</t>
+  </si>
+  <si>
+    <t>FISH-39</t>
   </si>
   <si>
     <t>FISH-40</t>
@@ -1991,6 +1994,9 @@
     <t>FISH-48</t>
   </si>
   <si>
+    <t>FISH-49</t>
+  </si>
+  <si>
     <t>画室的花瓶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2017,14 +2023,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FISH-49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FISH-39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2037,19 +2035,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是否直接兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FISH-50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>枫叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>🍁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否直接兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枫叶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2183,15 +2181,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Apple Color Emoji"/>
+      <name val="SimSun"/>
       <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="SimSun"/>
+      <name val="Apple Color Emoji"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2307,10 +2305,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2630,8 +2628,8 @@
   <dimension ref="A1:U167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K164" sqref="K164"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -3426,10 +3424,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D15" s="1">
         <v>13</v>
@@ -6153,10 +6151,10 @@
         <v>5</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D65" s="1">
         <v>20</v>
@@ -6872,10 +6870,10 @@
         <v>6</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D78" s="1">
         <v>13</v>
@@ -6923,10 +6921,10 @@
         <v>6</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D79" s="1">
         <v>49</v>
@@ -6974,10 +6972,10 @@
         <v>6</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
@@ -7914,10 +7912,10 @@
         <v>7</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D97" s="1">
         <v>2</v>
@@ -8627,10 +8625,10 @@
         <v>8</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D110" s="1">
         <v>10</v>
@@ -8957,10 +8955,10 @@
         <v>8</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D116" s="1">
         <v>3</v>
@@ -9561,10 +9559,10 @@
         <v>9</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D127" s="1">
         <v>25</v>
@@ -9612,10 +9610,10 @@
         <v>9</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D128" s="1">
         <v>30</v>
@@ -10107,10 +10105,10 @@
         <v>9</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D137" s="1">
         <v>4</v>
@@ -10433,10 +10431,10 @@
         <v>9</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D143" s="1">
         <v>6</v>
@@ -10597,10 +10595,10 @@
         <v>10</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D146" s="1">
         <v>10</v>
@@ -10651,10 +10649,10 @@
         <v>10</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D147" s="1">
         <v>10</v>
@@ -11135,10 +11133,10 @@
         <v>11</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D156" s="1">
         <v>35</v>
@@ -11186,10 +11184,10 @@
         <v>11</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D157" s="1">
         <v>44</v>
@@ -11237,10 +11235,10 @@
         <v>11</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D158" s="1">
         <v>60</v>
@@ -11288,10 +11286,10 @@
         <v>11</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D159" s="1">
         <v>66</v>
@@ -11339,10 +11337,10 @@
         <v>11</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="D160" s="1">
         <v>67</v>
@@ -11446,10 +11444,10 @@
         <v>11</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D162" s="1">
         <v>9</v>
@@ -11478,6 +11476,9 @@
       </c>
       <c r="K162" s="1">
         <v>115</v>
+      </c>
+      <c r="L162" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N162" s="6">
         <f t="shared" si="59"/>
@@ -11498,10 +11499,10 @@
         <v>11</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D163" s="1">
         <v>9</v>
@@ -11530,6 +11531,9 @@
       </c>
       <c r="K163" s="1">
         <v>115</v>
+      </c>
+      <c r="L163" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="N163" s="1">
         <f t="shared" si="59"/>
@@ -11657,10 +11661,10 @@
         <v>11</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -11774,8 +11778,8 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11785,7 +11789,9 @@
     <col min="5" max="5" width="17.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="53.5" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16">
@@ -11817,7 +11823,7 @@
         <v>507</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="32">
@@ -12122,7 +12128,7 @@
         <v>414</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>419</v>
@@ -12148,7 +12154,7 @@
         <v>415</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>418</v>
@@ -12174,7 +12180,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>420</v>
@@ -12240,7 +12246,7 @@
         <v>261</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>262</v>
@@ -12565,13 +12571,13 @@
         <v>421</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E36" s="1">
         <v>30</v>
@@ -12585,13 +12591,13 @@
         <v>422</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E37" s="1">
         <v>60</v>
@@ -12605,13 +12611,13 @@
         <v>423</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E38" s="1">
         <v>90</v>
@@ -12625,13 +12631,13 @@
         <v>424</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E39" s="1">
         <v>120</v>
@@ -12642,16 +12648,16 @@
     </row>
     <row r="40" spans="1:9" ht="36">
       <c r="A40" s="1" t="s">
-        <v>504</v>
+        <v>425</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -12665,16 +12671,16 @@
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" ht="32">
       <c r="A41" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E41" s="1">
         <v>10</v>
@@ -12685,22 +12691,22 @@
     </row>
     <row r="42" spans="1:9" ht="96">
       <c r="A42" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E42" s="1">
         <v>50</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -12710,16 +12716,16 @@
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1" ht="16">
       <c r="A43" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E43" s="1">
         <v>36</v>
@@ -12730,16 +12736,16 @@
     </row>
     <row r="44" spans="1:9" ht="32">
       <c r="A44" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>315</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E44" s="1">
         <v>3600</v>
@@ -12750,16 +12756,16 @@
     </row>
     <row r="45" spans="1:9" ht="32">
       <c r="A45" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>315</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E45" s="1">
         <v>3600</v>
@@ -12770,16 +12776,16 @@
     </row>
     <row r="46" spans="1:9" ht="32">
       <c r="A46" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E46" s="1">
         <v>50</v>
@@ -12790,16 +12796,16 @@
     </row>
     <row r="47" spans="1:9" ht="32">
       <c r="A47" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E47" s="1">
         <v>50</v>
@@ -12810,16 +12816,16 @@
     </row>
     <row r="48" spans="1:9" ht="32">
       <c r="A48" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E48" s="1">
         <v>90</v>
@@ -12830,16 +12836,16 @@
     </row>
     <row r="49" spans="1:10" ht="32">
       <c r="A49" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E49" s="1">
         <v>90</v>
@@ -12850,16 +12856,16 @@
     </row>
     <row r="50" spans="1:10" ht="48">
       <c r="A50" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -12873,13 +12879,13 @@
     </row>
     <row r="51" spans="1:10" ht="39">
       <c r="A51" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B51" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="C51" s="27" t="s">
         <v>511</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>509</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>512</v>

--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Desktop/ddd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QQFireRecv\HuYanEconomy-0.1.16.mirai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FF8EB2-05A4-9443-B57B-C77F9B65BA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF3887E-DAD9-4845-8AD7-6838E2133E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鱼" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="517">
   <si>
     <t>等级</t>
   </si>
@@ -2071,6 +2071,26 @@
       </rPr>
       <t>枫叶币-枫叶币可通过兑换指令使用WDIT币币进行兑换</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定
+拳击等运动使用的绷带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定
+画画等活动使用的颜料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定
+某学校体育馆内的一张球拍，有不少使用的痕迹，但被保养得很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定
+某学校画室里摆着的一个普通的花瓶，里面好像藏了什么东西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2627,32 +2647,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="9" style="1"/>
     <col min="19" max="19" width="14.33203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="17" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="32">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="27.6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2935,7 +2955,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16">
+    <row r="6" spans="1:21">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -2987,7 +3007,7 @@
       </c>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:21" ht="16">
+    <row r="7" spans="1:21">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -3093,7 +3113,7 @@
       </c>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:21" ht="16">
+    <row r="9" spans="1:21">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -3419,7 +3439,7 @@
       </c>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:21" ht="16">
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -3470,7 +3490,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16">
+    <row r="16" spans="1:21" ht="27.6">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -3580,7 +3600,7 @@
       </c>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" ht="17">
+    <row r="18" spans="1:17" ht="16.8">
       <c r="A18" s="6">
         <v>2</v>
       </c>
@@ -3852,7 +3872,7 @@
       </c>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="16">
+    <row r="23" spans="1:17">
       <c r="A23" s="6">
         <v>2</v>
       </c>
@@ -3908,7 +3928,7 @@
       </c>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="16">
+    <row r="24" spans="1:17">
       <c r="A24" s="6">
         <v>3</v>
       </c>
@@ -4016,7 +4036,7 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="16">
+    <row r="26" spans="1:17">
       <c r="A26" s="6">
         <v>3</v>
       </c>
@@ -4068,7 +4088,7 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="16">
+    <row r="27" spans="1:17">
       <c r="A27" s="6">
         <v>3</v>
       </c>
@@ -4610,7 +4630,7 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:18" ht="32">
+    <row r="37" spans="1:18" ht="27.6">
       <c r="A37" s="6">
         <v>3</v>
       </c>
@@ -4936,7 +4956,7 @@
       </c>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:18" ht="16">
+    <row r="43" spans="1:18">
       <c r="A43" s="6">
         <v>3</v>
       </c>
@@ -4992,7 +5012,7 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:18" ht="18">
+    <row r="44" spans="1:18" ht="16.8">
       <c r="A44" s="6">
         <v>4</v>
       </c>
@@ -5046,7 +5066,7 @@
       </c>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:18" ht="17">
+    <row r="45" spans="1:18" ht="16.8">
       <c r="A45" s="6">
         <v>4</v>
       </c>
@@ -5319,7 +5339,7 @@
       </c>
       <c r="Q49" s="9"/>
     </row>
-    <row r="50" spans="1:18" ht="17">
+    <row r="50" spans="1:18" ht="15.6">
       <c r="A50" s="6">
         <v>4</v>
       </c>
@@ -5595,7 +5615,7 @@
       <c r="Q54"/>
       <c r="R54" s="7"/>
     </row>
-    <row r="55" spans="1:18" ht="32">
+    <row r="55" spans="1:18" ht="27.6">
       <c r="A55" s="6">
         <v>4</v>
       </c>
@@ -6146,7 +6166,7 @@
       <c r="Q64"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" spans="1:18" ht="16">
+    <row r="65" spans="1:18">
       <c r="A65" s="1">
         <v>5</v>
       </c>
@@ -6252,7 +6272,7 @@
       <c r="Q66"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="1:18" ht="32">
+    <row r="67" spans="1:18" ht="27.6">
       <c r="A67" s="6">
         <v>5</v>
       </c>
@@ -6309,7 +6329,7 @@
       <c r="Q67"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" spans="1:18" ht="32">
+    <row r="68" spans="1:18" ht="27.6">
       <c r="A68" s="6">
         <v>5</v>
       </c>
@@ -6698,7 +6718,7 @@
       <c r="Q74"/>
       <c r="R74" s="7"/>
     </row>
-    <row r="75" spans="1:18" ht="16">
+    <row r="75" spans="1:18">
       <c r="A75" s="6">
         <v>5</v>
       </c>
@@ -6865,7 +6885,7 @@
       <c r="Q77"/>
       <c r="R77" s="7"/>
     </row>
-    <row r="78" spans="1:18" ht="16">
+    <row r="78" spans="1:18">
       <c r="A78" s="6">
         <v>6</v>
       </c>
@@ -6916,7 +6936,7 @@
         <v>760.5</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="16">
+    <row r="79" spans="1:18">
       <c r="A79" s="6">
         <v>6</v>
       </c>
@@ -6967,7 +6987,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="32">
+    <row r="80" spans="1:18" ht="27.6">
       <c r="A80" s="1">
         <v>6</v>
       </c>
@@ -7187,7 +7207,7 @@
       <c r="Q83"/>
       <c r="R83" s="7"/>
     </row>
-    <row r="84" spans="1:18" ht="32">
+    <row r="84" spans="1:18" ht="27.6">
       <c r="A84" s="6">
         <v>6</v>
       </c>
@@ -7244,7 +7264,7 @@
       <c r="Q84"/>
       <c r="R84" s="7"/>
     </row>
-    <row r="85" spans="1:18" ht="32">
+    <row r="85" spans="1:18" ht="27.6">
       <c r="A85" s="6">
         <v>6</v>
       </c>
@@ -7411,7 +7431,7 @@
       <c r="Q87"/>
       <c r="R87" s="7"/>
     </row>
-    <row r="88" spans="1:18" ht="16">
+    <row r="88" spans="1:18">
       <c r="A88" s="6">
         <v>6</v>
       </c>
@@ -7907,7 +7927,7 @@
       </c>
       <c r="Q96"/>
     </row>
-    <row r="97" spans="1:18" ht="32">
+    <row r="97" spans="1:18" ht="27.6">
       <c r="A97" s="1">
         <v>7</v>
       </c>
@@ -8015,7 +8035,7 @@
       </c>
       <c r="Q98"/>
     </row>
-    <row r="99" spans="1:18" ht="16">
+    <row r="99" spans="1:18">
       <c r="A99" s="6">
         <v>7</v>
       </c>
@@ -8123,7 +8143,7 @@
       </c>
       <c r="Q100"/>
     </row>
-    <row r="101" spans="1:18" ht="16">
+    <row r="101" spans="1:18">
       <c r="A101" s="6">
         <v>7</v>
       </c>
@@ -8181,7 +8201,7 @@
       </c>
       <c r="Q101"/>
     </row>
-    <row r="102" spans="1:18" ht="16">
+    <row r="102" spans="1:18">
       <c r="A102" s="6">
         <v>7</v>
       </c>
@@ -8291,7 +8311,7 @@
       </c>
       <c r="Q103"/>
     </row>
-    <row r="104" spans="1:18" ht="16">
+    <row r="104" spans="1:18">
       <c r="A104" s="6">
         <v>7</v>
       </c>
@@ -8511,7 +8531,7 @@
       </c>
       <c r="Q107"/>
     </row>
-    <row r="108" spans="1:18" ht="16">
+    <row r="108" spans="1:18">
       <c r="A108" s="6">
         <v>7</v>
       </c>
@@ -8566,7 +8586,7 @@
       <c r="Q108"/>
       <c r="R108" s="7"/>
     </row>
-    <row r="109" spans="1:18" ht="16">
+    <row r="109" spans="1:18">
       <c r="A109" s="6">
         <v>7</v>
       </c>
@@ -8620,7 +8640,7 @@
       </c>
       <c r="Q109"/>
     </row>
-    <row r="110" spans="1:18" ht="16">
+    <row r="110" spans="1:18">
       <c r="A110" s="1">
         <v>8</v>
       </c>
@@ -8674,7 +8694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="16">
+    <row r="111" spans="1:18">
       <c r="A111" s="6">
         <v>8</v>
       </c>
@@ -8782,7 +8802,7 @@
       </c>
       <c r="Q112"/>
     </row>
-    <row r="113" spans="1:17" ht="16">
+    <row r="113" spans="1:17">
       <c r="A113" s="6">
         <v>8</v>
       </c>
@@ -8838,7 +8858,7 @@
       </c>
       <c r="Q113"/>
     </row>
-    <row r="114" spans="1:17" ht="16">
+    <row r="114" spans="1:17">
       <c r="A114" s="6">
         <v>8</v>
       </c>
@@ -8894,7 +8914,7 @@
       </c>
       <c r="Q114"/>
     </row>
-    <row r="115" spans="1:17" ht="16">
+    <row r="115" spans="1:17">
       <c r="A115" s="6">
         <v>8</v>
       </c>
@@ -8950,7 +8970,7 @@
       </c>
       <c r="Q115"/>
     </row>
-    <row r="116" spans="1:17" ht="32">
+    <row r="116" spans="1:17" ht="27.6">
       <c r="A116" s="1">
         <v>8</v>
       </c>
@@ -9004,7 +9024,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="16">
+    <row r="117" spans="1:17">
       <c r="A117" s="6">
         <v>8</v>
       </c>
@@ -9060,7 +9080,7 @@
       </c>
       <c r="Q117"/>
     </row>
-    <row r="118" spans="1:17" ht="16">
+    <row r="118" spans="1:17">
       <c r="A118" s="6">
         <v>8</v>
       </c>
@@ -9118,7 +9138,7 @@
       </c>
       <c r="Q118"/>
     </row>
-    <row r="119" spans="1:17" ht="16">
+    <row r="119" spans="1:17">
       <c r="A119" s="6">
         <v>8</v>
       </c>
@@ -9226,7 +9246,7 @@
       </c>
       <c r="Q120"/>
     </row>
-    <row r="121" spans="1:17" ht="16">
+    <row r="121" spans="1:17">
       <c r="A121" s="6">
         <v>8</v>
       </c>
@@ -9282,7 +9302,7 @@
       </c>
       <c r="Q121"/>
     </row>
-    <row r="122" spans="1:17" ht="16">
+    <row r="122" spans="1:17">
       <c r="A122" s="6">
         <v>8</v>
       </c>
@@ -9336,7 +9356,7 @@
       </c>
       <c r="Q122"/>
     </row>
-    <row r="123" spans="1:17" ht="16">
+    <row r="123" spans="1:17">
       <c r="A123" s="6">
         <v>8</v>
       </c>
@@ -9498,7 +9518,7 @@
       </c>
       <c r="Q125"/>
     </row>
-    <row r="126" spans="1:17" ht="160">
+    <row r="126" spans="1:17" ht="138">
       <c r="A126" s="6">
         <v>8</v>
       </c>
@@ -9554,7 +9574,7 @@
       </c>
       <c r="Q126"/>
     </row>
-    <row r="127" spans="1:17" ht="32">
+    <row r="127" spans="1:17" ht="27.6">
       <c r="A127" s="1">
         <v>9</v>
       </c>
@@ -9605,7 +9625,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="16">
+    <row r="128" spans="1:17">
       <c r="A128" s="1">
         <v>9</v>
       </c>
@@ -9712,7 +9732,7 @@
       </c>
       <c r="Q129"/>
     </row>
-    <row r="130" spans="1:17" ht="16">
+    <row r="130" spans="1:17">
       <c r="A130" s="6">
         <v>9</v>
       </c>
@@ -9822,7 +9842,7 @@
       </c>
       <c r="Q131"/>
     </row>
-    <row r="132" spans="1:17" ht="16">
+    <row r="132" spans="1:17">
       <c r="A132" s="6">
         <v>9</v>
       </c>
@@ -9878,7 +9898,7 @@
       </c>
       <c r="Q132"/>
     </row>
-    <row r="133" spans="1:17" ht="16">
+    <row r="133" spans="1:17">
       <c r="A133" s="6">
         <v>9</v>
       </c>
@@ -9988,7 +10008,7 @@
       </c>
       <c r="Q134"/>
     </row>
-    <row r="135" spans="1:17" ht="32">
+    <row r="135" spans="1:17" ht="27.6">
       <c r="A135" s="6">
         <v>9</v>
       </c>
@@ -10100,7 +10120,7 @@
       </c>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" ht="32">
+    <row r="137" spans="1:17" ht="27.6">
       <c r="A137" s="1">
         <v>9</v>
       </c>
@@ -10370,7 +10390,7 @@
       </c>
       <c r="Q141"/>
     </row>
-    <row r="142" spans="1:17" ht="16">
+    <row r="142" spans="1:17">
       <c r="A142" s="6">
         <v>9</v>
       </c>
@@ -10426,7 +10446,7 @@
       </c>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="1:17" ht="16">
+    <row r="143" spans="1:17">
       <c r="A143" s="1">
         <v>9</v>
       </c>
@@ -10480,7 +10500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="32">
+    <row r="144" spans="1:17" ht="27.6">
       <c r="A144" s="6">
         <v>9</v>
       </c>
@@ -10590,7 +10610,7 @@
       </c>
       <c r="Q145"/>
     </row>
-    <row r="146" spans="1:17" ht="16">
+    <row r="146" spans="1:17" ht="27.6">
       <c r="A146" s="1">
         <v>10</v>
       </c>
@@ -10598,7 +10618,7 @@
         <v>487</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="D146" s="1">
         <v>10</v>
@@ -10644,7 +10664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="16">
+    <row r="147" spans="1:17" ht="27.6">
       <c r="A147" s="1">
         <v>10</v>
       </c>
@@ -10652,7 +10672,7 @@
         <v>488</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="D147" s="1">
         <v>10</v>
@@ -10918,7 +10938,7 @@
       </c>
       <c r="Q151"/>
     </row>
-    <row r="152" spans="1:17" ht="16">
+    <row r="152" spans="1:17">
       <c r="A152" s="6">
         <v>10</v>
       </c>
@@ -10972,7 +10992,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="16">
+    <row r="153" spans="1:17">
       <c r="A153" s="6">
         <v>10</v>
       </c>
@@ -11128,7 +11148,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="32">
+    <row r="156" spans="1:17" ht="27.6">
       <c r="A156" s="1">
         <v>11</v>
       </c>
@@ -11179,7 +11199,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="16">
+    <row r="157" spans="1:17">
       <c r="A157" s="1">
         <v>11</v>
       </c>
@@ -11230,7 +11250,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="32">
+    <row r="158" spans="1:17" ht="27.6">
       <c r="A158" s="1">
         <v>11</v>
       </c>
@@ -11281,7 +11301,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="16">
+    <row r="159" spans="1:17">
       <c r="A159" s="1">
         <v>11</v>
       </c>
@@ -11332,7 +11352,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="32">
+    <row r="160" spans="1:17" ht="27.6">
       <c r="A160" s="1">
         <v>11</v>
       </c>
@@ -11439,7 +11459,7 @@
       </c>
       <c r="Q161"/>
     </row>
-    <row r="162" spans="1:17" ht="16">
+    <row r="162" spans="1:17" ht="27.6">
       <c r="A162" s="1">
         <v>11</v>
       </c>
@@ -11447,7 +11467,7 @@
         <v>499</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D162" s="1">
         <v>9</v>
@@ -11494,7 +11514,7 @@
       </c>
       <c r="Q162"/>
     </row>
-    <row r="163" spans="1:17" ht="16">
+    <row r="163" spans="1:17" ht="27.6">
       <c r="A163" s="6">
         <v>11</v>
       </c>
@@ -11502,7 +11522,7 @@
         <v>498</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="D163" s="1">
         <v>9</v>
@@ -11656,7 +11676,7 @@
       </c>
       <c r="Q165"/>
     </row>
-    <row r="166" spans="1:17" ht="32">
+    <row r="166" spans="1:17" ht="27.6">
       <c r="A166" s="1">
         <v>11</v>
       </c>
@@ -11710,7 +11730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="16">
+    <row r="167" spans="1:17">
       <c r="A167" s="6">
         <v>11</v>
       </c>
@@ -11777,24 +11797,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A7FBE3-B656-4EC5-AF69-64ED1D5A6239}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.5" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>302</v>
       </c>
@@ -11826,7 +11846,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="32">
+    <row r="2" spans="1:10" ht="27.6">
       <c r="A2" s="1" t="s">
         <v>337</v>
       </c>
@@ -11847,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="32">
+    <row r="3" spans="1:10" ht="27.6">
       <c r="A3" s="1" t="s">
         <v>338</v>
       </c>
@@ -11868,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32">
+    <row r="4" spans="1:10" ht="27.6">
       <c r="A4" s="1" t="s">
         <v>339</v>
       </c>
@@ -11889,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="32">
+    <row r="5" spans="1:10" ht="27.6">
       <c r="A5" s="1" t="s">
         <v>340</v>
       </c>
@@ -11910,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="32">
+    <row r="6" spans="1:10" ht="27.6">
       <c r="A6" s="1" t="s">
         <v>341</v>
       </c>
@@ -11931,7 +11951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="32">
+    <row r="7" spans="1:10" ht="27.6">
       <c r="A7" s="1" t="s">
         <v>342</v>
       </c>
@@ -11952,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>343</v>
       </c>
@@ -11973,7 +11993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16">
+    <row r="9" spans="1:10" ht="27.6">
       <c r="A9" s="1" t="s">
         <v>344</v>
       </c>
@@ -11994,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17">
+    <row r="10" spans="1:10" ht="16.8">
       <c r="A10" s="1" t="s">
         <v>345</v>
       </c>
@@ -12015,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>346</v>
       </c>
@@ -12036,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>347</v>
       </c>
@@ -12057,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>348</v>
       </c>
@@ -12078,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>349</v>
       </c>
@@ -12099,7 +12119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="32">
+    <row r="15" spans="1:10" ht="27.6">
       <c r="A15" s="1" t="s">
         <v>350</v>
       </c>
@@ -12120,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="32">
+    <row r="16" spans="1:10" ht="27.6">
       <c r="A16" s="1" t="s">
         <v>351</v>
       </c>
@@ -12146,7 +12166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="32">
+    <row r="17" spans="1:9" ht="27.6">
       <c r="A17" s="1" t="s">
         <v>352</v>
       </c>
@@ -12172,7 +12192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="48">
+    <row r="18" spans="1:9" ht="41.4">
       <c r="A18" s="1" t="s">
         <v>353</v>
       </c>
@@ -12196,7 +12216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="32">
+    <row r="19" spans="1:9" ht="27.6">
       <c r="A19" s="1" t="s">
         <v>354</v>
       </c>
@@ -12217,7 +12237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="32">
+    <row r="20" spans="1:9" ht="27.6">
       <c r="A20" s="1" t="s">
         <v>355</v>
       </c>
@@ -12264,7 +12284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="32">
+    <row r="22" spans="1:9" ht="27.6">
       <c r="A22" s="1" t="s">
         <v>357</v>
       </c>
@@ -12307,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="409.6">
+    <row r="24" spans="1:9" ht="400.2">
       <c r="A24" s="1" t="s">
         <v>359</v>
       </c>
@@ -12330,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>360</v>
       </c>
@@ -12351,7 +12371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="32">
+    <row r="26" spans="1:9" ht="27.6">
       <c r="A26" s="1" t="s">
         <v>361</v>
       </c>
@@ -12371,7 +12391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="32">
+    <row r="27" spans="1:9" ht="27.6">
       <c r="A27" s="1" t="s">
         <v>362</v>
       </c>
@@ -12391,7 +12411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="32">
+    <row r="28" spans="1:9" ht="41.4">
       <c r="A28" s="1" t="s">
         <v>363</v>
       </c>
@@ -12417,7 +12437,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="32">
+    <row r="29" spans="1:9" ht="27.6">
       <c r="A29" s="1" t="s">
         <v>364</v>
       </c>
@@ -12437,7 +12457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="32">
+    <row r="30" spans="1:9" ht="27.6">
       <c r="A30" s="1" t="s">
         <v>365</v>
       </c>
@@ -12457,7 +12477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="32">
+    <row r="31" spans="1:9" ht="27.6">
       <c r="A31" s="1" t="s">
         <v>366</v>
       </c>
@@ -12477,7 +12497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>370</v>
       </c>
@@ -12500,7 +12520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>373</v>
       </c>
@@ -12523,7 +12543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>377</v>
       </c>
@@ -12546,7 +12566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="32">
+    <row r="35" spans="1:9" ht="27.6">
       <c r="A35" s="1" t="s">
         <v>379</v>
       </c>
@@ -12566,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="32">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="27.6">
       <c r="A36" s="1" t="s">
         <v>421</v>
       </c>
@@ -12586,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" ht="32">
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="27.6">
       <c r="A37" s="1" t="s">
         <v>422</v>
       </c>
@@ -12606,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" ht="32">
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="27.6">
       <c r="A38" s="1" t="s">
         <v>423</v>
       </c>
@@ -12626,7 +12646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" ht="32">
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="27.6">
       <c r="A39" s="1" t="s">
         <v>424</v>
       </c>
@@ -12646,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="36">
+    <row r="40" spans="1:9" ht="30.6">
       <c r="A40" s="1" t="s">
         <v>425</v>
       </c>
@@ -12669,7 +12689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" ht="32">
+    <row r="41" spans="1:9" s="3" customFormat="1" ht="27.6">
       <c r="A41" s="1" t="s">
         <v>426</v>
       </c>
@@ -12689,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="96">
+    <row r="42" spans="1:9" ht="82.8">
       <c r="A42" s="1" t="s">
         <v>431</v>
       </c>
@@ -12714,7 +12734,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" ht="16">
+    <row r="43" spans="1:9" s="3" customFormat="1">
       <c r="A43" s="1" t="s">
         <v>432</v>
       </c>
@@ -12734,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="32">
+    <row r="44" spans="1:9" ht="27.6">
       <c r="A44" s="1" t="s">
         <v>433</v>
       </c>
@@ -12754,7 +12774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="32">
+    <row r="45" spans="1:9" ht="27.6">
       <c r="A45" s="1" t="s">
         <v>434</v>
       </c>
@@ -12774,7 +12794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="32">
+    <row r="46" spans="1:9" ht="27.6">
       <c r="A46" s="1" t="s">
         <v>451</v>
       </c>
@@ -12794,7 +12814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="32">
+    <row r="47" spans="1:9" ht="27.6">
       <c r="A47" s="1" t="s">
         <v>479</v>
       </c>
@@ -12814,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="32">
+    <row r="48" spans="1:9" ht="27.6">
       <c r="A48" s="1" t="s">
         <v>480</v>
       </c>
@@ -12834,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="32">
+    <row r="49" spans="1:10" ht="27.6">
       <c r="A49" s="1" t="s">
         <v>496</v>
       </c>
@@ -12854,7 +12874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="48">
+    <row r="50" spans="1:10" ht="41.4">
       <c r="A50" s="1" t="s">
         <v>497</v>
       </c>
@@ -12877,7 +12897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="39">
+    <row r="51" spans="1:10" ht="27.6">
       <c r="A51" s="1" t="s">
         <v>509</v>
       </c>

--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QQFireRecv\HuYanEconomy-0.1.16.mirai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4132B698-478F-4258-BF8C-9E61EB96C85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0998A67B-72A8-42A2-A067-740EA4902616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鱼" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="527">
   <si>
     <t>等级</t>
   </si>
@@ -891,14 +891,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗品，使用后获得「年年有鱼」buff，之后的5次钓鱼都会额外增加difficultymin50，rankmin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HK警匪片——FreenBecky版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -936,10 +928,6 @@
   </si>
   <si>
     <t>非常大体型的鲑鱼，不仅可以吃，还可作养殖鱼、游钓鱼及观赏鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雄性养育后代的动物之鉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1278,10 +1266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100*rodlevel+900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自定义一日头衔（6个字），可使用emoji，不可使用违反岛岛发言守则的文字，明码标价童叟无欺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1290,10 +1274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗品，使用后获得「竭泽而渔」buff，之后的5次钓鱼都会额外上钩一条鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗品，对指定目标使用，目标获得「浑水摸鱼」buff，之后的2次钓鱼都只会上钩[摸鱼]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1399,10 +1379,6 @@
   </si>
   <si>
     <t>游刃有鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗品，使用后获得「游刃有鱼」buff，之后的5次钓鱼都会额外增加difficultymin30，rankmin2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1626,14 +1602,6 @@
   </si>
   <si>
     <t>FBTNK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「FBPFK」buff：之后的5次钓鱼都会额外增加difficultymin52，rankmin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「FBTNK」buff：之后的5次钓鱼都会额外增加difficultymin52，rankmin5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2138,6 +2106,30 @@
   <si>
     <t>「WDIT BB 4.0」秋季限定
 国家一级保护动物，当场处理！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「FBPFK」buff：之后的5次钓鱼都会额外增加difficultymin66，rankmin6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「FBTNK」buff：之后的5次钓鱼都会额外增加difficultymin66，rankmin6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，使用后获得「游刃有鱼」buff，之后的5次钓鱼都会额外增加difficultymin50，rankmin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，使用后获得「年年有鱼」buff，之后的5次钓鱼都会额外增加difficultymin80，rankmin6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，使用后获得「竭泽而渔」buff，之后的5次钓鱼都会额外上钩一条鱼，且额外增加difficultymin30，rankmin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60*rodlevel+200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2293,7 +2285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2361,12 +2353,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2377,6 +2363,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2692,11 +2681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U175"/>
+  <dimension ref="A1:U174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C164" sqref="C164"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2757,7 +2746,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>178</v>
@@ -3437,10 +3426,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
@@ -3491,10 +3480,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D15" s="1">
         <v>13</v>
@@ -3542,10 +3531,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -3577,7 +3566,7 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" ref="N16:N47" si="17">D16*E16</f>
@@ -4140,10 +4129,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
@@ -4175,7 +4164,7 @@
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N27" s="6">
         <f t="shared" si="17"/>
@@ -4682,10 +4671,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D37" s="6">
         <v>10</v>
@@ -4717,7 +4706,7 @@
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N37" s="6">
         <f t="shared" si="17"/>
@@ -5391,10 +5380,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D50" s="6">
         <v>0</v>
@@ -5428,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N50" s="6">
         <f t="shared" si="24"/>
@@ -5504,10 +5493,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D52" s="6">
         <v>-15</v>
@@ -5722,10 +5711,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D56" s="1">
         <v>15</v>
@@ -5756,7 +5745,7 @@
         <v>70</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" si="24"/>
@@ -6273,10 +6262,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D66" s="1">
         <v>20</v>
@@ -6379,10 +6368,10 @@
         <v>5</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D68" s="6">
         <v>10</v>
@@ -6414,7 +6403,7 @@
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N68" s="6">
         <f t="shared" si="24"/>
@@ -6436,10 +6425,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D69" s="6">
         <v>-20</v>
@@ -6471,7 +6460,7 @@
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N69" s="6">
         <f t="shared" si="24"/>
@@ -6603,10 +6592,10 @@
         <v>5</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D72" s="6">
         <v>0</v>
@@ -6992,10 +6981,10 @@
         <v>6</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D79" s="1">
         <v>13</v>
@@ -7043,10 +7032,10 @@
         <v>6</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D80" s="1">
         <v>49</v>
@@ -7094,10 +7083,10 @@
         <v>6</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -7259,10 +7248,10 @@
         <v>6</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D84" s="6">
         <v>32</v>
@@ -7314,10 +7303,10 @@
         <v>6</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D85" s="6">
         <v>20</v>
@@ -7329,19 +7318,19 @@
         <v>60</v>
       </c>
       <c r="G85" s="6">
-        <f t="shared" ref="G85:G118" si="27">E85</f>
+        <f t="shared" ref="G85:G117" si="27">E85</f>
         <v>50</v>
       </c>
       <c r="H85" s="6">
-        <f t="shared" ref="H85:H118" si="28">(F85-E85)*0.25+E85</f>
+        <f t="shared" ref="H85:H117" si="28">(F85-E85)*0.25+E85</f>
         <v>52.5</v>
       </c>
       <c r="I85" s="6">
-        <f t="shared" ref="I85:I118" si="29">(F85-E85)*0.5+E85</f>
+        <f t="shared" ref="I85:I117" si="29">(F85-E85)*0.5+E85</f>
         <v>55</v>
       </c>
       <c r="J85" s="6">
-        <f t="shared" ref="J85:J118" si="30">F85</f>
+        <f t="shared" ref="J85:J117" si="30">F85</f>
         <v>60</v>
       </c>
       <c r="K85" s="6">
@@ -7349,18 +7338,18 @@
       </c>
       <c r="L85" s="6"/>
       <c r="M85" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N85" s="6">
-        <f t="shared" ref="N85:N118" si="31">D85*E85</f>
+        <f t="shared" ref="N85:N117" si="31">D85*E85</f>
         <v>1000</v>
       </c>
       <c r="O85" s="6">
-        <f t="shared" ref="O85:O118" si="32">D85*F85</f>
+        <f t="shared" ref="O85:O117" si="32">D85*F85</f>
         <v>1200</v>
       </c>
       <c r="P85" s="8">
-        <f t="shared" ref="P85:P118" si="33">AVERAGE(N85,O85)</f>
+        <f t="shared" ref="P85:P117" si="33">AVERAGE(N85,O85)</f>
         <v>1100</v>
       </c>
       <c r="Q85"/>
@@ -7371,10 +7360,10 @@
         <v>6</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D86" s="6">
         <v>30</v>
@@ -7406,7 +7395,7 @@
       </c>
       <c r="L86" s="6"/>
       <c r="M86" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N86" s="6">
         <f t="shared" si="31"/>
@@ -7650,10 +7639,10 @@
         <v>6</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D91" s="6">
         <v>-20</v>
@@ -8034,10 +8023,10 @@
         <v>7</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -8250,10 +8239,10 @@
         <v>7</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D102" s="6">
         <v>8</v>
@@ -8308,10 +8297,10 @@
         <v>7</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D103" s="6">
         <v>12</v>
@@ -8421,7 +8410,7 @@
         <v>208</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D105" s="6">
         <v>99</v>
@@ -8453,7 +8442,7 @@
       </c>
       <c r="L105" s="6"/>
       <c r="M105" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N105" s="6">
         <f t="shared" si="31"/>
@@ -8747,10 +8736,10 @@
         <v>8</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D111" s="1">
         <v>10</v>
@@ -8800,24 +8789,24 @@
       <c r="A112" s="6">
         <v>8</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>245</v>
+      <c r="B112" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D112" s="6">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E112" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F112" s="6">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G112" s="6">
         <f t="shared" si="27"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H112" s="6">
         <f t="shared" si="28"/>
@@ -8825,11 +8814,11 @@
       </c>
       <c r="I112" s="6">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J112" s="6">
         <f t="shared" si="30"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K112" s="6">
         <v>75</v>
@@ -8838,15 +8827,15 @@
       <c r="M112" s="13"/>
       <c r="N112" s="6">
         <f t="shared" si="31"/>
-        <v>700</v>
+        <v>375</v>
       </c>
       <c r="O112" s="6">
         <f t="shared" si="32"/>
-        <v>1400</v>
+        <v>2625</v>
       </c>
       <c r="P112" s="8">
         <f t="shared" si="33"/>
-        <v>1050</v>
+        <v>1500</v>
       </c>
       <c r="Q112"/>
     </row>
@@ -8854,28 +8843,28 @@
       <c r="A113" s="6">
         <v>8</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>117</v>
+      <c r="B113" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="D113" s="6">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E113" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F113" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G113" s="6">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H113" s="6">
         <f t="shared" si="28"/>
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="I113" s="6">
         <f t="shared" si="29"/>
@@ -8883,24 +8872,26 @@
       </c>
       <c r="J113" s="6">
         <f t="shared" si="30"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K113" s="6">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L113" s="6"/>
-      <c r="M113" s="13"/>
+      <c r="M113" s="13" t="s">
+        <v>268</v>
+      </c>
       <c r="N113" s="6">
         <f t="shared" si="31"/>
-        <v>375</v>
+        <v>650</v>
       </c>
       <c r="O113" s="6">
         <f t="shared" si="32"/>
-        <v>2625</v>
+        <v>1950</v>
       </c>
       <c r="P113" s="8">
         <f t="shared" si="33"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="Q113"/>
     </row>
@@ -8912,32 +8903,32 @@
         <v>249</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D114" s="6">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E114" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F114" s="6">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G114" s="6">
         <f t="shared" si="27"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H114" s="6">
         <f t="shared" si="28"/>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I114" s="6">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J114" s="6">
         <f t="shared" si="30"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K114" s="6">
         <v>80</v>
@@ -8948,15 +8939,15 @@
       </c>
       <c r="N114" s="6">
         <f t="shared" si="31"/>
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="O114" s="6">
         <f t="shared" si="32"/>
-        <v>1950</v>
+        <v>4000</v>
       </c>
       <c r="P114" s="8">
         <f t="shared" si="33"/>
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="Q114"/>
     </row>
@@ -8965,179 +8956,179 @@
         <v>8</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="D115" s="6">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E115" s="6">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F115" s="6">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G115" s="6">
         <f t="shared" si="27"/>
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H115" s="6">
         <f t="shared" si="28"/>
-        <v>35</v>
+        <v>48.5</v>
       </c>
       <c r="I115" s="6">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J115" s="6">
         <f t="shared" si="30"/>
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K115" s="6">
         <v>80</v>
       </c>
       <c r="L115" s="6"/>
       <c r="M115" s="13" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="N115" s="6">
         <f t="shared" si="31"/>
-        <v>1000</v>
+        <v>1470</v>
       </c>
       <c r="O115" s="6">
         <f t="shared" si="32"/>
-        <v>4000</v>
+        <v>2380</v>
       </c>
       <c r="P115" s="8">
         <f t="shared" si="33"/>
-        <v>2500</v>
+        <v>1925</v>
       </c>
       <c r="Q115"/>
     </row>
-    <row r="116" spans="1:17">
-      <c r="A116" s="6">
+    <row r="116" spans="1:17" ht="27.6">
+      <c r="A116" s="1">
         <v>8</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>287</v>
+        <v>419</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D116" s="6">
-        <v>35</v>
-      </c>
-      <c r="E116" s="6">
-        <v>42</v>
-      </c>
-      <c r="F116" s="6">
-        <v>68</v>
-      </c>
-      <c r="G116" s="6">
+        <v>436</v>
+      </c>
+      <c r="D116" s="1">
+        <v>3</v>
+      </c>
+      <c r="E116" s="1">
+        <v>30</v>
+      </c>
+      <c r="F116" s="1">
+        <v>30</v>
+      </c>
+      <c r="G116" s="1">
+        <f>E116</f>
+        <v>30</v>
+      </c>
+      <c r="H116" s="1">
+        <f>(F116-E116)*0.25+E116</f>
+        <v>30</v>
+      </c>
+      <c r="I116" s="1">
+        <f>(F116-E116)*0.5+E116</f>
+        <v>30</v>
+      </c>
+      <c r="J116" s="1">
+        <f>F116</f>
+        <v>30</v>
+      </c>
+      <c r="K116" s="1">
+        <v>80</v>
+      </c>
+      <c r="L116" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N116" s="6">
+        <f>D116*E116</f>
+        <v>90</v>
+      </c>
+      <c r="O116" s="6">
+        <f>D116*F116</f>
+        <v>90</v>
+      </c>
+      <c r="P116" s="8">
+        <f>AVERAGE(N116,O116)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="6">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D117" s="6">
+        <v>10</v>
+      </c>
+      <c r="E117" s="6">
+        <v>10</v>
+      </c>
+      <c r="F117" s="6">
+        <v>10</v>
+      </c>
+      <c r="G117" s="6">
         <f t="shared" si="27"/>
-        <v>42</v>
-      </c>
-      <c r="H116" s="6">
+        <v>10</v>
+      </c>
+      <c r="H117" s="6">
         <f t="shared" si="28"/>
-        <v>48.5</v>
-      </c>
-      <c r="I116" s="6">
+        <v>10</v>
+      </c>
+      <c r="I117" s="6">
         <f t="shared" si="29"/>
-        <v>55</v>
-      </c>
-      <c r="J116" s="6">
+        <v>10</v>
+      </c>
+      <c r="J117" s="6">
         <f t="shared" si="30"/>
-        <v>68</v>
-      </c>
-      <c r="K116" s="6">
-        <v>80</v>
-      </c>
-      <c r="L116" s="6"/>
-      <c r="M116" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="N116" s="6">
-        <f t="shared" si="31"/>
-        <v>1470</v>
-      </c>
-      <c r="O116" s="6">
-        <f t="shared" si="32"/>
-        <v>2380</v>
-      </c>
-      <c r="P116" s="8">
-        <f t="shared" si="33"/>
-        <v>1925</v>
-      </c>
-      <c r="Q116"/>
-    </row>
-    <row r="117" spans="1:17" ht="27.6">
-      <c r="A117" s="1">
-        <v>8</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D117" s="1">
-        <v>3</v>
-      </c>
-      <c r="E117" s="1">
-        <v>30</v>
-      </c>
-      <c r="F117" s="1">
-        <v>30</v>
-      </c>
-      <c r="G117" s="1">
-        <f>E117</f>
-        <v>30</v>
-      </c>
-      <c r="H117" s="1">
-        <f>(F117-E117)*0.25+E117</f>
-        <v>30</v>
-      </c>
-      <c r="I117" s="1">
-        <f>(F117-E117)*0.5+E117</f>
-        <v>30</v>
-      </c>
-      <c r="J117" s="1">
-        <f>F117</f>
-        <v>30</v>
-      </c>
-      <c r="K117" s="1">
-        <v>80</v>
+        <v>10</v>
+      </c>
+      <c r="K117" s="6">
+        <v>90</v>
       </c>
       <c r="L117" s="6" t="b">
         <v>1</v>
       </c>
+      <c r="M117" s="13"/>
       <c r="N117" s="6">
-        <f>D117*E117</f>
-        <v>90</v>
+        <f t="shared" si="31"/>
+        <v>100</v>
       </c>
       <c r="O117" s="6">
-        <f>D117*F117</f>
-        <v>90</v>
+        <f t="shared" si="32"/>
+        <v>100</v>
       </c>
       <c r="P117" s="8">
-        <f>AVERAGE(N117,O117)</f>
-        <v>90</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+      <c r="Q117"/>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="6">
         <v>8</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>151</v>
+        <v>389</v>
       </c>
       <c r="D118" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E118" s="6">
         <v>10</v>
@@ -9146,19 +9137,19 @@
         <v>10</v>
       </c>
       <c r="G118" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="G118:G155" si="34">E118</f>
         <v>10</v>
       </c>
       <c r="H118" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="H118:H155" si="35">(F118-E118)*0.25+E118</f>
         <v>10</v>
       </c>
       <c r="I118" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="I118:I155" si="36">(F118-E118)*0.5+E118</f>
         <v>10</v>
       </c>
       <c r="J118" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="J118:J155" si="37">F118</f>
         <v>10</v>
       </c>
       <c r="K118" s="6">
@@ -9167,18 +9158,20 @@
       <c r="L118" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M118" s="13"/>
+      <c r="M118" s="13">
+        <v>70</v>
+      </c>
       <c r="N118" s="6">
-        <f t="shared" si="31"/>
-        <v>100</v>
+        <f t="shared" ref="N118:N155" si="38">D118*E118</f>
+        <v>200</v>
       </c>
       <c r="O118" s="6">
-        <f t="shared" si="32"/>
-        <v>100</v>
+        <f t="shared" ref="O118:O155" si="39">D118*F118</f>
+        <v>200</v>
       </c>
       <c r="P118" s="8">
-        <f t="shared" si="33"/>
-        <v>100</v>
+        <f t="shared" ref="P118:P155" si="40">AVERAGE(N118,O118)</f>
+        <v>200</v>
       </c>
       <c r="Q118"/>
     </row>
@@ -9186,57 +9179,53 @@
       <c r="A119" s="6">
         <v>8</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>254</v>
+      <c r="B119" s="10" t="s">
+        <v>519</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>395</v>
+        <v>518</v>
       </c>
       <c r="D119" s="6">
+        <v>-35</v>
+      </c>
+      <c r="E119" s="6">
         <v>20</v>
       </c>
-      <c r="E119" s="6">
-        <v>10</v>
-      </c>
       <c r="F119" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G119" s="6">
-        <f t="shared" ref="G119:G156" si="34">E119</f>
-        <v>10</v>
+        <f t="shared" si="34"/>
+        <v>20</v>
       </c>
       <c r="H119" s="6">
-        <f t="shared" ref="H119:H156" si="35">(F119-E119)*0.25+E119</f>
-        <v>10</v>
+        <f t="shared" si="35"/>
+        <v>27.5</v>
       </c>
       <c r="I119" s="6">
-        <f t="shared" ref="I119:I156" si="36">(F119-E119)*0.5+E119</f>
-        <v>10</v>
+        <f t="shared" si="36"/>
+        <v>35</v>
       </c>
       <c r="J119" s="6">
-        <f t="shared" ref="J119:J156" si="37">F119</f>
-        <v>10</v>
+        <f t="shared" si="37"/>
+        <v>50</v>
       </c>
       <c r="K119" s="6">
-        <v>90</v>
-      </c>
-      <c r="L119" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M119" s="13">
-        <v>70</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="L119" s="6"/>
+      <c r="M119" s="13"/>
       <c r="N119" s="6">
-        <f t="shared" ref="N119:N156" si="38">D119*E119</f>
-        <v>200</v>
+        <f t="shared" si="38"/>
+        <v>-700</v>
       </c>
       <c r="O119" s="6">
-        <f t="shared" ref="O119:O156" si="39">D119*F119</f>
-        <v>200</v>
+        <f t="shared" si="39"/>
+        <v>-1750</v>
       </c>
       <c r="P119" s="8">
-        <f t="shared" ref="P119:P156" si="40">AVERAGE(N119,O119)</f>
-        <v>200</v>
+        <f t="shared" si="40"/>
+        <v>-1225</v>
       </c>
       <c r="Q119"/>
     </row>
@@ -9244,53 +9233,53 @@
       <c r="A120" s="6">
         <v>8</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>527</v>
+      <c r="B120" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>526</v>
+        <v>242</v>
       </c>
       <c r="D120" s="6">
-        <v>-35</v>
+        <v>35</v>
       </c>
       <c r="E120" s="6">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F120" s="6">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="G120" s="6">
         <f t="shared" si="34"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H120" s="6">
         <f t="shared" si="35"/>
-        <v>27.5</v>
+        <v>82.5</v>
       </c>
       <c r="I120" s="6">
         <f t="shared" si="36"/>
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="J120" s="6">
         <f t="shared" si="37"/>
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K120" s="6">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="L120" s="6"/>
       <c r="M120" s="13"/>
       <c r="N120" s="6">
         <f t="shared" si="38"/>
-        <v>-700</v>
+        <v>2450</v>
       </c>
       <c r="O120" s="6">
         <f t="shared" si="39"/>
-        <v>-1750</v>
+        <v>4200</v>
       </c>
       <c r="P120" s="8">
         <f t="shared" si="40"/>
-        <v>-1225</v>
+        <v>3325</v>
       </c>
       <c r="Q120"/>
     </row>
@@ -9298,36 +9287,36 @@
       <c r="A121" s="6">
         <v>8</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>244</v>
+      <c r="B121" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="D121" s="6">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E121" s="6">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F121" s="6">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G121" s="6">
         <f t="shared" si="34"/>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H121" s="6">
         <f t="shared" si="35"/>
-        <v>82.5</v>
+        <v>42.5</v>
       </c>
       <c r="I121" s="6">
         <f t="shared" si="36"/>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="J121" s="6">
         <f t="shared" si="37"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K121" s="6">
         <v>105</v>
@@ -9336,15 +9325,15 @@
       <c r="M121" s="13"/>
       <c r="N121" s="6">
         <f t="shared" si="38"/>
-        <v>2450</v>
+        <v>1800</v>
       </c>
       <c r="O121" s="6">
         <f t="shared" si="39"/>
-        <v>4200</v>
+        <v>4800</v>
       </c>
       <c r="P121" s="8">
         <f t="shared" si="40"/>
-        <v>3325</v>
+        <v>3300</v>
       </c>
       <c r="Q121"/>
     </row>
@@ -9352,53 +9341,55 @@
       <c r="A122" s="6">
         <v>8</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>220</v>
+      <c r="B122" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="D122" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E122" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F122" s="6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G122" s="6">
         <f t="shared" si="34"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H122" s="6">
         <f t="shared" si="35"/>
-        <v>42.5</v>
+        <v>27.5</v>
       </c>
       <c r="I122" s="6">
         <f t="shared" si="36"/>
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J122" s="6">
         <f t="shared" si="37"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K122" s="6">
         <v>105</v>
       </c>
       <c r="L122" s="6"/>
-      <c r="M122" s="13"/>
+      <c r="M122" s="13" t="s">
+        <v>270</v>
+      </c>
       <c r="N122" s="6">
         <f t="shared" si="38"/>
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="O122" s="6">
         <f t="shared" si="39"/>
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="P122" s="8">
         <f t="shared" si="40"/>
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="Q122"/>
     </row>
@@ -9407,19 +9398,19 @@
         <v>8</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>394</v>
+        <v>244</v>
       </c>
       <c r="D123" s="6">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E123" s="6">
         <v>20</v>
       </c>
       <c r="F123" s="6">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" si="34"/>
@@ -9427,34 +9418,32 @@
       </c>
       <c r="H123" s="6">
         <f t="shared" si="35"/>
-        <v>27.5</v>
+        <v>29</v>
       </c>
       <c r="I123" s="6">
         <f t="shared" si="36"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J123" s="6">
         <f t="shared" si="37"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K123" s="6">
         <v>105</v>
       </c>
       <c r="L123" s="6"/>
-      <c r="M123" s="13" t="s">
-        <v>273</v>
-      </c>
+      <c r="M123" s="13"/>
       <c r="N123" s="6">
         <f t="shared" si="38"/>
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="O123" s="6">
         <f t="shared" si="39"/>
-        <v>5000</v>
+        <v>4760</v>
       </c>
       <c r="P123" s="8">
         <f t="shared" si="40"/>
-        <v>3500</v>
+        <v>3230</v>
       </c>
       <c r="Q123"/>
     </row>
@@ -9463,35 +9452,35 @@
         <v>8</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>247</v>
       </c>
       <c r="D124" s="6">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E124" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F124" s="6">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G124" s="6">
         <f t="shared" si="34"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H124" s="6">
         <f t="shared" si="35"/>
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I124" s="6">
         <f t="shared" si="36"/>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J124" s="6">
         <f t="shared" si="37"/>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K124" s="6">
         <v>105</v>
@@ -9500,15 +9489,15 @@
       <c r="M124" s="13"/>
       <c r="N124" s="6">
         <f t="shared" si="38"/>
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="O124" s="6">
         <f t="shared" si="39"/>
-        <v>4760</v>
+        <v>5200</v>
       </c>
       <c r="P124" s="8">
         <f t="shared" si="40"/>
-        <v>3230</v>
+        <v>3900</v>
       </c>
       <c r="Q124"/>
     </row>
@@ -9516,53 +9505,53 @@
       <c r="A125" s="6">
         <v>8</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>250</v>
+      <c r="B125" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="D125" s="6">
+        <v>83</v>
+      </c>
+      <c r="E125" s="6">
+        <v>36</v>
+      </c>
+      <c r="F125" s="6">
         <v>65</v>
-      </c>
-      <c r="E125" s="6">
-        <v>40</v>
-      </c>
-      <c r="F125" s="6">
-        <v>80</v>
       </c>
       <c r="G125" s="6">
         <f t="shared" si="34"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H125" s="6">
         <f t="shared" si="35"/>
-        <v>50</v>
+        <v>43.25</v>
       </c>
       <c r="I125" s="6">
         <f t="shared" si="36"/>
-        <v>60</v>
+        <v>50.5</v>
       </c>
       <c r="J125" s="6">
         <f t="shared" si="37"/>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K125" s="6">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L125" s="6"/>
-      <c r="M125" s="13"/>
+      <c r="M125" s="14"/>
       <c r="N125" s="6">
         <f t="shared" si="38"/>
-        <v>2600</v>
+        <v>2988</v>
       </c>
       <c r="O125" s="6">
         <f t="shared" si="39"/>
-        <v>5200</v>
+        <v>5395</v>
       </c>
       <c r="P125" s="8">
         <f t="shared" si="40"/>
-        <v>3900</v>
+        <v>4191.5</v>
       </c>
       <c r="Q125"/>
     </row>
@@ -9571,206 +9560,203 @@
         <v>8</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D126" s="6">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E126" s="6">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F126" s="6">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G126" s="6">
         <f t="shared" si="34"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H126" s="6">
         <f t="shared" si="35"/>
-        <v>43.25</v>
+        <v>47.25</v>
       </c>
       <c r="I126" s="6">
         <f t="shared" si="36"/>
-        <v>50.5</v>
+        <v>51.5</v>
       </c>
       <c r="J126" s="6">
         <f t="shared" si="37"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K126" s="6">
         <v>110</v>
       </c>
       <c r="L126" s="6"/>
-      <c r="M126" s="14"/>
+      <c r="M126" s="13"/>
       <c r="N126" s="6">
         <f t="shared" si="38"/>
-        <v>2988</v>
+        <v>3655</v>
       </c>
       <c r="O126" s="6">
         <f t="shared" si="39"/>
-        <v>5395</v>
+        <v>5100</v>
       </c>
       <c r="P126" s="8">
         <f t="shared" si="40"/>
-        <v>4191.5</v>
+        <v>4377.5</v>
       </c>
       <c r="Q126"/>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" ht="138">
       <c r="A127" s="6">
         <v>8</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>121</v>
+      <c r="B127" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="D127" s="6">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E127" s="6">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F127" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G127" s="6">
         <f t="shared" si="34"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H127" s="6">
         <f t="shared" si="35"/>
-        <v>47.25</v>
+        <v>50</v>
       </c>
       <c r="I127" s="6">
         <f t="shared" si="36"/>
-        <v>51.5</v>
+        <v>50</v>
       </c>
       <c r="J127" s="6">
         <f t="shared" si="37"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K127" s="6">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L127" s="6"/>
-      <c r="M127" s="13"/>
+      <c r="M127" s="13">
+        <v>70</v>
+      </c>
       <c r="N127" s="6">
         <f t="shared" si="38"/>
-        <v>3655</v>
+        <v>5000</v>
       </c>
       <c r="O127" s="6">
         <f t="shared" si="39"/>
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="P127" s="8">
         <f t="shared" si="40"/>
-        <v>4377.5</v>
+        <v>5000</v>
       </c>
       <c r="Q127"/>
     </row>
-    <row r="128" spans="1:17" ht="138">
-      <c r="A128" s="6">
-        <v>8</v>
+    <row r="128" spans="1:17" ht="27.6">
+      <c r="A128" s="1">
+        <v>9</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>253</v>
+        <v>448</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D128" s="6">
-        <v>100</v>
-      </c>
-      <c r="E128" s="6">
-        <v>50</v>
-      </c>
-      <c r="F128" s="6">
-        <v>50</v>
-      </c>
-      <c r="G128" s="6">
-        <f t="shared" si="34"/>
-        <v>50</v>
-      </c>
-      <c r="H128" s="6">
-        <f t="shared" si="35"/>
-        <v>50</v>
-      </c>
-      <c r="I128" s="6">
-        <f t="shared" si="36"/>
-        <v>50</v>
-      </c>
-      <c r="J128" s="6">
-        <f t="shared" si="37"/>
-        <v>50</v>
-      </c>
-      <c r="K128" s="6">
-        <v>115</v>
-      </c>
-      <c r="L128" s="6"/>
-      <c r="M128" s="13">
-        <v>70</v>
-      </c>
-      <c r="N128" s="6">
-        <f t="shared" si="38"/>
-        <v>5000</v>
-      </c>
-      <c r="O128" s="6">
-        <f t="shared" si="39"/>
-        <v>5000</v>
-      </c>
-      <c r="P128" s="8">
-        <f t="shared" si="40"/>
-        <v>5000</v>
-      </c>
-      <c r="Q128"/>
-    </row>
-    <row r="129" spans="1:17" ht="27.6">
+        <v>449</v>
+      </c>
+      <c r="D128" s="1">
+        <v>25</v>
+      </c>
+      <c r="E128" s="1">
+        <v>10</v>
+      </c>
+      <c r="F128" s="1">
+        <v>30</v>
+      </c>
+      <c r="G128" s="1">
+        <f>E128</f>
+        <v>10</v>
+      </c>
+      <c r="H128" s="1">
+        <f>(F128-E128)*0.25+E128</f>
+        <v>15</v>
+      </c>
+      <c r="I128" s="1">
+        <f>(F128-E128)*0.5+E128</f>
+        <v>20</v>
+      </c>
+      <c r="J128" s="1">
+        <f>F128</f>
+        <v>30</v>
+      </c>
+      <c r="K128" s="1">
+        <v>60</v>
+      </c>
+      <c r="N128" s="1">
+        <f>D128*E128</f>
+        <v>250</v>
+      </c>
+      <c r="O128" s="1">
+        <f>D128*F128</f>
+        <v>750</v>
+      </c>
+      <c r="P128" s="1">
+        <f>AVERAGE(N128,O128)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129" s="1">
         <v>9</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D129" s="1">
+        <v>30</v>
+      </c>
+      <c r="E129" s="1">
+        <v>12</v>
+      </c>
+      <c r="F129" s="1">
         <v>25</v>
-      </c>
-      <c r="E129" s="1">
-        <v>10</v>
-      </c>
-      <c r="F129" s="1">
-        <v>30</v>
       </c>
       <c r="G129" s="1">
         <f>E129</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H129" s="1">
         <f>(F129-E129)*0.25+E129</f>
-        <v>15</v>
+        <v>15.25</v>
       </c>
       <c r="I129" s="1">
         <f>(F129-E129)*0.5+E129</f>
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="J129" s="1">
         <f>F129</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K129" s="1">
         <v>60</v>
       </c>
       <c r="N129" s="1">
         <f>D129*E129</f>
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="O129" s="1">
         <f>D129*F129</f>
@@ -9778,113 +9764,118 @@
       </c>
       <c r="P129" s="1">
         <f>AVERAGE(N129,O129)</f>
-        <v>500</v>
+        <v>555</v>
       </c>
     </row>
     <row r="130" spans="1:17">
-      <c r="A130" s="1">
+      <c r="A130" s="6">
         <v>9</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D130" s="1">
-        <v>30</v>
-      </c>
-      <c r="E130" s="1">
-        <v>12</v>
-      </c>
-      <c r="F130" s="1">
-        <v>25</v>
-      </c>
-      <c r="G130" s="1">
-        <f>E130</f>
-        <v>12</v>
-      </c>
-      <c r="H130" s="1">
-        <f>(F130-E130)*0.25+E130</f>
-        <v>15.25</v>
-      </c>
-      <c r="I130" s="1">
-        <f>(F130-E130)*0.5+E130</f>
-        <v>18.5</v>
-      </c>
-      <c r="J130" s="1">
-        <f>F130</f>
-        <v>25</v>
-      </c>
-      <c r="K130" s="1">
-        <v>60</v>
-      </c>
-      <c r="N130" s="1">
-        <f>D130*E130</f>
-        <v>360</v>
-      </c>
-      <c r="O130" s="1">
-        <f>D130*F130</f>
-        <v>750</v>
-      </c>
-      <c r="P130" s="1">
-        <f>AVERAGE(N130,O130)</f>
-        <v>555</v>
-      </c>
+      <c r="B130" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D130" s="6">
+        <v>20</v>
+      </c>
+      <c r="E130" s="6">
+        <v>10</v>
+      </c>
+      <c r="F130" s="6">
+        <v>10</v>
+      </c>
+      <c r="G130" s="6">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="H130" s="6">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+      <c r="I130" s="6">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="J130" s="6">
+        <f t="shared" si="37"/>
+        <v>10</v>
+      </c>
+      <c r="K130" s="6">
+        <v>65</v>
+      </c>
+      <c r="L130" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M130" s="13"/>
+      <c r="N130" s="6">
+        <f t="shared" si="38"/>
+        <v>200</v>
+      </c>
+      <c r="O130" s="6">
+        <f t="shared" si="39"/>
+        <v>200</v>
+      </c>
+      <c r="P130" s="8">
+        <f t="shared" si="40"/>
+        <v>200</v>
+      </c>
+      <c r="Q130"/>
     </row>
     <row r="131" spans="1:17">
       <c r="A131" s="6">
         <v>9</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>171</v>
+      <c r="B131" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="D131" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E131" s="6">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F131" s="6">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G131" s="6">
         <f t="shared" si="34"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="H131" s="6">
         <f t="shared" si="35"/>
-        <v>10</v>
+        <v>43.75</v>
       </c>
       <c r="I131" s="6">
         <f t="shared" si="36"/>
-        <v>10</v>
+        <v>52.5</v>
       </c>
       <c r="J131" s="6">
         <f t="shared" si="37"/>
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K131" s="6">
-        <v>65</v>
-      </c>
-      <c r="L131" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M131" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="L131" s="6"/>
+      <c r="M131" s="13" t="s">
+        <v>270</v>
+      </c>
       <c r="N131" s="6">
         <f t="shared" si="38"/>
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="O131" s="6">
         <f t="shared" si="39"/>
-        <v>200</v>
+        <v>2100</v>
       </c>
       <c r="P131" s="8">
         <f t="shared" si="40"/>
-        <v>200</v>
+        <v>1575</v>
       </c>
       <c r="Q131"/>
     </row>
@@ -9892,55 +9883,53 @@
       <c r="A132" s="6">
         <v>9</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>402</v>
+      <c r="B132" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D132" s="6">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="E132" s="6">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F132" s="6">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="G132" s="6">
         <f t="shared" si="34"/>
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H132" s="6">
         <f t="shared" si="35"/>
-        <v>43.75</v>
+        <v>19.25</v>
       </c>
       <c r="I132" s="6">
         <f t="shared" si="36"/>
-        <v>52.5</v>
+        <v>20.5</v>
       </c>
       <c r="J132" s="6">
         <f t="shared" si="37"/>
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="K132" s="6">
         <v>80</v>
       </c>
       <c r="L132" s="6"/>
-      <c r="M132" s="13" t="s">
-        <v>273</v>
-      </c>
+      <c r="M132" s="13"/>
       <c r="N132" s="6">
         <f t="shared" si="38"/>
-        <v>1050</v>
+        <v>1656</v>
       </c>
       <c r="O132" s="6">
         <f t="shared" si="39"/>
-        <v>2100</v>
+        <v>2116</v>
       </c>
       <c r="P132" s="8">
         <f t="shared" si="40"/>
-        <v>1575</v>
+        <v>1886</v>
       </c>
       <c r="Q132"/>
     </row>
@@ -9948,53 +9937,55 @@
       <c r="A133" s="6">
         <v>9</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>123</v>
+      <c r="B133" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="D133" s="6">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="E133" s="6">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F133" s="6">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="G133" s="6">
         <f t="shared" si="34"/>
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H133" s="6">
         <f t="shared" si="35"/>
-        <v>19.25</v>
+        <v>57.5</v>
       </c>
       <c r="I133" s="6">
         <f t="shared" si="36"/>
-        <v>20.5</v>
+        <v>65</v>
       </c>
       <c r="J133" s="6">
         <f t="shared" si="37"/>
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="K133" s="6">
         <v>80</v>
       </c>
       <c r="L133" s="6"/>
-      <c r="M133" s="13"/>
+      <c r="M133" s="13" t="s">
+        <v>271</v>
+      </c>
       <c r="N133" s="6">
         <f t="shared" si="38"/>
-        <v>1656</v>
+        <v>1500</v>
       </c>
       <c r="O133" s="6">
         <f t="shared" si="39"/>
-        <v>2116</v>
+        <v>2400</v>
       </c>
       <c r="P133" s="8">
         <f t="shared" si="40"/>
-        <v>1886</v>
+        <v>1950</v>
       </c>
       <c r="Q133"/>
     </row>
@@ -10003,54 +9994,54 @@
         <v>9</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D134" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E134" s="6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F134" s="6">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G134" s="6">
         <f t="shared" si="34"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H134" s="6">
         <f t="shared" si="35"/>
-        <v>57.5</v>
+        <v>47.25</v>
       </c>
       <c r="I134" s="6">
         <f t="shared" si="36"/>
-        <v>65</v>
+        <v>49.5</v>
       </c>
       <c r="J134" s="6">
         <f t="shared" si="37"/>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K134" s="6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L134" s="6"/>
       <c r="M134" s="13" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="N134" s="6">
         <f t="shared" si="38"/>
-        <v>1500</v>
+        <v>2025</v>
       </c>
       <c r="O134" s="6">
         <f t="shared" si="39"/>
-        <v>2400</v>
+        <v>2430</v>
       </c>
       <c r="P134" s="8">
         <f t="shared" si="40"/>
-        <v>1950</v>
+        <v>2227.5</v>
       </c>
       <c r="Q134"/>
     </row>
@@ -10058,312 +10049,310 @@
       <c r="A135" s="6">
         <v>9</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>403</v>
+      <c r="B135" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D135" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E135" s="6">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F135" s="6">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G135" s="6">
         <f t="shared" si="34"/>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H135" s="6">
         <f t="shared" si="35"/>
-        <v>47.25</v>
+        <v>35.25</v>
       </c>
       <c r="I135" s="6">
         <f t="shared" si="36"/>
-        <v>49.5</v>
+        <v>45.5</v>
       </c>
       <c r="J135" s="6">
         <f t="shared" si="37"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K135" s="6">
         <v>90</v>
       </c>
       <c r="L135" s="6"/>
-      <c r="M135" s="13" t="s">
-        <v>309</v>
-      </c>
+      <c r="M135" s="13"/>
       <c r="N135" s="6">
         <f t="shared" si="38"/>
-        <v>2025</v>
+        <v>1250</v>
       </c>
       <c r="O135" s="6">
         <f t="shared" si="39"/>
-        <v>2430</v>
+        <v>3300</v>
       </c>
       <c r="P135" s="8">
         <f t="shared" si="40"/>
-        <v>2227.5</v>
+        <v>2275</v>
       </c>
       <c r="Q135"/>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" ht="27.6">
       <c r="A136" s="6">
         <v>9</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>37</v>
+      <c r="B136" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="D136" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E136" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F136" s="6">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="G136" s="6">
         <f t="shared" si="34"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H136" s="6">
         <f t="shared" si="35"/>
-        <v>35.25</v>
+        <v>10</v>
       </c>
       <c r="I136" s="6">
         <f t="shared" si="36"/>
-        <v>45.5</v>
+        <v>10</v>
       </c>
       <c r="J136" s="6">
         <f t="shared" si="37"/>
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="K136" s="6">
         <v>90</v>
       </c>
-      <c r="L136" s="6"/>
-      <c r="M136" s="13"/>
+      <c r="L136" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M136" s="13">
+        <v>70</v>
+      </c>
       <c r="N136" s="6">
         <f t="shared" si="38"/>
-        <v>1250</v>
+        <v>200</v>
       </c>
       <c r="O136" s="6">
         <f t="shared" si="39"/>
-        <v>3300</v>
+        <v>200</v>
       </c>
       <c r="P136" s="8">
         <f t="shared" si="40"/>
-        <v>2275</v>
+        <v>200</v>
       </c>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" ht="27.6">
+    <row r="137" spans="1:17">
       <c r="A137" s="6">
         <v>9</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>392</v>
+      <c r="B137" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="D137" s="6">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E137" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F137" s="6">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="G137" s="6">
-        <f t="shared" si="34"/>
-        <v>10</v>
+        <f>E137</f>
+        <v>30</v>
       </c>
       <c r="H137" s="6">
-        <f t="shared" si="35"/>
-        <v>10</v>
+        <f>(F137-E137)*0.25+E137</f>
+        <v>38.5</v>
       </c>
       <c r="I137" s="6">
-        <f t="shared" si="36"/>
-        <v>10</v>
+        <f>(F137-E137)*0.5+E137</f>
+        <v>47</v>
       </c>
       <c r="J137" s="6">
-        <f t="shared" si="37"/>
-        <v>10</v>
+        <f>F137</f>
+        <v>64</v>
       </c>
       <c r="K137" s="6">
         <v>90</v>
       </c>
-      <c r="L137" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M137" s="13">
-        <v>70</v>
-      </c>
+      <c r="L137" s="6"/>
+      <c r="M137" s="13"/>
       <c r="N137" s="6">
-        <f t="shared" si="38"/>
-        <v>200</v>
+        <f>D137*E137</f>
+        <v>2190</v>
       </c>
       <c r="O137" s="6">
-        <f t="shared" si="39"/>
-        <v>200</v>
+        <f>D137*F137</f>
+        <v>4672</v>
       </c>
       <c r="P137" s="8">
-        <f t="shared" si="40"/>
-        <v>200</v>
+        <f>AVERAGE(N137,O137)</f>
+        <v>3431</v>
       </c>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17">
-      <c r="A138" s="6">
+    <row r="138" spans="1:17" ht="27.6">
+      <c r="A138" s="1">
         <v>9</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D138" s="6">
-        <v>73</v>
-      </c>
-      <c r="E138" s="6">
+      <c r="B138" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D138" s="1">
+        <v>4</v>
+      </c>
+      <c r="E138" s="1">
         <v>30</v>
       </c>
-      <c r="F138" s="6">
-        <v>64</v>
-      </c>
-      <c r="G138" s="6">
+      <c r="F138" s="1">
+        <v>30</v>
+      </c>
+      <c r="G138" s="1">
         <f>E138</f>
         <v>30</v>
       </c>
-      <c r="H138" s="6">
+      <c r="H138" s="1">
         <f>(F138-E138)*0.25+E138</f>
-        <v>38.5</v>
-      </c>
-      <c r="I138" s="6">
+        <v>30</v>
+      </c>
+      <c r="I138" s="1">
         <f>(F138-E138)*0.5+E138</f>
-        <v>47</v>
-      </c>
-      <c r="J138" s="6">
+        <v>30</v>
+      </c>
+      <c r="J138" s="1">
         <f>F138</f>
-        <v>64</v>
-      </c>
-      <c r="K138" s="6">
+        <v>30</v>
+      </c>
+      <c r="K138" s="1">
         <v>90</v>
       </c>
-      <c r="L138" s="6"/>
-      <c r="M138" s="13"/>
+      <c r="L138" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N138" s="6">
         <f>D138*E138</f>
-        <v>2190</v>
+        <v>120</v>
       </c>
       <c r="O138" s="6">
         <f>D138*F138</f>
-        <v>4672</v>
+        <v>120</v>
       </c>
       <c r="P138" s="8">
         <f>AVERAGE(N138,O138)</f>
-        <v>3431</v>
-      </c>
-      <c r="Q138"/>
-    </row>
-    <row r="139" spans="1:17" ht="27.6">
-      <c r="A139" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="6">
         <v>9</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D139" s="1">
-        <v>4</v>
-      </c>
-      <c r="E139" s="1">
-        <v>30</v>
-      </c>
-      <c r="F139" s="1">
-        <v>30</v>
-      </c>
-      <c r="G139" s="1">
-        <f>E139</f>
-        <v>30</v>
-      </c>
-      <c r="H139" s="1">
-        <f>(F139-E139)*0.25+E139</f>
-        <v>30</v>
-      </c>
-      <c r="I139" s="1">
-        <f>(F139-E139)*0.5+E139</f>
-        <v>30</v>
-      </c>
-      <c r="J139" s="1">
-        <f>F139</f>
-        <v>30</v>
-      </c>
-      <c r="K139" s="1">
-        <v>90</v>
-      </c>
-      <c r="L139" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="B139" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D139" s="6">
+        <v>70</v>
+      </c>
+      <c r="E139" s="6">
+        <v>25</v>
+      </c>
+      <c r="F139" s="6">
+        <v>86</v>
+      </c>
+      <c r="G139" s="6">
+        <f t="shared" si="34"/>
+        <v>25</v>
+      </c>
+      <c r="H139" s="6">
+        <f t="shared" si="35"/>
+        <v>40.25</v>
+      </c>
+      <c r="I139" s="6">
+        <f t="shared" si="36"/>
+        <v>55.5</v>
+      </c>
+      <c r="J139" s="6">
+        <f t="shared" si="37"/>
+        <v>86</v>
+      </c>
+      <c r="K139" s="6">
+        <v>100</v>
+      </c>
+      <c r="L139" s="6"/>
+      <c r="M139" s="13"/>
       <c r="N139" s="6">
-        <f>D139*E139</f>
-        <v>120</v>
+        <f t="shared" si="38"/>
+        <v>1750</v>
       </c>
       <c r="O139" s="6">
-        <f>D139*F139</f>
-        <v>120</v>
+        <f t="shared" si="39"/>
+        <v>6020</v>
       </c>
       <c r="P139" s="8">
-        <f>AVERAGE(N139,O139)</f>
-        <v>120</v>
-      </c>
+        <f t="shared" si="40"/>
+        <v>3885</v>
+      </c>
+      <c r="Q139"/>
     </row>
     <row r="140" spans="1:17">
       <c r="A140" s="6">
         <v>9</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="D140" s="6">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E140" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F140" s="6">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="G140" s="6">
         <f t="shared" si="34"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H140" s="6">
         <f t="shared" si="35"/>
-        <v>40.25</v>
+        <v>31</v>
       </c>
       <c r="I140" s="6">
         <f t="shared" si="36"/>
-        <v>55.5</v>
+        <v>42</v>
       </c>
       <c r="J140" s="6">
         <f t="shared" si="37"/>
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="K140" s="6">
         <v>100</v>
@@ -10372,15 +10361,15 @@
       <c r="M140" s="13"/>
       <c r="N140" s="6">
         <f t="shared" si="38"/>
-        <v>1750</v>
+        <v>1840</v>
       </c>
       <c r="O140" s="6">
         <f t="shared" si="39"/>
-        <v>6020</v>
+        <v>5888</v>
       </c>
       <c r="P140" s="8">
         <f t="shared" si="40"/>
-        <v>3885</v>
+        <v>3864</v>
       </c>
       <c r="Q140"/>
     </row>
@@ -10389,35 +10378,35 @@
         <v>9</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="D141" s="6">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E141" s="6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F141" s="6">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G141" s="6">
         <f t="shared" si="34"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H141" s="6">
         <f t="shared" si="35"/>
-        <v>31</v>
+        <v>40.75</v>
       </c>
       <c r="I141" s="6">
         <f t="shared" si="36"/>
-        <v>42</v>
+        <v>53.5</v>
       </c>
       <c r="J141" s="6">
         <f t="shared" si="37"/>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="K141" s="6">
         <v>100</v>
@@ -10426,15 +10415,15 @@
       <c r="M141" s="13"/>
       <c r="N141" s="6">
         <f t="shared" si="38"/>
-        <v>1840</v>
+        <v>1680</v>
       </c>
       <c r="O141" s="6">
         <f t="shared" si="39"/>
-        <v>5888</v>
+        <v>4740</v>
       </c>
       <c r="P141" s="8">
         <f t="shared" si="40"/>
-        <v>3864</v>
+        <v>3210</v>
       </c>
       <c r="Q141"/>
     </row>
@@ -10443,52 +10432,52 @@
         <v>9</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D142" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E142" s="6">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F142" s="6">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="G142" s="6">
         <f t="shared" si="34"/>
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H142" s="6">
         <f t="shared" si="35"/>
-        <v>40.75</v>
+        <v>69.25</v>
       </c>
       <c r="I142" s="6">
         <f t="shared" si="36"/>
-        <v>53.5</v>
+        <v>87.5</v>
       </c>
       <c r="J142" s="6">
         <f t="shared" si="37"/>
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="K142" s="6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L142" s="6"/>
       <c r="M142" s="13"/>
       <c r="N142" s="6">
         <f t="shared" si="38"/>
-        <v>1680</v>
+        <v>2550</v>
       </c>
       <c r="O142" s="6">
         <f t="shared" si="39"/>
-        <v>4740</v>
+        <v>6200</v>
       </c>
       <c r="P142" s="8">
         <f t="shared" si="40"/>
-        <v>3210</v>
+        <v>4375</v>
       </c>
       <c r="Q142"/>
     </row>
@@ -10497,284 +10486,284 @@
         <v>9</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>51</v>
+        <v>384</v>
       </c>
       <c r="D143" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E143" s="6">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F143" s="6">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="G143" s="6">
         <f t="shared" si="34"/>
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H143" s="6">
         <f t="shared" si="35"/>
-        <v>69.25</v>
+        <v>85</v>
       </c>
       <c r="I143" s="6">
         <f t="shared" si="36"/>
-        <v>87.5</v>
+        <v>90</v>
       </c>
       <c r="J143" s="6">
         <f t="shared" si="37"/>
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="K143" s="6">
         <v>110</v>
       </c>
       <c r="L143" s="6"/>
-      <c r="M143" s="13"/>
+      <c r="M143" s="13" t="s">
+        <v>307</v>
+      </c>
       <c r="N143" s="6">
         <f t="shared" si="38"/>
-        <v>2550</v>
+        <v>4400</v>
       </c>
       <c r="O143" s="6">
         <f t="shared" si="39"/>
-        <v>6200</v>
+        <v>5500</v>
       </c>
       <c r="P143" s="8">
         <f t="shared" si="40"/>
-        <v>4375</v>
+        <v>4950</v>
       </c>
       <c r="Q143"/>
     </row>
     <row r="144" spans="1:17">
-      <c r="A144" s="6">
+      <c r="A144" s="1">
         <v>9</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="D144" s="6">
-        <v>55</v>
-      </c>
-      <c r="E144" s="6">
+      <c r="B144" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D144" s="1">
+        <v>6</v>
+      </c>
+      <c r="E144" s="1">
+        <v>6</v>
+      </c>
+      <c r="F144" s="1">
+        <v>6</v>
+      </c>
+      <c r="G144" s="1">
+        <f t="shared" ref="G144" si="41">E144</f>
+        <v>6</v>
+      </c>
+      <c r="H144" s="1">
+        <f t="shared" ref="H144" si="42">(F144-E144)*0.25+E144</f>
+        <v>6</v>
+      </c>
+      <c r="I144" s="1">
+        <f t="shared" ref="I144" si="43">(F144-E144)*0.5+E144</f>
+        <v>6</v>
+      </c>
+      <c r="J144" s="1">
+        <f t="shared" ref="J144" si="44">F144</f>
+        <v>6</v>
+      </c>
+      <c r="K144" s="1">
+        <v>120</v>
+      </c>
+      <c r="L144" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N144" s="1">
+        <f t="shared" ref="N144" si="45">D144*E144</f>
+        <v>36</v>
+      </c>
+      <c r="O144" s="1">
+        <f t="shared" ref="O144" si="46">D144*F144</f>
+        <v>36</v>
+      </c>
+      <c r="P144" s="1">
+        <f t="shared" ref="P144" si="47">AVERAGE(N144,O144)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" ht="27.6">
+      <c r="A145" s="6">
+        <v>9</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D145" s="6">
+        <v>100</v>
+      </c>
+      <c r="E145" s="6">
+        <v>20</v>
+      </c>
+      <c r="F145" s="6">
         <v>80</v>
       </c>
-      <c r="F144" s="6">
-        <v>100</v>
-      </c>
-      <c r="G144" s="6">
+      <c r="G145" s="6">
         <f t="shared" si="34"/>
+        <v>20</v>
+      </c>
+      <c r="H145" s="6">
+        <f t="shared" si="35"/>
+        <v>35</v>
+      </c>
+      <c r="I145" s="6">
+        <f t="shared" si="36"/>
+        <v>50</v>
+      </c>
+      <c r="J145" s="6">
+        <f t="shared" si="37"/>
         <v>80</v>
       </c>
-      <c r="H144" s="6">
-        <f t="shared" si="35"/>
-        <v>85</v>
-      </c>
-      <c r="I144" s="6">
-        <f t="shared" si="36"/>
-        <v>90</v>
-      </c>
-      <c r="J144" s="6">
-        <f t="shared" si="37"/>
-        <v>100</v>
-      </c>
-      <c r="K144" s="6">
-        <v>110</v>
-      </c>
-      <c r="L144" s="6"/>
-      <c r="M144" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="N144" s="6">
+      <c r="K145" s="6">
+        <v>120</v>
+      </c>
+      <c r="L145" s="6"/>
+      <c r="M145" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="N145" s="6">
         <f t="shared" si="38"/>
-        <v>4400</v>
-      </c>
-      <c r="O144" s="6">
+        <v>2000</v>
+      </c>
+      <c r="O145" s="6">
         <f t="shared" si="39"/>
-        <v>5500</v>
-      </c>
-      <c r="P144" s="8">
+        <v>8000</v>
+      </c>
+      <c r="P145" s="8">
         <f t="shared" si="40"/>
-        <v>4950</v>
-      </c>
-      <c r="Q144"/>
-    </row>
-    <row r="145" spans="1:17">
-      <c r="A145" s="1">
-        <v>9</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D145" s="1">
-        <v>6</v>
-      </c>
-      <c r="E145" s="1">
-        <v>6</v>
-      </c>
-      <c r="F145" s="1">
-        <v>6</v>
-      </c>
-      <c r="G145" s="1">
-        <f t="shared" ref="G145" si="41">E145</f>
-        <v>6</v>
-      </c>
-      <c r="H145" s="1">
-        <f t="shared" ref="H145" si="42">(F145-E145)*0.25+E145</f>
-        <v>6</v>
-      </c>
-      <c r="I145" s="1">
-        <f t="shared" ref="I145" si="43">(F145-E145)*0.5+E145</f>
-        <v>6</v>
-      </c>
-      <c r="J145" s="1">
-        <f t="shared" ref="J145" si="44">F145</f>
-        <v>6</v>
-      </c>
-      <c r="K145" s="1">
-        <v>120</v>
-      </c>
-      <c r="L145" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N145" s="1">
-        <f t="shared" ref="N145" si="45">D145*E145</f>
-        <v>36</v>
-      </c>
-      <c r="O145" s="1">
-        <f t="shared" ref="O145" si="46">D145*F145</f>
-        <v>36</v>
-      </c>
-      <c r="P145" s="1">
-        <f t="shared" ref="P145" si="47">AVERAGE(N145,O145)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" ht="27.6">
+        <v>5000</v>
+      </c>
+      <c r="Q145"/>
+    </row>
+    <row r="146" spans="1:17">
       <c r="A146" s="6">
         <v>9</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>385</v>
+      <c r="B146" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D146" s="6">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E146" s="6">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="F146" s="6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G146" s="6">
         <f t="shared" si="34"/>
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H146" s="6">
         <f t="shared" si="35"/>
-        <v>35</v>
+        <v>81.75</v>
       </c>
       <c r="I146" s="6">
         <f t="shared" si="36"/>
-        <v>50</v>
+        <v>84.5</v>
       </c>
       <c r="J146" s="6">
         <f t="shared" si="37"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K146" s="6">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L146" s="6"/>
-      <c r="M146" s="13" t="s">
-        <v>270</v>
-      </c>
+      <c r="M146" s="13"/>
       <c r="N146" s="6">
         <f t="shared" si="38"/>
-        <v>2000</v>
+        <v>7426</v>
       </c>
       <c r="O146" s="6">
         <f t="shared" si="39"/>
-        <v>8000</v>
+        <v>8460</v>
       </c>
       <c r="P146" s="8">
         <f t="shared" si="40"/>
-        <v>5000</v>
+        <v>7943</v>
       </c>
       <c r="Q146"/>
     </row>
-    <row r="147" spans="1:17">
-      <c r="A147" s="6">
-        <v>9</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D147" s="6">
-        <v>94</v>
-      </c>
-      <c r="E147" s="6">
-        <v>79</v>
-      </c>
-      <c r="F147" s="6">
-        <v>90</v>
-      </c>
-      <c r="G147" s="6">
-        <f t="shared" si="34"/>
-        <v>79</v>
-      </c>
-      <c r="H147" s="6">
-        <f t="shared" si="35"/>
-        <v>81.75</v>
-      </c>
-      <c r="I147" s="6">
-        <f t="shared" si="36"/>
-        <v>84.5</v>
-      </c>
-      <c r="J147" s="6">
-        <f t="shared" si="37"/>
-        <v>90</v>
-      </c>
-      <c r="K147" s="6">
-        <v>150</v>
-      </c>
-      <c r="L147" s="6"/>
-      <c r="M147" s="13"/>
-      <c r="N147" s="6">
-        <f t="shared" si="38"/>
-        <v>7426</v>
-      </c>
-      <c r="O147" s="6">
-        <f t="shared" si="39"/>
-        <v>8460</v>
-      </c>
-      <c r="P147" s="8">
-        <f t="shared" si="40"/>
-        <v>7943</v>
-      </c>
-      <c r="Q147"/>
+    <row r="147" spans="1:17" ht="27.6">
+      <c r="A147" s="1">
+        <v>10</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D147" s="1">
+        <v>10</v>
+      </c>
+      <c r="E147" s="1">
+        <v>5</v>
+      </c>
+      <c r="F147" s="1">
+        <v>5</v>
+      </c>
+      <c r="G147" s="1">
+        <f>E147</f>
+        <v>5</v>
+      </c>
+      <c r="H147" s="1">
+        <f>(F147-E147)*0.25+E147</f>
+        <v>5</v>
+      </c>
+      <c r="I147" s="1">
+        <f>(F147-E147)*0.5+E147</f>
+        <v>5</v>
+      </c>
+      <c r="J147" s="1">
+        <f>F147</f>
+        <v>5</v>
+      </c>
+      <c r="K147" s="1">
+        <v>75</v>
+      </c>
+      <c r="L147" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N147" s="1">
+        <f>D147*E147</f>
+        <v>50</v>
+      </c>
+      <c r="O147" s="1">
+        <f>D147*F147</f>
+        <v>50</v>
+      </c>
+      <c r="P147" s="1">
+        <f>AVERAGE(N147,O147)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="148" spans="1:17" ht="27.6">
       <c r="A148" s="1">
         <v>10</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D148" s="1">
         <v>10</v>
@@ -10820,167 +10809,169 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="27.6">
-      <c r="A149" s="1">
-        <v>10</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D149" s="1">
-        <v>10</v>
-      </c>
-      <c r="E149" s="1">
-        <v>5</v>
-      </c>
-      <c r="F149" s="1">
-        <v>5</v>
-      </c>
-      <c r="G149" s="1">
-        <f>E149</f>
-        <v>5</v>
-      </c>
-      <c r="H149" s="1">
-        <f>(F149-E149)*0.25+E149</f>
-        <v>5</v>
-      </c>
-      <c r="I149" s="1">
-        <f>(F149-E149)*0.5+E149</f>
-        <v>5</v>
-      </c>
-      <c r="J149" s="1">
-        <f>F149</f>
-        <v>5</v>
-      </c>
-      <c r="K149" s="1">
-        <v>75</v>
+    <row r="149" spans="1:17">
+      <c r="A149" s="6">
+        <v>10</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D149" s="6">
+        <v>20</v>
+      </c>
+      <c r="E149" s="6">
+        <v>15</v>
+      </c>
+      <c r="F149" s="6">
+        <v>15</v>
+      </c>
+      <c r="G149" s="6">
+        <f t="shared" si="34"/>
+        <v>15</v>
+      </c>
+      <c r="H149" s="6">
+        <f t="shared" si="35"/>
+        <v>15</v>
+      </c>
+      <c r="I149" s="6">
+        <f t="shared" si="36"/>
+        <v>15</v>
+      </c>
+      <c r="J149" s="6">
+        <f t="shared" si="37"/>
+        <v>15</v>
+      </c>
+      <c r="K149" s="6">
+        <v>85</v>
       </c>
       <c r="L149" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="N149" s="1">
-        <f>D149*E149</f>
-        <v>50</v>
-      </c>
-      <c r="O149" s="1">
-        <f>D149*F149</f>
-        <v>50</v>
-      </c>
-      <c r="P149" s="1">
-        <f>AVERAGE(N149,O149)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17">
-      <c r="A150" s="6">
-        <v>10</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>167</v>
+      <c r="M149" s="13"/>
+      <c r="N149" s="6">
+        <f t="shared" si="38"/>
+        <v>300</v>
+      </c>
+      <c r="O149" s="6">
+        <f t="shared" si="39"/>
+        <v>300</v>
+      </c>
+      <c r="P149" s="8">
+        <f t="shared" si="40"/>
+        <v>300</v>
+      </c>
+      <c r="Q149"/>
+    </row>
+    <row r="150" spans="1:17" ht="27.6">
+      <c r="A150" s="1">
+        <v>10</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="D150" s="6">
-        <v>20</v>
+        <v>-35</v>
       </c>
       <c r="E150" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F150" s="6">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G150" s="6">
         <f t="shared" si="34"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H150" s="6">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I150" s="6">
         <f t="shared" si="36"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J150" s="6">
         <f t="shared" si="37"/>
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="K150" s="6">
-        <v>85</v>
-      </c>
-      <c r="L150" s="6" t="b">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="L150" s="6"/>
       <c r="M150" s="13"/>
       <c r="N150" s="6">
         <f t="shared" si="38"/>
-        <v>300</v>
+        <v>-875</v>
       </c>
       <c r="O150" s="6">
         <f t="shared" si="39"/>
-        <v>300</v>
+        <v>-2275</v>
       </c>
       <c r="P150" s="8">
         <f t="shared" si="40"/>
-        <v>300</v>
+        <v>-1575</v>
       </c>
       <c r="Q150"/>
     </row>
-    <row r="151" spans="1:17" ht="27.6">
-      <c r="A151" s="1">
-        <v>10</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>528</v>
+    <row r="151" spans="1:17">
+      <c r="A151" s="6">
+        <v>10</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="D151" s="6">
-        <v>-35</v>
+        <v>20</v>
       </c>
       <c r="E151" s="6">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F151" s="6">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="G151" s="6">
         <f t="shared" si="34"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H151" s="6">
         <f t="shared" si="35"/>
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I151" s="6">
         <f t="shared" si="36"/>
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J151" s="6">
         <f t="shared" si="37"/>
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="K151" s="6">
-        <v>95</v>
-      </c>
-      <c r="L151" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="L151" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M151" s="13"/>
       <c r="N151" s="6">
         <f t="shared" si="38"/>
-        <v>-875</v>
+        <v>360</v>
       </c>
       <c r="O151" s="6">
         <f t="shared" si="39"/>
-        <v>-2275</v>
+        <v>360</v>
       </c>
       <c r="P151" s="8">
         <f t="shared" si="40"/>
-        <v>-1575</v>
+        <v>360</v>
       </c>
       <c r="Q151"/>
     </row>
@@ -10989,54 +10980,52 @@
         <v>10</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="D152" s="6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E152" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F152" s="6">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G152" s="6">
         <f t="shared" si="34"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H152" s="6">
         <f t="shared" si="35"/>
-        <v>18</v>
+        <v>22.5</v>
       </c>
       <c r="I152" s="6">
         <f t="shared" si="36"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J152" s="6">
         <f t="shared" si="37"/>
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="K152" s="6">
         <v>100</v>
       </c>
-      <c r="L152" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="L152" s="6"/>
       <c r="M152" s="13"/>
       <c r="N152" s="6">
         <f t="shared" si="38"/>
-        <v>360</v>
+        <v>1700</v>
       </c>
       <c r="O152" s="6">
         <f t="shared" si="39"/>
-        <v>360</v>
+        <v>3900</v>
       </c>
       <c r="P152" s="8">
         <f t="shared" si="40"/>
-        <v>360</v>
+        <v>2800</v>
       </c>
       <c r="Q152"/>
     </row>
@@ -11045,52 +11034,52 @@
         <v>10</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="D153" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E153" s="6">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F153" s="6">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G153" s="6">
         <f t="shared" si="34"/>
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H153" s="6">
         <f t="shared" si="35"/>
-        <v>22.5</v>
+        <v>55</v>
       </c>
       <c r="I153" s="6">
         <f t="shared" si="36"/>
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="J153" s="6">
         <f t="shared" si="37"/>
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="K153" s="6">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L153" s="6"/>
       <c r="M153" s="13"/>
       <c r="N153" s="6">
         <f t="shared" si="38"/>
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="O153" s="6">
         <f t="shared" si="39"/>
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="P153" s="8">
         <f t="shared" si="40"/>
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q153"/>
     </row>
@@ -11098,574 +11087,574 @@
       <c r="A154" s="6">
         <v>10</v>
       </c>
-      <c r="B154" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C154" s="6" t="s">
+      <c r="B154" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D154" s="1">
+        <v>80</v>
+      </c>
+      <c r="E154" s="1">
+        <v>40</v>
+      </c>
+      <c r="F154" s="1">
+        <v>60</v>
+      </c>
+      <c r="G154" s="1">
+        <f t="shared" si="34"/>
+        <v>40</v>
+      </c>
+      <c r="H154" s="1">
+        <f t="shared" si="35"/>
+        <v>45</v>
+      </c>
+      <c r="I154" s="1">
+        <f t="shared" si="36"/>
+        <v>50</v>
+      </c>
+      <c r="J154" s="1">
+        <f t="shared" si="37"/>
+        <v>60</v>
+      </c>
+      <c r="K154" s="1">
+        <v>110</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N154" s="1">
+        <f t="shared" si="38"/>
+        <v>3200</v>
+      </c>
+      <c r="O154" s="1">
+        <f t="shared" si="39"/>
+        <v>4800</v>
+      </c>
+      <c r="P154" s="1">
+        <f t="shared" si="40"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="A155" s="6">
+        <v>10</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D154" s="6">
+      <c r="D155" s="1">
+        <v>80</v>
+      </c>
+      <c r="E155" s="1">
         <v>50</v>
       </c>
-      <c r="E154" s="6">
-        <v>50</v>
-      </c>
-      <c r="F154" s="6">
-        <v>70</v>
-      </c>
-      <c r="G154" s="6">
+      <c r="F155" s="1">
+        <v>120</v>
+      </c>
+      <c r="G155" s="1">
         <f t="shared" si="34"/>
         <v>50</v>
       </c>
-      <c r="H154" s="6">
-        <f t="shared" si="35"/>
-        <v>55</v>
-      </c>
-      <c r="I154" s="6">
-        <f t="shared" si="36"/>
-        <v>60</v>
-      </c>
-      <c r="J154" s="6">
-        <f t="shared" si="37"/>
-        <v>70</v>
-      </c>
-      <c r="K154" s="6">
-        <v>105</v>
-      </c>
-      <c r="L154" s="6"/>
-      <c r="M154" s="13"/>
-      <c r="N154" s="6">
-        <f t="shared" si="38"/>
-        <v>2500</v>
-      </c>
-      <c r="O154" s="6">
-        <f t="shared" si="39"/>
-        <v>3500</v>
-      </c>
-      <c r="P154" s="8">
-        <f t="shared" si="40"/>
-        <v>3000</v>
-      </c>
-      <c r="Q154"/>
-    </row>
-    <row r="155" spans="1:17">
-      <c r="A155" s="6">
-        <v>10</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D155" s="1">
-        <v>80</v>
-      </c>
-      <c r="E155" s="1">
-        <v>40</v>
-      </c>
-      <c r="F155" s="1">
-        <v>60</v>
-      </c>
-      <c r="G155" s="1">
-        <f t="shared" si="34"/>
-        <v>40</v>
-      </c>
       <c r="H155" s="1">
         <f t="shared" si="35"/>
-        <v>45</v>
+        <v>67.5</v>
       </c>
       <c r="I155" s="1">
         <f t="shared" si="36"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="J155" s="1">
         <f t="shared" si="37"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K155" s="1">
-        <v>110</v>
-      </c>
-      <c r="M155" s="3" t="s">
-        <v>311</v>
+        <v>140</v>
       </c>
       <c r="N155" s="1">
         <f t="shared" si="38"/>
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="O155" s="1">
         <f t="shared" si="39"/>
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="P155" s="1">
         <f t="shared" si="40"/>
-        <v>4000</v>
-      </c>
+        <v>6800</v>
+      </c>
+      <c r="Q155"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="6">
         <v>10</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D156" s="1">
-        <v>80</v>
-      </c>
-      <c r="E156" s="1">
-        <v>50</v>
-      </c>
-      <c r="F156" s="1">
-        <v>120</v>
-      </c>
-      <c r="G156" s="1">
-        <f t="shared" si="34"/>
-        <v>50</v>
-      </c>
-      <c r="H156" s="1">
-        <f t="shared" si="35"/>
-        <v>67.5</v>
-      </c>
-      <c r="I156" s="1">
-        <f t="shared" si="36"/>
-        <v>85</v>
-      </c>
-      <c r="J156" s="1">
-        <f t="shared" si="37"/>
-        <v>120</v>
-      </c>
-      <c r="K156" s="1">
-        <v>140</v>
-      </c>
-      <c r="N156" s="1">
-        <f t="shared" si="38"/>
-        <v>4000</v>
-      </c>
-      <c r="O156" s="1">
-        <f t="shared" si="39"/>
-        <v>9600</v>
-      </c>
-      <c r="P156" s="1">
-        <f t="shared" si="40"/>
-        <v>6800</v>
-      </c>
-      <c r="Q156"/>
+      <c r="B156" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D156" s="6">
+        <v>100</v>
+      </c>
+      <c r="E156" s="6">
+        <v>66</v>
+      </c>
+      <c r="F156" s="6">
+        <v>99</v>
+      </c>
+      <c r="G156" s="6">
+        <f t="shared" ref="G156" si="48">E156</f>
+        <v>66</v>
+      </c>
+      <c r="H156" s="6">
+        <f t="shared" ref="H156" si="49">(F156-E156)*0.25+E156</f>
+        <v>74.25</v>
+      </c>
+      <c r="I156" s="6">
+        <f t="shared" ref="I156" si="50">(F156-E156)*0.5+E156</f>
+        <v>82.5</v>
+      </c>
+      <c r="J156" s="6">
+        <f t="shared" ref="J156" si="51">F156</f>
+        <v>99</v>
+      </c>
+      <c r="K156" s="6">
+        <v>150</v>
+      </c>
+      <c r="L156" s="6"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="6">
+        <f t="shared" ref="N156" si="52">D156*E156</f>
+        <v>6600</v>
+      </c>
+      <c r="O156" s="6">
+        <f t="shared" ref="O156" si="53">D156*F156</f>
+        <v>9900</v>
+      </c>
+      <c r="P156" s="8">
+        <f t="shared" ref="P156" si="54">AVERAGE(N156,O156)</f>
+        <v>8250</v>
+      </c>
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="6">
         <v>10</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D157" s="6">
+      <c r="B157" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D157" s="1">
         <v>100</v>
       </c>
-      <c r="E157" s="6">
-        <v>66</v>
-      </c>
-      <c r="F157" s="6">
-        <v>99</v>
-      </c>
-      <c r="G157" s="6">
-        <f t="shared" ref="G157" si="48">E157</f>
-        <v>66</v>
-      </c>
-      <c r="H157" s="6">
-        <f t="shared" ref="H157" si="49">(F157-E157)*0.25+E157</f>
-        <v>74.25</v>
-      </c>
-      <c r="I157" s="6">
-        <f t="shared" ref="I157" si="50">(F157-E157)*0.5+E157</f>
-        <v>82.5</v>
-      </c>
-      <c r="J157" s="6">
-        <f t="shared" ref="J157" si="51">F157</f>
-        <v>99</v>
-      </c>
-      <c r="K157" s="6">
+      <c r="E157" s="1">
+        <v>80</v>
+      </c>
+      <c r="F157" s="1">
         <v>150</v>
       </c>
-      <c r="L157" s="6"/>
-      <c r="M157" s="13"/>
-      <c r="N157" s="6">
-        <f t="shared" ref="N157" si="52">D157*E157</f>
-        <v>6600</v>
-      </c>
-      <c r="O157" s="6">
-        <f t="shared" ref="O157" si="53">D157*F157</f>
-        <v>9900</v>
-      </c>
-      <c r="P157" s="8">
-        <f t="shared" ref="P157" si="54">AVERAGE(N157,O157)</f>
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17">
-      <c r="A158" s="6">
-        <v>10</v>
+      <c r="G157" s="1">
+        <f t="shared" ref="G157:G166" si="55">E157</f>
+        <v>80</v>
+      </c>
+      <c r="H157" s="1">
+        <f t="shared" ref="H157:H166" si="56">(F157-E157)*0.25+E157</f>
+        <v>97.5</v>
+      </c>
+      <c r="I157" s="1">
+        <f t="shared" ref="I157:I166" si="57">(F157-E157)*0.5+E157</f>
+        <v>115</v>
+      </c>
+      <c r="J157" s="1">
+        <f t="shared" ref="J157:J166" si="58">F157</f>
+        <v>150</v>
+      </c>
+      <c r="K157" s="1">
+        <v>150</v>
+      </c>
+      <c r="N157" s="1">
+        <f t="shared" ref="N157:N166" si="59">D157*E157</f>
+        <v>8000</v>
+      </c>
+      <c r="O157" s="1">
+        <f t="shared" ref="O157:O166" si="60">D157*F157</f>
+        <v>15000</v>
+      </c>
+      <c r="P157" s="1">
+        <f t="shared" ref="P157:P166" si="61">AVERAGE(N157,O157)</f>
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" ht="27.6">
+      <c r="A158" s="1">
+        <v>11</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>308</v>
+        <v>444</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="D158" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="E158" s="1">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="F158" s="1">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" ref="G158:G167" si="55">E158</f>
-        <v>80</v>
+        <f t="shared" si="55"/>
+        <v>38</v>
       </c>
       <c r="H158" s="1">
-        <f t="shared" ref="H158:H167" si="56">(F158-E158)*0.25+E158</f>
-        <v>97.5</v>
+        <f t="shared" si="56"/>
+        <v>47</v>
       </c>
       <c r="I158" s="1">
-        <f t="shared" ref="I158:I167" si="57">(F158-E158)*0.5+E158</f>
-        <v>115</v>
+        <f t="shared" si="57"/>
+        <v>56</v>
       </c>
       <c r="J158" s="1">
-        <f t="shared" ref="J158:J167" si="58">F158</f>
-        <v>150</v>
+        <f t="shared" si="58"/>
+        <v>74</v>
       </c>
       <c r="K158" s="1">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N158" s="1">
-        <f t="shared" ref="N158:N167" si="59">D158*E158</f>
-        <v>8000</v>
+        <f t="shared" si="59"/>
+        <v>1330</v>
       </c>
       <c r="O158" s="1">
-        <f t="shared" ref="O158:O167" si="60">D158*F158</f>
-        <v>15000</v>
+        <f t="shared" si="60"/>
+        <v>2590</v>
       </c>
       <c r="P158" s="1">
-        <f t="shared" ref="P158:P167" si="61">AVERAGE(N158,O158)</f>
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" ht="27.6">
+        <f t="shared" si="61"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
       <c r="A159" s="1">
         <v>11</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>453</v>
-      </c>
       <c r="D159" s="1">
+        <v>44</v>
+      </c>
+      <c r="E159" s="1">
         <v>35</v>
       </c>
-      <c r="E159" s="1">
-        <v>38</v>
-      </c>
       <c r="F159" s="1">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G159" s="1">
         <f t="shared" si="55"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H159" s="1">
         <f t="shared" si="56"/>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I159" s="1">
         <f t="shared" si="57"/>
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J159" s="1">
         <f t="shared" si="58"/>
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="K159" s="1">
         <v>90</v>
       </c>
       <c r="N159" s="1">
         <f t="shared" si="59"/>
-        <v>1330</v>
+        <v>1540</v>
       </c>
       <c r="O159" s="1">
         <f t="shared" si="60"/>
-        <v>2590</v>
+        <v>2420</v>
       </c>
       <c r="P159" s="1">
         <f t="shared" si="61"/>
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" ht="27.6">
       <c r="A160" s="1">
         <v>11</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D160" s="1">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E160" s="1">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F160" s="1">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G160" s="1">
         <f t="shared" si="55"/>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H160" s="1">
         <f t="shared" si="56"/>
-        <v>40</v>
+        <v>38.25</v>
       </c>
       <c r="I160" s="1">
         <f t="shared" si="57"/>
-        <v>45</v>
+        <v>47.5</v>
       </c>
       <c r="J160" s="1">
         <f t="shared" si="58"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K160" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N160" s="1">
         <f t="shared" si="59"/>
-        <v>1540</v>
+        <v>1740</v>
       </c>
       <c r="O160" s="1">
         <f t="shared" si="60"/>
-        <v>2420</v>
+        <v>3960</v>
       </c>
       <c r="P160" s="1">
         <f t="shared" si="61"/>
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" ht="27.6">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
       <c r="A161" s="1">
         <v>11</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D161" s="1">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E161" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F161" s="1">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G161" s="1">
         <f t="shared" si="55"/>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H161" s="1">
         <f t="shared" si="56"/>
-        <v>38.25</v>
+        <v>40</v>
       </c>
       <c r="I161" s="1">
         <f t="shared" si="57"/>
-        <v>47.5</v>
+        <v>45</v>
       </c>
       <c r="J161" s="1">
         <f t="shared" si="58"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K161" s="1">
         <v>95</v>
       </c>
       <c r="N161" s="1">
         <f t="shared" si="59"/>
-        <v>1740</v>
+        <v>2310</v>
       </c>
       <c r="O161" s="1">
         <f t="shared" si="60"/>
-        <v>3960</v>
+        <v>3630</v>
       </c>
       <c r="P161" s="1">
         <f t="shared" si="61"/>
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" ht="27.6">
       <c r="A162" s="1">
         <v>11</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="D162" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E162" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F162" s="1">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G162" s="1">
         <f t="shared" si="55"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H162" s="1">
         <f t="shared" si="56"/>
-        <v>40</v>
+        <v>47.5</v>
       </c>
       <c r="I162" s="1">
         <f t="shared" si="57"/>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="J162" s="1">
         <f t="shared" si="58"/>
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="K162" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N162" s="1">
         <f t="shared" si="59"/>
-        <v>2310</v>
+        <v>2278</v>
       </c>
       <c r="O162" s="1">
         <f t="shared" si="60"/>
-        <v>3630</v>
+        <v>5896</v>
       </c>
       <c r="P162" s="1">
         <f t="shared" si="61"/>
-        <v>2970</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" ht="27.6">
-      <c r="A163" s="1">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
+      <c r="A163" s="6">
         <v>11</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D163" s="1">
-        <v>67</v>
-      </c>
-      <c r="E163" s="1">
-        <v>34</v>
-      </c>
-      <c r="F163" s="1">
+      <c r="B163" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D163" s="6">
+        <v>20</v>
+      </c>
+      <c r="E163" s="6">
+        <v>20</v>
+      </c>
+      <c r="F163" s="6">
+        <v>20</v>
+      </c>
+      <c r="G163" s="6">
+        <f t="shared" si="55"/>
+        <v>20</v>
+      </c>
+      <c r="H163" s="6">
+        <f t="shared" si="56"/>
+        <v>20</v>
+      </c>
+      <c r="I163" s="6">
+        <f t="shared" si="57"/>
+        <v>20</v>
+      </c>
+      <c r="J163" s="6">
+        <f t="shared" si="58"/>
+        <v>20</v>
+      </c>
+      <c r="K163" s="6">
+        <v>110</v>
+      </c>
+      <c r="L163" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M163" s="13"/>
+      <c r="N163" s="6">
+        <f t="shared" si="59"/>
+        <v>400</v>
+      </c>
+      <c r="O163" s="6">
+        <f t="shared" si="60"/>
+        <v>400</v>
+      </c>
+      <c r="P163" s="8">
+        <f t="shared" si="61"/>
+        <v>400</v>
+      </c>
+      <c r="Q163"/>
+    </row>
+    <row r="164" spans="1:17" ht="27.6">
+      <c r="A164" s="1">
+        <v>11</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D164" s="6">
+        <v>-44</v>
+      </c>
+      <c r="E164" s="6">
+        <v>30</v>
+      </c>
+      <c r="F164" s="6">
         <v>88</v>
       </c>
-      <c r="G163" s="1">
+      <c r="G164" s="6">
         <f t="shared" si="55"/>
-        <v>34</v>
-      </c>
-      <c r="H163" s="1">
+        <v>30</v>
+      </c>
+      <c r="H164" s="6">
         <f t="shared" si="56"/>
-        <v>47.5</v>
-      </c>
-      <c r="I163" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I164" s="6">
         <f t="shared" si="57"/>
-        <v>61</v>
-      </c>
-      <c r="J163" s="1">
+        <v>59</v>
+      </c>
+      <c r="J164" s="6">
         <f t="shared" si="58"/>
         <v>88</v>
       </c>
-      <c r="K163" s="1">
-        <v>100</v>
-      </c>
-      <c r="N163" s="1">
-        <f t="shared" si="59"/>
-        <v>2278</v>
-      </c>
-      <c r="O163" s="1">
-        <f t="shared" si="60"/>
-        <v>5896</v>
-      </c>
-      <c r="P163" s="1">
-        <f t="shared" si="61"/>
-        <v>4087</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17">
-      <c r="A164" s="6">
-        <v>11</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D164" s="6">
-        <v>20</v>
-      </c>
-      <c r="E164" s="6">
-        <v>20</v>
-      </c>
-      <c r="F164" s="6">
-        <v>20</v>
-      </c>
-      <c r="G164" s="6">
-        <f t="shared" si="55"/>
-        <v>20</v>
-      </c>
-      <c r="H164" s="6">
-        <f t="shared" si="56"/>
-        <v>20</v>
-      </c>
-      <c r="I164" s="6">
-        <f t="shared" si="57"/>
-        <v>20</v>
-      </c>
-      <c r="J164" s="6">
-        <f t="shared" si="58"/>
-        <v>20</v>
-      </c>
       <c r="K164" s="6">
         <v>110</v>
       </c>
-      <c r="L164" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="L164" s="6"/>
       <c r="M164" s="13"/>
       <c r="N164" s="6">
         <f t="shared" si="59"/>
-        <v>400</v>
+        <v>-1320</v>
       </c>
       <c r="O164" s="6">
         <f t="shared" si="60"/>
-        <v>400</v>
+        <v>-3872</v>
       </c>
       <c r="P164" s="8">
         <f t="shared" si="61"/>
-        <v>400</v>
+        <v>-2596</v>
       </c>
       <c r="Q164"/>
     </row>
@@ -11673,65 +11662,66 @@
       <c r="A165" s="1">
         <v>11</v>
       </c>
-      <c r="B165" s="10" t="s">
-        <v>518</v>
+      <c r="B165" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D165" s="6">
-        <v>-44</v>
-      </c>
-      <c r="E165" s="6">
-        <v>30</v>
-      </c>
-      <c r="F165" s="6">
-        <v>88</v>
-      </c>
-      <c r="G165" s="6">
+        <v>504</v>
+      </c>
+      <c r="D165" s="1">
+        <v>9</v>
+      </c>
+      <c r="E165" s="1">
+        <v>10</v>
+      </c>
+      <c r="F165" s="1">
+        <v>10</v>
+      </c>
+      <c r="G165" s="1">
         <f t="shared" si="55"/>
-        <v>30</v>
-      </c>
-      <c r="H165" s="6">
+        <v>10</v>
+      </c>
+      <c r="H165" s="1">
         <f t="shared" si="56"/>
-        <v>44.5</v>
-      </c>
-      <c r="I165" s="6">
+        <v>10</v>
+      </c>
+      <c r="I165" s="1">
         <f t="shared" si="57"/>
-        <v>59</v>
-      </c>
-      <c r="J165" s="6">
+        <v>10</v>
+      </c>
+      <c r="J165" s="1">
         <f t="shared" si="58"/>
-        <v>88</v>
-      </c>
-      <c r="K165" s="6">
-        <v>110</v>
-      </c>
-      <c r="L165" s="6"/>
-      <c r="M165" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="K165" s="1">
+        <v>115</v>
+      </c>
+      <c r="L165" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N165" s="6">
         <f t="shared" si="59"/>
-        <v>-1320</v>
+        <v>90</v>
       </c>
       <c r="O165" s="6">
         <f t="shared" si="60"/>
-        <v>-3872</v>
+        <v>90</v>
       </c>
       <c r="P165" s="8">
         <f t="shared" si="61"/>
-        <v>-2596</v>
+        <v>90</v>
       </c>
       <c r="Q165"/>
     </row>
     <row r="166" spans="1:17" ht="27.6">
-      <c r="A166" s="1">
+      <c r="A166" s="6">
         <v>11</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D166" s="1">
         <v>9</v>
@@ -11764,295 +11754,240 @@
       <c r="L166" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="N166" s="6">
+      <c r="N166" s="1">
         <f t="shared" si="59"/>
         <v>90</v>
       </c>
-      <c r="O166" s="6">
+      <c r="O166" s="1">
         <f t="shared" si="60"/>
         <v>90</v>
       </c>
-      <c r="P166" s="8">
+      <c r="P166" s="1">
         <f t="shared" si="61"/>
         <v>90</v>
       </c>
-      <c r="Q166"/>
-    </row>
-    <row r="167" spans="1:17" ht="27.6">
+    </row>
+    <row r="167" spans="1:17">
       <c r="A167" s="6">
         <v>11</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D167" s="1">
-        <v>9</v>
-      </c>
-      <c r="E167" s="1">
-        <v>10</v>
-      </c>
-      <c r="F167" s="1">
-        <v>10</v>
-      </c>
-      <c r="G167" s="1">
-        <f t="shared" si="55"/>
-        <v>10</v>
-      </c>
-      <c r="H167" s="1">
-        <f t="shared" si="56"/>
-        <v>10</v>
-      </c>
-      <c r="I167" s="1">
-        <f t="shared" si="57"/>
-        <v>10</v>
-      </c>
-      <c r="J167" s="1">
-        <f t="shared" si="58"/>
-        <v>10</v>
-      </c>
-      <c r="K167" s="1">
-        <v>115</v>
+      <c r="B167" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D167" s="6">
+        <v>120</v>
+      </c>
+      <c r="E167" s="6">
+        <v>75</v>
+      </c>
+      <c r="F167" s="6">
+        <v>90</v>
+      </c>
+      <c r="G167" s="6">
+        <f t="shared" ref="G167" si="62">E167</f>
+        <v>75</v>
+      </c>
+      <c r="H167" s="6">
+        <f t="shared" ref="H167" si="63">(F167-E167)*0.25+E167</f>
+        <v>78.75</v>
+      </c>
+      <c r="I167" s="6">
+        <f t="shared" ref="I167" si="64">(F167-E167)*0.5+E167</f>
+        <v>82.5</v>
+      </c>
+      <c r="J167" s="6">
+        <f t="shared" ref="J167" si="65">F167</f>
+        <v>90</v>
+      </c>
+      <c r="K167" s="6">
+        <v>150</v>
       </c>
       <c r="L167" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="N167" s="1">
-        <f t="shared" si="59"/>
-        <v>90</v>
-      </c>
-      <c r="O167" s="1">
-        <f t="shared" si="60"/>
-        <v>90</v>
-      </c>
-      <c r="P167" s="1">
-        <f t="shared" si="61"/>
-        <v>90</v>
-      </c>
+      <c r="M167" s="13"/>
+      <c r="N167" s="6">
+        <f t="shared" ref="N167:N170" si="66">D167*E167</f>
+        <v>9000</v>
+      </c>
+      <c r="O167" s="6">
+        <f t="shared" ref="O167:O170" si="67">D167*F167</f>
+        <v>10800</v>
+      </c>
+      <c r="P167" s="8">
+        <f t="shared" ref="P167:P170" si="68">AVERAGE(N167,O167)</f>
+        <v>9900</v>
+      </c>
+      <c r="Q167"/>
     </row>
     <row r="168" spans="1:17">
       <c r="A168" s="6">
         <v>11</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D168" s="6">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E168" s="6">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F168" s="6">
         <v>90</v>
       </c>
-      <c r="G168" s="6">
-        <f t="shared" ref="G168" si="62">E168</f>
-        <v>75</v>
-      </c>
-      <c r="H168" s="6">
-        <f t="shared" ref="H168" si="63">(F168-E168)*0.25+E168</f>
-        <v>78.75</v>
-      </c>
-      <c r="I168" s="6">
-        <f t="shared" ref="I168" si="64">(F168-E168)*0.5+E168</f>
-        <v>82.5</v>
-      </c>
-      <c r="J168" s="6">
-        <f t="shared" ref="J168" si="65">F168</f>
+      <c r="G168" s="1">
+        <f>E168</f>
+        <v>45</v>
+      </c>
+      <c r="H168" s="1">
+        <f>(F168-E168)*0.25+E168</f>
+        <v>56.25</v>
+      </c>
+      <c r="I168" s="1">
+        <f>(F168-E168)*0.5+E168</f>
+        <v>67.5</v>
+      </c>
+      <c r="J168" s="1">
+        <f>F168</f>
         <v>90</v>
       </c>
-      <c r="K168" s="6">
+      <c r="K168" s="1">
         <v>150</v>
       </c>
-      <c r="L168" s="6" t="b">
+      <c r="N168" s="6">
+        <f t="shared" ref="N168" si="69">D168*E168</f>
+        <v>9000</v>
+      </c>
+      <c r="O168" s="6">
+        <f t="shared" ref="O168" si="70">D168*F168</f>
+        <v>18000</v>
+      </c>
+      <c r="P168" s="8">
+        <f t="shared" ref="P168" si="71">AVERAGE(N168,O168)</f>
+        <v>13500</v>
+      </c>
+      <c r="Q168"/>
+    </row>
+    <row r="169" spans="1:17" ht="27.6">
+      <c r="A169" s="1">
+        <v>11</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D169" s="1">
         <v>1</v>
       </c>
-      <c r="M168" s="13"/>
-      <c r="N168" s="6">
-        <f t="shared" ref="N168:N171" si="66">D168*E168</f>
-        <v>9000</v>
-      </c>
-      <c r="O168" s="6">
-        <f t="shared" ref="O168:O171" si="67">D168*F168</f>
-        <v>10800</v>
-      </c>
-      <c r="P168" s="8">
-        <f t="shared" ref="P168:P171" si="68">AVERAGE(N168,O168)</f>
-        <v>9900</v>
-      </c>
-      <c r="Q168"/>
-    </row>
-    <row r="169" spans="1:17">
-      <c r="A169" s="6">
-        <v>11</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D169" s="6">
-        <v>200</v>
-      </c>
-      <c r="E169" s="6">
-        <v>45</v>
-      </c>
-      <c r="F169" s="6">
-        <v>90</v>
+      <c r="E169" s="1">
+        <v>10</v>
+      </c>
+      <c r="F169" s="1">
+        <v>10</v>
       </c>
       <c r="G169" s="1">
         <f>E169</f>
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H169" s="1">
         <f>(F169-E169)*0.25+E169</f>
-        <v>56.25</v>
+        <v>10</v>
       </c>
       <c r="I169" s="1">
         <f>(F169-E169)*0.5+E169</f>
-        <v>67.5</v>
+        <v>10</v>
       </c>
       <c r="J169" s="1">
         <f>F169</f>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="K169" s="1">
         <v>150</v>
       </c>
-      <c r="N169" s="6">
-        <f t="shared" ref="N169" si="69">D169*E169</f>
-        <v>9000</v>
-      </c>
-      <c r="O169" s="6">
-        <f t="shared" ref="O169" si="70">D169*F169</f>
-        <v>18000</v>
-      </c>
-      <c r="P169" s="8">
-        <f t="shared" ref="P169" si="71">AVERAGE(N169,O169)</f>
-        <v>13500</v>
-      </c>
-      <c r="Q169"/>
-    </row>
-    <row r="170" spans="1:17" ht="27.6">
-      <c r="A170" s="1">
+      <c r="L169" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N169" s="1">
+        <f>D169*E169</f>
+        <v>10</v>
+      </c>
+      <c r="O169" s="1">
+        <f>D169*F169</f>
+        <v>10</v>
+      </c>
+      <c r="P169" s="1">
+        <f>AVERAGE(N169,O169)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
+      <c r="A170" s="6">
         <v>11</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>442</v>
+        <v>176</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>447</v>
+        <v>177</v>
       </c>
       <c r="D170" s="1">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="E170" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F170" s="1">
-        <v>10</v>
+        <v>880</v>
       </c>
       <c r="G170" s="1">
         <f>E170</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H170" s="1">
         <f>(F170-E170)*0.25+E170</f>
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="I170" s="1">
         <f>(F170-E170)*0.5+E170</f>
-        <v>10</v>
+        <v>490</v>
       </c>
       <c r="J170" s="1">
         <f>F170</f>
-        <v>10</v>
+        <v>880</v>
       </c>
       <c r="K170" s="1">
-        <v>150</v>
-      </c>
-      <c r="L170" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N170" s="1">
-        <f>D170*E170</f>
-        <v>10</v>
-      </c>
-      <c r="O170" s="1">
-        <f>D170*F170</f>
-        <v>10</v>
-      </c>
-      <c r="P170" s="1">
-        <f>AVERAGE(N170,O170)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17">
-      <c r="A171" s="6">
-        <v>11</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D171" s="1">
-        <v>180</v>
-      </c>
-      <c r="E171" s="1">
-        <v>100</v>
-      </c>
-      <c r="F171" s="1">
-        <v>880</v>
-      </c>
-      <c r="G171" s="1">
-        <f>E171</f>
-        <v>100</v>
-      </c>
-      <c r="H171" s="1">
-        <f>(F171-E171)*0.25+E171</f>
-        <v>295</v>
-      </c>
-      <c r="I171" s="1">
-        <f>(F171-E171)*0.5+E171</f>
-        <v>490</v>
-      </c>
-      <c r="J171" s="1">
-        <f>F171</f>
-        <v>880</v>
-      </c>
-      <c r="K171" s="1">
         <v>190</v>
       </c>
-      <c r="N171" s="6">
+      <c r="N170" s="6">
         <f t="shared" si="66"/>
         <v>18000</v>
       </c>
-      <c r="O171" s="6">
+      <c r="O170" s="6">
         <f t="shared" si="67"/>
         <v>158400</v>
       </c>
-      <c r="P171" s="8">
+      <c r="P170" s="8">
         <f t="shared" si="68"/>
         <v>88200</v>
       </c>
-      <c r="Q171"/>
-    </row>
-    <row r="175" spans="1:17">
-      <c r="C175" s="1"/>
+      <c r="Q170"/>
+    </row>
+    <row r="174" spans="1:17">
+      <c r="C174" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L168">
-    <sortCondition ref="A2:A168"/>
-    <sortCondition ref="K2:K168"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L167">
+    <sortCondition ref="A2:A167"/>
+    <sortCondition ref="K2:K167"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12064,9 +11999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A7FBE3-B656-4EC5-AF69-64ED1D5A6239}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -12083,39 +12018,39 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27.6">
       <c r="A2" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>160</v>
@@ -12124,7 +12059,7 @@
         <v>161</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
@@ -12136,7 +12071,7 @@
     </row>
     <row r="3" spans="1:10" ht="41.4">
       <c r="A3" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>174</v>
@@ -12145,7 +12080,7 @@
         <v>175</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E3" s="3">
         <v>30</v>
@@ -12157,7 +12092,7 @@
     </row>
     <row r="4" spans="1:10" ht="27.6">
       <c r="A4" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>142</v>
@@ -12166,7 +12101,7 @@
         <v>150</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E4" s="3">
         <v>100</v>
@@ -12178,7 +12113,7 @@
     </row>
     <row r="5" spans="1:10" ht="27.6">
       <c r="A5" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>143</v>
@@ -12187,7 +12122,7 @@
         <v>151</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E5" s="3">
         <v>100</v>
@@ -12199,7 +12134,7 @@
     </row>
     <row r="6" spans="1:10" ht="27.6">
       <c r="A6" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>144</v>
@@ -12208,7 +12143,7 @@
         <v>153</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E6" s="3">
         <v>60</v>
@@ -12220,7 +12155,7 @@
     </row>
     <row r="7" spans="1:10" ht="27.6">
       <c r="A7" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>145</v>
@@ -12229,7 +12164,7 @@
         <v>149</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E7" s="3">
         <v>100</v>
@@ -12241,7 +12176,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>146</v>
@@ -12250,7 +12185,7 @@
         <v>152</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E8" s="3">
         <v>80</v>
@@ -12262,7 +12197,7 @@
     </row>
     <row r="9" spans="1:10" ht="27.6">
       <c r="A9" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>147</v>
@@ -12271,7 +12206,7 @@
         <v>148</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E9" s="3">
         <v>50</v>
@@ -12283,7 +12218,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.8">
       <c r="A10" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>168</v>
@@ -12292,7 +12227,7 @@
         <v>169</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E10" s="3">
         <v>75</v>
@@ -12304,7 +12239,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>170</v>
@@ -12313,7 +12248,7 @@
         <v>171</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
@@ -12325,7 +12260,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>166</v>
@@ -12334,7 +12269,7 @@
         <v>167</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>
@@ -12346,16 +12281,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E13" s="3">
         <v>360</v>
@@ -12367,7 +12302,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>172</v>
@@ -12376,7 +12311,7 @@
         <v>173</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
@@ -12388,16 +12323,16 @@
     </row>
     <row r="15" spans="1:10" ht="27.6">
       <c r="A15" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>132</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>524</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -12409,22 +12344,22 @@
     </row>
     <row r="16" spans="1:10" ht="27.6">
       <c r="A16" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>416</v>
+        <v>425</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>408</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>413</v>
+      <c r="F16" s="22" t="s">
+        <v>521</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -12435,22 +12370,22 @@
     </row>
     <row r="17" spans="1:9" ht="27.6">
       <c r="A17" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>415</v>
+        <v>425</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>407</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>414</v>
+      <c r="F17" s="22" t="s">
+        <v>522</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -12461,16 +12396,16 @@
     </row>
     <row r="18" spans="1:9" ht="41.4">
       <c r="A18" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>417</v>
+        <v>425</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>409</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -12485,16 +12420,16 @@
     </row>
     <row r="19" spans="1:9" ht="27.6">
       <c r="A19" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E19" s="3">
         <v>200</v>
@@ -12506,16 +12441,16 @@
     </row>
     <row r="20" spans="1:9" ht="27.6">
       <c r="A20" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>257</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -12527,22 +12462,22 @@
     </row>
     <row r="21" spans="1:9" ht="409.6">
       <c r="A21" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -12553,16 +12488,16 @@
     </row>
     <row r="22" spans="1:9" ht="27.6">
       <c r="A22" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>275</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -12573,22 +12508,22 @@
     </row>
     <row r="23" spans="1:9" ht="409.6">
       <c r="A23" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E23" s="3">
         <v>64</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -12596,22 +12531,22 @@
     </row>
     <row r="24" spans="1:9" ht="400.2">
       <c r="A24" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E24" s="3">
         <v>60</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -12619,18 +12554,18 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="E25" s="23">
+        <v>315</v>
+      </c>
+      <c r="E25" s="3">
         <v>5000</v>
       </c>
       <c r="F25" s="12"/>
@@ -12640,16 +12575,16 @@
     </row>
     <row r="26" spans="1:9" ht="27.6">
       <c r="A26" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E26" s="1">
         <v>980299</v>
@@ -12660,16 +12595,16 @@
     </row>
     <row r="27" spans="1:9" ht="27.6">
       <c r="A27" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E27" s="1">
         <v>9802</v>
@@ -12680,64 +12615,64 @@
     </row>
     <row r="28" spans="1:9" ht="41.4">
       <c r="A28" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E28" s="1">
         <v>-1</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
-        <v>328</v>
+      <c r="H28" s="26" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="27.6">
       <c r="A29" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="E29" s="22">
+        <v>309</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="E29" s="1">
         <v>3000</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="27.6">
+    <row r="30" spans="1:9" ht="41.4">
       <c r="A30" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E30" s="22">
+        <v>309</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="E30" s="1">
         <v>3000</v>
       </c>
       <c r="G30" t="b">
@@ -12746,18 +12681,18 @@
     </row>
     <row r="31" spans="1:9" ht="27.6">
       <c r="A31" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E31" s="22">
+        <v>327</v>
+      </c>
+      <c r="E31" s="1">
         <v>1200</v>
       </c>
       <c r="G31" t="b">
@@ -12766,22 +12701,22 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E32" s="1">
         <v>520</v>
       </c>
       <c r="F32" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -12789,22 +12724,22 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E33" s="1">
         <v>520</v>
       </c>
       <c r="F33" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -12812,22 +12747,22 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E34" s="1">
         <v>520</v>
       </c>
       <c r="F34" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -12835,16 +12770,16 @@
     </row>
     <row r="35" spans="1:9" ht="27.6">
       <c r="A35" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E35" s="1">
         <v>500</v>
@@ -12855,16 +12790,16 @@
     </row>
     <row r="36" spans="1:9" s="1" customFormat="1" ht="27.6">
       <c r="A36" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>434</v>
+        <v>416</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>426</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E36" s="1">
         <v>30</v>
@@ -12875,16 +12810,16 @@
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" ht="27.6">
       <c r="A37" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>436</v>
+        <v>417</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>428</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E37" s="1">
         <v>60</v>
@@ -12895,16 +12830,16 @@
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1" ht="27.6">
       <c r="A38" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>438</v>
+        <v>419</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>430</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E38" s="1">
         <v>90</v>
@@ -12915,16 +12850,16 @@
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1" ht="27.6">
       <c r="A39" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>440</v>
+        <v>418</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>432</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E39" s="1">
         <v>120</v>
@@ -12935,16 +12870,16 @@
     </row>
     <row r="40" spans="1:9" ht="30.6">
       <c r="A40" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -12958,16 +12893,16 @@
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" ht="27.6">
       <c r="A41" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>447</v>
+        <v>434</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E41" s="1">
         <v>10</v>
@@ -12978,22 +12913,22 @@
     </row>
     <row r="42" spans="1:9" ht="82.8">
       <c r="A42" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>473</v>
+        <v>464</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>465</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E42" s="1">
         <v>50</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -13003,16 +12938,16 @@
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1">
       <c r="A43" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>475</v>
+        <v>466</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>467</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E43" s="1">
         <v>36</v>
@@ -13023,16 +12958,16 @@
     </row>
     <row r="44" spans="1:9" ht="27.6">
       <c r="A44" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E44" s="1">
         <v>3600</v>
@@ -13043,16 +12978,16 @@
     </row>
     <row r="45" spans="1:9" ht="27.6">
       <c r="A45" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E45" s="1">
         <v>3600</v>
@@ -13063,16 +12998,16 @@
     </row>
     <row r="46" spans="1:9" ht="27.6">
       <c r="A46" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>486</v>
+        <v>476</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>478</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E46" s="1">
         <v>50</v>
@@ -13083,16 +13018,16 @@
     </row>
     <row r="47" spans="1:9" ht="27.6">
       <c r="A47" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>487</v>
+        <v>477</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>479</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E47" s="1">
         <v>50</v>
@@ -13103,16 +13038,16 @@
     </row>
     <row r="48" spans="1:9" ht="27.6">
       <c r="A48" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>497</v>
+        <v>488</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>489</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E48" s="1">
         <v>90</v>
@@ -13123,16 +13058,16 @@
     </row>
     <row r="49" spans="1:10" ht="27.6">
       <c r="A49" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>498</v>
+        <v>487</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>490</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E49" s="1">
         <v>90</v>
@@ -13143,16 +13078,16 @@
     </row>
     <row r="50" spans="1:10" ht="41.4">
       <c r="A50" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -13166,16 +13101,16 @@
     </row>
     <row r="51" spans="1:10" ht="27.6">
       <c r="A51" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>508</v>
+        <v>498</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>500</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -13201,7 +13136,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13215,54 +13150,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QQFireRecv\HuYanEconomy-0.1.16.mirai2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0998A67B-72A8-42A2-A067-740EA4902616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7652A017-935F-A846-BB6E-717AEBF38475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鱼" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="530">
   <si>
     <t>等级</t>
   </si>
@@ -911,10 +911,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗品，对指定目标使用，获得目标的币币（随机20-100）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>岛民侦探</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -980,10 +976,6 @@
   </si>
   <si>
     <t>《小喇叭鱼的故事》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗小喇叭鱼和流言蜚鱼获得，使用后让bobo为大家讲述一个故事，且使用者获得13140币币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1605,18 +1597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗五个字母牌F、B、T、N、K兑换获得，使用后消失，同时获得「FBTNK」buff，且获得98020币币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗五个字母牌F、B、P、F、K兑换获得，使用后消失，同时获得「FBPFK」buff，且获得98020币币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗警匪系列收集品（共6样）获得，使用后消失，人工艾特球球后兑换岛站有库存的任一周边一件（邮费自理），同时获得52000币币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FISH-35</t>
   </si>
   <si>
@@ -1854,7 +1834,264 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗品，使用后吹响一段贼难听的《小螺号》，bobo为了阻止你继续吹下去，给你打了666WDIT币币</t>
+    <t>消耗品，使用后可以指定下一条姐姐的狗的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳击手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术画笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绷带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳击等运动使用的绷带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画画等活动使用的颜料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定：《体育生与艺术生》系列收集品1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定：《体育生与艺术生》系列收集品2</t>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定：《体育生与艺术生》系列收集品3</t>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定：《体育生与艺术生》系列收集品4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《体育生与艺术生》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH-48</t>
+  </si>
+  <si>
+    <t>FISH-49</t>
+  </si>
+  <si>
+    <t>画室的花瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育馆的球拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某学校体育馆内的一张球拍，有不少使用的痕迹，但被保养得很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某学校画室里摆着的一个普通的花瓶，里面好像藏了什么东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定：《体育生与艺术生》系列收集品5</t>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定：《体育生与艺术生》系列收集品6</t>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否直接兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🍁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>枫叶币-枫叶币可通过兑换指令使用WDIT币币进行兑换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定
+拳击等运动使用的绷带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定
+画画等活动使用的颜料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定
+某学校体育馆内的一张球拍，有不少使用的痕迹，但被保养得很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定
+某学校画室里摆着的一个普通的花瓶，里面好像藏了什么东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四爪陆龟</t>
+  </si>
+  <si>
+    <t>扬子鳄</t>
+  </si>
+  <si>
+    <t>河狸</t>
+  </si>
+  <si>
+    <t>中华白海豚</t>
+  </si>
+  <si>
+    <t>虎鲸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹香鲸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扁尾海蛇</t>
+  </si>
+  <si>
+    <t>中国小鲵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华鲟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家二级保护动物，当场处理！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家一级保护动物，当场处理！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大砗磲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定
+国家一级保护动物，当场处理！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「FBPFK」buff：之后的5次钓鱼都会额外增加difficultymin66，rankmin6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「FBTNK」buff：之后的5次钓鱼都会额外增加difficultymin66，rankmin6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，使用后获得「游刃有鱼」buff，之后的5次钓鱼都会额外增加difficultymin50，rankmin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，使用后获得「年年有鱼」buff，之后的5次钓鱼都会额外增加difficultymin80，rankmin6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，使用后获得「竭泽而渔」buff，之后的5次钓鱼都会额外上钩一条鱼，且额外增加difficultymin30，rankmin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60*rodlevel+200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDIT币币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定：将你的枫叶按2:1的比例转换为闪亮的WDIT币币，每日限制购买30000币币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，对指定目标使用，使目标失去自我3分钟，并获得目标的币币（随机200-1200）（每人每天最多可领养1条）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，对指定目标使用，获得目标的币币（随机40-200）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗五个字母牌F、B、P、F、K兑换获得，使用后消失，同时获得「FBPFK」buff，且获得131400币币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗五个字母牌F、B、T、N、K兑换获得，使用后消失，同时获得「FBTNK」buff，且获得131400币币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗警匪系列收集品（共6样）获得，使用后消失，人工艾特球球后兑换岛站有库存的任一周边一件（邮费自理），同时获得98020币币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗小喇叭鱼和流言蜚鱼获得，使用后让bobo为大家讲述一个故事，且使用者获得52000币币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，使用后吹响一段贼难听的《小螺号》，bobo为了阻止你继续吹下去，给你打了1515WDIT币币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「WDIT BB 4.0」秋季限定：消耗《体育生与艺术生》系列收集品（共6样）获得，超人气校园百合小说《体育生与艺术生》，市场不二价520000WDIT币币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1899,237 +2136,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>”，使用后获得4444WDIT币币</t>
+      <t>”，使用后获得44444WDIT币币</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗品，使用后可以指定下一条姐姐的狗的目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳击手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艺术画笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绷带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳击等运动使用的绷带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画画等活动使用的颜料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「WDIT BB 4.0」秋季限定：《体育生与艺术生》系列收集品1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「WDIT BB 4.0」秋季限定：《体育生与艺术生》系列收集品2</t>
-  </si>
-  <si>
-    <t>「WDIT BB 4.0」秋季限定：《体育生与艺术生》系列收集品3</t>
-  </si>
-  <si>
-    <t>「WDIT BB 4.0」秋季限定：《体育生与艺术生》系列收集品4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《体育生与艺术生》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FISH-48</t>
-  </si>
-  <si>
-    <t>FISH-49</t>
-  </si>
-  <si>
-    <t>画室的花瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体育馆的球拍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某学校体育馆内的一张球拍，有不少使用的痕迹，但被保养得很好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某学校画室里摆着的一个普通的花瓶，里面好像藏了什么东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「WDIT BB 4.0」秋季限定：《体育生与艺术生》系列收集品5</t>
-  </si>
-  <si>
-    <t>「WDIT BB 4.0」秋季限定：《体育生与艺术生》系列收集品6</t>
-  </si>
-  <si>
-    <t>「WDIT BB 4.0」秋季限定：消耗《体育生与艺术生》系列收集品（共6样）获得，超人气校园百合小说《体育生与艺术生》，市场不二价36000WDIT币币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否直接兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FISH-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枫叶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>🍁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🍁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>枫叶币-枫叶币可通过兑换指令使用WDIT币币进行兑换</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「WDIT BB 4.0」秋季限定
-拳击等运动使用的绷带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「WDIT BB 4.0」秋季限定
-画画等活动使用的颜料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「WDIT BB 4.0」秋季限定
-某学校体育馆内的一张球拍，有不少使用的痕迹，但被保养得很好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「WDIT BB 4.0」秋季限定
-某学校画室里摆着的一个普通的花瓶，里面好像藏了什么东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗品，对指定目标使用，使目标失去自我3分钟，并获得目标的币币（随机100-800）（每人每天最多可领养1条）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四爪陆龟</t>
-  </si>
-  <si>
-    <t>扬子鳄</t>
-  </si>
-  <si>
-    <t>河狸</t>
-  </si>
-  <si>
-    <t>中华白海豚</t>
-  </si>
-  <si>
-    <t>虎鲸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抹香鲸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扁尾海蛇</t>
-  </si>
-  <si>
-    <t>中国小鲵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中华鲟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家二级保护动物，当场处理！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家一级保护动物，当场处理！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大砗磲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「WDIT BB 4.0」秋季限定
-国家一级保护动物，当场处理！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「FBPFK」buff：之后的5次钓鱼都会额外增加difficultymin66，rankmin6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「FBTNK」buff：之后的5次钓鱼都会额外增加difficultymin66，rankmin6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗品，使用后获得「游刃有鱼」buff，之后的5次钓鱼都会额外增加difficultymin50，rankmin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗品，使用后获得「年年有鱼」buff，之后的5次钓鱼都会额外增加difficultymin80，rankmin6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗品，使用后获得「竭泽而渔」buff，之后的5次钓鱼都会额外上钩一条鱼，且额外增加difficultymin30，rankmin2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60*rodlevel+200</t>
+    <t>FISH-51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2137,7 +2149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2240,13 +2252,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="SimSun"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Apple Color Emoji"/>
       <family val="2"/>
     </font>
@@ -2285,7 +2290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2322,9 +2327,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2334,10 +2336,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2352,20 +2360,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2688,27 +2687,27 @@
       <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="9" style="1"/>
     <col min="19" max="19" width="14.33203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="17" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="27.6">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="32">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>178</v>
@@ -2797,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="13"/>
+      <c r="M2" s="12"/>
       <c r="N2" s="6">
         <f>D2*E2</f>
         <v>-25</v>
@@ -2857,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="13"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="6">
         <f t="shared" ref="N3:N14" si="4">D3*E3</f>
         <v>10</v>
@@ -2914,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="13"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="6">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2973,7 +2972,7 @@
       <c r="L5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="13"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="6">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2991,7 +2990,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" ht="16">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -3043,7 +3042,7 @@
       </c>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" ht="16">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -3134,7 +3133,7 @@
         <v>30</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="13"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="6">
         <f>D8*E8</f>
         <v>24</v>
@@ -3149,7 +3148,7 @@
       </c>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" ht="16">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -3190,7 +3189,7 @@
       <c r="L9" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M9" s="13"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="6">
         <f>D9*E9</f>
         <v>50</v>
@@ -3244,7 +3243,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="13"/>
+      <c r="M10" s="12"/>
       <c r="N10" s="6">
         <f>D10*E10</f>
         <v>-30</v>
@@ -3298,7 +3297,7 @@
         <v>30</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="13"/>
+      <c r="M11" s="12"/>
       <c r="N11" s="6">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -3352,7 +3351,7 @@
         <v>30</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="13"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="6">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -3406,7 +3405,7 @@
         <v>30</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="13"/>
+      <c r="M13" s="12"/>
       <c r="N13" s="6">
         <f t="shared" si="4"/>
         <v>-20</v>
@@ -3426,10 +3425,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
@@ -3460,7 +3459,7 @@
         <v>35</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="13"/>
+      <c r="M14" s="12"/>
       <c r="N14" s="6">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -3475,15 +3474,15 @@
       </c>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" ht="16">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D15" s="1">
         <v>13</v>
@@ -3526,15 +3525,15 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="27.6">
+    <row r="16" spans="1:21" ht="16">
       <c r="A16" s="6">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -3565,8 +3564,8 @@
         <v>35</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="13" t="s">
-        <v>283</v>
+      <c r="M16" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" ref="N16:N47" si="17">D16*E16</f>
@@ -3621,7 +3620,7 @@
         <v>45</v>
       </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="13"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="6">
         <f t="shared" si="17"/>
         <v>60</v>
@@ -3636,7 +3635,7 @@
       </c>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" ht="16.8">
+    <row r="18" spans="1:17" ht="17">
       <c r="A18" s="6">
         <v>2</v>
       </c>
@@ -3677,7 +3676,7 @@
       <c r="L18" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M18" s="13"/>
+      <c r="M18" s="12"/>
       <c r="N18" s="6">
         <f t="shared" si="17"/>
         <v>75</v>
@@ -3731,7 +3730,7 @@
         <v>48</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="13"/>
+      <c r="M19" s="12"/>
       <c r="N19" s="6">
         <f t="shared" si="17"/>
         <v>48</v>
@@ -3785,7 +3784,7 @@
         <v>50</v>
       </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="13"/>
+      <c r="M20" s="12"/>
       <c r="N20" s="6">
         <f t="shared" si="17"/>
         <v>90</v>
@@ -3839,7 +3838,7 @@
         <v>50</v>
       </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="13"/>
+      <c r="M21" s="12"/>
       <c r="N21" s="6">
         <f t="shared" si="17"/>
         <v>75</v>
@@ -3893,7 +3892,7 @@
         <v>50</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="13"/>
+      <c r="M22" s="12"/>
       <c r="N22" s="6">
         <f t="shared" si="17"/>
         <v>76</v>
@@ -3908,7 +3907,7 @@
       </c>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" ht="16">
       <c r="A23" s="6">
         <v>2</v>
       </c>
@@ -3949,7 +3948,7 @@
       <c r="L23" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M23" s="13"/>
+      <c r="M23" s="12"/>
       <c r="N23" s="6">
         <f t="shared" si="17"/>
         <v>50</v>
@@ -3964,7 +3963,7 @@
       </c>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" ht="16">
       <c r="A24" s="6">
         <v>3</v>
       </c>
@@ -4003,7 +4002,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="13"/>
+      <c r="M24" s="12"/>
       <c r="N24" s="6">
         <f t="shared" si="17"/>
         <v>-10</v>
@@ -4057,7 +4056,7 @@
         <v>30</v>
       </c>
       <c r="L25" s="6"/>
-      <c r="M25" s="13"/>
+      <c r="M25" s="12"/>
       <c r="N25" s="6">
         <f t="shared" si="17"/>
         <v>6</v>
@@ -4072,7 +4071,7 @@
       </c>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" ht="16">
       <c r="A26" s="6">
         <v>3</v>
       </c>
@@ -4124,15 +4123,15 @@
       </c>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" ht="16">
       <c r="A27" s="6">
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
@@ -4163,8 +4162,8 @@
         <v>45</v>
       </c>
       <c r="L27" s="6"/>
-      <c r="M27" s="13" t="s">
-        <v>283</v>
+      <c r="M27" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="N27" s="6">
         <f t="shared" si="17"/>
@@ -4219,7 +4218,7 @@
         <v>50</v>
       </c>
       <c r="L28" s="6"/>
-      <c r="M28" s="13"/>
+      <c r="M28" s="12"/>
       <c r="N28" s="6">
         <f t="shared" si="17"/>
         <v>48</v>
@@ -4273,7 +4272,7 @@
         <v>50</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="13"/>
+      <c r="M29" s="12"/>
       <c r="N29" s="6">
         <f t="shared" si="17"/>
         <v>80</v>
@@ -4327,7 +4326,7 @@
         <v>50</v>
       </c>
       <c r="L30" s="6"/>
-      <c r="M30" s="13"/>
+      <c r="M30" s="12"/>
       <c r="N30" s="6">
         <f t="shared" si="17"/>
         <v>120</v>
@@ -4381,7 +4380,7 @@
         <v>50</v>
       </c>
       <c r="L31" s="6"/>
-      <c r="M31" s="13"/>
+      <c r="M31" s="12"/>
       <c r="N31" s="6">
         <f t="shared" si="17"/>
         <v>120</v>
@@ -4435,7 +4434,7 @@
         <v>65</v>
       </c>
       <c r="L32" s="6"/>
-      <c r="M32" s="13"/>
+      <c r="M32" s="12"/>
       <c r="N32" s="6">
         <f t="shared" si="17"/>
         <v>100</v>
@@ -4489,7 +4488,7 @@
         <v>65</v>
       </c>
       <c r="L33" s="6"/>
-      <c r="M33" s="13"/>
+      <c r="M33" s="12"/>
       <c r="N33" s="6">
         <f t="shared" si="17"/>
         <v>120</v>
@@ -4543,7 +4542,7 @@
         <v>65</v>
       </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="13"/>
+      <c r="M34" s="12"/>
       <c r="N34" s="6">
         <f t="shared" si="17"/>
         <v>105</v>
@@ -4597,7 +4596,7 @@
         <v>65</v>
       </c>
       <c r="L35" s="6"/>
-      <c r="M35" s="13"/>
+      <c r="M35" s="12"/>
       <c r="N35" s="6">
         <f t="shared" si="17"/>
         <v>120</v>
@@ -4651,7 +4650,7 @@
         <v>70</v>
       </c>
       <c r="L36" s="6"/>
-      <c r="M36" s="13"/>
+      <c r="M36" s="12"/>
       <c r="N36" s="6">
         <f t="shared" si="17"/>
         <v>168</v>
@@ -4666,15 +4665,15 @@
       </c>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:18" ht="27.6">
+    <row r="37" spans="1:18" ht="32">
       <c r="A37" s="6">
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D37" s="6">
         <v>10</v>
@@ -4705,8 +4704,8 @@
         <v>70</v>
       </c>
       <c r="L37" s="6"/>
-      <c r="M37" s="13" t="s">
-        <v>267</v>
+      <c r="M37" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="N37" s="6">
         <f t="shared" si="17"/>
@@ -4761,7 +4760,7 @@
         <v>70</v>
       </c>
       <c r="L38" s="6"/>
-      <c r="M38" s="13"/>
+      <c r="M38" s="12"/>
       <c r="N38" s="6">
         <f t="shared" si="17"/>
         <v>180</v>
@@ -4815,7 +4814,7 @@
         <v>75</v>
       </c>
       <c r="L39" s="6"/>
-      <c r="M39" s="13"/>
+      <c r="M39" s="12"/>
       <c r="N39" s="6">
         <f t="shared" si="17"/>
         <v>210</v>
@@ -4869,7 +4868,7 @@
         <v>75</v>
       </c>
       <c r="L40" s="6"/>
-      <c r="M40" s="13"/>
+      <c r="M40" s="12"/>
       <c r="N40" s="6">
         <f t="shared" si="17"/>
         <v>306</v>
@@ -4923,7 +4922,7 @@
         <v>80</v>
       </c>
       <c r="L41" s="6"/>
-      <c r="M41" s="13"/>
+      <c r="M41" s="12"/>
       <c r="N41" s="6">
         <f t="shared" si="17"/>
         <v>366</v>
@@ -4977,7 +4976,7 @@
         <v>85</v>
       </c>
       <c r="L42" s="6"/>
-      <c r="M42" s="13"/>
+      <c r="M42" s="12"/>
       <c r="N42" s="6">
         <f t="shared" si="17"/>
         <v>210</v>
@@ -4992,7 +4991,7 @@
       </c>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" ht="16">
       <c r="A43" s="6">
         <v>3</v>
       </c>
@@ -5033,7 +5032,7 @@
       <c r="L43" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M43" s="13"/>
+      <c r="M43" s="12"/>
       <c r="N43" s="6">
         <f t="shared" si="17"/>
         <v>80</v>
@@ -5048,7 +5047,7 @@
       </c>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:18" ht="16.8">
+    <row r="44" spans="1:18" ht="18">
       <c r="A44" s="6">
         <v>4</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>30</v>
       </c>
       <c r="L44" s="6"/>
-      <c r="M44" s="13"/>
+      <c r="M44" s="12"/>
       <c r="N44" s="6">
         <f t="shared" si="17"/>
         <v>-25</v>
@@ -5102,7 +5101,7 @@
       </c>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:18" ht="16.8">
+    <row r="45" spans="1:18" ht="17">
       <c r="A45" s="6">
         <v>4</v>
       </c>
@@ -5143,7 +5142,7 @@
       <c r="L45" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M45" s="13"/>
+      <c r="M45" s="12"/>
       <c r="N45" s="6">
         <f t="shared" si="17"/>
         <v>30</v>
@@ -5197,7 +5196,7 @@
         <v>40</v>
       </c>
       <c r="L46" s="6"/>
-      <c r="M46" s="13"/>
+      <c r="M46" s="12"/>
       <c r="N46" s="6">
         <f t="shared" si="17"/>
         <v>110</v>
@@ -5251,7 +5250,7 @@
         <v>40</v>
       </c>
       <c r="L47" s="6"/>
-      <c r="M47" s="13"/>
+      <c r="M47" s="12"/>
       <c r="N47" s="6">
         <f t="shared" si="17"/>
         <v>165</v>
@@ -5305,7 +5304,7 @@
         <v>40</v>
       </c>
       <c r="L48" s="6"/>
-      <c r="M48" s="13"/>
+      <c r="M48" s="12"/>
       <c r="N48" s="6">
         <f t="shared" ref="N48:N84" si="24">D48*E48</f>
         <v>180</v>
@@ -5360,7 +5359,7 @@
         <v>40</v>
       </c>
       <c r="L49" s="6"/>
-      <c r="M49" s="13"/>
+      <c r="M49" s="12"/>
       <c r="N49" s="6">
         <f t="shared" si="24"/>
         <v>200</v>
@@ -5375,15 +5374,15 @@
       </c>
       <c r="Q49" s="9"/>
     </row>
-    <row r="50" spans="1:18" ht="15.6">
+    <row r="50" spans="1:18" ht="17">
       <c r="A50" s="6">
         <v>4</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D50" s="6">
         <v>0</v>
@@ -5416,8 +5415,8 @@
       <c r="L50" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M50" s="15" t="s">
-        <v>274</v>
+      <c r="M50" s="14" t="s">
+        <v>272</v>
       </c>
       <c r="N50" s="6">
         <f t="shared" si="24"/>
@@ -5472,7 +5471,7 @@
         <v>55</v>
       </c>
       <c r="L51" s="6"/>
-      <c r="M51" s="13"/>
+      <c r="M51" s="12"/>
       <c r="N51" s="6">
         <f t="shared" si="24"/>
         <v>252</v>
@@ -5488,15 +5487,15 @@
       <c r="Q51"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" ht="16">
       <c r="A52" s="6">
         <v>4</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D52" s="6">
         <v>-15</v>
@@ -5527,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="L52" s="6"/>
-      <c r="M52" s="13"/>
+      <c r="M52" s="12"/>
       <c r="N52" s="6">
         <f t="shared" si="24"/>
         <v>-150</v>
@@ -5635,7 +5634,7 @@
         <v>65</v>
       </c>
       <c r="L54" s="6"/>
-      <c r="M54" s="13"/>
+      <c r="M54" s="12"/>
       <c r="N54" s="6">
         <f t="shared" si="24"/>
         <v>240</v>
@@ -5690,7 +5689,7 @@
         <v>70</v>
       </c>
       <c r="L55" s="6"/>
-      <c r="M55" s="13"/>
+      <c r="M55" s="12"/>
       <c r="N55" s="6">
         <f t="shared" si="24"/>
         <v>364</v>
@@ -5706,15 +5705,15 @@
       <c r="Q55"/>
       <c r="R55" s="7"/>
     </row>
-    <row r="56" spans="1:18" ht="27.6">
+    <row r="56" spans="1:18" ht="32">
       <c r="A56" s="6">
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D56" s="1">
         <v>15</v>
@@ -5745,7 +5744,7 @@
         <v>70</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" si="24"/>
@@ -5801,7 +5800,7 @@
         <v>80</v>
       </c>
       <c r="L57" s="6"/>
-      <c r="M57" s="13"/>
+      <c r="M57" s="12"/>
       <c r="N57" s="6">
         <f t="shared" si="24"/>
         <v>350</v>
@@ -5856,7 +5855,7 @@
         <v>90</v>
       </c>
       <c r="L58" s="6"/>
-      <c r="M58" s="13"/>
+      <c r="M58" s="12"/>
       <c r="N58" s="6">
         <f t="shared" si="24"/>
         <v>915</v>
@@ -5911,7 +5910,7 @@
         <v>95</v>
       </c>
       <c r="L59" s="6"/>
-      <c r="M59" s="13"/>
+      <c r="M59" s="12"/>
       <c r="N59" s="6">
         <f t="shared" si="24"/>
         <v>540</v>
@@ -5966,7 +5965,7 @@
         <v>95</v>
       </c>
       <c r="L60" s="6"/>
-      <c r="M60" s="13"/>
+      <c r="M60" s="12"/>
       <c r="N60" s="6">
         <f t="shared" si="24"/>
         <v>1444</v>
@@ -6021,7 +6020,7 @@
         <v>45</v>
       </c>
       <c r="L61" s="6"/>
-      <c r="M61" s="13"/>
+      <c r="M61" s="12"/>
       <c r="N61" s="6">
         <f t="shared" si="24"/>
         <v>-10</v>
@@ -6076,7 +6075,7 @@
         <v>50</v>
       </c>
       <c r="L62" s="6"/>
-      <c r="M62" s="13"/>
+      <c r="M62" s="12"/>
       <c r="N62" s="6">
         <f t="shared" si="24"/>
         <v>200</v>
@@ -6131,7 +6130,7 @@
         <v>50</v>
       </c>
       <c r="L63" s="6"/>
-      <c r="M63" s="13"/>
+      <c r="M63" s="12"/>
       <c r="N63" s="6">
         <f t="shared" si="24"/>
         <v>240</v>
@@ -6186,7 +6185,7 @@
         <v>50</v>
       </c>
       <c r="L64" s="6"/>
-      <c r="M64" s="13"/>
+      <c r="M64" s="12"/>
       <c r="N64" s="6">
         <f t="shared" si="24"/>
         <v>1100</v>
@@ -6241,7 +6240,7 @@
         <v>55</v>
       </c>
       <c r="L65" s="6"/>
-      <c r="M65" s="13"/>
+      <c r="M65" s="12"/>
       <c r="N65" s="6">
         <f t="shared" si="24"/>
         <v>6</v>
@@ -6257,15 +6256,15 @@
       <c r="Q65"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" ht="16">
       <c r="A66" s="1">
         <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D66" s="1">
         <v>20</v>
@@ -6347,7 +6346,7 @@
         <v>60</v>
       </c>
       <c r="L67" s="6"/>
-      <c r="M67" s="13"/>
+      <c r="M67" s="12"/>
       <c r="N67" s="6">
         <f t="shared" si="24"/>
         <v>250</v>
@@ -6363,15 +6362,15 @@
       <c r="Q67"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" spans="1:18" ht="27.6">
+    <row r="68" spans="1:18" ht="32">
       <c r="A68" s="6">
         <v>5</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>381</v>
+        <v>277</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>379</v>
       </c>
       <c r="D68" s="6">
         <v>10</v>
@@ -6403,7 +6402,7 @@
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N68" s="6">
         <f t="shared" si="24"/>
@@ -6420,15 +6419,15 @@
       <c r="Q68"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="1:18" ht="27.6">
+    <row r="69" spans="1:18" ht="32">
       <c r="A69" s="6">
         <v>5</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>376</v>
+        <v>261</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="D69" s="6">
         <v>-20</v>
@@ -6459,8 +6458,8 @@
         <v>65</v>
       </c>
       <c r="L69" s="6"/>
-      <c r="M69" s="13" t="s">
-        <v>267</v>
+      <c r="M69" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="N69" s="6">
         <f t="shared" si="24"/>
@@ -6516,7 +6515,7 @@
         <v>70</v>
       </c>
       <c r="L70" s="6"/>
-      <c r="M70" s="13"/>
+      <c r="M70" s="12"/>
       <c r="N70" s="6">
         <f t="shared" si="24"/>
         <v>625</v>
@@ -6571,7 +6570,7 @@
         <v>70</v>
       </c>
       <c r="L71" s="6"/>
-      <c r="M71" s="13"/>
+      <c r="M71" s="12"/>
       <c r="N71" s="6">
         <f t="shared" si="24"/>
         <v>486</v>
@@ -6592,10 +6591,10 @@
         <v>5</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D72" s="6">
         <v>0</v>
@@ -6626,7 +6625,7 @@
         <v>80</v>
       </c>
       <c r="L72" s="6"/>
-      <c r="M72" s="13">
+      <c r="M72" s="12">
         <v>70</v>
       </c>
       <c r="N72" s="6">
@@ -6683,7 +6682,7 @@
         <v>90</v>
       </c>
       <c r="L73" s="6"/>
-      <c r="M73" s="13"/>
+      <c r="M73" s="12"/>
       <c r="N73" s="6">
         <f t="shared" si="24"/>
         <v>900</v>
@@ -6738,7 +6737,7 @@
         <v>99</v>
       </c>
       <c r="L74" s="6"/>
-      <c r="M74" s="13"/>
+      <c r="M74" s="12"/>
       <c r="N74" s="6">
         <f t="shared" si="24"/>
         <v>930</v>
@@ -6793,7 +6792,7 @@
         <v>105</v>
       </c>
       <c r="L75" s="6"/>
-      <c r="M75" s="13"/>
+      <c r="M75" s="12"/>
       <c r="N75" s="6">
         <f t="shared" si="24"/>
         <v>2074</v>
@@ -6809,7 +6808,7 @@
       <c r="Q75"/>
       <c r="R75" s="7"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" ht="16">
       <c r="A76" s="6">
         <v>5</v>
       </c>
@@ -6850,7 +6849,7 @@
       <c r="L76" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M76" s="13"/>
+      <c r="M76" s="12"/>
       <c r="N76" s="6">
         <f t="shared" si="24"/>
         <v>80</v>
@@ -6905,7 +6904,7 @@
         <v>55</v>
       </c>
       <c r="L77" s="6"/>
-      <c r="M77" s="13"/>
+      <c r="M77" s="12"/>
       <c r="N77" s="6">
         <f t="shared" si="24"/>
         <v>300</v>
@@ -6960,7 +6959,7 @@
         <v>55</v>
       </c>
       <c r="L78" s="6"/>
-      <c r="M78" s="13"/>
+      <c r="M78" s="12"/>
       <c r="N78" s="6">
         <f t="shared" si="24"/>
         <v>400</v>
@@ -6976,15 +6975,15 @@
       <c r="Q78"/>
       <c r="R78" s="7"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" ht="16">
       <c r="A79" s="6">
         <v>6</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D79" s="1">
         <v>13</v>
@@ -7027,15 +7026,15 @@
         <v>760.5</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" ht="16">
       <c r="A80" s="6">
         <v>6</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D80" s="1">
         <v>49</v>
@@ -7078,15 +7077,15 @@
         <v>784</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="27.6">
+    <row r="81" spans="1:18" ht="32">
       <c r="A81" s="1">
         <v>6</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -7172,7 +7171,7 @@
         <v>65</v>
       </c>
       <c r="L82" s="6"/>
-      <c r="M82" s="13"/>
+      <c r="M82" s="12"/>
       <c r="N82" s="6">
         <f t="shared" si="24"/>
         <v>300</v>
@@ -7227,7 +7226,7 @@
         <v>65</v>
       </c>
       <c r="L83" s="6"/>
-      <c r="M83" s="13"/>
+      <c r="M83" s="12"/>
       <c r="N83" s="6">
         <f t="shared" si="24"/>
         <v>520</v>
@@ -7248,10 +7247,10 @@
         <v>6</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D84" s="6">
         <v>32</v>
@@ -7282,7 +7281,7 @@
         <v>70</v>
       </c>
       <c r="L84" s="6"/>
-      <c r="M84" s="13"/>
+      <c r="M84" s="12"/>
       <c r="N84" s="6">
         <f t="shared" si="24"/>
         <v>960</v>
@@ -7298,15 +7297,15 @@
       <c r="Q84"/>
       <c r="R84" s="7"/>
     </row>
-    <row r="85" spans="1:18" ht="27.6">
+    <row r="85" spans="1:18" ht="32">
       <c r="A85" s="6">
         <v>6</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>393</v>
+        <v>259</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="D85" s="6">
         <v>20</v>
@@ -7337,8 +7336,8 @@
         <v>70</v>
       </c>
       <c r="L85" s="6"/>
-      <c r="M85" s="13" t="s">
-        <v>269</v>
+      <c r="M85" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="N85" s="6">
         <f t="shared" ref="N85:N117" si="31">D85*E85</f>
@@ -7355,15 +7354,15 @@
       <c r="Q85"/>
       <c r="R85" s="7"/>
     </row>
-    <row r="86" spans="1:18" ht="27.6">
+    <row r="86" spans="1:18" ht="32">
       <c r="A86" s="6">
         <v>6</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D86" s="6">
         <v>30</v>
@@ -7394,8 +7393,8 @@
         <v>70</v>
       </c>
       <c r="L86" s="6"/>
-      <c r="M86" s="13" t="s">
-        <v>267</v>
+      <c r="M86" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="N86" s="6">
         <f t="shared" si="31"/>
@@ -7451,7 +7450,7 @@
         <v>80</v>
       </c>
       <c r="L87" s="6"/>
-      <c r="M87" s="13"/>
+      <c r="M87" s="12"/>
       <c r="N87" s="6">
         <f t="shared" si="31"/>
         <v>105</v>
@@ -7506,7 +7505,7 @@
         <v>95</v>
       </c>
       <c r="L88" s="6"/>
-      <c r="M88" s="13"/>
+      <c r="M88" s="12"/>
       <c r="N88" s="6">
         <f t="shared" si="31"/>
         <v>1200</v>
@@ -7522,7 +7521,7 @@
       <c r="Q88"/>
       <c r="R88" s="7"/>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" ht="16">
       <c r="A89" s="6">
         <v>6</v>
       </c>
@@ -7563,7 +7562,7 @@
       <c r="L89" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M89" s="13"/>
+      <c r="M89" s="12"/>
       <c r="N89" s="6">
         <f t="shared" si="31"/>
         <v>100</v>
@@ -7618,7 +7617,7 @@
         <v>100</v>
       </c>
       <c r="L90" s="6"/>
-      <c r="M90" s="13"/>
+      <c r="M90" s="12"/>
       <c r="N90" s="6">
         <f t="shared" si="31"/>
         <v>1350</v>
@@ -7634,15 +7633,15 @@
       <c r="Q90"/>
       <c r="R90" s="7"/>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" ht="16">
       <c r="A91" s="6">
         <v>6</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D91" s="6">
         <v>-20</v>
@@ -7673,7 +7672,7 @@
         <v>100</v>
       </c>
       <c r="L91" s="6"/>
-      <c r="M91" s="13"/>
+      <c r="M91" s="12"/>
       <c r="N91" s="6">
         <f t="shared" si="31"/>
         <v>-600</v>
@@ -7728,7 +7727,7 @@
         <v>100</v>
       </c>
       <c r="L92" s="6"/>
-      <c r="M92" s="13"/>
+      <c r="M92" s="12"/>
       <c r="N92" s="6">
         <f t="shared" si="31"/>
         <v>2900</v>
@@ -7783,7 +7782,7 @@
         <v>110</v>
       </c>
       <c r="L93" s="6"/>
-      <c r="M93" s="13"/>
+      <c r="M93" s="12"/>
       <c r="N93" s="6">
         <f t="shared" si="31"/>
         <v>3480</v>
@@ -7838,7 +7837,7 @@
         <v>60</v>
       </c>
       <c r="L94" s="6"/>
-      <c r="M94" s="13"/>
+      <c r="M94" s="12"/>
       <c r="N94" s="6">
         <f t="shared" si="31"/>
         <v>600</v>
@@ -7893,7 +7892,7 @@
         <v>70</v>
       </c>
       <c r="L95" s="6"/>
-      <c r="M95" s="13"/>
+      <c r="M95" s="12"/>
       <c r="N95" s="6">
         <f t="shared" si="31"/>
         <v>800</v>
@@ -7948,7 +7947,7 @@
         <v>70</v>
       </c>
       <c r="L96" s="6"/>
-      <c r="M96" s="13"/>
+      <c r="M96" s="12"/>
       <c r="N96" s="6">
         <f t="shared" si="31"/>
         <v>684</v>
@@ -8003,7 +8002,7 @@
         <v>70</v>
       </c>
       <c r="L97" s="6"/>
-      <c r="M97" s="13"/>
+      <c r="M97" s="12"/>
       <c r="N97" s="6">
         <f t="shared" si="31"/>
         <v>1400</v>
@@ -8018,15 +8017,15 @@
       </c>
       <c r="Q97"/>
     </row>
-    <row r="98" spans="1:18" ht="27.6">
+    <row r="98" spans="1:18" ht="32">
       <c r="A98" s="1">
         <v>7</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -8111,7 +8110,7 @@
         <v>80</v>
       </c>
       <c r="L99" s="6"/>
-      <c r="M99" s="13"/>
+      <c r="M99" s="12"/>
       <c r="N99" s="6">
         <f t="shared" si="31"/>
         <v>832</v>
@@ -8126,7 +8125,7 @@
       </c>
       <c r="Q99"/>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" ht="16">
       <c r="A100" s="6">
         <v>7</v>
       </c>
@@ -8165,7 +8164,7 @@
         <v>80</v>
       </c>
       <c r="L100" s="6"/>
-      <c r="M100" s="13"/>
+      <c r="M100" s="12"/>
       <c r="N100" s="6">
         <f t="shared" si="31"/>
         <v>875</v>
@@ -8219,7 +8218,7 @@
         <v>80</v>
       </c>
       <c r="L101" s="6"/>
-      <c r="M101" s="13"/>
+      <c r="M101" s="12"/>
       <c r="N101" s="6">
         <f t="shared" si="31"/>
         <v>1500</v>
@@ -8234,15 +8233,15 @@
       </c>
       <c r="Q101"/>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" ht="16">
       <c r="A102" s="6">
         <v>7</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>392</v>
+        <v>287</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>390</v>
       </c>
       <c r="D102" s="6">
         <v>8</v>
@@ -8275,7 +8274,7 @@
       <c r="L102" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M102" s="13">
+      <c r="M102" s="12">
         <v>70</v>
       </c>
       <c r="N102" s="6">
@@ -8292,15 +8291,15 @@
       </c>
       <c r="Q102"/>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" ht="16">
       <c r="A103" s="6">
         <v>7</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="D103" s="6">
         <v>12</v>
@@ -8333,7 +8332,7 @@
       <c r="L103" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M103" s="13"/>
+      <c r="M103" s="12"/>
       <c r="N103" s="6">
         <f t="shared" si="31"/>
         <v>60</v>
@@ -8387,7 +8386,7 @@
         <v>90</v>
       </c>
       <c r="L104" s="6"/>
-      <c r="M104" s="13"/>
+      <c r="M104" s="12"/>
       <c r="N104" s="6">
         <f t="shared" si="31"/>
         <v>1200</v>
@@ -8402,7 +8401,7 @@
       </c>
       <c r="Q104"/>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" ht="16">
       <c r="A105" s="6">
         <v>7</v>
       </c>
@@ -8410,7 +8409,7 @@
         <v>208</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D105" s="6">
         <v>99</v>
@@ -8441,8 +8440,8 @@
         <v>90</v>
       </c>
       <c r="L105" s="6"/>
-      <c r="M105" s="13" t="s">
-        <v>266</v>
+      <c r="M105" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="N105" s="6">
         <f t="shared" si="31"/>
@@ -8497,7 +8496,7 @@
         <v>90</v>
       </c>
       <c r="L106" s="6"/>
-      <c r="M106" s="13"/>
+      <c r="M106" s="12"/>
       <c r="N106" s="6">
         <f t="shared" si="31"/>
         <v>2900</v>
@@ -8552,7 +8551,7 @@
         <v>105</v>
       </c>
       <c r="L107" s="6"/>
-      <c r="M107" s="13"/>
+      <c r="M107" s="12"/>
       <c r="N107" s="6">
         <f t="shared" si="31"/>
         <v>1950</v>
@@ -8607,7 +8606,7 @@
         <v>105</v>
       </c>
       <c r="L108" s="6"/>
-      <c r="M108" s="13"/>
+      <c r="M108" s="12"/>
       <c r="N108" s="6">
         <f t="shared" si="31"/>
         <v>1800</v>
@@ -8622,7 +8621,7 @@
       </c>
       <c r="Q108"/>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" ht="16">
       <c r="A109" s="6">
         <v>7</v>
       </c>
@@ -8661,7 +8660,7 @@
         <v>105</v>
       </c>
       <c r="L109" s="6"/>
-      <c r="M109" s="13"/>
+      <c r="M109" s="12"/>
       <c r="N109" s="6">
         <f t="shared" si="31"/>
         <v>2600</v>
@@ -8677,7 +8676,7 @@
       <c r="Q109"/>
       <c r="R109" s="7"/>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" ht="16">
       <c r="A110" s="6">
         <v>7</v>
       </c>
@@ -8716,7 +8715,7 @@
         <v>120</v>
       </c>
       <c r="L110" s="6"/>
-      <c r="M110" s="13"/>
+      <c r="M110" s="12"/>
       <c r="N110" s="6">
         <f t="shared" si="31"/>
         <v>7000</v>
@@ -8731,15 +8730,15 @@
       </c>
       <c r="Q110"/>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" ht="16">
       <c r="A111" s="1">
         <v>8</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D111" s="1">
         <v>10</v>
@@ -8824,7 +8823,7 @@
         <v>75</v>
       </c>
       <c r="L112" s="6"/>
-      <c r="M112" s="13"/>
+      <c r="M112" s="12"/>
       <c r="N112" s="6">
         <f t="shared" si="31"/>
         <v>375</v>
@@ -8839,15 +8838,15 @@
       </c>
       <c r="Q112"/>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" ht="16">
       <c r="A113" s="6">
         <v>8</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D113" s="6">
         <v>65</v>
@@ -8878,8 +8877,8 @@
         <v>80</v>
       </c>
       <c r="L113" s="6"/>
-      <c r="M113" s="13" t="s">
-        <v>268</v>
+      <c r="M113" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="N113" s="6">
         <f t="shared" si="31"/>
@@ -8895,15 +8894,15 @@
       </c>
       <c r="Q113"/>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" ht="16">
       <c r="A114" s="6">
         <v>8</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D114" s="6">
         <v>50</v>
@@ -8934,8 +8933,8 @@
         <v>80</v>
       </c>
       <c r="L114" s="6"/>
-      <c r="M114" s="13" t="s">
-        <v>271</v>
+      <c r="M114" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="N114" s="6">
         <f t="shared" si="31"/>
@@ -8951,15 +8950,15 @@
       </c>
       <c r="Q114"/>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" ht="16">
       <c r="A115" s="6">
         <v>8</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D115" s="6">
         <v>35</v>
@@ -8990,8 +8989,8 @@
         <v>80</v>
       </c>
       <c r="L115" s="6"/>
-      <c r="M115" s="13" t="s">
-        <v>283</v>
+      <c r="M115" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="N115" s="6">
         <f t="shared" si="31"/>
@@ -9007,15 +9006,15 @@
       </c>
       <c r="Q115"/>
     </row>
-    <row r="116" spans="1:17" ht="27.6">
+    <row r="116" spans="1:17" ht="32">
       <c r="A116" s="1">
         <v>8</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D116" s="1">
         <v>3</v>
@@ -9061,7 +9060,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" ht="16">
       <c r="A117" s="6">
         <v>8</v>
       </c>
@@ -9102,7 +9101,7 @@
       <c r="L117" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M117" s="13"/>
+      <c r="M117" s="12"/>
       <c r="N117" s="6">
         <f t="shared" si="31"/>
         <v>100</v>
@@ -9117,15 +9116,15 @@
       </c>
       <c r="Q117"/>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" ht="16">
       <c r="A118" s="6">
         <v>8</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D118" s="6">
         <v>20</v>
@@ -9158,7 +9157,7 @@
       <c r="L118" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M118" s="13">
+      <c r="M118" s="12">
         <v>70</v>
       </c>
       <c r="N118" s="6">
@@ -9175,15 +9174,15 @@
       </c>
       <c r="Q118"/>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" ht="16">
       <c r="A119" s="6">
         <v>8</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D119" s="6">
         <v>-35</v>
@@ -9214,7 +9213,7 @@
         <v>95</v>
       </c>
       <c r="L119" s="6"/>
-      <c r="M119" s="13"/>
+      <c r="M119" s="12"/>
       <c r="N119" s="6">
         <f t="shared" si="38"/>
         <v>-700</v>
@@ -9229,15 +9228,15 @@
       </c>
       <c r="Q119"/>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" ht="16">
       <c r="A120" s="6">
         <v>8</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="D120" s="6">
         <v>35</v>
@@ -9268,7 +9267,7 @@
         <v>105</v>
       </c>
       <c r="L120" s="6"/>
-      <c r="M120" s="13"/>
+      <c r="M120" s="12"/>
       <c r="N120" s="6">
         <f t="shared" si="38"/>
         <v>2450</v>
@@ -9322,7 +9321,7 @@
         <v>105</v>
       </c>
       <c r="L121" s="6"/>
-      <c r="M121" s="13"/>
+      <c r="M121" s="12"/>
       <c r="N121" s="6">
         <f t="shared" si="38"/>
         <v>1800</v>
@@ -9337,15 +9336,15 @@
       </c>
       <c r="Q121"/>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" ht="16">
       <c r="A122" s="6">
         <v>8</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D122" s="6">
         <v>100</v>
@@ -9376,8 +9375,8 @@
         <v>105</v>
       </c>
       <c r="L122" s="6"/>
-      <c r="M122" s="13" t="s">
-        <v>270</v>
+      <c r="M122" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="N122" s="6">
         <f t="shared" si="38"/>
@@ -9393,15 +9392,15 @@
       </c>
       <c r="Q122"/>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" ht="16">
       <c r="A123" s="6">
         <v>8</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="D123" s="6">
         <v>85</v>
@@ -9432,7 +9431,7 @@
         <v>105</v>
       </c>
       <c r="L123" s="6"/>
-      <c r="M123" s="13"/>
+      <c r="M123" s="12"/>
       <c r="N123" s="6">
         <f t="shared" si="38"/>
         <v>1700</v>
@@ -9447,15 +9446,15 @@
       </c>
       <c r="Q123"/>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" ht="16">
       <c r="A124" s="6">
         <v>8</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D124" s="6">
         <v>65</v>
@@ -9486,7 +9485,7 @@
         <v>105</v>
       </c>
       <c r="L124" s="6"/>
-      <c r="M124" s="13"/>
+      <c r="M124" s="12"/>
       <c r="N124" s="6">
         <f t="shared" si="38"/>
         <v>2600</v>
@@ -9540,7 +9539,7 @@
         <v>110</v>
       </c>
       <c r="L125" s="6"/>
-      <c r="M125" s="14"/>
+      <c r="M125" s="13"/>
       <c r="N125" s="6">
         <f t="shared" si="38"/>
         <v>2988</v>
@@ -9594,7 +9593,7 @@
         <v>110</v>
       </c>
       <c r="L126" s="6"/>
-      <c r="M126" s="13"/>
+      <c r="M126" s="12"/>
       <c r="N126" s="6">
         <f t="shared" si="38"/>
         <v>3655</v>
@@ -9609,15 +9608,15 @@
       </c>
       <c r="Q126"/>
     </row>
-    <row r="127" spans="1:17" ht="138">
+    <row r="127" spans="1:17" ht="160">
       <c r="A127" s="6">
         <v>8</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D127" s="6">
         <v>100</v>
@@ -9648,7 +9647,7 @@
         <v>115</v>
       </c>
       <c r="L127" s="6"/>
-      <c r="M127" s="13">
+      <c r="M127" s="12">
         <v>70</v>
       </c>
       <c r="N127" s="6">
@@ -9665,15 +9664,15 @@
       </c>
       <c r="Q127"/>
     </row>
-    <row r="128" spans="1:17" ht="27.6">
+    <row r="128" spans="1:17" ht="32">
       <c r="A128" s="1">
         <v>9</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D128" s="1">
         <v>25</v>
@@ -9716,15 +9715,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" ht="16">
       <c r="A129" s="1">
         <v>9</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D129" s="1">
         <v>30</v>
@@ -9808,7 +9807,7 @@
       <c r="L130" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M130" s="13"/>
+      <c r="M130" s="12"/>
       <c r="N130" s="6">
         <f t="shared" si="38"/>
         <v>200</v>
@@ -9823,15 +9822,15 @@
       </c>
       <c r="Q130"/>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" ht="16">
       <c r="A131" s="6">
         <v>9</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D131" s="6">
         <v>30</v>
@@ -9862,8 +9861,8 @@
         <v>80</v>
       </c>
       <c r="L131" s="6"/>
-      <c r="M131" s="13" t="s">
-        <v>270</v>
+      <c r="M131" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="N131" s="6">
         <f t="shared" si="38"/>
@@ -9918,7 +9917,7 @@
         <v>80</v>
       </c>
       <c r="L132" s="6"/>
-      <c r="M132" s="13"/>
+      <c r="M132" s="12"/>
       <c r="N132" s="6">
         <f t="shared" si="38"/>
         <v>1656</v>
@@ -9933,15 +9932,15 @@
       </c>
       <c r="Q132"/>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" ht="16">
       <c r="A133" s="6">
         <v>9</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D133" s="6">
         <v>30</v>
@@ -9972,8 +9971,8 @@
         <v>80</v>
       </c>
       <c r="L133" s="6"/>
-      <c r="M133" s="13" t="s">
-        <v>271</v>
+      <c r="M133" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="N133" s="6">
         <f t="shared" si="38"/>
@@ -9989,15 +9988,15 @@
       </c>
       <c r="Q133"/>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" ht="16">
       <c r="A134" s="6">
         <v>9</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D134" s="6">
         <v>45</v>
@@ -10028,8 +10027,8 @@
         <v>90</v>
       </c>
       <c r="L134" s="6"/>
-      <c r="M134" s="13" t="s">
-        <v>306</v>
+      <c r="M134" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="N134" s="6">
         <f t="shared" si="38"/>
@@ -10084,7 +10083,7 @@
         <v>90</v>
       </c>
       <c r="L135" s="6"/>
-      <c r="M135" s="13"/>
+      <c r="M135" s="12"/>
       <c r="N135" s="6">
         <f t="shared" si="38"/>
         <v>1250</v>
@@ -10099,15 +10098,15 @@
       </c>
       <c r="Q135"/>
     </row>
-    <row r="136" spans="1:17" ht="27.6">
+    <row r="136" spans="1:17" ht="32">
       <c r="A136" s="6">
         <v>9</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D136" s="6">
         <v>20</v>
@@ -10140,7 +10139,7 @@
       <c r="L136" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M136" s="13">
+      <c r="M136" s="12">
         <v>70</v>
       </c>
       <c r="N136" s="6">
@@ -10196,7 +10195,7 @@
         <v>90</v>
       </c>
       <c r="L137" s="6"/>
-      <c r="M137" s="13"/>
+      <c r="M137" s="12"/>
       <c r="N137" s="6">
         <f>D137*E137</f>
         <v>2190</v>
@@ -10211,15 +10210,15 @@
       </c>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17" ht="27.6">
+    <row r="138" spans="1:17" ht="32">
       <c r="A138" s="1">
         <v>9</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D138" s="1">
         <v>4</v>
@@ -10304,7 +10303,7 @@
         <v>100</v>
       </c>
       <c r="L139" s="6"/>
-      <c r="M139" s="13"/>
+      <c r="M139" s="12"/>
       <c r="N139" s="6">
         <f t="shared" si="38"/>
         <v>1750</v>
@@ -10358,7 +10357,7 @@
         <v>100</v>
       </c>
       <c r="L140" s="6"/>
-      <c r="M140" s="13"/>
+      <c r="M140" s="12"/>
       <c r="N140" s="6">
         <f t="shared" si="38"/>
         <v>1840</v>
@@ -10412,7 +10411,7 @@
         <v>100</v>
       </c>
       <c r="L141" s="6"/>
-      <c r="M141" s="13"/>
+      <c r="M141" s="12"/>
       <c r="N141" s="6">
         <f t="shared" si="38"/>
         <v>1680</v>
@@ -10466,7 +10465,7 @@
         <v>110</v>
       </c>
       <c r="L142" s="6"/>
-      <c r="M142" s="13"/>
+      <c r="M142" s="12"/>
       <c r="N142" s="6">
         <f t="shared" si="38"/>
         <v>2550</v>
@@ -10481,15 +10480,15 @@
       </c>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" ht="16">
       <c r="A143" s="6">
         <v>9</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D143" s="6">
         <v>55</v>
@@ -10520,8 +10519,8 @@
         <v>110</v>
       </c>
       <c r="L143" s="6"/>
-      <c r="M143" s="13" t="s">
-        <v>307</v>
+      <c r="M143" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="N143" s="6">
         <f t="shared" si="38"/>
@@ -10537,15 +10536,15 @@
       </c>
       <c r="Q143"/>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" ht="16">
       <c r="A144" s="1">
         <v>9</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D144" s="1">
         <v>6</v>
@@ -10591,15 +10590,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="27.6">
+    <row r="145" spans="1:17" ht="32">
       <c r="A145" s="6">
         <v>9</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D145" s="6">
         <v>100</v>
@@ -10630,8 +10629,8 @@
         <v>120</v>
       </c>
       <c r="L145" s="6"/>
-      <c r="M145" s="13" t="s">
-        <v>267</v>
+      <c r="M145" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="N145" s="6">
         <f t="shared" si="38"/>
@@ -10686,7 +10685,7 @@
         <v>150</v>
       </c>
       <c r="L146" s="6"/>
-      <c r="M146" s="13"/>
+      <c r="M146" s="12"/>
       <c r="N146" s="6">
         <f t="shared" si="38"/>
         <v>7426</v>
@@ -10701,15 +10700,15 @@
       </c>
       <c r="Q146"/>
     </row>
-    <row r="147" spans="1:17" ht="27.6">
+    <row r="147" spans="1:17" ht="32">
       <c r="A147" s="1">
         <v>10</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D147" s="1">
         <v>10</v>
@@ -10755,15 +10754,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="27.6">
+    <row r="148" spans="1:17" ht="32">
       <c r="A148" s="1">
         <v>10</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D148" s="1">
         <v>10</v>
@@ -10850,7 +10849,7 @@
       <c r="L149" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M149" s="13"/>
+      <c r="M149" s="12"/>
       <c r="N149" s="6">
         <f t="shared" si="38"/>
         <v>300</v>
@@ -10865,15 +10864,15 @@
       </c>
       <c r="Q149"/>
     </row>
-    <row r="150" spans="1:17" ht="27.6">
+    <row r="150" spans="1:17" ht="32">
       <c r="A150" s="1">
         <v>10</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D150" s="6">
         <v>-35</v>
@@ -10904,7 +10903,7 @@
         <v>95</v>
       </c>
       <c r="L150" s="6"/>
-      <c r="M150" s="13"/>
+      <c r="M150" s="12"/>
       <c r="N150" s="6">
         <f t="shared" si="38"/>
         <v>-875</v>
@@ -10924,10 +10923,10 @@
         <v>10</v>
       </c>
       <c r="B151" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="D151" s="6">
         <v>20</v>
@@ -10960,7 +10959,7 @@
       <c r="L151" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M151" s="13"/>
+      <c r="M151" s="12"/>
       <c r="N151" s="6">
         <f t="shared" si="38"/>
         <v>360</v>
@@ -11014,7 +11013,7 @@
         <v>100</v>
       </c>
       <c r="L152" s="6"/>
-      <c r="M152" s="13"/>
+      <c r="M152" s="12"/>
       <c r="N152" s="6">
         <f t="shared" si="38"/>
         <v>1700</v>
@@ -11034,10 +11033,10 @@
         <v>10</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D153" s="6">
         <v>50</v>
@@ -11068,7 +11067,7 @@
         <v>105</v>
       </c>
       <c r="L153" s="6"/>
-      <c r="M153" s="13"/>
+      <c r="M153" s="12"/>
       <c r="N153" s="6">
         <f t="shared" si="38"/>
         <v>2500</v>
@@ -11083,15 +11082,15 @@
       </c>
       <c r="Q153"/>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" ht="16">
       <c r="A154" s="6">
         <v>10</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D154" s="1">
         <v>80</v>
@@ -11122,7 +11121,7 @@
         <v>110</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N154" s="1">
         <f t="shared" si="38"/>
@@ -11137,15 +11136,15 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" ht="16">
       <c r="A155" s="6">
         <v>10</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D155" s="1">
         <v>80</v>
@@ -11228,7 +11227,7 @@
         <v>150</v>
       </c>
       <c r="L156" s="6"/>
-      <c r="M156" s="13"/>
+      <c r="M156" s="12"/>
       <c r="N156" s="6">
         <f t="shared" ref="N156" si="52">D156*E156</f>
         <v>6600</v>
@@ -11247,10 +11246,10 @@
         <v>10</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D157" s="1">
         <v>100</v>
@@ -11293,15 +11292,15 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="27.6">
+    <row r="158" spans="1:17" ht="32">
       <c r="A158" s="1">
         <v>11</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D158" s="1">
         <v>35</v>
@@ -11344,15 +11343,15 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" ht="16">
       <c r="A159" s="1">
         <v>11</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D159" s="1">
         <v>44</v>
@@ -11395,15 +11394,15 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="27.6">
+    <row r="160" spans="1:17" ht="32">
       <c r="A160" s="1">
         <v>11</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D160" s="1">
         <v>60</v>
@@ -11446,15 +11445,15 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" ht="16">
       <c r="A161" s="1">
         <v>11</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D161" s="1">
         <v>66</v>
@@ -11497,15 +11496,15 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="27.6">
+    <row r="162" spans="1:17" ht="32">
       <c r="A162" s="1">
         <v>11</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D162" s="1">
         <v>67</v>
@@ -11589,7 +11588,7 @@
       <c r="L163" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M163" s="13"/>
+      <c r="M163" s="12"/>
       <c r="N163" s="6">
         <f t="shared" si="59"/>
         <v>400</v>
@@ -11604,15 +11603,15 @@
       </c>
       <c r="Q163"/>
     </row>
-    <row r="164" spans="1:17" ht="27.6">
+    <row r="164" spans="1:17" ht="32">
       <c r="A164" s="1">
         <v>11</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D164" s="6">
         <v>-44</v>
@@ -11643,7 +11642,7 @@
         <v>110</v>
       </c>
       <c r="L164" s="6"/>
-      <c r="M164" s="13"/>
+      <c r="M164" s="12"/>
       <c r="N164" s="6">
         <f t="shared" si="59"/>
         <v>-1320</v>
@@ -11658,15 +11657,15 @@
       </c>
       <c r="Q164"/>
     </row>
-    <row r="165" spans="1:17" ht="27.6">
+    <row r="165" spans="1:17" ht="32">
       <c r="A165" s="1">
         <v>11</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D165" s="1">
         <v>9</v>
@@ -11713,15 +11712,15 @@
       </c>
       <c r="Q165"/>
     </row>
-    <row r="166" spans="1:17" ht="27.6">
+    <row r="166" spans="1:17" ht="32">
       <c r="A166" s="6">
         <v>11</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D166" s="1">
         <v>9</v>
@@ -11808,7 +11807,7 @@
       <c r="L167" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="M167" s="13"/>
+      <c r="M167" s="12"/>
       <c r="N167" s="6">
         <f t="shared" ref="N167:N170" si="66">D167*E167</f>
         <v>9000</v>
@@ -11875,15 +11874,15 @@
       </c>
       <c r="Q168"/>
     </row>
-    <row r="169" spans="1:17" ht="27.6">
+    <row r="169" spans="1:17" ht="32">
       <c r="A169" s="1">
         <v>11</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="D169" s="1">
         <v>1</v>
@@ -11929,7 +11928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" ht="16">
       <c r="A170" s="6">
         <v>11</v>
       </c>
@@ -11997,28 +11996,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A7FBE3-B656-4EC5-AF69-64ED1D5A6239}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.5" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>187</v>
@@ -12030,336 +12029,336 @@
         <v>236</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="27.6">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="32">
       <c r="A2" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>160</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>238</v>
+      <c r="D2" s="15" t="s">
+        <v>521</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="18"/>
       <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="41.4">
+    <row r="3" spans="1:10" ht="48">
       <c r="A3" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B3" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>174</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>506</v>
+      <c r="D3" s="15" t="s">
+        <v>520</v>
       </c>
       <c r="E3" s="3">
         <v>30</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="18"/>
       <c r="G3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27.6">
+    <row r="4" spans="1:10" ht="32">
       <c r="A4" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>316</v>
+      <c r="D4" s="18" t="s">
+        <v>314</v>
       </c>
       <c r="E4" s="3">
         <v>100</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="18"/>
       <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="27.6">
+    <row r="5" spans="1:10" ht="32">
       <c r="A5" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>317</v>
+      <c r="D5" s="18" t="s">
+        <v>315</v>
       </c>
       <c r="E5" s="3">
         <v>100</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="18"/>
       <c r="G5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="27.6">
+    <row r="6" spans="1:10" ht="32">
       <c r="A6" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>318</v>
+      <c r="D6" s="18" t="s">
+        <v>316</v>
       </c>
       <c r="E6" s="3">
         <v>60</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="18"/>
       <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27.6">
+    <row r="7" spans="1:10" ht="32">
       <c r="A7" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>319</v>
+      <c r="D7" s="18" t="s">
+        <v>317</v>
       </c>
       <c r="E7" s="3">
         <v>100</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="18"/>
       <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="16">
       <c r="A8" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>320</v>
+      <c r="D8" s="18" t="s">
+        <v>318</v>
       </c>
       <c r="E8" s="3">
         <v>80</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="18"/>
       <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="27.6">
+    <row r="9" spans="1:10" ht="16">
       <c r="A9" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>321</v>
+      <c r="D9" s="18" t="s">
+        <v>319</v>
       </c>
       <c r="E9" s="3">
         <v>50</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="18"/>
       <c r="G9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.8">
+    <row r="10" spans="1:10" ht="17">
       <c r="A10" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>310</v>
+      <c r="D10" s="18" t="s">
+        <v>308</v>
       </c>
       <c r="E10" s="3">
         <v>75</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="18"/>
       <c r="G10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="16">
       <c r="A11" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B11" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>170</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>311</v>
+      <c r="D11" s="18" t="s">
+        <v>309</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="18"/>
       <c r="G11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B12" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>166</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>312</v>
+      <c r="D12" s="18" t="s">
+        <v>310</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="18"/>
       <c r="G12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B13" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>313</v>
+      <c r="D13" s="18" t="s">
+        <v>311</v>
       </c>
       <c r="E13" s="3">
         <v>360</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="18"/>
       <c r="G13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B14" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>172</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>314</v>
+      <c r="D14" s="18" t="s">
+        <v>312</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="18"/>
       <c r="G14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="27.6">
+    <row r="15" spans="1:10" ht="32">
       <c r="A15" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B15" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>132</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>524</v>
+      <c r="D15" s="18" t="s">
+        <v>515</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="18"/>
       <c r="G15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="27.6">
+    <row r="16" spans="1:10" ht="32">
       <c r="A16" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>408</v>
+        <v>341</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>522</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>521</v>
+      <c r="F16" s="18" t="s">
+        <v>512</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -12368,24 +12367,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27.6">
+    <row r="17" spans="1:9" ht="32">
       <c r="A17" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>407</v>
+        <v>342</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>523</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>522</v>
+      <c r="F17" s="18" t="s">
+        <v>513</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -12394,23 +12393,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="41.4">
+    <row r="18" spans="1:9" ht="48">
       <c r="A18" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B18" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>409</v>
+      <c r="C18" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>524</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="18"/>
       <c r="G18" t="b">
         <v>0</v>
       </c>
@@ -12418,66 +12417,66 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27.6">
+    <row r="19" spans="1:9" ht="32">
       <c r="A19" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>257</v>
+      <c r="D19" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="E19" s="3">
         <v>200</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="18"/>
       <c r="G19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27.6">
+    <row r="20" spans="1:9" ht="32">
       <c r="A20" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>257</v>
+      <c r="D20" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="18"/>
       <c r="G20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="409.6">
       <c r="A21" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>256</v>
+        <v>346</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>525</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>382</v>
+      <c r="F21" s="18" t="s">
+        <v>380</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -12486,18 +12485,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27.6">
+    <row r="22" spans="1:9" ht="32">
       <c r="A22" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C22" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>273</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -12508,83 +12507,83 @@
     </row>
     <row r="23" spans="1:9" ht="409.6">
       <c r="A23" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>289</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>291</v>
       </c>
       <c r="E23" s="3">
         <v>64</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>383</v>
+      <c r="F23" s="18" t="s">
+        <v>381</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="400.2">
+    <row r="24" spans="1:9" ht="409.6">
       <c r="A24" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>292</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>294</v>
       </c>
       <c r="E24" s="3">
         <v>60</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>297</v>
+      <c r="F24" s="18" t="s">
+        <v>295</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="16">
       <c r="A25" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>315</v>
+        <v>350</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>313</v>
       </c>
       <c r="E25" s="3">
         <v>5000</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="18"/>
       <c r="G25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27.6">
+    <row r="26" spans="1:9" ht="32">
       <c r="A26" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>326</v>
+        <v>320</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>324</v>
       </c>
       <c r="E26" s="1">
         <v>980299</v>
@@ -12593,18 +12592,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="27.6">
+    <row r="27" spans="1:9" ht="32">
       <c r="A27" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>323</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>325</v>
       </c>
       <c r="E27" s="1">
         <v>9802</v>
@@ -12613,44 +12612,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="41.4">
+    <row r="28" spans="1:9" ht="32">
       <c r="A28" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>324</v>
+        <v>360</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>322</v>
       </c>
       <c r="E28" s="1">
         <v>-1</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>363</v>
+      <c r="F28" s="18" t="s">
+        <v>361</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
-      <c r="H28" s="26" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="27.6">
+      <c r="H28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="32">
       <c r="A29" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>523</v>
+        <v>358</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>514</v>
       </c>
       <c r="E29" s="1">
         <v>3000</v>
@@ -12659,18 +12658,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="41.4">
+    <row r="30" spans="1:9" ht="32">
       <c r="A30" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>525</v>
+        <v>401</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>516</v>
       </c>
       <c r="E30" s="1">
         <v>3000</v>
@@ -12679,18 +12678,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="27.6">
+    <row r="31" spans="1:9" ht="32">
       <c r="A31" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>327</v>
+        <v>357</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>325</v>
       </c>
       <c r="E31" s="1">
         <v>1200</v>
@@ -12699,87 +12698,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="16">
       <c r="A32" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>365</v>
+        <v>398</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>363</v>
       </c>
       <c r="E32" s="1">
         <v>520</v>
       </c>
       <c r="F32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" ht="16">
       <c r="A33" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>364</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>366</v>
       </c>
       <c r="E33" s="1">
         <v>520</v>
       </c>
       <c r="F33" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" ht="16">
       <c r="A34" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>367</v>
+        <v>400</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>365</v>
       </c>
       <c r="E34" s="1">
         <v>520</v>
       </c>
       <c r="F34" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="27.6">
+    <row r="35" spans="1:9" ht="32">
       <c r="A35" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>404</v>
+        <v>369</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>402</v>
       </c>
       <c r="E35" s="1">
         <v>500</v>
@@ -12788,18 +12787,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="27.6">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="32">
       <c r="A36" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>422</v>
       </c>
       <c r="E36" s="1">
         <v>30</v>
@@ -12808,18 +12807,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" ht="27.6">
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="32">
       <c r="A37" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>429</v>
+        <v>423</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>424</v>
       </c>
       <c r="E37" s="1">
         <v>60</v>
@@ -12828,18 +12827,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" ht="27.6">
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="32">
       <c r="A38" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>426</v>
       </c>
       <c r="E38" s="1">
         <v>90</v>
@@ -12848,18 +12847,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" ht="27.6">
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="32">
       <c r="A39" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="C39" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>433</v>
+        <v>427</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>428</v>
       </c>
       <c r="E39" s="1">
         <v>120</v>
@@ -12868,18 +12867,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="30.6">
+    <row r="40" spans="1:9" ht="36">
       <c r="A40" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>472</v>
+        <v>419</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -12891,18 +12890,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" ht="27.6">
+    <row r="41" spans="1:9" s="3" customFormat="1" ht="32">
       <c r="A41" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>441</v>
+      <c r="D41" s="18" t="s">
+        <v>436</v>
       </c>
       <c r="E41" s="1">
         <v>10</v>
@@ -12911,24 +12910,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="82.8">
+    <row r="42" spans="1:9" ht="96">
       <c r="A42" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>471</v>
+        <v>460</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>526</v>
       </c>
       <c r="E42" s="1">
         <v>50</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -12936,18 +12935,18 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1">
+    <row r="43" spans="1:9" s="3" customFormat="1" ht="16">
       <c r="A43" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>466</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>473</v>
       </c>
       <c r="E43" s="1">
         <v>36</v>
@@ -12956,18 +12955,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="27.6">
+    <row r="44" spans="1:9" ht="32">
       <c r="A44" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>480</v>
+        <v>467</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>473</v>
       </c>
       <c r="E44" s="1">
         <v>3600</v>
@@ -12976,18 +12975,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="27.6">
+    <row r="45" spans="1:9" ht="32">
       <c r="A45" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>481</v>
+        <v>468</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>474</v>
       </c>
       <c r="E45" s="1">
         <v>3600</v>
@@ -12996,18 +12995,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="27.6">
+    <row r="46" spans="1:9" ht="32">
       <c r="A46" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>482</v>
+        <v>471</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>475</v>
       </c>
       <c r="E46" s="1">
         <v>50</v>
@@ -13016,18 +13015,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="27.6">
+    <row r="47" spans="1:9" ht="32">
       <c r="A47" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>483</v>
+        <v>472</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>476</v>
       </c>
       <c r="E47" s="1">
         <v>50</v>
@@ -13036,18 +13035,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="27.6">
+    <row r="48" spans="1:9" ht="32">
       <c r="A48" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>491</v>
+        <v>482</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>484</v>
       </c>
       <c r="E48" s="1">
         <v>90</v>
@@ -13056,18 +13055,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="27.6">
+    <row r="49" spans="1:10" ht="32">
       <c r="A49" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>485</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>492</v>
       </c>
       <c r="E49" s="1">
         <v>90</v>
@@ -13076,18 +13075,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="41.4">
+    <row r="50" spans="1:10" ht="48">
       <c r="A50" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>493</v>
+        <v>477</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>527</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -13099,18 +13098,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="27.6">
+    <row r="51" spans="1:10" ht="39">
       <c r="A51" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>499</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>501</v>
+        <v>490</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>493</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -13122,6 +13121,26 @@
         <v>1</v>
       </c>
       <c r="J51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="32">
+      <c r="A52" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13139,65 +13158,65 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="51.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="6" max="6" width="43.88671875" customWidth="1"/>
+    <col min="6" max="6" width="43.83203125" customWidth="1"/>
     <col min="8" max="8" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16">
       <c r="A1" s="1" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" ht="16">
       <c r="A2" s="1" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="鱼" sheetId="1" r:id="rId1"/>
@@ -6008,7 +6008,7 @@
     <t>WDIT币币</t>
   </si>
   <si>
-    <t>「WDIT BB 4.0」秋季限定：将你的枫叶按2:1的比例转换为闪亮的WDIT币币，每日限制购买30000币币</t>
+    <t>「地乌距离27亿」冬季限定：将你的雪币按2:1的比例转换为闪亮的WDIT币币，每日限制购买30000币币</t>
   </si>
   <si>
     <t>FISH-52</t>
@@ -7225,7 +7225,7 @@
   <dimension ref="A1:V195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="Q181" sqref="Q181"/>
     </sheetView>
@@ -17967,10 +17967,10 @@
   <sheetPr/>
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="$A43:$XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -18768,7 +18768,7 @@
       <c r="A36" t="s">
         <v>528</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>529</v>
       </c>
       <c r="C36" t="s">
@@ -18791,7 +18791,7 @@
       <c r="A37" t="s">
         <v>532</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>533</v>
       </c>
       <c r="C37" t="s">
@@ -18814,7 +18814,7 @@
       <c r="A38" t="s">
         <v>536</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C38" t="s">
@@ -18837,7 +18837,7 @@
       <c r="A39" t="s">
         <v>540</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>541</v>
       </c>
       <c r="C39" t="s">
@@ -18860,7 +18860,7 @@
       <c r="A40" t="s">
         <v>544</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>545</v>
       </c>
       <c r="C40" t="s">
@@ -18886,7 +18886,7 @@
       <c r="A41" t="s">
         <v>547</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>548</v>
       </c>
       <c r="C41" t="s">

--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Project/github/HuYanEconomy/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DCEFA6-F566-C04E-8643-F4BC3B9C45C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDE1EAF-240F-5A4C-A0DC-32D50760EF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11401,9 +11401,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -11415,6 +11412,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22475,8 +22475,8 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -23459,6 +23459,9 @@
       <c r="G43" t="b">
         <v>0</v>
       </c>
+      <c r="L43" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="32">
       <c r="A44" s="1" t="s">
@@ -23467,7 +23470,7 @@
       <c r="B44" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="28" t="s">
         <v>607</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -23490,7 +23493,7 @@
       <c r="B45" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="28" t="s">
         <v>607</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -23605,10 +23608,10 @@
       <c r="B50" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="30" t="s">
         <v>630</v>
       </c>
       <c r="E50" s="1">
@@ -23631,7 +23634,7 @@
       <c r="B51" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="31" t="s">
         <v>633</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -23950,22 +23953,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32" t="s">
         <v>453</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="16">
       <c r="A2" s="1" t="s">

--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Project/github/HuYanEconomy/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDE1EAF-240F-5A4C-A0DC-32D50760EF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8CA278-6206-D541-A342-5797FDB7166D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="637">
   <si>
     <t>等级</t>
   </si>
@@ -1561,9 +1561,6 @@
     <t>FISH-41</t>
   </si>
   <si>
-    <t>FISH-42</t>
-  </si>
-  <si>
     <t>兑换物品</t>
   </si>
   <si>
@@ -1628,14 +1625,6 @@
   </si>
   <si>
     <t>小螺号，瞎**吹，海鸥听了瞎**飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>响片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个动物训练的响片，散发着神奇的姐姐的光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1648,10 +1637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗品，使用后可以指定下一条姐姐的狗的目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10991,6 +10976,21 @@
   </si>
   <si>
     <t>「WDIT BB 4.0」秋季限定：消耗品，使用后鱼竿等级+1</t>
+  </si>
+  <si>
+    <t>FISH-42</t>
+  </si>
+  <si>
+    <t>响片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个动物训练的响片，散发着神奇的姐姐的光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品，使用后可以指定下一条姐姐的狗的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FISH-43</t>
@@ -11401,6 +11401,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -11412,9 +11415,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11730,11 +11730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V195"/>
+  <dimension ref="A1:V194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C195" sqref="C195"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11797,7 +11797,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>259</v>
@@ -12545,10 +12545,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="D15" s="1">
         <v>13</v>
@@ -14200,10 +14200,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D45" s="6">
         <v>1</v>
@@ -15318,10 +15318,10 @@
         <v>5</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="D65" s="1">
         <v>20</v>
@@ -16049,10 +16049,10 @@
         <v>6</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="D78" s="1">
         <v>13</v>
@@ -16100,10 +16100,10 @@
         <v>6</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D79" s="1">
         <v>49</v>
@@ -17667,10 +17667,10 @@
         <v>8</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>418</v>
       </c>
       <c r="D107" s="1">
         <v>10</v>
@@ -18020,19 +18020,19 @@
         <v>10</v>
       </c>
       <c r="G113" s="6">
-        <f t="shared" ref="G113:G144" si="32">E113</f>
+        <f t="shared" ref="G113:G143" si="32">E113</f>
         <v>10</v>
       </c>
       <c r="H113" s="6">
-        <f t="shared" ref="H113:H144" si="33">(F113-E113)*0.25+E113</f>
+        <f t="shared" ref="H113:H143" si="33">(F113-E113)*0.25+E113</f>
         <v>10</v>
       </c>
       <c r="I113" s="6">
-        <f t="shared" ref="I113:I144" si="34">(F113-E113)*0.5+E113</f>
+        <f t="shared" ref="I113:I143" si="34">(F113-E113)*0.5+E113</f>
         <v>10</v>
       </c>
       <c r="J113" s="6">
-        <f t="shared" ref="J113:J144" si="35">F113</f>
+        <f t="shared" ref="J113:J143" si="35">F113</f>
         <v>10</v>
       </c>
       <c r="K113" s="6">
@@ -18054,7 +18054,7 @@
         <v>200</v>
       </c>
       <c r="Q113" s="8">
-        <f t="shared" ref="Q113:Q144" si="36">AVERAGE(O113,P113)</f>
+        <f t="shared" ref="Q113:Q143" si="36">AVERAGE(O113,P113)</f>
         <v>200</v>
       </c>
       <c r="R113"/>
@@ -18508,10 +18508,10 @@
         <v>9</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="D122" s="1">
         <v>30</v>
@@ -18993,11 +18993,11 @@
       <c r="M130" s="6"/>
       <c r="N130" s="12"/>
       <c r="O130" s="6">
-        <f t="shared" ref="O130:O153" si="37">D130*E130</f>
+        <f t="shared" ref="O130:O152" si="37">D130*E130</f>
         <v>2190</v>
       </c>
       <c r="P130" s="6">
-        <f t="shared" ref="P130:P153" si="38">D130*F130</f>
+        <f t="shared" ref="P130:P152" si="38">D130*F130</f>
         <v>4672</v>
       </c>
       <c r="Q130" s="8">
@@ -19283,170 +19283,172 @@
       </c>
       <c r="R135"/>
     </row>
-    <row r="136" spans="1:18" ht="16">
-      <c r="A136" s="1">
+    <row r="136" spans="1:18" ht="32">
+      <c r="A136" s="6">
         <v>9</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>419</v>
+        <v>270</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D136" s="1">
-        <v>6</v>
-      </c>
-      <c r="E136" s="1">
-        <v>6</v>
-      </c>
-      <c r="F136" s="1">
-        <v>6</v>
-      </c>
-      <c r="G136" s="1">
-        <f t="shared" ref="G136" si="39">E136</f>
-        <v>6</v>
-      </c>
-      <c r="H136" s="1">
-        <f t="shared" ref="H136" si="40">(F136-E136)*0.25+E136</f>
-        <v>6</v>
-      </c>
-      <c r="I136" s="1">
-        <f t="shared" ref="I136" si="41">(F136-E136)*0.5+E136</f>
-        <v>6</v>
-      </c>
-      <c r="J136" s="1">
-        <f t="shared" ref="J136" si="42">F136</f>
-        <v>6</v>
-      </c>
-      <c r="K136" s="1">
+        <v>373</v>
+      </c>
+      <c r="D136" s="6">
+        <v>100</v>
+      </c>
+      <c r="E136" s="6">
+        <v>20</v>
+      </c>
+      <c r="F136" s="6">
+        <v>80</v>
+      </c>
+      <c r="G136" s="6">
+        <f t="shared" si="32"/>
+        <v>20</v>
+      </c>
+      <c r="H136" s="6">
+        <f t="shared" si="33"/>
+        <v>35</v>
+      </c>
+      <c r="I136" s="6">
+        <f t="shared" si="34"/>
+        <v>50</v>
+      </c>
+      <c r="J136" s="6">
+        <f t="shared" si="35"/>
+        <v>80</v>
+      </c>
+      <c r="K136" s="6">
         <v>120</v>
       </c>
-      <c r="L136" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="L136" s="6"/>
       <c r="M136" s="6"/>
-      <c r="O136" s="1">
+      <c r="N136" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="O136" s="6">
         <f t="shared" si="37"/>
-        <v>36</v>
-      </c>
-      <c r="P136" s="1">
+        <v>2000</v>
+      </c>
+      <c r="P136" s="6">
         <f t="shared" si="38"/>
-        <v>36</v>
-      </c>
-      <c r="Q136" s="1">
-        <f t="shared" ref="Q136" si="43">AVERAGE(O136,P136)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="32">
+        <v>8000</v>
+      </c>
+      <c r="Q136" s="8">
+        <f t="shared" si="36"/>
+        <v>5000</v>
+      </c>
+      <c r="R136"/>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" s="6">
         <v>9</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>373</v>
+      <c r="B137" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D137" s="6">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E137" s="6">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="F137" s="6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G137" s="6">
         <f t="shared" si="32"/>
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H137" s="6">
         <f t="shared" si="33"/>
-        <v>35</v>
+        <v>81.75</v>
       </c>
       <c r="I137" s="6">
         <f t="shared" si="34"/>
-        <v>50</v>
+        <v>84.5</v>
       </c>
       <c r="J137" s="6">
         <f t="shared" si="35"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K137" s="6">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
-      <c r="N137" s="12" t="s">
-        <v>261</v>
-      </c>
+      <c r="N137" s="12"/>
       <c r="O137" s="6">
         <f t="shared" si="37"/>
-        <v>2000</v>
+        <v>7426</v>
       </c>
       <c r="P137" s="6">
         <f t="shared" si="38"/>
-        <v>8000</v>
+        <v>8460</v>
       </c>
       <c r="Q137" s="8">
         <f t="shared" si="36"/>
-        <v>5000</v>
+        <v>7943</v>
       </c>
       <c r="R137"/>
     </row>
     <row r="138" spans="1:18">
       <c r="A138" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D138" s="6">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E138" s="6">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="F138" s="6">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G138" s="6">
         <f t="shared" si="32"/>
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="H138" s="6">
         <f t="shared" si="33"/>
-        <v>81.75</v>
+        <v>15</v>
       </c>
       <c r="I138" s="6">
         <f t="shared" si="34"/>
-        <v>84.5</v>
+        <v>15</v>
       </c>
       <c r="J138" s="6">
         <f t="shared" si="35"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="K138" s="6">
-        <v>150</v>
-      </c>
-      <c r="L138" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="L138" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="M138" s="6"/>
       <c r="N138" s="12"/>
       <c r="O138" s="6">
         <f t="shared" si="37"/>
-        <v>7426</v>
+        <v>300</v>
       </c>
       <c r="P138" s="6">
         <f t="shared" si="38"/>
-        <v>8460</v>
+        <v>300</v>
       </c>
       <c r="Q138" s="8">
         <f t="shared" si="36"/>
-        <v>7943</v>
+        <v>300</v>
       </c>
       <c r="R138"/>
     </row>
@@ -19455,38 +19457,38 @@
         <v>10</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="D139" s="6">
         <v>20</v>
       </c>
       <c r="E139" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F139" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G139" s="6">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H139" s="6">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I139" s="6">
         <f t="shared" si="34"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J139" s="6">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K139" s="6">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L139" s="6" t="b">
         <v>1</v>
@@ -19495,15 +19497,15 @@
       <c r="N139" s="12"/>
       <c r="O139" s="6">
         <f t="shared" si="37"/>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="P139" s="6">
         <f t="shared" si="38"/>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="Q139" s="8">
         <f t="shared" si="36"/>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="R139"/>
     </row>
@@ -19512,55 +19514,53 @@
         <v>10</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="D140" s="6">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E140" s="6">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F140" s="6">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G140" s="6">
         <f t="shared" si="32"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H140" s="6">
         <f t="shared" si="33"/>
-        <v>18</v>
+        <v>32.5</v>
       </c>
       <c r="I140" s="6">
         <f t="shared" si="34"/>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J140" s="6">
         <f t="shared" si="35"/>
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K140" s="6">
         <v>100</v>
       </c>
-      <c r="L140" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="L140" s="6"/>
       <c r="M140" s="6"/>
       <c r="N140" s="12"/>
       <c r="O140" s="6">
         <f t="shared" si="37"/>
-        <v>360</v>
+        <v>2160</v>
       </c>
       <c r="P140" s="6">
         <f t="shared" si="38"/>
-        <v>360</v>
+        <v>3920</v>
       </c>
       <c r="Q140" s="8">
         <f t="shared" si="36"/>
-        <v>360</v>
+        <v>3040</v>
       </c>
       <c r="R140"/>
     </row>
@@ -19569,320 +19569,322 @@
         <v>10</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="D141" s="6">
+        <v>40</v>
+      </c>
+      <c r="E141" s="6">
+        <v>60</v>
+      </c>
+      <c r="F141" s="6">
         <v>80</v>
-      </c>
-      <c r="E141" s="6">
-        <v>27</v>
-      </c>
-      <c r="F141" s="6">
-        <v>49</v>
       </c>
       <c r="G141" s="6">
         <f t="shared" si="32"/>
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="H141" s="6">
         <f t="shared" si="33"/>
-        <v>32.5</v>
+        <v>65</v>
       </c>
       <c r="I141" s="6">
         <f t="shared" si="34"/>
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="J141" s="6">
         <f t="shared" si="35"/>
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="K141" s="6">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L141" s="6"/>
       <c r="M141" s="6"/>
       <c r="N141" s="12"/>
       <c r="O141" s="6">
         <f t="shared" si="37"/>
-        <v>2160</v>
+        <v>2400</v>
       </c>
       <c r="P141" s="6">
         <f t="shared" si="38"/>
-        <v>3920</v>
+        <v>3200</v>
       </c>
       <c r="Q141" s="8">
         <f t="shared" si="36"/>
-        <v>3040</v>
+        <v>2800</v>
       </c>
       <c r="R141"/>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" ht="16">
       <c r="A142" s="6">
         <v>10</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D142" s="6">
-        <v>40</v>
-      </c>
-      <c r="E142" s="6">
+      <c r="B142" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D142" s="1">
+        <v>70</v>
+      </c>
+      <c r="E142" s="1">
+        <v>50</v>
+      </c>
+      <c r="F142" s="1">
+        <v>70</v>
+      </c>
+      <c r="G142" s="1">
+        <f t="shared" si="32"/>
+        <v>50</v>
+      </c>
+      <c r="H142" s="1">
+        <f t="shared" si="33"/>
+        <v>55</v>
+      </c>
+      <c r="I142" s="1">
+        <f t="shared" si="34"/>
         <v>60</v>
       </c>
-      <c r="F142" s="6">
-        <v>80</v>
-      </c>
-      <c r="G142" s="6">
-        <f t="shared" si="32"/>
-        <v>60</v>
-      </c>
-      <c r="H142" s="6">
-        <f t="shared" si="33"/>
-        <v>65</v>
-      </c>
-      <c r="I142" s="6">
-        <f t="shared" si="34"/>
+      <c r="J142" s="1">
+        <f t="shared" si="35"/>
         <v>70</v>
       </c>
-      <c r="J142" s="6">
-        <f t="shared" si="35"/>
-        <v>80</v>
-      </c>
-      <c r="K142" s="6">
-        <v>105</v>
-      </c>
-      <c r="L142" s="6"/>
-      <c r="M142" s="6"/>
-      <c r="N142" s="12"/>
-      <c r="O142" s="6">
+      <c r="K142" s="1">
+        <v>110</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="O142" s="1">
         <f t="shared" si="37"/>
-        <v>2400</v>
-      </c>
-      <c r="P142" s="6">
+        <v>3500</v>
+      </c>
+      <c r="P142" s="1">
         <f t="shared" si="38"/>
-        <v>3200</v>
-      </c>
-      <c r="Q142" s="8">
+        <v>4900</v>
+      </c>
+      <c r="Q142" s="1">
         <f t="shared" si="36"/>
-        <v>2800</v>
-      </c>
-      <c r="R142"/>
+        <v>4200</v>
+      </c>
     </row>
     <row r="143" spans="1:18" ht="16">
       <c r="A143" s="6">
         <v>10</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>379</v>
+        <v>294</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="D143" s="1">
         <v>70</v>
       </c>
       <c r="E143" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F143" s="1">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="G143" s="1">
         <f t="shared" si="32"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H143" s="1">
         <f t="shared" si="33"/>
-        <v>55</v>
+        <v>77.5</v>
       </c>
       <c r="I143" s="1">
         <f t="shared" si="34"/>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" si="35"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K143" s="1">
-        <v>110</v>
-      </c>
-      <c r="N143" s="3" t="s">
-        <v>302</v>
+        <v>140</v>
       </c>
       <c r="O143" s="1">
         <f t="shared" si="37"/>
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="P143" s="1">
         <f t="shared" si="38"/>
-        <v>4900</v>
+        <v>9100</v>
       </c>
       <c r="Q143" s="1">
         <f t="shared" si="36"/>
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="16">
+        <v>6650</v>
+      </c>
+      <c r="R143"/>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" s="6">
         <v>10</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D144" s="1">
-        <v>70</v>
-      </c>
-      <c r="E144" s="1">
-        <v>60</v>
-      </c>
-      <c r="F144" s="1">
+      <c r="B144" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G144" s="1">
-        <f t="shared" si="32"/>
-        <v>60</v>
-      </c>
-      <c r="H144" s="1">
-        <f t="shared" si="33"/>
-        <v>77.5</v>
-      </c>
-      <c r="I144" s="1">
-        <f t="shared" si="34"/>
-        <v>95</v>
-      </c>
-      <c r="J144" s="1">
-        <f t="shared" si="35"/>
-        <v>130</v>
-      </c>
-      <c r="K144" s="1">
-        <v>140</v>
-      </c>
-      <c r="O144" s="1">
+      <c r="C144" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D144" s="6">
+        <v>90</v>
+      </c>
+      <c r="E144" s="6">
+        <v>76</v>
+      </c>
+      <c r="F144" s="6">
+        <v>109</v>
+      </c>
+      <c r="G144" s="6">
+        <f t="shared" ref="G144" si="39">E144</f>
+        <v>76</v>
+      </c>
+      <c r="H144" s="6">
+        <f t="shared" ref="H144" si="40">(F144-E144)*0.25+E144</f>
+        <v>84.25</v>
+      </c>
+      <c r="I144" s="6">
+        <f t="shared" ref="I144" si="41">(F144-E144)*0.5+E144</f>
+        <v>92.5</v>
+      </c>
+      <c r="J144" s="6">
+        <f t="shared" ref="J144" si="42">F144</f>
+        <v>109</v>
+      </c>
+      <c r="K144" s="6">
+        <v>150</v>
+      </c>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="6">
         <f t="shared" si="37"/>
-        <v>4200</v>
-      </c>
-      <c r="P144" s="1">
+        <v>6840</v>
+      </c>
+      <c r="P144" s="6">
         <f t="shared" si="38"/>
-        <v>9100</v>
-      </c>
-      <c r="Q144" s="1">
-        <f t="shared" si="36"/>
-        <v>6650</v>
-      </c>
-      <c r="R144"/>
+        <v>9810</v>
+      </c>
+      <c r="Q144" s="8">
+        <f t="shared" ref="Q144" si="43">AVERAGE(O144,P144)</f>
+        <v>8325</v>
+      </c>
     </row>
     <row r="145" spans="1:18">
       <c r="A145" s="6">
         <v>10</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D145" s="6">
+      <c r="B145" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D145" s="1">
         <v>90</v>
       </c>
-      <c r="E145" s="6">
-        <v>76</v>
-      </c>
-      <c r="F145" s="6">
-        <v>109</v>
-      </c>
-      <c r="G145" s="6">
-        <f t="shared" ref="G145" si="44">E145</f>
-        <v>76</v>
-      </c>
-      <c r="H145" s="6">
-        <f t="shared" ref="H145" si="45">(F145-E145)*0.25+E145</f>
-        <v>84.25</v>
-      </c>
-      <c r="I145" s="6">
-        <f t="shared" ref="I145" si="46">(F145-E145)*0.5+E145</f>
-        <v>92.5</v>
-      </c>
-      <c r="J145" s="6">
-        <f t="shared" ref="J145" si="47">F145</f>
-        <v>109</v>
-      </c>
-      <c r="K145" s="6">
+      <c r="E145" s="1">
+        <v>90</v>
+      </c>
+      <c r="F145" s="1">
+        <v>160</v>
+      </c>
+      <c r="G145" s="1">
+        <f t="shared" ref="G145:G150" si="44">E145</f>
+        <v>90</v>
+      </c>
+      <c r="H145" s="1">
+        <f t="shared" ref="H145:H150" si="45">(F145-E145)*0.25+E145</f>
+        <v>107.5</v>
+      </c>
+      <c r="I145" s="1">
+        <f t="shared" ref="I145:I150" si="46">(F145-E145)*0.5+E145</f>
+        <v>125</v>
+      </c>
+      <c r="J145" s="1">
+        <f t="shared" ref="J145:J150" si="47">F145</f>
+        <v>160</v>
+      </c>
+      <c r="K145" s="1">
         <v>150</v>
       </c>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
-      <c r="N145" s="12"/>
-      <c r="O145" s="6">
+      <c r="O145" s="1">
         <f t="shared" si="37"/>
-        <v>6840</v>
-      </c>
-      <c r="P145" s="6">
+        <v>8100</v>
+      </c>
+      <c r="P145" s="1">
         <f t="shared" si="38"/>
-        <v>9810</v>
-      </c>
-      <c r="Q145" s="8">
-        <f t="shared" ref="Q145" si="48">AVERAGE(O145,P145)</f>
-        <v>8325</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18">
+        <v>14400</v>
+      </c>
+      <c r="Q145" s="1">
+        <f t="shared" ref="Q145:Q150" si="48">AVERAGE(O145,P145)</f>
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="162">
       <c r="A146" s="6">
         <v>10</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>299</v>
+        <v>517</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>563</v>
       </c>
       <c r="D146" s="1">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E146" s="1">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="F146" s="1">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G146" s="1">
-        <f t="shared" ref="G146:G151" si="49">E146</f>
-        <v>90</v>
+        <f t="shared" si="44"/>
+        <v>20</v>
       </c>
       <c r="H146" s="1">
-        <f t="shared" ref="H146:H151" si="50">(F146-E146)*0.25+E146</f>
-        <v>107.5</v>
+        <f t="shared" si="45"/>
+        <v>20</v>
       </c>
       <c r="I146" s="1">
-        <f t="shared" ref="I146:I151" si="51">(F146-E146)*0.5+E146</f>
-        <v>125</v>
+        <f t="shared" si="46"/>
+        <v>20</v>
       </c>
       <c r="J146" s="1">
-        <f t="shared" ref="J146:J151" si="52">F146</f>
-        <v>160</v>
+        <f t="shared" si="47"/>
+        <v>20</v>
       </c>
       <c r="K146" s="1">
-        <v>150</v>
+        <v>100</v>
+      </c>
+      <c r="L146" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>559</v>
       </c>
       <c r="O146" s="1">
         <f t="shared" si="37"/>
-        <v>8100</v>
+        <v>20</v>
       </c>
       <c r="P146" s="1">
         <f t="shared" si="38"/>
-        <v>14400</v>
+        <v>20</v>
       </c>
       <c r="Q146" s="1">
-        <f t="shared" ref="Q146:Q151" si="53">AVERAGE(O146,P146)</f>
-        <v>11250</v>
+        <f t="shared" si="48"/>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="162">
@@ -19890,10 +19892,10 @@
         <v>10</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>521</v>
+        <v>451</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -19905,29 +19907,29 @@
         <v>20</v>
       </c>
       <c r="G147" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="G147" si="49">E147</f>
         <v>20</v>
       </c>
       <c r="H147" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="H147" si="50">(F147-E147)*0.25+E147</f>
         <v>20</v>
       </c>
       <c r="I147" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="I147" si="51">(F147-E147)*0.5+E147</f>
         <v>20</v>
       </c>
       <c r="J147" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="J147" si="52">F147</f>
         <v>20</v>
       </c>
       <c r="K147" s="1">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="L147" s="6" t="b">
         <v>1</v>
       </c>
       <c r="M147" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="O147" s="1">
         <f t="shared" si="37"/>
@@ -19938,65 +19940,59 @@
         <v>20</v>
       </c>
       <c r="Q147" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="Q147" si="53">AVERAGE(O147,P147)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="162">
-      <c r="A148" s="6">
-        <v>10</v>
+    <row r="148" spans="1:18" ht="16">
+      <c r="A148" s="1">
+        <v>11</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>568</v>
+        <v>402</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="D148" s="1">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E148" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F148" s="1">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G148" s="1">
-        <f t="shared" ref="G148" si="54">E148</f>
-        <v>20</v>
+        <f t="shared" si="44"/>
+        <v>35</v>
       </c>
       <c r="H148" s="1">
-        <f t="shared" ref="H148" si="55">(F148-E148)*0.25+E148</f>
-        <v>20</v>
+        <f t="shared" si="45"/>
+        <v>40</v>
       </c>
       <c r="I148" s="1">
-        <f t="shared" ref="I148" si="56">(F148-E148)*0.5+E148</f>
-        <v>20</v>
+        <f t="shared" si="46"/>
+        <v>45</v>
       </c>
       <c r="J148" s="1">
-        <f t="shared" ref="J148" si="57">F148</f>
-        <v>20</v>
+        <f t="shared" si="47"/>
+        <v>55</v>
       </c>
       <c r="K148" s="1">
-        <v>115</v>
-      </c>
-      <c r="L148" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M148" s="6" t="s">
-        <v>564</v>
+        <v>90</v>
       </c>
       <c r="O148" s="1">
         <f t="shared" si="37"/>
-        <v>20</v>
+        <v>1540</v>
       </c>
       <c r="P148" s="1">
         <f t="shared" si="38"/>
-        <v>20</v>
+        <v>2420</v>
       </c>
       <c r="Q148" s="1">
-        <f t="shared" ref="Q148" si="58">AVERAGE(O148,P148)</f>
-        <v>20</v>
+        <f t="shared" si="48"/>
+        <v>1980</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="16">
@@ -20010,7 +20006,7 @@
         <v>405</v>
       </c>
       <c r="D149" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E149" s="1">
         <v>35</v>
@@ -20019,125 +20015,131 @@
         <v>55</v>
       </c>
       <c r="G149" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>35</v>
       </c>
       <c r="H149" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>40</v>
       </c>
       <c r="I149" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>45</v>
       </c>
       <c r="J149" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>55</v>
       </c>
       <c r="K149" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O149" s="1">
         <f t="shared" si="37"/>
-        <v>1540</v>
+        <v>2310</v>
       </c>
       <c r="P149" s="1">
         <f t="shared" si="38"/>
-        <v>2420</v>
+        <v>3630</v>
       </c>
       <c r="Q149" s="1">
-        <f t="shared" si="53"/>
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" ht="16">
-      <c r="A150" s="1">
+        <f t="shared" si="48"/>
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
+      <c r="A150" s="6">
         <v>11</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D150" s="1">
-        <v>66</v>
-      </c>
-      <c r="E150" s="1">
-        <v>35</v>
-      </c>
-      <c r="F150" s="1">
-        <v>55</v>
-      </c>
-      <c r="G150" s="1">
-        <f t="shared" si="49"/>
-        <v>35</v>
-      </c>
-      <c r="H150" s="1">
-        <f t="shared" si="50"/>
-        <v>40</v>
-      </c>
-      <c r="I150" s="1">
-        <f t="shared" si="51"/>
-        <v>45</v>
-      </c>
-      <c r="J150" s="1">
-        <f t="shared" si="52"/>
-        <v>55</v>
-      </c>
-      <c r="K150" s="1">
-        <v>95</v>
-      </c>
-      <c r="O150" s="1">
+      <c r="B150" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D150" s="6">
+        <v>20</v>
+      </c>
+      <c r="E150" s="6">
+        <v>20</v>
+      </c>
+      <c r="F150" s="6">
+        <v>20</v>
+      </c>
+      <c r="G150" s="6">
+        <f t="shared" si="44"/>
+        <v>20</v>
+      </c>
+      <c r="H150" s="6">
+        <f t="shared" si="45"/>
+        <v>20</v>
+      </c>
+      <c r="I150" s="6">
+        <f t="shared" si="46"/>
+        <v>20</v>
+      </c>
+      <c r="J150" s="6">
+        <f t="shared" si="47"/>
+        <v>20</v>
+      </c>
+      <c r="K150" s="6">
+        <v>110</v>
+      </c>
+      <c r="L150" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M150" s="6"/>
+      <c r="N150" s="12"/>
+      <c r="O150" s="6">
         <f t="shared" si="37"/>
-        <v>2310</v>
-      </c>
-      <c r="P150" s="1">
+        <v>400</v>
+      </c>
+      <c r="P150" s="6">
         <f t="shared" si="38"/>
-        <v>3630</v>
-      </c>
-      <c r="Q150" s="1">
-        <f t="shared" si="53"/>
-        <v>2970</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="Q150" s="8">
+        <f t="shared" si="48"/>
+        <v>400</v>
+      </c>
+      <c r="R150"/>
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="6">
         <v>11</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="D151" s="6">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="E151" s="6">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F151" s="6">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G151" s="6">
-        <f t="shared" si="49"/>
-        <v>20</v>
+        <f t="shared" ref="G151" si="54">E151</f>
+        <v>75</v>
       </c>
       <c r="H151" s="6">
-        <f t="shared" si="50"/>
-        <v>20</v>
+        <f t="shared" ref="H151" si="55">(F151-E151)*0.25+E151</f>
+        <v>78.75</v>
       </c>
       <c r="I151" s="6">
-        <f t="shared" si="51"/>
-        <v>20</v>
+        <f t="shared" ref="I151" si="56">(F151-E151)*0.5+E151</f>
+        <v>82.5</v>
       </c>
       <c r="J151" s="6">
-        <f t="shared" si="52"/>
-        <v>20</v>
+        <f t="shared" ref="J151" si="57">F151</f>
+        <v>90</v>
       </c>
       <c r="K151" s="6">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="L151" s="6" t="b">
         <v>1</v>
@@ -20146,15 +20148,15 @@
       <c r="N151" s="12"/>
       <c r="O151" s="6">
         <f t="shared" si="37"/>
-        <v>400</v>
+        <v>9000</v>
       </c>
       <c r="P151" s="6">
         <f t="shared" si="38"/>
-        <v>400</v>
+        <v>10800</v>
       </c>
       <c r="Q151" s="8">
-        <f t="shared" si="53"/>
-        <v>400</v>
+        <f t="shared" ref="Q151" si="58">AVERAGE(O151,P151)</f>
+        <v>9900</v>
       </c>
       <c r="R151"/>
     </row>
@@ -20163,107 +20165,108 @@
         <v>11</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D152" s="6">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E152" s="6">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F152" s="6">
         <v>90</v>
       </c>
-      <c r="G152" s="6">
-        <f t="shared" ref="G152" si="59">E152</f>
-        <v>75</v>
-      </c>
-      <c r="H152" s="6">
-        <f t="shared" ref="H152" si="60">(F152-E152)*0.25+E152</f>
-        <v>78.75</v>
-      </c>
-      <c r="I152" s="6">
-        <f t="shared" ref="I152" si="61">(F152-E152)*0.5+E152</f>
-        <v>82.5</v>
-      </c>
-      <c r="J152" s="6">
-        <f t="shared" ref="J152" si="62">F152</f>
+      <c r="G152" s="1">
+        <f>E152</f>
+        <v>45</v>
+      </c>
+      <c r="H152" s="1">
+        <f>(F152-E152)*0.25+E152</f>
+        <v>56.25</v>
+      </c>
+      <c r="I152" s="1">
+        <f>(F152-E152)*0.5+E152</f>
+        <v>67.5</v>
+      </c>
+      <c r="J152" s="1">
+        <f>F152</f>
         <v>90</v>
       </c>
-      <c r="K152" s="6">
+      <c r="K152" s="1">
         <v>150</v>
       </c>
-      <c r="L152" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M152" s="6"/>
-      <c r="N152" s="12"/>
       <c r="O152" s="6">
         <f t="shared" si="37"/>
         <v>9000</v>
       </c>
       <c r="P152" s="6">
         <f t="shared" si="38"/>
-        <v>10800</v>
+        <v>18000</v>
       </c>
       <c r="Q152" s="8">
-        <f t="shared" ref="Q152" si="63">AVERAGE(O152,P152)</f>
-        <v>9900</v>
+        <f t="shared" ref="Q152" si="59">AVERAGE(O152,P152)</f>
+        <v>13500</v>
       </c>
       <c r="R152"/>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" ht="162">
       <c r="A153" s="6">
         <v>11</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D153" s="6">
-        <v>200</v>
-      </c>
-      <c r="E153" s="6">
-        <v>45</v>
-      </c>
-      <c r="F153" s="6">
-        <v>90</v>
+      <c r="B153" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1</v>
+      </c>
+      <c r="E153" s="1">
+        <v>20</v>
+      </c>
+      <c r="F153" s="1">
+        <v>20</v>
       </c>
       <c r="G153" s="1">
-        <f>E153</f>
-        <v>45</v>
+        <f t="shared" ref="G153:G162" si="60">E153</f>
+        <v>20</v>
       </c>
       <c r="H153" s="1">
-        <f>(F153-E153)*0.25+E153</f>
-        <v>56.25</v>
+        <f t="shared" ref="H153:H162" si="61">(F153-E153)*0.25+E153</f>
+        <v>20</v>
       </c>
       <c r="I153" s="1">
-        <f>(F153-E153)*0.5+E153</f>
-        <v>67.5</v>
+        <f t="shared" ref="I153:I162" si="62">(F153-E153)*0.5+E153</f>
+        <v>20</v>
       </c>
       <c r="J153" s="1">
-        <f>F153</f>
-        <v>90</v>
+        <f t="shared" ref="J153:J162" si="63">F153</f>
+        <v>20</v>
       </c>
       <c r="K153" s="1">
-        <v>150</v>
+        <v>130</v>
+      </c>
+      <c r="L153" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>560</v>
       </c>
       <c r="O153" s="6">
-        <f t="shared" si="37"/>
-        <v>9000</v>
+        <f t="shared" ref="O153:O154" si="64">D153*E153</f>
+        <v>20</v>
       </c>
       <c r="P153" s="6">
-        <f t="shared" si="38"/>
-        <v>18000</v>
+        <f t="shared" ref="P153:P154" si="65">D153*F153</f>
+        <v>20</v>
       </c>
       <c r="Q153" s="8">
-        <f t="shared" ref="Q153" si="64">AVERAGE(O153,P153)</f>
-        <v>13500</v>
+        <f t="shared" ref="Q153:Q154" si="66">AVERAGE(O153,P153)</f>
+        <v>20</v>
       </c>
       <c r="R153"/>
     </row>
@@ -20272,10 +20275,10 @@
         <v>11</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D154" s="1">
         <v>1</v>
@@ -20287,151 +20290,144 @@
         <v>20</v>
       </c>
       <c r="G154" s="1">
-        <f t="shared" ref="G154:G163" si="65">E154</f>
+        <f t="shared" si="60"/>
         <v>20</v>
       </c>
       <c r="H154" s="1">
-        <f t="shared" ref="H154:H163" si="66">(F154-E154)*0.25+E154</f>
+        <f t="shared" si="61"/>
         <v>20</v>
       </c>
       <c r="I154" s="1">
-        <f t="shared" ref="I154:I163" si="67">(F154-E154)*0.5+E154</f>
+        <f t="shared" si="62"/>
         <v>20</v>
       </c>
       <c r="J154" s="1">
-        <f t="shared" ref="J154:J163" si="68">F154</f>
+        <f t="shared" si="63"/>
         <v>20</v>
       </c>
       <c r="K154" s="1">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="L154" s="6" t="b">
         <v>1</v>
       </c>
       <c r="M154" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="O154" s="6">
-        <f t="shared" ref="O154:O155" si="69">D154*E154</f>
+        <f t="shared" si="64"/>
         <v>20</v>
       </c>
       <c r="P154" s="6">
-        <f t="shared" ref="P154:P155" si="70">D154*F154</f>
-        <v>20</v>
-      </c>
-      <c r="Q154" s="8">
-        <f t="shared" ref="Q154:Q155" si="71">AVERAGE(O154,P154)</f>
-        <v>20</v>
-      </c>
-      <c r="R154"/>
-    </row>
-    <row r="155" spans="1:18" ht="162">
-      <c r="A155" s="6">
-        <v>11</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="D155" s="1">
-        <v>1</v>
-      </c>
-      <c r="E155" s="1">
-        <v>20</v>
-      </c>
-      <c r="F155" s="1">
-        <v>20</v>
-      </c>
-      <c r="G155" s="1">
         <f t="shared" si="65"/>
         <v>20</v>
       </c>
-      <c r="H155" s="1">
+      <c r="Q154" s="8">
         <f t="shared" si="66"/>
         <v>20</v>
       </c>
+      <c r="R154"/>
+    </row>
+    <row r="155" spans="1:18" ht="16">
+      <c r="A155" s="1">
+        <v>12</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D155" s="1">
+        <v>24</v>
+      </c>
+      <c r="E155" s="1">
+        <v>35</v>
+      </c>
+      <c r="F155" s="1">
+        <v>75</v>
+      </c>
+      <c r="G155" s="1">
+        <f t="shared" si="60"/>
+        <v>35</v>
+      </c>
+      <c r="H155" s="1">
+        <f t="shared" si="61"/>
+        <v>45</v>
+      </c>
       <c r="I155" s="1">
-        <f t="shared" si="67"/>
-        <v>20</v>
+        <f t="shared" si="62"/>
+        <v>55</v>
       </c>
       <c r="J155" s="1">
-        <f t="shared" si="68"/>
-        <v>20</v>
+        <f t="shared" si="63"/>
+        <v>75</v>
       </c>
       <c r="K155" s="1">
-        <v>145</v>
-      </c>
-      <c r="L155" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M155" s="6" t="s">
-        <v>565</v>
+        <v>120</v>
       </c>
       <c r="O155" s="6">
-        <f t="shared" si="69"/>
-        <v>20</v>
+        <f>D155*E155</f>
+        <v>840</v>
       </c>
       <c r="P155" s="6">
-        <f t="shared" si="70"/>
-        <v>20</v>
+        <f>D155*F155</f>
+        <v>1800</v>
       </c>
       <c r="Q155" s="8">
-        <f t="shared" si="71"/>
-        <v>20</v>
-      </c>
-      <c r="R155"/>
+        <f t="shared" ref="Q155" si="67">AVERAGE(O155,P155)</f>
+        <v>1320</v>
+      </c>
     </row>
     <row r="156" spans="1:18" ht="16">
       <c r="A156" s="1">
         <v>12</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D156" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E156" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F156" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G156" s="1">
-        <f t="shared" si="65"/>
-        <v>35</v>
+        <f t="shared" si="60"/>
+        <v>30</v>
       </c>
       <c r="H156" s="1">
-        <f t="shared" si="66"/>
-        <v>45</v>
+        <f t="shared" si="61"/>
+        <v>42.5</v>
       </c>
       <c r="I156" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>55</v>
       </c>
       <c r="J156" s="1">
-        <f t="shared" si="68"/>
-        <v>75</v>
+        <f t="shared" si="63"/>
+        <v>80</v>
       </c>
       <c r="K156" s="1">
         <v>120</v>
       </c>
       <c r="O156" s="6">
-        <f>D156*E156</f>
-        <v>840</v>
+        <f t="shared" ref="O156:O165" si="68">D156*E156</f>
+        <v>900</v>
       </c>
       <c r="P156" s="6">
-        <f>D156*F156</f>
-        <v>1800</v>
+        <f t="shared" ref="P156:P165" si="69">D156*F156</f>
+        <v>2400</v>
       </c>
       <c r="Q156" s="8">
-        <f t="shared" ref="Q156" si="72">AVERAGE(O156,P156)</f>
-        <v>1320</v>
+        <f t="shared" ref="Q156:Q165" si="70">AVERAGE(O156,P156)</f>
+        <v>1650</v>
       </c>
     </row>
     <row r="157" spans="1:18" ht="16">
@@ -20439,155 +20435,155 @@
         <v>12</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D157" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E157" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F157" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G157" s="1">
-        <f t="shared" si="65"/>
-        <v>30</v>
+        <f t="shared" si="60"/>
+        <v>35</v>
       </c>
       <c r="H157" s="1">
-        <f t="shared" si="66"/>
-        <v>42.5</v>
+        <f t="shared" si="61"/>
+        <v>48.75</v>
       </c>
       <c r="I157" s="1">
-        <f t="shared" si="67"/>
-        <v>55</v>
+        <f t="shared" si="62"/>
+        <v>62.5</v>
       </c>
       <c r="J157" s="1">
+        <f t="shared" si="63"/>
+        <v>90</v>
+      </c>
+      <c r="K157" s="1">
+        <v>130</v>
+      </c>
+      <c r="O157" s="6">
         <f t="shared" si="68"/>
-        <v>80</v>
-      </c>
-      <c r="K157" s="1">
-        <v>120</v>
-      </c>
-      <c r="O157" s="6">
-        <f t="shared" ref="O157:O166" si="73">D157*E157</f>
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="P157" s="6">
-        <f t="shared" ref="P157:P166" si="74">D157*F157</f>
-        <v>2400</v>
+        <f t="shared" si="69"/>
+        <v>2340</v>
       </c>
       <c r="Q157" s="8">
-        <f t="shared" ref="Q157:Q166" si="75">AVERAGE(O157,P157)</f>
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" ht="16">
+        <f t="shared" si="70"/>
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158" s="1">
         <v>12</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>465</v>
+        <v>470</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="D158" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E158" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F158" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" si="65"/>
-        <v>35</v>
+        <f t="shared" si="60"/>
+        <v>45</v>
       </c>
       <c r="H158" s="1">
-        <f t="shared" si="66"/>
-        <v>48.75</v>
+        <f t="shared" si="61"/>
+        <v>55</v>
       </c>
       <c r="I158" s="1">
-        <f t="shared" si="67"/>
-        <v>62.5</v>
+        <f t="shared" si="62"/>
+        <v>65</v>
       </c>
       <c r="J158" s="1">
-        <f t="shared" si="68"/>
-        <v>90</v>
+        <f t="shared" si="63"/>
+        <v>85</v>
       </c>
       <c r="K158" s="1">
         <v>130</v>
       </c>
       <c r="O158" s="6">
-        <f t="shared" si="73"/>
-        <v>910</v>
+        <f t="shared" si="68"/>
+        <v>1440</v>
       </c>
       <c r="P158" s="6">
-        <f t="shared" si="74"/>
-        <v>2340</v>
+        <f t="shared" si="69"/>
+        <v>2720</v>
       </c>
       <c r="Q158" s="8">
-        <f t="shared" si="75"/>
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18">
+        <f t="shared" si="70"/>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" ht="16">
       <c r="A159" s="1">
         <v>12</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>479</v>
       </c>
       <c r="D159" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E159" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F159" s="1">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="G159" s="1">
-        <f t="shared" si="65"/>
-        <v>45</v>
+        <f t="shared" si="60"/>
+        <v>55</v>
       </c>
       <c r="H159" s="1">
-        <f t="shared" si="66"/>
-        <v>55</v>
+        <f t="shared" si="61"/>
+        <v>66.75</v>
       </c>
       <c r="I159" s="1">
-        <f t="shared" si="67"/>
-        <v>65</v>
+        <f t="shared" si="62"/>
+        <v>78.5</v>
       </c>
       <c r="J159" s="1">
+        <f t="shared" si="63"/>
+        <v>102</v>
+      </c>
+      <c r="K159" s="1">
+        <v>150</v>
+      </c>
+      <c r="O159" s="6">
         <f t="shared" si="68"/>
-        <v>85</v>
-      </c>
-      <c r="K159" s="1">
-        <v>130</v>
-      </c>
-      <c r="O159" s="6">
-        <f t="shared" si="73"/>
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="P159" s="6">
-        <f t="shared" si="74"/>
-        <v>2720</v>
+        <f t="shared" si="69"/>
+        <v>2652</v>
       </c>
       <c r="Q159" s="8">
-        <f t="shared" si="75"/>
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" ht="16">
+        <f t="shared" si="70"/>
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" ht="32">
       <c r="A160" s="1">
         <v>12</v>
       </c>
@@ -20595,98 +20591,98 @@
         <v>482</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>483</v>
+        <v>553</v>
       </c>
       <c r="D160" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E160" s="1">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F160" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G160" s="1">
-        <f t="shared" si="65"/>
-        <v>55</v>
+        <f t="shared" si="60"/>
+        <v>49</v>
       </c>
       <c r="H160" s="1">
-        <f t="shared" si="66"/>
-        <v>66.75</v>
+        <f t="shared" si="61"/>
+        <v>61.5</v>
       </c>
       <c r="I160" s="1">
-        <f t="shared" si="67"/>
-        <v>78.5</v>
+        <f t="shared" si="62"/>
+        <v>74</v>
       </c>
       <c r="J160" s="1">
-        <f t="shared" si="68"/>
-        <v>102</v>
+        <f t="shared" si="63"/>
+        <v>99</v>
       </c>
       <c r="K160" s="1">
         <v>150</v>
       </c>
       <c r="O160" s="6">
-        <f t="shared" si="73"/>
-        <v>1430</v>
+        <f t="shared" si="68"/>
+        <v>1470</v>
       </c>
       <c r="P160" s="6">
-        <f t="shared" si="74"/>
-        <v>2652</v>
+        <f t="shared" si="69"/>
+        <v>2970</v>
       </c>
       <c r="Q160" s="8">
-        <f t="shared" si="75"/>
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" ht="32">
+        <f t="shared" si="70"/>
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" ht="16">
       <c r="A161" s="1">
         <v>12</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>557</v>
+        <v>488</v>
       </c>
       <c r="D161" s="1">
         <v>30</v>
       </c>
       <c r="E161" s="1">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F161" s="1">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G161" s="1">
-        <f t="shared" si="65"/>
-        <v>49</v>
+        <f t="shared" si="60"/>
+        <v>30</v>
       </c>
       <c r="H161" s="1">
-        <f t="shared" si="66"/>
-        <v>61.5</v>
+        <f t="shared" si="61"/>
+        <v>42.25</v>
       </c>
       <c r="I161" s="1">
-        <f t="shared" si="67"/>
-        <v>74</v>
+        <f t="shared" si="62"/>
+        <v>54.5</v>
       </c>
       <c r="J161" s="1">
+        <f t="shared" si="63"/>
+        <v>79</v>
+      </c>
+      <c r="K161" s="1">
+        <v>160</v>
+      </c>
+      <c r="O161" s="6">
         <f t="shared" si="68"/>
-        <v>99</v>
-      </c>
-      <c r="K161" s="1">
-        <v>150</v>
-      </c>
-      <c r="O161" s="6">
-        <f t="shared" si="73"/>
-        <v>1470</v>
+        <v>900</v>
       </c>
       <c r="P161" s="6">
-        <f t="shared" si="74"/>
-        <v>2970</v>
+        <f t="shared" si="69"/>
+        <v>2370</v>
       </c>
       <c r="Q161" s="8">
-        <f t="shared" si="75"/>
-        <v>2220</v>
+        <f t="shared" si="70"/>
+        <v>1635</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="16">
@@ -20694,152 +20690,152 @@
         <v>12</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D162" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E162" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F162" s="1">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G162" s="1">
-        <f t="shared" si="65"/>
-        <v>30</v>
+        <f t="shared" si="60"/>
+        <v>39</v>
       </c>
       <c r="H162" s="1">
-        <f t="shared" si="66"/>
-        <v>42.25</v>
+        <f t="shared" si="61"/>
+        <v>51.5</v>
       </c>
       <c r="I162" s="1">
-        <f t="shared" si="67"/>
-        <v>54.5</v>
+        <f t="shared" si="62"/>
+        <v>64</v>
       </c>
       <c r="J162" s="1">
-        <f t="shared" si="68"/>
-        <v>79</v>
+        <f t="shared" si="63"/>
+        <v>89</v>
       </c>
       <c r="K162" s="1">
         <v>160</v>
       </c>
       <c r="O162" s="6">
-        <f t="shared" si="73"/>
-        <v>900</v>
+        <f t="shared" si="68"/>
+        <v>1248</v>
       </c>
       <c r="P162" s="6">
-        <f t="shared" si="74"/>
-        <v>2370</v>
+        <f t="shared" si="69"/>
+        <v>2848</v>
       </c>
       <c r="Q162" s="8">
-        <f t="shared" si="75"/>
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" ht="16">
+        <f t="shared" si="70"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" ht="32">
       <c r="A163" s="1">
         <v>12</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>496</v>
+      <c r="B163" s="10" t="s">
+        <v>452</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="D163" s="1">
-        <v>32</v>
-      </c>
-      <c r="E163" s="1">
-        <v>39</v>
-      </c>
-      <c r="F163" s="1">
-        <v>89</v>
-      </c>
-      <c r="G163" s="1">
-        <f t="shared" si="65"/>
-        <v>39</v>
-      </c>
-      <c r="H163" s="1">
-        <f t="shared" si="66"/>
-        <v>51.5</v>
-      </c>
-      <c r="I163" s="1">
-        <f t="shared" si="67"/>
-        <v>64</v>
-      </c>
-      <c r="J163" s="1">
+        <v>453</v>
+      </c>
+      <c r="D163" s="6">
+        <v>-60</v>
+      </c>
+      <c r="E163" s="6">
+        <v>25</v>
+      </c>
+      <c r="F163" s="6">
+        <v>95</v>
+      </c>
+      <c r="G163" s="6">
+        <f t="shared" ref="G163:G165" si="71">E163</f>
+        <v>25</v>
+      </c>
+      <c r="H163" s="6">
+        <f t="shared" ref="H163:H165" si="72">(F163-E163)*0.25+E163</f>
+        <v>42.5</v>
+      </c>
+      <c r="I163" s="6">
+        <f t="shared" ref="I163:I165" si="73">(F163-E163)*0.5+E163</f>
+        <v>60</v>
+      </c>
+      <c r="J163" s="6">
+        <f t="shared" ref="J163:J165" si="74">F163</f>
+        <v>95</v>
+      </c>
+      <c r="K163" s="6">
+        <v>120</v>
+      </c>
+      <c r="O163" s="6">
         <f t="shared" si="68"/>
-        <v>89</v>
-      </c>
-      <c r="K163" s="1">
-        <v>160</v>
-      </c>
-      <c r="O163" s="6">
-        <f t="shared" si="73"/>
-        <v>1248</v>
+        <v>-1500</v>
       </c>
       <c r="P163" s="6">
-        <f t="shared" si="74"/>
-        <v>2848</v>
+        <f t="shared" si="69"/>
+        <v>-5700</v>
       </c>
       <c r="Q163" s="8">
-        <f t="shared" si="75"/>
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" ht="32">
+        <f t="shared" si="70"/>
+        <v>-3600</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" ht="16">
       <c r="A164" s="1">
         <v>12</v>
       </c>
-      <c r="B164" s="10" t="s">
-        <v>456</v>
+      <c r="B164" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D164" s="6">
-        <v>-60</v>
-      </c>
-      <c r="E164" s="6">
-        <v>25</v>
-      </c>
-      <c r="F164" s="6">
-        <v>95</v>
-      </c>
-      <c r="G164" s="6">
-        <f t="shared" ref="G164:G166" si="76">E164</f>
-        <v>25</v>
-      </c>
-      <c r="H164" s="6">
-        <f t="shared" ref="H164:H166" si="77">(F164-E164)*0.25+E164</f>
-        <v>42.5</v>
-      </c>
-      <c r="I164" s="6">
-        <f t="shared" ref="I164:I166" si="78">(F164-E164)*0.5+E164</f>
-        <v>60</v>
-      </c>
-      <c r="J164" s="6">
-        <f t="shared" ref="J164:J166" si="79">F164</f>
-        <v>95</v>
-      </c>
-      <c r="K164" s="6">
-        <v>120</v>
+        <v>499</v>
+      </c>
+      <c r="D164" s="1">
+        <v>30</v>
+      </c>
+      <c r="E164" s="1">
+        <v>28</v>
+      </c>
+      <c r="F164" s="1">
+        <v>68</v>
+      </c>
+      <c r="G164" s="1">
+        <f t="shared" si="71"/>
+        <v>28</v>
+      </c>
+      <c r="H164" s="1">
+        <f t="shared" si="72"/>
+        <v>38</v>
+      </c>
+      <c r="I164" s="1">
+        <f t="shared" si="73"/>
+        <v>48</v>
+      </c>
+      <c r="J164" s="1">
+        <f t="shared" si="74"/>
+        <v>68</v>
+      </c>
+      <c r="K164" s="1">
+        <v>170</v>
       </c>
       <c r="O164" s="6">
-        <f t="shared" si="73"/>
-        <v>-1500</v>
+        <f t="shared" si="68"/>
+        <v>840</v>
       </c>
       <c r="P164" s="6">
-        <f t="shared" si="74"/>
-        <v>-5700</v>
+        <f t="shared" si="69"/>
+        <v>2040</v>
       </c>
       <c r="Q164" s="8">
-        <f t="shared" si="75"/>
-        <v>-3600</v>
+        <f t="shared" si="70"/>
+        <v>1440</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="16">
@@ -20847,101 +20843,107 @@
         <v>12</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D165" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E165" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F165" s="1">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G165" s="1">
-        <f t="shared" si="76"/>
-        <v>28</v>
+        <f t="shared" si="71"/>
+        <v>32</v>
       </c>
       <c r="H165" s="1">
-        <f t="shared" si="77"/>
-        <v>38</v>
+        <f t="shared" si="72"/>
+        <v>44</v>
       </c>
       <c r="I165" s="1">
-        <f t="shared" si="78"/>
-        <v>48</v>
+        <f t="shared" si="73"/>
+        <v>56</v>
       </c>
       <c r="J165" s="1">
-        <f t="shared" si="79"/>
-        <v>68</v>
+        <f t="shared" si="74"/>
+        <v>80</v>
       </c>
       <c r="K165" s="1">
         <v>170</v>
       </c>
       <c r="O165" s="6">
-        <f t="shared" si="73"/>
-        <v>840</v>
+        <f t="shared" si="68"/>
+        <v>832</v>
       </c>
       <c r="P165" s="6">
-        <f t="shared" si="74"/>
-        <v>2040</v>
+        <f t="shared" si="69"/>
+        <v>2080</v>
       </c>
       <c r="Q165" s="8">
-        <f t="shared" si="75"/>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" ht="16">
+        <f t="shared" si="70"/>
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" ht="162">
       <c r="A166" s="1">
         <v>12</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>508</v>
+        <v>515</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>567</v>
       </c>
       <c r="D166" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E166" s="1">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F166" s="1">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G166" s="1">
-        <f t="shared" si="76"/>
-        <v>32</v>
+        <f t="shared" ref="G166:G178" si="75">E166</f>
+        <v>20</v>
       </c>
       <c r="H166" s="1">
-        <f t="shared" si="77"/>
-        <v>44</v>
+        <f t="shared" ref="H166:H178" si="76">(F166-E166)*0.25+E166</f>
+        <v>20</v>
       </c>
       <c r="I166" s="1">
-        <f t="shared" si="78"/>
-        <v>56</v>
+        <f t="shared" ref="I166:I178" si="77">(F166-E166)*0.5+E166</f>
+        <v>20</v>
       </c>
       <c r="J166" s="1">
-        <f t="shared" si="79"/>
-        <v>80</v>
+        <f t="shared" ref="J166:J178" si="78">F166</f>
+        <v>20</v>
       </c>
       <c r="K166" s="1">
         <v>170</v>
       </c>
+      <c r="L166" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M166" s="6" t="s">
+        <v>561</v>
+      </c>
       <c r="O166" s="6">
-        <f t="shared" si="73"/>
-        <v>832</v>
+        <f t="shared" ref="O166:O178" si="79">D166*E166</f>
+        <v>20</v>
       </c>
       <c r="P166" s="6">
-        <f t="shared" si="74"/>
-        <v>2080</v>
+        <f t="shared" ref="P166:P178" si="80">D166*F166</f>
+        <v>20</v>
       </c>
       <c r="Q166" s="8">
-        <f t="shared" si="75"/>
-        <v>1456</v>
+        <f t="shared" ref="Q166:Q178" si="81">AVERAGE(O166,P166)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="162">
@@ -20949,10 +20951,10 @@
         <v>12</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -20964,98 +20966,92 @@
         <v>20</v>
       </c>
       <c r="G167" s="1">
-        <f t="shared" ref="G167:G179" si="80">E167</f>
+        <f t="shared" si="75"/>
         <v>20</v>
       </c>
       <c r="H167" s="1">
-        <f t="shared" ref="H167:H179" si="81">(F167-E167)*0.25+E167</f>
+        <f t="shared" si="76"/>
         <v>20</v>
       </c>
       <c r="I167" s="1">
-        <f t="shared" ref="I167:I179" si="82">(F167-E167)*0.5+E167</f>
+        <f t="shared" si="77"/>
         <v>20</v>
       </c>
       <c r="J167" s="1">
-        <f t="shared" ref="J167:J179" si="83">F167</f>
+        <f t="shared" si="78"/>
         <v>20</v>
       </c>
       <c r="K167" s="1">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L167" s="6" t="b">
         <v>1</v>
       </c>
       <c r="M167" s="6" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="O167" s="6">
-        <f t="shared" ref="O167:O179" si="84">D167*E167</f>
+        <f t="shared" si="79"/>
         <v>20</v>
       </c>
       <c r="P167" s="6">
-        <f t="shared" ref="P167:P179" si="85">D167*F167</f>
-        <v>20</v>
-      </c>
-      <c r="Q167" s="8">
-        <f t="shared" ref="Q167:Q179" si="86">AVERAGE(O167,P167)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" ht="162">
-      <c r="A168" s="1">
-        <v>12</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="D168" s="1">
-        <v>1</v>
-      </c>
-      <c r="E168" s="1">
-        <v>20</v>
-      </c>
-      <c r="F168" s="1">
-        <v>20</v>
-      </c>
-      <c r="G168" s="1">
         <f t="shared" si="80"/>
         <v>20</v>
       </c>
-      <c r="H168" s="1">
+      <c r="Q167" s="8">
         <f t="shared" si="81"/>
         <v>20</v>
       </c>
+    </row>
+    <row r="168" spans="1:17" ht="16">
+      <c r="A168" s="1">
+        <v>13</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D168" s="1">
+        <v>24</v>
+      </c>
+      <c r="E168" s="1">
+        <v>45</v>
+      </c>
+      <c r="F168" s="1">
+        <v>100</v>
+      </c>
+      <c r="G168" s="1">
+        <f t="shared" si="75"/>
+        <v>45</v>
+      </c>
+      <c r="H168" s="1">
+        <f t="shared" si="76"/>
+        <v>58.75</v>
+      </c>
       <c r="I168" s="1">
-        <f t="shared" si="82"/>
-        <v>20</v>
+        <f t="shared" si="77"/>
+        <v>72.5</v>
       </c>
       <c r="J168" s="1">
-        <f t="shared" si="83"/>
-        <v>20</v>
+        <f t="shared" si="78"/>
+        <v>100</v>
       </c>
       <c r="K168" s="1">
-        <v>185</v>
-      </c>
-      <c r="L168" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M168" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="O168" s="6">
-        <f t="shared" si="84"/>
-        <v>20</v>
-      </c>
-      <c r="P168" s="6">
-        <f t="shared" si="85"/>
-        <v>20</v>
-      </c>
-      <c r="Q168" s="8">
-        <f t="shared" si="86"/>
-        <v>20</v>
+        <v>130</v>
+      </c>
+      <c r="O168" s="1">
+        <f t="shared" si="79"/>
+        <v>1080</v>
+      </c>
+      <c r="P168" s="1">
+        <f t="shared" si="80"/>
+        <v>2400</v>
+      </c>
+      <c r="Q168" s="1">
+        <f t="shared" si="81"/>
+        <v>1740</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="16">
@@ -21063,152 +21059,152 @@
         <v>13</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D169" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E169" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F169" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G169" s="1">
-        <f t="shared" si="80"/>
-        <v>45</v>
+        <f t="shared" si="75"/>
+        <v>40</v>
       </c>
       <c r="H169" s="1">
-        <f t="shared" si="81"/>
-        <v>58.75</v>
+        <f t="shared" si="76"/>
+        <v>52</v>
       </c>
       <c r="I169" s="1">
-        <f t="shared" si="82"/>
-        <v>72.5</v>
+        <f t="shared" si="77"/>
+        <v>64</v>
       </c>
       <c r="J169" s="1">
-        <f t="shared" si="83"/>
-        <v>100</v>
+        <f t="shared" si="78"/>
+        <v>88</v>
       </c>
       <c r="K169" s="1">
         <v>130</v>
       </c>
       <c r="O169" s="1">
-        <f t="shared" si="84"/>
-        <v>1080</v>
+        <f t="shared" si="79"/>
+        <v>1280</v>
       </c>
       <c r="P169" s="1">
-        <f t="shared" si="85"/>
-        <v>2400</v>
+        <f t="shared" si="80"/>
+        <v>2816</v>
       </c>
       <c r="Q169" s="1">
-        <f t="shared" si="86"/>
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" ht="16">
+        <f t="shared" si="81"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" ht="32">
       <c r="A170" s="1">
         <v>13</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>471</v>
+        <v>552</v>
       </c>
       <c r="D170" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E170" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F170" s="1">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G170" s="1">
+        <f t="shared" si="75"/>
+        <v>35</v>
+      </c>
+      <c r="H170" s="1">
+        <f t="shared" si="76"/>
+        <v>43.75</v>
+      </c>
+      <c r="I170" s="1">
+        <f t="shared" si="77"/>
+        <v>52.5</v>
+      </c>
+      <c r="J170" s="1">
+        <f t="shared" si="78"/>
+        <v>70</v>
+      </c>
+      <c r="K170" s="1">
+        <v>140</v>
+      </c>
+      <c r="O170" s="1">
+        <f t="shared" si="79"/>
+        <v>840</v>
+      </c>
+      <c r="P170" s="1">
         <f t="shared" si="80"/>
-        <v>40</v>
-      </c>
-      <c r="H170" s="1">
+        <v>1680</v>
+      </c>
+      <c r="Q170" s="1">
         <f t="shared" si="81"/>
-        <v>52</v>
-      </c>
-      <c r="I170" s="1">
-        <f t="shared" si="82"/>
-        <v>64</v>
-      </c>
-      <c r="J170" s="1">
-        <f t="shared" si="83"/>
-        <v>88</v>
-      </c>
-      <c r="K170" s="1">
-        <v>130</v>
-      </c>
-      <c r="O170" s="1">
-        <f t="shared" si="84"/>
-        <v>1280</v>
-      </c>
-      <c r="P170" s="1">
-        <f t="shared" si="85"/>
-        <v>2816</v>
-      </c>
-      <c r="Q170" s="1">
-        <f t="shared" si="86"/>
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" ht="32">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" ht="16">
       <c r="A171" s="1">
         <v>13</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>556</v>
-      </c>
       <c r="D171" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E171" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F171" s="1">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="G171" s="1">
+        <f t="shared" si="75"/>
+        <v>40</v>
+      </c>
+      <c r="H171" s="1">
+        <f t="shared" si="76"/>
+        <v>56.25</v>
+      </c>
+      <c r="I171" s="1">
+        <f t="shared" si="77"/>
+        <v>72.5</v>
+      </c>
+      <c r="J171" s="1">
+        <f t="shared" si="78"/>
+        <v>105</v>
+      </c>
+      <c r="K171" s="1">
+        <v>150</v>
+      </c>
+      <c r="O171" s="1">
+        <f t="shared" si="79"/>
+        <v>1040</v>
+      </c>
+      <c r="P171" s="1">
         <f t="shared" si="80"/>
-        <v>35</v>
-      </c>
-      <c r="H171" s="1">
+        <v>2730</v>
+      </c>
+      <c r="Q171" s="1">
         <f t="shared" si="81"/>
-        <v>43.75</v>
-      </c>
-      <c r="I171" s="1">
-        <f t="shared" si="82"/>
-        <v>52.5</v>
-      </c>
-      <c r="J171" s="1">
-        <f t="shared" si="83"/>
-        <v>70</v>
-      </c>
-      <c r="K171" s="1">
-        <v>140</v>
-      </c>
-      <c r="O171" s="1">
-        <f t="shared" si="84"/>
-        <v>840</v>
-      </c>
-      <c r="P171" s="1">
-        <f t="shared" si="85"/>
-        <v>1680</v>
-      </c>
-      <c r="Q171" s="1">
-        <f t="shared" si="86"/>
-        <v>1260</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="16">
@@ -21216,50 +21212,50 @@
         <v>13</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="D172" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E172" s="1">
+        <v>30</v>
+      </c>
+      <c r="F172" s="1">
+        <v>70</v>
+      </c>
+      <c r="G172" s="1">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="H172" s="1">
+        <f t="shared" si="76"/>
         <v>40</v>
       </c>
-      <c r="F172" s="1">
-        <v>105</v>
-      </c>
-      <c r="G172" s="1">
-        <f t="shared" si="80"/>
-        <v>40</v>
-      </c>
-      <c r="H172" s="1">
-        <f t="shared" si="81"/>
-        <v>56.25</v>
-      </c>
       <c r="I172" s="1">
-        <f t="shared" si="82"/>
-        <v>72.5</v>
+        <f t="shared" si="77"/>
+        <v>50</v>
       </c>
       <c r="J172" s="1">
-        <f t="shared" si="83"/>
-        <v>105</v>
+        <f t="shared" si="78"/>
+        <v>70</v>
       </c>
       <c r="K172" s="1">
         <v>150</v>
       </c>
       <c r="O172" s="1">
-        <f t="shared" si="84"/>
-        <v>1040</v>
+        <f t="shared" si="79"/>
+        <v>900</v>
       </c>
       <c r="P172" s="1">
-        <f t="shared" si="85"/>
-        <v>2730</v>
+        <f t="shared" si="80"/>
+        <v>2100</v>
       </c>
       <c r="Q172" s="1">
-        <f t="shared" si="86"/>
-        <v>1885</v>
+        <f t="shared" si="81"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="16">
@@ -21267,50 +21263,50 @@
         <v>13</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D173" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E173" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F173" s="1">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G173" s="1">
+        <f t="shared" si="75"/>
+        <v>46</v>
+      </c>
+      <c r="H173" s="1">
+        <f t="shared" si="76"/>
+        <v>72</v>
+      </c>
+      <c r="I173" s="1">
+        <f t="shared" si="77"/>
+        <v>98</v>
+      </c>
+      <c r="J173" s="1">
+        <f t="shared" si="78"/>
+        <v>150</v>
+      </c>
+      <c r="K173" s="1">
+        <v>160</v>
+      </c>
+      <c r="O173" s="1">
+        <f t="shared" si="79"/>
+        <v>1748</v>
+      </c>
+      <c r="P173" s="1">
         <f t="shared" si="80"/>
-        <v>30</v>
-      </c>
-      <c r="H173" s="1">
+        <v>5700</v>
+      </c>
+      <c r="Q173" s="1">
         <f t="shared" si="81"/>
-        <v>40</v>
-      </c>
-      <c r="I173" s="1">
-        <f t="shared" si="82"/>
-        <v>50</v>
-      </c>
-      <c r="J173" s="1">
-        <f t="shared" si="83"/>
-        <v>70</v>
-      </c>
-      <c r="K173" s="1">
-        <v>150</v>
-      </c>
-      <c r="O173" s="1">
-        <f t="shared" si="84"/>
-        <v>900</v>
-      </c>
-      <c r="P173" s="1">
-        <f t="shared" si="85"/>
-        <v>2100</v>
-      </c>
-      <c r="Q173" s="1">
-        <f t="shared" si="86"/>
-        <v>1500</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="16">
@@ -21318,50 +21314,50 @@
         <v>13</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="D174" s="1">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E174" s="1">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F174" s="1">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="G174" s="1">
-        <f t="shared" si="80"/>
-        <v>46</v>
+        <f t="shared" si="75"/>
+        <v>16</v>
       </c>
       <c r="H174" s="1">
-        <f t="shared" si="81"/>
-        <v>72</v>
+        <f t="shared" si="76"/>
+        <v>33.5</v>
       </c>
       <c r="I174" s="1">
-        <f t="shared" si="82"/>
-        <v>98</v>
+        <f t="shared" si="77"/>
+        <v>51</v>
       </c>
       <c r="J174" s="1">
-        <f t="shared" si="83"/>
-        <v>150</v>
+        <f t="shared" si="78"/>
+        <v>86</v>
       </c>
       <c r="K174" s="1">
         <v>160</v>
       </c>
       <c r="O174" s="1">
-        <f t="shared" si="84"/>
-        <v>1748</v>
+        <f t="shared" si="79"/>
+        <v>464</v>
       </c>
       <c r="P174" s="1">
-        <f t="shared" si="85"/>
-        <v>5700</v>
+        <f t="shared" si="80"/>
+        <v>2494</v>
       </c>
       <c r="Q174" s="1">
-        <f t="shared" si="86"/>
-        <v>3724</v>
+        <f t="shared" si="81"/>
+        <v>1479</v>
       </c>
     </row>
     <row r="175" spans="1:17" ht="16">
@@ -21369,50 +21365,50 @@
         <v>13</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D175" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E175" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F175" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G175" s="1">
+        <f t="shared" si="75"/>
+        <v>20</v>
+      </c>
+      <c r="H175" s="1">
+        <f t="shared" si="76"/>
+        <v>37.5</v>
+      </c>
+      <c r="I175" s="1">
+        <f t="shared" si="77"/>
+        <v>55</v>
+      </c>
+      <c r="J175" s="1">
+        <f t="shared" si="78"/>
+        <v>90</v>
+      </c>
+      <c r="K175" s="1">
+        <v>175</v>
+      </c>
+      <c r="O175" s="1">
+        <f t="shared" si="79"/>
+        <v>720</v>
+      </c>
+      <c r="P175" s="1">
         <f t="shared" si="80"/>
-        <v>16</v>
-      </c>
-      <c r="H175" s="1">
+        <v>3240</v>
+      </c>
+      <c r="Q175" s="1">
         <f t="shared" si="81"/>
-        <v>33.5</v>
-      </c>
-      <c r="I175" s="1">
-        <f t="shared" si="82"/>
-        <v>51</v>
-      </c>
-      <c r="J175" s="1">
-        <f t="shared" si="83"/>
-        <v>86</v>
-      </c>
-      <c r="K175" s="1">
-        <v>160</v>
-      </c>
-      <c r="O175" s="1">
-        <f t="shared" si="84"/>
-        <v>464</v>
-      </c>
-      <c r="P175" s="1">
-        <f t="shared" si="85"/>
-        <v>2494</v>
-      </c>
-      <c r="Q175" s="1">
-        <f t="shared" si="86"/>
-        <v>1479</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="176" spans="1:17" ht="16">
@@ -21420,50 +21416,50 @@
         <v>13</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D176" s="1">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E176" s="1">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F176" s="1">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G176" s="1">
-        <f t="shared" si="80"/>
-        <v>20</v>
+        <f t="shared" si="75"/>
+        <v>39</v>
       </c>
       <c r="H176" s="1">
-        <f t="shared" si="81"/>
-        <v>37.5</v>
+        <f t="shared" si="76"/>
+        <v>55.5</v>
       </c>
       <c r="I176" s="1">
-        <f t="shared" si="82"/>
-        <v>55</v>
+        <f t="shared" si="77"/>
+        <v>72</v>
       </c>
       <c r="J176" s="1">
-        <f t="shared" si="83"/>
-        <v>90</v>
+        <f t="shared" si="78"/>
+        <v>105</v>
       </c>
       <c r="K176" s="1">
         <v>175</v>
       </c>
       <c r="O176" s="1">
-        <f t="shared" si="84"/>
-        <v>720</v>
+        <f t="shared" si="79"/>
+        <v>1014</v>
       </c>
       <c r="P176" s="1">
-        <f t="shared" si="85"/>
-        <v>3240</v>
+        <f t="shared" si="80"/>
+        <v>2730</v>
       </c>
       <c r="Q176" s="1">
-        <f t="shared" si="86"/>
-        <v>1980</v>
+        <f t="shared" si="81"/>
+        <v>1872</v>
       </c>
     </row>
     <row r="177" spans="1:17" ht="16">
@@ -21471,50 +21467,50 @@
         <v>13</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D177" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E177" s="1">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F177" s="1">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G177" s="1">
+        <f t="shared" si="75"/>
+        <v>60</v>
+      </c>
+      <c r="H177" s="1">
+        <f t="shared" si="76"/>
+        <v>67.25</v>
+      </c>
+      <c r="I177" s="1">
+        <f t="shared" si="77"/>
+        <v>74.5</v>
+      </c>
+      <c r="J177" s="1">
+        <f t="shared" si="78"/>
+        <v>89</v>
+      </c>
+      <c r="K177" s="1">
+        <v>185</v>
+      </c>
+      <c r="O177" s="1">
+        <f t="shared" si="79"/>
+        <v>1800</v>
+      </c>
+      <c r="P177" s="1">
         <f t="shared" si="80"/>
-        <v>39</v>
-      </c>
-      <c r="H177" s="1">
+        <v>2670</v>
+      </c>
+      <c r="Q177" s="1">
         <f t="shared" si="81"/>
-        <v>55.5</v>
-      </c>
-      <c r="I177" s="1">
-        <f t="shared" si="82"/>
-        <v>72</v>
-      </c>
-      <c r="J177" s="1">
-        <f t="shared" si="83"/>
-        <v>105</v>
-      </c>
-      <c r="K177" s="1">
-        <v>175</v>
-      </c>
-      <c r="O177" s="1">
-        <f t="shared" si="84"/>
-        <v>1014</v>
-      </c>
-      <c r="P177" s="1">
-        <f t="shared" si="85"/>
-        <v>2730</v>
-      </c>
-      <c r="Q177" s="1">
-        <f t="shared" si="86"/>
-        <v>1872</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="16">
@@ -21528,95 +21524,101 @@
         <v>510</v>
       </c>
       <c r="D178" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E178" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F178" s="1">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="G178" s="1">
-        <f t="shared" si="80"/>
-        <v>60</v>
+        <f t="shared" si="75"/>
+        <v>20</v>
       </c>
       <c r="H178" s="1">
-        <f t="shared" si="81"/>
-        <v>67.25</v>
+        <f t="shared" si="76"/>
+        <v>42.5</v>
       </c>
       <c r="I178" s="1">
-        <f t="shared" si="82"/>
-        <v>74.5</v>
+        <f t="shared" si="77"/>
+        <v>65</v>
       </c>
       <c r="J178" s="1">
-        <f t="shared" si="83"/>
-        <v>89</v>
+        <f t="shared" si="78"/>
+        <v>110</v>
       </c>
       <c r="K178" s="1">
         <v>185</v>
       </c>
       <c r="O178" s="1">
-        <f t="shared" si="84"/>
-        <v>1800</v>
+        <f t="shared" si="79"/>
+        <v>500</v>
       </c>
       <c r="P178" s="1">
-        <f t="shared" si="85"/>
-        <v>2670</v>
+        <f t="shared" si="80"/>
+        <v>2750</v>
       </c>
       <c r="Q178" s="1">
-        <f t="shared" si="86"/>
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17" ht="16">
+        <f t="shared" si="81"/>
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" ht="162">
       <c r="A179" s="1">
         <v>13</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>514</v>
+        <v>518</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>569</v>
       </c>
       <c r="D179" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E179" s="1">
         <v>20</v>
       </c>
       <c r="F179" s="1">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G179" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="G179:G185" si="82">E179</f>
         <v>20</v>
       </c>
       <c r="H179" s="1">
-        <f t="shared" si="81"/>
-        <v>42.5</v>
+        <f t="shared" ref="H179:H185" si="83">(F179-E179)*0.25+E179</f>
+        <v>20</v>
       </c>
       <c r="I179" s="1">
-        <f t="shared" si="82"/>
-        <v>65</v>
+        <f t="shared" ref="I179:I185" si="84">(F179-E179)*0.5+E179</f>
+        <v>20</v>
       </c>
       <c r="J179" s="1">
-        <f t="shared" si="83"/>
-        <v>110</v>
+        <f t="shared" ref="J179:J185" si="85">F179</f>
+        <v>20</v>
       </c>
       <c r="K179" s="1">
-        <v>185</v>
+        <v>200</v>
+      </c>
+      <c r="L179" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M179" s="6" t="s">
+        <v>559</v>
       </c>
       <c r="O179" s="1">
-        <f t="shared" si="84"/>
-        <v>500</v>
+        <f t="shared" ref="O179:O185" si="86">D179*E179</f>
+        <v>20</v>
       </c>
       <c r="P179" s="1">
-        <f t="shared" si="85"/>
-        <v>2750</v>
+        <f t="shared" ref="P179:P185" si="87">D179*F179</f>
+        <v>20</v>
       </c>
       <c r="Q179" s="1">
-        <f t="shared" si="86"/>
-        <v>1625</v>
+        <f t="shared" ref="Q179:Q185" si="88">AVERAGE(O179,P179)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:17" ht="162">
@@ -21624,10 +21626,10 @@
         <v>13</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D180" s="1">
         <v>1</v>
@@ -21639,149 +21641,143 @@
         <v>20</v>
       </c>
       <c r="G180" s="1">
-        <f t="shared" ref="G180:G186" si="87">E180</f>
+        <f t="shared" si="82"/>
         <v>20</v>
       </c>
       <c r="H180" s="1">
-        <f t="shared" ref="H180:H186" si="88">(F180-E180)*0.25+E180</f>
+        <f t="shared" si="83"/>
         <v>20</v>
       </c>
       <c r="I180" s="1">
-        <f t="shared" ref="I180:I186" si="89">(F180-E180)*0.5+E180</f>
+        <f t="shared" si="84"/>
         <v>20</v>
       </c>
       <c r="J180" s="1">
-        <f t="shared" ref="J180:J186" si="90">F180</f>
+        <f t="shared" si="85"/>
         <v>20</v>
       </c>
       <c r="K180" s="1">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="L180" s="6" t="b">
         <v>1</v>
       </c>
       <c r="M180" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="O180" s="1">
-        <f t="shared" ref="O180:O186" si="91">D180*E180</f>
+        <f t="shared" si="86"/>
         <v>20</v>
       </c>
       <c r="P180" s="1">
-        <f t="shared" ref="P180:P186" si="92">D180*F180</f>
+        <f t="shared" si="87"/>
         <v>20</v>
       </c>
       <c r="Q180" s="1">
-        <f t="shared" ref="Q180:Q186" si="93">AVERAGE(O180,P180)</f>
+        <f t="shared" si="88"/>
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="162">
+    <row r="181" spans="1:17" ht="16">
       <c r="A181" s="1">
         <v>13</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>574</v>
+        <v>454</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="D181" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E181" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F181" s="1">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G181" s="1">
+        <f t="shared" si="82"/>
+        <v>50</v>
+      </c>
+      <c r="H181" s="1">
+        <f t="shared" si="83"/>
+        <v>60</v>
+      </c>
+      <c r="I181" s="1">
+        <f t="shared" si="84"/>
+        <v>70</v>
+      </c>
+      <c r="J181" s="1">
+        <f t="shared" si="85"/>
+        <v>90</v>
+      </c>
+      <c r="K181" s="1">
+        <v>140</v>
+      </c>
+      <c r="O181" s="1">
+        <f t="shared" si="86"/>
+        <v>1500</v>
+      </c>
+      <c r="P181" s="1">
         <f t="shared" si="87"/>
-        <v>20</v>
-      </c>
-      <c r="H181" s="1">
+        <v>2700</v>
+      </c>
+      <c r="Q181" s="1">
         <f t="shared" si="88"/>
-        <v>20</v>
-      </c>
-      <c r="I181" s="1">
-        <f t="shared" si="89"/>
-        <v>20</v>
-      </c>
-      <c r="J181" s="1">
-        <f t="shared" si="90"/>
-        <v>20</v>
-      </c>
-      <c r="K181" s="1">
-        <v>215</v>
-      </c>
-      <c r="L181" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M181" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="O181" s="1">
-        <f t="shared" si="91"/>
-        <v>20</v>
-      </c>
-      <c r="P181" s="1">
-        <f t="shared" si="92"/>
-        <v>20</v>
-      </c>
-      <c r="Q181" s="1">
-        <f t="shared" si="93"/>
-        <v>20</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="182" spans="1:17" ht="16">
       <c r="A182" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="D182" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E182" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F182" s="1">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G182" s="1">
-        <f t="shared" si="87"/>
-        <v>50</v>
+        <f t="shared" si="82"/>
+        <v>20</v>
       </c>
       <c r="H182" s="1">
-        <f t="shared" si="88"/>
-        <v>60</v>
+        <f t="shared" si="83"/>
+        <v>34.5</v>
       </c>
       <c r="I182" s="1">
-        <f t="shared" si="89"/>
-        <v>70</v>
+        <f t="shared" si="84"/>
+        <v>49</v>
       </c>
       <c r="J182" s="1">
-        <f t="shared" si="90"/>
-        <v>90</v>
+        <f t="shared" si="85"/>
+        <v>78</v>
       </c>
       <c r="K182" s="1">
         <v>140</v>
       </c>
       <c r="O182" s="1">
-        <f t="shared" si="91"/>
-        <v>1500</v>
+        <f t="shared" si="86"/>
+        <v>680</v>
       </c>
       <c r="P182" s="1">
-        <f t="shared" si="92"/>
-        <v>2700</v>
+        <f t="shared" si="87"/>
+        <v>2652</v>
       </c>
       <c r="Q182" s="1">
-        <f t="shared" si="93"/>
-        <v>2100</v>
+        <f t="shared" si="88"/>
+        <v>1666</v>
       </c>
     </row>
     <row r="183" spans="1:17" ht="16">
@@ -21789,356 +21785,356 @@
         <v>14</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D183" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E183" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F183" s="1">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G183" s="1">
+        <f t="shared" si="82"/>
+        <v>50</v>
+      </c>
+      <c r="H183" s="1">
+        <f t="shared" si="83"/>
+        <v>60</v>
+      </c>
+      <c r="I183" s="1">
+        <f t="shared" si="84"/>
+        <v>70</v>
+      </c>
+      <c r="J183" s="1">
+        <f t="shared" si="85"/>
+        <v>90</v>
+      </c>
+      <c r="K183" s="1">
+        <v>150</v>
+      </c>
+      <c r="O183" s="1">
+        <f t="shared" si="86"/>
+        <v>1400</v>
+      </c>
+      <c r="P183" s="1">
         <f t="shared" si="87"/>
-        <v>20</v>
-      </c>
-      <c r="H183" s="1">
+        <v>2520</v>
+      </c>
+      <c r="Q183" s="1">
         <f t="shared" si="88"/>
-        <v>34.5</v>
-      </c>
-      <c r="I183" s="1">
-        <f t="shared" si="89"/>
-        <v>49</v>
-      </c>
-      <c r="J183" s="1">
-        <f t="shared" si="90"/>
-        <v>78</v>
-      </c>
-      <c r="K183" s="1">
-        <v>140</v>
-      </c>
-      <c r="O183" s="1">
-        <f t="shared" si="91"/>
-        <v>680</v>
-      </c>
-      <c r="P183" s="1">
-        <f t="shared" si="92"/>
-        <v>2652</v>
-      </c>
-      <c r="Q183" s="1">
-        <f t="shared" si="93"/>
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" ht="16">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" ht="32">
       <c r="A184" s="1">
         <v>14</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="D184" s="1">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E184" s="1">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F184" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G184" s="1">
-        <f t="shared" si="87"/>
-        <v>50</v>
+        <f t="shared" si="82"/>
+        <v>44</v>
       </c>
       <c r="H184" s="1">
-        <f t="shared" si="88"/>
-        <v>60</v>
+        <f t="shared" si="83"/>
+        <v>58</v>
       </c>
       <c r="I184" s="1">
-        <f t="shared" si="89"/>
-        <v>70</v>
+        <f t="shared" si="84"/>
+        <v>72</v>
       </c>
       <c r="J184" s="1">
-        <f t="shared" si="90"/>
-        <v>90</v>
+        <f t="shared" si="85"/>
+        <v>100</v>
       </c>
       <c r="K184" s="1">
         <v>150</v>
       </c>
       <c r="O184" s="1">
-        <f t="shared" si="91"/>
-        <v>1400</v>
+        <f t="shared" si="86"/>
+        <v>1848</v>
       </c>
       <c r="P184" s="1">
-        <f t="shared" si="92"/>
-        <v>2520</v>
+        <f t="shared" si="87"/>
+        <v>4200</v>
       </c>
       <c r="Q184" s="1">
-        <f t="shared" si="93"/>
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" ht="32">
+        <f t="shared" si="88"/>
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" ht="16">
       <c r="A185" s="1">
         <v>14</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>555</v>
+        <v>469</v>
       </c>
       <c r="D185" s="1">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E185" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F185" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G185" s="1">
+        <f t="shared" si="82"/>
+        <v>40</v>
+      </c>
+      <c r="H185" s="1">
+        <f t="shared" si="83"/>
+        <v>52</v>
+      </c>
+      <c r="I185" s="1">
+        <f t="shared" si="84"/>
+        <v>64</v>
+      </c>
+      <c r="J185" s="1">
+        <f t="shared" si="85"/>
+        <v>88</v>
+      </c>
+      <c r="K185" s="1">
+        <v>160</v>
+      </c>
+      <c r="O185" s="1">
+        <f t="shared" si="86"/>
+        <v>1280</v>
+      </c>
+      <c r="P185" s="1">
         <f t="shared" si="87"/>
-        <v>44</v>
-      </c>
-      <c r="H185" s="1">
+        <v>2816</v>
+      </c>
+      <c r="Q185" s="1">
         <f t="shared" si="88"/>
-        <v>58</v>
-      </c>
-      <c r="I185" s="1">
-        <f t="shared" si="89"/>
-        <v>72</v>
-      </c>
-      <c r="J185" s="1">
-        <f t="shared" si="90"/>
-        <v>100</v>
-      </c>
-      <c r="K185" s="1">
-        <v>150</v>
-      </c>
-      <c r="O185" s="1">
-        <f t="shared" si="91"/>
-        <v>1848</v>
-      </c>
-      <c r="P185" s="1">
-        <f t="shared" si="92"/>
-        <v>4200</v>
-      </c>
-      <c r="Q185" s="1">
-        <f t="shared" si="93"/>
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17" ht="16">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" ht="32">
       <c r="A186" s="1">
         <v>14</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>472</v>
+      <c r="B186" s="10" t="s">
+        <v>428</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D186" s="1">
-        <v>32</v>
-      </c>
-      <c r="E186" s="1">
-        <v>40</v>
-      </c>
-      <c r="F186" s="1">
-        <v>88</v>
-      </c>
-      <c r="G186" s="1">
-        <f t="shared" si="87"/>
-        <v>40</v>
-      </c>
-      <c r="H186" s="1">
-        <f t="shared" si="88"/>
-        <v>52</v>
-      </c>
-      <c r="I186" s="1">
-        <f t="shared" si="89"/>
-        <v>64</v>
-      </c>
-      <c r="J186" s="1">
-        <f t="shared" si="90"/>
-        <v>88</v>
+        <v>453</v>
+      </c>
+      <c r="D186" s="6">
+        <v>-100</v>
+      </c>
+      <c r="E186" s="6">
+        <v>50</v>
+      </c>
+      <c r="F186" s="6">
+        <v>150</v>
+      </c>
+      <c r="G186" s="6">
+        <f t="shared" ref="G186:G191" si="89">E186</f>
+        <v>50</v>
+      </c>
+      <c r="H186" s="6">
+        <f t="shared" ref="H186:H191" si="90">(F186-E186)*0.25+E186</f>
+        <v>75</v>
+      </c>
+      <c r="I186" s="6">
+        <f t="shared" ref="I186:I191" si="91">(F186-E186)*0.5+E186</f>
+        <v>100</v>
+      </c>
+      <c r="J186" s="6">
+        <f t="shared" ref="J186:J191" si="92">F186</f>
+        <v>150</v>
       </c>
       <c r="K186" s="1">
         <v>160</v>
       </c>
       <c r="O186" s="1">
-        <f t="shared" si="91"/>
-        <v>1280</v>
+        <f t="shared" ref="O186:O191" si="93">D186*E186</f>
+        <v>-5000</v>
       </c>
       <c r="P186" s="1">
-        <f t="shared" si="92"/>
-        <v>2816</v>
+        <f t="shared" ref="P186:P191" si="94">D186*F186</f>
+        <v>-15000</v>
       </c>
       <c r="Q186" s="1">
-        <f t="shared" si="93"/>
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17" ht="32">
+        <f t="shared" ref="Q186:Q191" si="95">AVERAGE(O186,P186)</f>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" ht="16">
       <c r="A187" s="1">
         <v>14</v>
       </c>
-      <c r="B187" s="10" t="s">
-        <v>432</v>
+      <c r="B187" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D187" s="6">
-        <v>-100</v>
-      </c>
-      <c r="E187" s="6">
-        <v>50</v>
-      </c>
-      <c r="F187" s="6">
-        <v>150</v>
-      </c>
-      <c r="G187" s="6">
-        <f t="shared" ref="G187:G192" si="94">E187</f>
-        <v>50</v>
-      </c>
-      <c r="H187" s="6">
-        <f t="shared" ref="H187:H192" si="95">(F187-E187)*0.25+E187</f>
-        <v>75</v>
-      </c>
-      <c r="I187" s="6">
-        <f t="shared" ref="I187:I192" si="96">(F187-E187)*0.5+E187</f>
-        <v>100</v>
-      </c>
-      <c r="J187" s="6">
-        <f t="shared" ref="J187:J192" si="97">F187</f>
-        <v>150</v>
+        <v>486</v>
+      </c>
+      <c r="D187" s="1">
+        <v>46</v>
+      </c>
+      <c r="E187" s="1">
+        <v>25</v>
+      </c>
+      <c r="F187" s="1">
+        <v>60</v>
+      </c>
+      <c r="G187" s="1">
+        <f t="shared" si="89"/>
+        <v>25</v>
+      </c>
+      <c r="H187" s="1">
+        <f t="shared" si="90"/>
+        <v>33.75</v>
+      </c>
+      <c r="I187" s="1">
+        <f t="shared" si="91"/>
+        <v>42.5</v>
+      </c>
+      <c r="J187" s="1">
+        <f t="shared" si="92"/>
+        <v>60</v>
       </c>
       <c r="K187" s="1">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="O187" s="1">
-        <f t="shared" ref="O187:O192" si="98">D187*E187</f>
-        <v>-5000</v>
+        <f t="shared" si="93"/>
+        <v>1150</v>
       </c>
       <c r="P187" s="1">
-        <f t="shared" ref="P187:P192" si="99">D187*F187</f>
-        <v>-15000</v>
+        <f t="shared" si="94"/>
+        <v>2760</v>
       </c>
       <c r="Q187" s="1">
-        <f t="shared" ref="Q187:Q192" si="100">AVERAGE(O187,P187)</f>
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17" ht="16">
+        <f t="shared" si="95"/>
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" ht="32">
       <c r="A188" s="1">
         <v>14</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="D188" s="1">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E188" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F188" s="1">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="G188" s="1">
-        <f t="shared" si="94"/>
-        <v>25</v>
+        <f t="shared" si="89"/>
+        <v>18</v>
       </c>
       <c r="H188" s="1">
-        <f t="shared" si="95"/>
-        <v>33.75</v>
+        <f t="shared" si="90"/>
+        <v>40.5</v>
       </c>
       <c r="I188" s="1">
-        <f t="shared" si="96"/>
-        <v>42.5</v>
+        <f t="shared" si="91"/>
+        <v>63</v>
       </c>
       <c r="J188" s="1">
-        <f t="shared" si="97"/>
-        <v>60</v>
+        <f t="shared" si="92"/>
+        <v>108</v>
       </c>
       <c r="K188" s="1">
         <v>175</v>
       </c>
       <c r="O188" s="1">
-        <f t="shared" si="98"/>
-        <v>1150</v>
+        <f t="shared" si="93"/>
+        <v>702</v>
       </c>
       <c r="P188" s="1">
-        <f t="shared" si="99"/>
-        <v>2760</v>
+        <f t="shared" si="94"/>
+        <v>4212</v>
       </c>
       <c r="Q188" s="1">
-        <f t="shared" si="100"/>
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="189" spans="1:17" ht="32">
+        <f t="shared" si="95"/>
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" ht="16">
       <c r="A189" s="1">
         <v>14</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="D189" s="1">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E189" s="1">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F189" s="1">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="G189" s="1">
+        <f t="shared" si="89"/>
+        <v>38</v>
+      </c>
+      <c r="H189" s="1">
+        <f t="shared" si="90"/>
+        <v>50.5</v>
+      </c>
+      <c r="I189" s="1">
+        <f t="shared" si="91"/>
+        <v>63</v>
+      </c>
+      <c r="J189" s="1">
+        <f t="shared" si="92"/>
+        <v>88</v>
+      </c>
+      <c r="K189" s="1">
+        <v>185</v>
+      </c>
+      <c r="O189" s="1">
+        <f t="shared" si="93"/>
+        <v>1900</v>
+      </c>
+      <c r="P189" s="1">
         <f t="shared" si="94"/>
-        <v>18</v>
-      </c>
-      <c r="H189" s="1">
+        <v>4400</v>
+      </c>
+      <c r="Q189" s="1">
         <f t="shared" si="95"/>
-        <v>40.5</v>
-      </c>
-      <c r="I189" s="1">
-        <f t="shared" si="96"/>
-        <v>63</v>
-      </c>
-      <c r="J189" s="1">
-        <f t="shared" si="97"/>
-        <v>108</v>
-      </c>
-      <c r="K189" s="1">
-        <v>175</v>
-      </c>
-      <c r="O189" s="1">
-        <f t="shared" si="98"/>
-        <v>702</v>
-      </c>
-      <c r="P189" s="1">
-        <f t="shared" si="99"/>
-        <v>4212</v>
-      </c>
-      <c r="Q189" s="1">
-        <f t="shared" si="100"/>
-        <v>2457</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="190" spans="1:17" ht="16">
@@ -22146,50 +22142,50 @@
         <v>14</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>501</v>
       </c>
       <c r="D190" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E190" s="1">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F190" s="1">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="G190" s="1">
-        <f t="shared" si="94"/>
-        <v>38</v>
+        <f t="shared" si="89"/>
+        <v>33</v>
       </c>
       <c r="H190" s="1">
-        <f t="shared" si="95"/>
-        <v>50.5</v>
+        <f t="shared" si="90"/>
+        <v>52.5</v>
       </c>
       <c r="I190" s="1">
-        <f t="shared" si="96"/>
-        <v>63</v>
+        <f t="shared" si="91"/>
+        <v>72</v>
       </c>
       <c r="J190" s="1">
-        <f t="shared" si="97"/>
-        <v>88</v>
+        <f t="shared" si="92"/>
+        <v>111</v>
       </c>
       <c r="K190" s="1">
         <v>185</v>
       </c>
       <c r="O190" s="1">
-        <f t="shared" si="98"/>
-        <v>1900</v>
+        <f t="shared" si="93"/>
+        <v>1155</v>
       </c>
       <c r="P190" s="1">
-        <f t="shared" si="99"/>
-        <v>4400</v>
+        <f t="shared" si="94"/>
+        <v>3885</v>
       </c>
       <c r="Q190" s="1">
-        <f t="shared" si="100"/>
-        <v>3150</v>
+        <f t="shared" si="95"/>
+        <v>2520</v>
       </c>
     </row>
     <row r="191" spans="1:17" ht="16">
@@ -22197,101 +22193,107 @@
         <v>14</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D191" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E191" s="1">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F191" s="1">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G191" s="1">
+        <f t="shared" si="89"/>
+        <v>40</v>
+      </c>
+      <c r="H191" s="1">
+        <f t="shared" si="90"/>
+        <v>60</v>
+      </c>
+      <c r="I191" s="1">
+        <f t="shared" si="91"/>
+        <v>80</v>
+      </c>
+      <c r="J191" s="1">
+        <f t="shared" si="92"/>
+        <v>120</v>
+      </c>
+      <c r="K191" s="1">
+        <v>195</v>
+      </c>
+      <c r="O191" s="1">
+        <f t="shared" si="93"/>
+        <v>1600</v>
+      </c>
+      <c r="P191" s="1">
         <f t="shared" si="94"/>
-        <v>33</v>
-      </c>
-      <c r="H191" s="1">
+        <v>4800</v>
+      </c>
+      <c r="Q191" s="1">
         <f t="shared" si="95"/>
-        <v>52.5</v>
-      </c>
-      <c r="I191" s="1">
-        <f t="shared" si="96"/>
-        <v>72</v>
-      </c>
-      <c r="J191" s="1">
-        <f t="shared" si="97"/>
-        <v>111</v>
-      </c>
-      <c r="K191" s="1">
-        <v>185</v>
-      </c>
-      <c r="O191" s="1">
-        <f t="shared" si="98"/>
-        <v>1155</v>
-      </c>
-      <c r="P191" s="1">
-        <f t="shared" si="99"/>
-        <v>3885</v>
-      </c>
-      <c r="Q191" s="1">
-        <f t="shared" si="100"/>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17" ht="16">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" ht="162">
       <c r="A192" s="1">
         <v>14</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>571</v>
       </c>
       <c r="D192" s="1">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E192" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F192" s="1">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G192" s="1">
-        <f t="shared" si="94"/>
-        <v>40</v>
+        <f t="shared" ref="G192:G193" si="96">E192</f>
+        <v>20</v>
       </c>
       <c r="H192" s="1">
-        <f t="shared" si="95"/>
-        <v>60</v>
+        <f t="shared" ref="H192:H193" si="97">(F192-E192)*0.25+E192</f>
+        <v>20</v>
       </c>
       <c r="I192" s="1">
-        <f t="shared" si="96"/>
-        <v>80</v>
+        <f t="shared" ref="I192:I193" si="98">(F192-E192)*0.5+E192</f>
+        <v>20</v>
       </c>
       <c r="J192" s="1">
-        <f t="shared" si="97"/>
-        <v>120</v>
+        <f t="shared" ref="J192:J193" si="99">F192</f>
+        <v>20</v>
       </c>
       <c r="K192" s="1">
-        <v>195</v>
+        <v>215</v>
+      </c>
+      <c r="L192" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M192" s="6" t="s">
+        <v>560</v>
       </c>
       <c r="O192" s="1">
-        <f t="shared" si="98"/>
-        <v>1600</v>
+        <f t="shared" ref="O192:O193" si="100">D192*E192</f>
+        <v>20</v>
       </c>
       <c r="P192" s="1">
-        <f t="shared" si="99"/>
-        <v>4800</v>
+        <f t="shared" ref="P192:P193" si="101">D192*F192</f>
+        <v>20</v>
       </c>
       <c r="Q192" s="1">
-        <f t="shared" si="100"/>
-        <v>3200</v>
+        <f t="shared" ref="Q192:Q193" si="102">AVERAGE(O192,P192)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:17" ht="162">
@@ -22299,10 +22301,10 @@
         <v>14</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D193" s="1">
         <v>1</v>
@@ -22314,155 +22316,98 @@
         <v>20</v>
       </c>
       <c r="G193" s="1">
-        <f t="shared" ref="G193:G194" si="101">E193</f>
+        <f t="shared" si="96"/>
         <v>20</v>
       </c>
       <c r="H193" s="1">
-        <f t="shared" ref="H193:H194" si="102">(F193-E193)*0.25+E193</f>
+        <f t="shared" si="97"/>
         <v>20</v>
       </c>
       <c r="I193" s="1">
-        <f t="shared" ref="I193:I194" si="103">(F193-E193)*0.5+E193</f>
+        <f t="shared" si="98"/>
         <v>20</v>
       </c>
       <c r="J193" s="1">
-        <f t="shared" ref="J193:J194" si="104">F193</f>
+        <f t="shared" si="99"/>
         <v>20</v>
       </c>
       <c r="K193" s="1">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="L193" s="6" t="b">
         <v>1</v>
       </c>
       <c r="M193" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="O193" s="1">
-        <f t="shared" ref="O193:O194" si="105">D193*E193</f>
+        <f t="shared" si="100"/>
         <v>20</v>
       </c>
       <c r="P193" s="1">
-        <f t="shared" ref="P193:P194" si="106">D193*F193</f>
+        <f t="shared" si="101"/>
         <v>20</v>
       </c>
       <c r="Q193" s="1">
-        <f t="shared" ref="Q193:Q194" si="107">AVERAGE(O193,P193)</f>
+        <f t="shared" si="102"/>
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="162">
+    <row r="194" spans="1:17" ht="32">
       <c r="A194" s="1">
         <v>14</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>576</v>
+        <v>427</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="D194" s="1">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="E194" s="1">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="F194" s="1">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="G194" s="1">
-        <f t="shared" si="101"/>
-        <v>20</v>
+        <f>E194</f>
+        <v>300</v>
       </c>
       <c r="H194" s="1">
-        <f t="shared" si="102"/>
-        <v>20</v>
+        <f>(F194-E194)*0.25+E194</f>
+        <v>474.75</v>
       </c>
       <c r="I194" s="1">
-        <f t="shared" si="103"/>
-        <v>20</v>
+        <f>(F194-E194)*0.5+E194</f>
+        <v>649.5</v>
       </c>
       <c r="J194" s="1">
-        <f t="shared" si="104"/>
-        <v>20</v>
+        <f>F194</f>
+        <v>999</v>
       </c>
       <c r="K194" s="1">
         <v>230</v>
       </c>
-      <c r="L194" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M194" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="O194" s="1">
-        <f t="shared" si="105"/>
-        <v>20</v>
-      </c>
-      <c r="P194" s="1">
-        <f t="shared" si="106"/>
-        <v>20</v>
-      </c>
-      <c r="Q194" s="1">
-        <f t="shared" si="107"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17" ht="32">
-      <c r="A195" s="1">
-        <v>14</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D195" s="1">
-        <v>222</v>
-      </c>
-      <c r="E195" s="1">
-        <v>300</v>
-      </c>
-      <c r="F195" s="1">
-        <v>999</v>
-      </c>
-      <c r="G195" s="1">
-        <f>E195</f>
-        <v>300</v>
-      </c>
-      <c r="H195" s="1">
-        <f>(F195-E195)*0.25+E195</f>
-        <v>474.75</v>
-      </c>
-      <c r="I195" s="1">
-        <f>(F195-E195)*0.5+E195</f>
-        <v>649.5</v>
-      </c>
-      <c r="J195" s="1">
-        <f>F195</f>
-        <v>999</v>
-      </c>
-      <c r="K195" s="1">
-        <v>230</v>
-      </c>
-      <c r="O195" s="6">
-        <f>D195*E195</f>
+      <c r="O194" s="6">
+        <f>D194*E194</f>
         <v>66600</v>
       </c>
-      <c r="P195" s="6">
-        <f>D195*F195</f>
+      <c r="P194" s="6">
+        <f>D194*F194</f>
         <v>221778</v>
       </c>
-      <c r="Q195" s="8">
-        <f>AVERAGE(O195,P195)</f>
+      <c r="Q194" s="8">
+        <f>AVERAGE(O194,P194)</f>
         <v>144189</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L152">
-    <sortCondition ref="A2:A152"/>
-    <sortCondition ref="K2:K152"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L151">
+    <sortCondition ref="A2:A151"/>
+    <sortCondition ref="K2:K151"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22474,9 +22419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A7FBE3-B656-4EC5-AF69-64ED1D5A6239}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -22488,7 +22433,7 @@
     <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="24.1640625" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16">
@@ -22505,7 +22450,7 @@
         <v>232</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>252</v>
@@ -22514,16 +22459,16 @@
         <v>322</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>636</v>
@@ -22540,7 +22485,7 @@
         <v>161</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
@@ -22555,19 +22500,19 @@
         <v>324</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E3" s="24">
         <v>500</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -22818,7 +22763,7 @@
         <v>231</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -22836,16 +22781,16 @@
         <v>398</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -22862,16 +22807,16 @@
         <v>399</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -22888,10 +22833,10 @@
         <v>229</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -22954,10 +22899,10 @@
         <v>250</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -23122,7 +23067,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="32">
@@ -23136,7 +23081,7 @@
         <v>303</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E29" s="1">
         <v>3000</v>
@@ -23156,7 +23101,7 @@
         <v>303</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E30" s="1">
         <v>3000</v>
@@ -23265,7 +23210,7 @@
         <v>303</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E35" s="25">
         <v>5000</v>
@@ -23276,16 +23221,16 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C36" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D36" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E36">
         <v>30</v>
@@ -23299,16 +23244,16 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C37" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D37" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E37">
         <v>60</v>
@@ -23322,16 +23267,16 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C38" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D38" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E38">
         <v>90</v>
@@ -23345,16 +23290,16 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C39" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D39" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E39">
         <v>120</v>
@@ -23368,16 +23313,16 @@
     </row>
     <row r="40" spans="1:12" ht="17">
       <c r="A40" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D40" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -23394,16 +23339,16 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C41" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D41" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -23420,19 +23365,19 @@
         <v>400</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C42" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>418</v>
-      </c>
       <c r="D42" s="17" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E42" s="1">
         <v>50</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -23442,16 +23387,16 @@
     </row>
     <row r="43" spans="1:12" s="3" customFormat="1" ht="16">
       <c r="A43" s="1" t="s">
-        <v>401</v>
+        <v>601</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>419</v>
+        <v>602</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>420</v>
+        <v>603</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>422</v>
+        <v>604</v>
       </c>
       <c r="E43" s="1">
         <v>36</v>
@@ -23470,7 +23415,7 @@
       <c r="B44" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="29" t="s">
         <v>607</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -23493,7 +23438,7 @@
       <c r="B45" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="29" t="s">
         <v>607</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -23608,10 +23553,10 @@
       <c r="B50" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="D50" s="30" t="s">
+      <c r="C50" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="D50" s="31" t="s">
         <v>630</v>
       </c>
       <c r="E50" s="1">
@@ -23634,7 +23579,7 @@
       <c r="B51" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="32" t="s">
         <v>633</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -23661,13 +23606,13 @@
         <v>635</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>303</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -23678,16 +23623,16 @@
     </row>
     <row r="53" spans="1:12" ht="144">
       <c r="A53" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B53" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E53" s="1">
         <v>20</v>
@@ -23701,16 +23646,16 @@
     </row>
     <row r="54" spans="1:12" ht="144">
       <c r="A54" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B54" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E54" s="1">
         <v>20</v>
@@ -23724,16 +23669,16 @@
     </row>
     <row r="55" spans="1:12" ht="144">
       <c r="A55" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B55" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E55" s="1">
         <v>20</v>
@@ -23747,16 +23692,16 @@
     </row>
     <row r="56" spans="1:12" ht="144">
       <c r="A56" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B56" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E56" s="1">
         <v>20</v>
@@ -23770,16 +23715,16 @@
     </row>
     <row r="57" spans="1:12" ht="144">
       <c r="A57" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B57" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E57" s="1">
         <v>20</v>
@@ -23793,16 +23738,16 @@
     </row>
     <row r="58" spans="1:12" ht="144">
       <c r="A58" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B58" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E58" s="1">
         <v>20</v>
@@ -23816,16 +23761,16 @@
     </row>
     <row r="59" spans="1:12" ht="144">
       <c r="A59" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B59" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E59" s="1">
         <v>20</v>
@@ -23839,16 +23784,16 @@
     </row>
     <row r="60" spans="1:12" ht="144">
       <c r="A60" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B60" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E60" s="1">
         <v>20</v>
@@ -23862,16 +23807,16 @@
     </row>
     <row r="61" spans="1:12" ht="144">
       <c r="A61" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B61" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E61" s="1">
         <v>20</v>
@@ -23885,16 +23830,16 @@
     </row>
     <row r="62" spans="1:12" ht="144">
       <c r="A62" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B62" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E62" s="1">
         <v>20</v>
@@ -23908,16 +23853,16 @@
     </row>
     <row r="63" spans="1:12" ht="48">
       <c r="A63" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
@@ -23953,73 +23898,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="32" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="H1" s="32"/>
+      <c r="A1" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="16">
       <c r="A2" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16">
       <c r="A3" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Project/github/HuYanEconomy/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8CA278-6206-D541-A342-5797FDB7166D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94AAE3A-B697-6D4C-B383-E9ABAFA5B21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-280" yWindow="4440" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鱼" sheetId="1" r:id="rId1"/>
@@ -11401,9 +11401,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -11415,6 +11412,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22420,8 +22420,8 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -22541,6 +22541,9 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="32">
       <c r="A5" s="1" t="s">
@@ -22562,6 +22565,9 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="32">
       <c r="A6" s="1" t="s">
@@ -22583,6 +22589,9 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="32">
       <c r="A7" s="1" t="s">
@@ -22604,6 +22613,9 @@
       <c r="G7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="1" t="s">
@@ -22625,6 +22637,9 @@
       <c r="G8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="16">
       <c r="A9" s="1" t="s">
@@ -22646,6 +22661,9 @@
       <c r="G9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="17">
       <c r="A10" s="1" t="s">
@@ -22667,6 +22685,9 @@
       <c r="G10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="16">
       <c r="A11" s="1" t="s">
@@ -22688,6 +22709,9 @@
       <c r="G11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="16">
       <c r="A12" s="1" t="s">
@@ -22709,6 +22733,9 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="16">
       <c r="A13" s="1" t="s">
@@ -22730,6 +22757,9 @@
       <c r="G13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="16">
       <c r="A14" s="1" t="s">
@@ -22751,6 +22781,9 @@
       <c r="G14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="32">
       <c r="A15" s="1" t="s">
@@ -22772,6 +22805,9 @@
       <c r="G15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="32">
       <c r="A16" s="1" t="s">
@@ -22799,7 +22835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="32">
+    <row r="17" spans="1:11" ht="32">
       <c r="A17" s="1" t="s">
         <v>338</v>
       </c>
@@ -22825,7 +22861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="48">
+    <row r="18" spans="1:11" ht="48">
       <c r="A18" s="1" t="s">
         <v>339</v>
       </c>
@@ -22849,7 +22885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="32">
+    <row r="19" spans="1:11" ht="32">
       <c r="A19" s="1" t="s">
         <v>340</v>
       </c>
@@ -22869,8 +22905,11 @@
       <c r="G19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="32">
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="32">
       <c r="A20" s="1" t="s">
         <v>341</v>
       </c>
@@ -22890,8 +22929,11 @@
       <c r="G20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="409.6">
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="409.6">
       <c r="A21" s="1" t="s">
         <v>342</v>
       </c>
@@ -22917,7 +22959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="32">
+    <row r="22" spans="1:11" ht="32">
       <c r="A22" s="1" t="s">
         <v>343</v>
       </c>
@@ -22937,7 +22979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="409.6">
+    <row r="23" spans="1:11" ht="409.6">
       <c r="A23" s="1" t="s">
         <v>344</v>
       </c>
@@ -22960,7 +23002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="409.6">
+    <row r="24" spans="1:11" ht="409.6">
       <c r="A24" s="1" t="s">
         <v>345</v>
       </c>
@@ -22983,7 +23025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16">
+    <row r="25" spans="1:11" ht="16">
       <c r="A25" s="1" t="s">
         <v>346</v>
       </c>
@@ -23004,7 +23046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="32">
+    <row r="26" spans="1:11" ht="32">
       <c r="A26" s="1" t="s">
         <v>347</v>
       </c>
@@ -23024,7 +23066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="32">
+    <row r="27" spans="1:11" ht="32">
       <c r="A27" s="1" t="s">
         <v>348</v>
       </c>
@@ -23044,7 +23086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="32">
+    <row r="28" spans="1:11" ht="32">
       <c r="A28" s="1" t="s">
         <v>349</v>
       </c>
@@ -23070,7 +23112,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="32">
+    <row r="29" spans="1:11" ht="32">
       <c r="A29" s="1" t="s">
         <v>350</v>
       </c>
@@ -23090,7 +23132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="32">
+    <row r="30" spans="1:11" ht="32">
       <c r="A30" s="1" t="s">
         <v>351</v>
       </c>
@@ -23110,7 +23152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="32">
+    <row r="31" spans="1:11" ht="32">
       <c r="A31" s="1" t="s">
         <v>352</v>
       </c>
@@ -23130,7 +23172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16">
+    <row r="32" spans="1:11" ht="16">
       <c r="A32" s="1" t="s">
         <v>355</v>
       </c>
@@ -23415,7 +23457,7 @@
       <c r="B44" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="28" t="s">
         <v>607</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -23438,7 +23480,7 @@
       <c r="B45" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="28" t="s">
         <v>607</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -23553,10 +23595,10 @@
       <c r="B50" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="30" t="s">
         <v>630</v>
       </c>
       <c r="E50" s="1">
@@ -23579,7 +23621,7 @@
       <c r="B51" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="31" t="s">
         <v>633</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -23898,22 +23940,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="16">
       <c r="A2" s="1" t="s">

--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangyi/Project/github/HuYanEconomy/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7763CB-8A92-274D-AB82-F5BF4B4B44E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88006536-A928-BC4A-9A3C-9DDC1D8E54EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31253,7 +31253,7 @@
   <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
